--- a/LeetCode Tracker.xlsx
+++ b/LeetCode Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leon\Desktop\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{878D570D-FA0B-48FA-9447-10E4DC2D5986}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E974E8E-2A73-49F7-98D0-0BCF69B7171D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2FA590F6-CEBE-453D-A814-55EB366ADEEE}"/>
   </bookViews>
@@ -38,9 +38,6 @@
     <t>LeetCode Problems</t>
   </si>
   <si>
-    <t>Question</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
@@ -87,6 +84,9 @@
   </si>
   <si>
     <t>Difficulty</t>
+  </si>
+  <si>
+    <t>Problem</t>
   </si>
 </sst>
 </file>
@@ -185,32 +185,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
@@ -222,13 +208,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -552,7 +531,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -564,75 +543,75 @@
     <col min="5" max="5" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.85546875" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>1</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -640,25 +619,25 @@
         <v>334</v>
       </c>
       <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="5" t="s">
         <v>9</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -666,25 +645,25 @@
         <v>541</v>
       </c>
       <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="5" t="s">
         <v>12</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -692,13 +671,13 @@
     <mergeCell ref="A1:H4"/>
   </mergeCells>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="Easy">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="Easy">
       <formula>NOT(ISERROR(SEARCH("Easy",C1)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Hard">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Hard">
       <formula>NOT(ISERROR(SEARCH("Hard",C1)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/LeetCode Tracker.xlsx
+++ b/LeetCode Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leon\Desktop\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E974E8E-2A73-49F7-98D0-0BCF69B7171D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3562DAFF-5F0C-464F-A1F4-A5332DD359C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2FA590F6-CEBE-453D-A814-55EB366ADEEE}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
   <si>
     <t>LeetCode Problems</t>
   </si>
@@ -62,18 +62,12 @@
     <t>O(1)</t>
   </si>
   <si>
-    <t>Need to find another optimal soution</t>
-  </si>
-  <si>
     <t>Reverse String II</t>
   </si>
   <si>
     <t>Accepted</t>
   </si>
   <si>
-    <t>Need to understand optimal solution</t>
-  </si>
-  <si>
     <t>Title</t>
   </si>
   <si>
@@ -87,13 +81,43 @@
   </si>
   <si>
     <t>Problem</t>
+  </si>
+  <si>
+    <t>Reverse Vowels of String</t>
+  </si>
+  <si>
+    <t>Phase 1</t>
+  </si>
+  <si>
+    <t>Phase 2</t>
+  </si>
+  <si>
+    <t>Phase 3</t>
+  </si>
+  <si>
+    <t>Find Optimal Solution</t>
+  </si>
+  <si>
+    <t>Understand Optimal solution</t>
+  </si>
+  <si>
+    <t>Understand Time/Space Complexity</t>
+  </si>
+  <si>
+    <t>Phase 1 - 2</t>
+  </si>
+  <si>
+    <t>Phase 2 - 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phase 2 -3 </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,6 +128,14 @@
     <font>
       <b/>
       <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -174,7 +206,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -192,6 +224,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -200,7 +238,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -214,7 +252,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF92D050"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -528,10 +566,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CECAF50C-0FA8-4FE8-AF1F-0197AD9DA707}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -544,9 +582,11 @@
     <col min="6" max="6" width="16.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="34.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="33.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -557,8 +597,12 @@
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
+      <c r="K1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="8"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -567,8 +611,10 @@
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -577,8 +623,14 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
+      <c r="K3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -587,19 +639,25 @@
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
+      <c r="K4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>3</v>
@@ -613,10 +671,16 @@
       <c r="H5" s="4" t="s">
         <v>1</v>
       </c>
+      <c r="K5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -625,10 +689,10 @@
         <v>2</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>7</v>
@@ -637,24 +701,24 @@
         <v>8</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>541</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>7</v>
@@ -663,22 +727,49 @@
         <v>7</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>12</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>345</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:H4"/>
+    <mergeCell ref="K1:L2"/>
   </mergeCells>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="Easy">
-      <formula>NOT(ISERROR(SEARCH("Easy",C1)))</formula>
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Hard">
+      <formula>NOT(ISERROR(SEARCH("Hard",C1)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Hard">
-      <formula>NOT(ISERROR(SEARCH("Hard",C1)))</formula>
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="Easy">
+      <formula>NOT(ISERROR(SEARCH("Easy",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LeetCode Tracker.xlsx
+++ b/LeetCode Tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leon\Desktop\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3562DAFF-5F0C-464F-A1F4-A5332DD359C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3DE8717-E18C-4BEE-B68B-8BA35B5ED328}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2FA590F6-CEBE-453D-A814-55EB366ADEEE}"/>
+    <workbookView xWindow="4560" yWindow="105" windowWidth="19635" windowHeight="7095" xr2:uid="{2FA590F6-CEBE-453D-A814-55EB366ADEEE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
   <si>
     <t>LeetCode Problems</t>
   </si>
@@ -111,6 +111,15 @@
   </si>
   <si>
     <t xml:space="preserve">Phase 2 -3 </t>
+  </si>
+  <si>
+    <t>Reverse Words in a String III</t>
+  </si>
+  <si>
+    <t>O(n^2)</t>
+  </si>
+  <si>
+    <t>Phase 2-3</t>
   </si>
 </sst>
 </file>
@@ -221,11 +230,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -566,10 +575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CECAF50C-0FA8-4FE8-AF1F-0197AD9DA707}">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -587,42 +596,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
       <c r="K1" s="8" t="s">
         <v>1</v>
       </c>
       <c r="L1" s="8"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
       <c r="K3" s="1" t="s">
         <v>17</v>
       </c>
@@ -631,14 +640,14 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
       <c r="K4" s="1" t="s">
         <v>18</v>
       </c>
@@ -671,7 +680,7 @@
       <c r="H5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="K5" s="6" t="s">
         <v>19</v>
       </c>
       <c r="L5" t="s">
@@ -754,6 +763,32 @@
       </c>
       <c r="H8" s="5" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>557</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/LeetCode Tracker.xlsx
+++ b/LeetCode Tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leon\Desktop\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3DE8717-E18C-4BEE-B68B-8BA35B5ED328}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D237F2A7-6701-4B97-A61B-733161B98707}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4560" yWindow="105" windowWidth="19635" windowHeight="7095" xr2:uid="{2FA590F6-CEBE-453D-A814-55EB366ADEEE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2FA590F6-CEBE-453D-A814-55EB366ADEEE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="31">
   <si>
     <t>LeetCode Problems</t>
   </si>
@@ -120,6 +120,12 @@
   </si>
   <si>
     <t>Phase 2-3</t>
+  </si>
+  <si>
+    <t>Delete Node in Linked List</t>
+  </si>
+  <si>
+    <t>LinkedList</t>
   </si>
 </sst>
 </file>
@@ -575,10 +581,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CECAF50C-0FA8-4FE8-AF1F-0197AD9DA707}">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -789,6 +795,32 @@
       </c>
       <c r="H9" s="5" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>237</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/LeetCode Tracker.xlsx
+++ b/LeetCode Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leon\Desktop\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D237F2A7-6701-4B97-A61B-733161B98707}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7AC8A6B-C38F-456B-8389-9A4094636616}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2FA590F6-CEBE-453D-A814-55EB366ADEEE}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="40">
   <si>
     <t>LeetCode Problems</t>
   </si>
@@ -126,6 +126,33 @@
   </si>
   <si>
     <t>LinkedList</t>
+  </si>
+  <si>
+    <t>Single Number</t>
+  </si>
+  <si>
+    <t>Bit Manupilation</t>
+  </si>
+  <si>
+    <t>Phase 4</t>
+  </si>
+  <si>
+    <t>Go back to Step 2</t>
+  </si>
+  <si>
+    <t>Phase 5</t>
+  </si>
+  <si>
+    <t>Completion of all phases</t>
+  </si>
+  <si>
+    <t>Phase 6</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Phase 3-4</t>
   </si>
 </sst>
 </file>
@@ -581,10 +608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CECAF50C-0FA8-4FE8-AF1F-0197AD9DA707}">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -718,6 +745,12 @@
       <c r="H6" s="5" t="s">
         <v>23</v>
       </c>
+      <c r="K6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L6" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -744,6 +777,12 @@
       <c r="H7" s="5" t="s">
         <v>24</v>
       </c>
+      <c r="K7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L7" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
@@ -770,6 +809,12 @@
       <c r="H8" s="5" t="s">
         <v>25</v>
       </c>
+      <c r="K8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L8" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -820,7 +865,33 @@
         <v>8</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>19</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>136</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/LeetCode Tracker.xlsx
+++ b/LeetCode Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leon\Desktop\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7AC8A6B-C38F-456B-8389-9A4094636616}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0AC733B-3C36-43C2-B97C-E004E786D59A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2FA590F6-CEBE-453D-A814-55EB366ADEEE}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="41">
   <si>
     <t>LeetCode Problems</t>
   </si>
@@ -153,6 +153,9 @@
   </si>
   <si>
     <t>Phase 3-4</t>
+  </si>
+  <si>
+    <t>Reverse Linked List</t>
   </si>
 </sst>
 </file>
@@ -608,10 +611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CECAF50C-0FA8-4FE8-AF1F-0197AD9DA707}">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -892,6 +895,32 @@
       </c>
       <c r="H11" s="5" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>206</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/LeetCode Tracker.xlsx
+++ b/LeetCode Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leon\Desktop\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0AC733B-3C36-43C2-B97C-E004E786D59A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{871DDB86-8A0B-4FE9-8EDE-D25C8DE2DA4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2FA590F6-CEBE-453D-A814-55EB366ADEEE}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="42">
   <si>
     <t>LeetCode Problems</t>
   </si>
@@ -156,6 +156,9 @@
   </si>
   <si>
     <t>Reverse Linked List</t>
+  </si>
+  <si>
+    <t>Merge Two Sorted Linked List</t>
   </si>
 </sst>
 </file>
@@ -611,10 +614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CECAF50C-0FA8-4FE8-AF1F-0197AD9DA707}">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -920,6 +923,32 @@
         <v>8</v>
       </c>
       <c r="H12" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>21</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="5" t="s">
         <v>39</v>
       </c>
     </row>

--- a/LeetCode Tracker.xlsx
+++ b/LeetCode Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leon\Desktop\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{871DDB86-8A0B-4FE9-8EDE-D25C8DE2DA4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E79DA882-D53F-4479-9145-BB93C834D9E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2FA590F6-CEBE-453D-A814-55EB366ADEEE}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="54">
   <si>
     <t>LeetCode Problems</t>
   </si>
@@ -131,9 +131,6 @@
     <t>Single Number</t>
   </si>
   <si>
-    <t>Bit Manupilation</t>
-  </si>
-  <si>
     <t>Phase 4</t>
   </si>
   <si>
@@ -159,6 +156,45 @@
   </si>
   <si>
     <t>Merge Two Sorted Linked List</t>
+  </si>
+  <si>
+    <t>Number of Good Pairs</t>
+  </si>
+  <si>
+    <t>Math/Arrays/HashMap</t>
+  </si>
+  <si>
+    <t>Phase</t>
+  </si>
+  <si>
+    <t>***This is not easy, new method to count elements in array.</t>
+  </si>
+  <si>
+    <t>Bit Manipulation</t>
+  </si>
+  <si>
+    <t>This is new chapter. Haven't learn yet. Brute force solution is better than all 3 previous solution except Bit Manipulation method.</t>
+  </si>
+  <si>
+    <t>This is complicated. Need to understand why for loop loops through (2*k). Example: for(int i=0; i&lt;arr.length; i+=2*k);</t>
+  </si>
+  <si>
+    <t>This is to looping by counting space, then after counted the first space, then start reversing the first word, then continue to next space. Still need to try optimal solution if possible.</t>
+  </si>
+  <si>
+    <t>This is basic, just reverse all the string with two pointers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is straightforward. I just take out the vowels into another array. Then re-insert by decrement for loop to the actual string. Should have another optimal solution. </t>
+  </si>
+  <si>
+    <t>Short code as well but need to understand foundation concept.</t>
+  </si>
+  <si>
+    <t>Even though code is short, need to understand solution.</t>
+  </si>
+  <si>
+    <t>Could use the MergeSort but be clear minded on LinkList.</t>
   </si>
 </sst>
 </file>
@@ -198,7 +234,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -210,21 +246,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -250,11 +271,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -265,18 +306,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -614,350 +690,442 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CECAF50C-0FA8-4FE8-AF1F-0197AD9DA707}">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="37.85546875" style="7" customWidth="1"/>
+    <col min="12" max="12" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="33.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="K1" s="8" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="13"/>
+      <c r="L1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="8"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="K3" s="1" t="s">
+      <c r="M1" s="11"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="15"/>
+      <c r="L2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="K4" s="1" t="s">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="15"/>
+      <c r="L3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="15"/>
+      <c r="L4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="16"/>
+      <c r="L5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="16"/>
+      <c r="L6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="18"/>
+      <c r="L7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I8" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="K5" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="L5" t="s">
+    </row>
+    <row r="9" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="9">
+        <v>344</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
+        <v>541</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <v>345</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" s="19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
+        <v>557</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" s="19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="9">
+        <v>237</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" s="19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
+        <v>136</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" s="19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
+        <v>206</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I15" s="19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>344</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B16" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="2" t="s">
+      <c r="D16" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F16" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G16" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="L6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>541</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="H16" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I16" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="9">
+        <v>1512</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="2" t="s">
+      <c r="D17" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F17" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G17" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>345</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L8" t="s">
+      <c r="H17" s="8" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>557</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>237</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>136</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>206</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>21</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>39</v>
+      <c r="I17" s="19" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:H4"/>
-    <mergeCell ref="K1:L2"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="A1:I7"/>
   </mergeCells>
-  <conditionalFormatting sqref="C1:C1048576">
+  <conditionalFormatting sqref="C1:C4 C8:C1048576">
     <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Hard">
       <formula>NOT(ISERROR(SEARCH("Hard",C1)))</formula>
     </cfRule>

--- a/LeetCode Tracker.xlsx
+++ b/LeetCode Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leon\Desktop\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E79DA882-D53F-4479-9145-BB93C834D9E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2BFFFA8-B8AF-4EE4-A4E3-744B444F9BD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2FA590F6-CEBE-453D-A814-55EB366ADEEE}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="58">
   <si>
     <t>LeetCode Problems</t>
   </si>
@@ -195,6 +195,19 @@
   </si>
   <si>
     <t>Could use the MergeSort but be clear minded on LinkList.</t>
+  </si>
+  <si>
+    <t>Merge Sorted Arrays</t>
+  </si>
+  <si>
+    <t>Arrays/Two Pointers</t>
+  </si>
+  <si>
+    <t>O(m+n)</t>
+  </si>
+  <si>
+    <t>***This is really important. Even though acceptance rate is low, need to remember how to do it and understand problem properly. This problem is between pointers and need to be clear position of pointers. This is array m+n. 
+Hint: Try to insert elements in decrement order.</t>
   </si>
 </sst>
 </file>
@@ -295,14 +308,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -312,21 +322,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -351,7 +355,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -690,54 +697,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CECAF50C-0FA8-4FE8-AF1F-0197AD9DA707}">
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="37.85546875" style="7" customWidth="1"/>
+    <col min="1" max="1" width="8.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="61.28515625" style="6" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="33.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="13"/>
-      <c r="L1" s="6" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="10"/>
+      <c r="L1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="11"/>
+      <c r="M1" s="8"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="15"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="12"/>
       <c r="L2" s="1" t="s">
         <v>17</v>
       </c>
@@ -746,15 +753,15 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="15"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="12"/>
       <c r="L3" s="1" t="s">
         <v>18</v>
       </c>
@@ -763,16 +770,16 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="15"/>
-      <c r="L4" s="5" t="s">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="12"/>
+      <c r="L4" s="4" t="s">
         <v>19</v>
       </c>
       <c r="M4" t="s">
@@ -780,15 +787,15 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="16"/>
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="13"/>
       <c r="L5" s="1" t="s">
         <v>32</v>
       </c>
@@ -797,15 +804,15 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="16"/>
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="13"/>
       <c r="L6" s="1" t="s">
         <v>34</v>
       </c>
@@ -814,15 +821,15 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="18"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="15"/>
       <c r="L7" s="1" t="s">
         <v>36</v>
       </c>
@@ -831,293 +838,322 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I8" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
+      <c r="A9" s="16">
         <v>344</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I9" s="19" t="s">
+      <c r="I9" s="6" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
+      <c r="A10" s="16">
         <v>541</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="I10" s="19" t="s">
+      <c r="I10" s="6" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
+      <c r="A11" s="16">
         <v>345</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="H11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I11" s="19" t="s">
+      <c r="I11" s="6" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A12" s="9">
+      <c r="A12" s="16">
         <v>557</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="H12" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="I12" s="19" t="s">
+      <c r="I12" s="6" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="9">
+      <c r="A13" s="16">
         <v>237</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="G13" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H13" s="8" t="s">
+      <c r="H13" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="I13" s="19" t="s">
+      <c r="I13" s="6" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A14" s="9">
+      <c r="A14" s="16">
         <v>136</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G14" s="8" t="s">
+      <c r="G14" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="8" t="s">
+      <c r="H14" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="I14" s="19" t="s">
+      <c r="I14" s="6" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="9">
+      <c r="A15" s="16">
         <v>206</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="F15" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G15" s="8" t="s">
+      <c r="G15" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H15" s="8" t="s">
+      <c r="H15" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="I15" s="19" t="s">
+      <c r="I15" s="6" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="9">
+      <c r="A16" s="16">
         <v>21</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="F16" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G16" s="8" t="s">
+      <c r="G16" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H16" s="8" t="s">
+      <c r="H16" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="I16" s="19" t="s">
+      <c r="I16" s="6" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="9">
+      <c r="A17" s="16">
         <v>1512</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="F17" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="G17" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H17" s="8" t="s">
+      <c r="H17" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="I17" s="19" t="s">
+      <c r="I17" s="6" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A18" s="16">
+        <v>88</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/LeetCode Tracker.xlsx
+++ b/LeetCode Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leon\Desktop\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2BFFFA8-B8AF-4EE4-A4E3-744B444F9BD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B387119-B40C-4D19-81F3-B57C949650D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2FA590F6-CEBE-453D-A814-55EB366ADEEE}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="61">
   <si>
     <t>LeetCode Problems</t>
   </si>
@@ -208,6 +208,15 @@
   <si>
     <t>***This is really important. Even though acceptance rate is low, need to remember how to do it and understand problem properly. This problem is between pointers and need to be clear position of pointers. This is array m+n. 
 Hint: Try to insert elements in decrement order.</t>
+  </si>
+  <si>
+    <t>Two Sums</t>
+  </si>
+  <si>
+    <t>Arrays/HashMap</t>
+  </si>
+  <si>
+    <t>***This is an important interview question as well. Because it is between x=target -y; inserting the elements into HashMap and compare from there. It seems that second part is two pointers but need to figure out how to do binary search first, since second part will always be sorted.</t>
   </si>
 </sst>
 </file>
@@ -328,6 +337,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -354,12 +369,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -697,16 +706,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CECAF50C-0FA8-4FE8-AF1F-0197AD9DA707}">
-  <dimension ref="A1:M18"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" style="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.28515625" style="5" bestFit="1" customWidth="1"/>
@@ -719,32 +728,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="10"/>
-      <c r="L1" s="7" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="12"/>
+      <c r="L1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="8"/>
+      <c r="M1" s="10"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="12"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="14"/>
       <c r="L2" s="1" t="s">
         <v>17</v>
       </c>
@@ -753,15 +762,15 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="12"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="14"/>
       <c r="L3" s="1" t="s">
         <v>18</v>
       </c>
@@ -770,15 +779,15 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="12"/>
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="14"/>
       <c r="L4" s="4" t="s">
         <v>19</v>
       </c>
@@ -787,15 +796,15 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="13"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="15"/>
       <c r="L5" s="1" t="s">
         <v>32</v>
       </c>
@@ -804,15 +813,15 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="13"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="15"/>
       <c r="L6" s="1" t="s">
         <v>34</v>
       </c>
@@ -821,15 +830,15 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="15"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="17"/>
       <c r="L7" s="1" t="s">
         <v>36</v>
       </c>
@@ -867,16 +876,16 @@
       </c>
     </row>
     <row r="9" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="16">
+      <c r="A9" s="7">
         <v>344</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E9" s="5" t="s">
@@ -896,16 +905,16 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="16">
+      <c r="A10" s="7">
         <v>541</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E10" s="5" t="s">
@@ -925,16 +934,16 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A11" s="16">
+      <c r="A11" s="7">
         <v>345</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="7" t="s">
         <v>16</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E11" s="5" t="s">
@@ -954,16 +963,16 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A12" s="16">
+      <c r="A12" s="7">
         <v>557</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E12" s="5" t="s">
@@ -983,16 +992,16 @@
       </c>
     </row>
     <row r="13" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="16">
+      <c r="A13" s="7">
         <v>237</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="7" t="s">
         <v>29</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="7" t="s">
         <v>30</v>
       </c>
       <c r="E13" s="5" t="s">
@@ -1012,16 +1021,16 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="60" x14ac:dyDescent="0.25">
-      <c r="A14" s="16">
+      <c r="A14" s="7">
         <v>136</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="7" t="s">
         <v>31</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="7" t="s">
         <v>45</v>
       </c>
       <c r="E14" s="5" t="s">
@@ -1041,16 +1050,16 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="16">
+      <c r="A15" s="7">
         <v>206</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="7" t="s">
         <v>39</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="7" t="s">
         <v>30</v>
       </c>
       <c r="E15" s="5" t="s">
@@ -1070,16 +1079,16 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="16">
+      <c r="A16" s="7">
         <v>21</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="7" t="s">
         <v>40</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="7" t="s">
         <v>30</v>
       </c>
       <c r="E16" s="5" t="s">
@@ -1099,16 +1108,16 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="16">
+      <c r="A17" s="7">
         <v>1512</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="7" t="s">
         <v>41</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="7" t="s">
         <v>42</v>
       </c>
       <c r="E17" s="5" t="s">
@@ -1128,10 +1137,10 @@
       </c>
     </row>
     <row r="18" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A18" s="16">
+      <c r="A18" s="7">
         <v>88</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="7" t="s">
         <v>54</v>
       </c>
       <c r="C18" s="5" t="s">
@@ -1154,6 +1163,35 @@
       </c>
       <c r="I18" s="6" t="s">
         <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
+        <v>1</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/LeetCode Tracker.xlsx
+++ b/LeetCode Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leon\Desktop\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B387119-B40C-4D19-81F3-B57C949650D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4A9BEC3-C8E7-4291-99D3-87C9CCB9078C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2FA590F6-CEBE-453D-A814-55EB366ADEEE}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="76">
   <si>
     <t>LeetCode Problems</t>
   </si>
@@ -217,6 +217,51 @@
   </si>
   <si>
     <t>***This is an important interview question as well. Because it is between x=target -y; inserting the elements into HashMap and compare from there. It seems that second part is two pointers but need to figure out how to do binary search first, since second part will always be sorted.</t>
+  </si>
+  <si>
+    <t>Valid Palindrome</t>
+  </si>
+  <si>
+    <t>O(n)?</t>
+  </si>
+  <si>
+    <t>***This is very very important!! Even though most of the people did Brute force, it is still better to find optimal solution. The Optimal Solution is testing to see if you really understand programming language in classes or not. Should really understand how the optimal solution works.</t>
+  </si>
+  <si>
+    <t>Linked List Cycle</t>
+  </si>
+  <si>
+    <t>***This is technically using two pointers to detect where each will be. This is hard because cannot think of cycle where two pointers will meet. Most probably would need to rethink or train self to count/understand how the cycle would work.</t>
+  </si>
+  <si>
+    <t>Tried</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t># Visited</t>
+  </si>
+  <si>
+    <t>Time Taken (min)</t>
+  </si>
+  <si>
+    <t>Solved</t>
+  </si>
+  <si>
+    <t>Intersection of Two LinkedList</t>
+  </si>
+  <si>
+    <t>RunTime</t>
+  </si>
+  <si>
+    <t>Yes/No</t>
+  </si>
+  <si>
+    <t>***This is a very good question. At least, the solution has been understood, however, do not underestimate and keep practicing and try it again, try to understand it better so it becomes a habit to solve it.</t>
   </si>
 </sst>
 </file>
@@ -241,7 +286,7 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -317,7 +362,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -343,12 +388,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -361,6 +406,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -369,6 +417,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -706,10 +757,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CECAF50C-0FA8-4FE8-AF1F-0197AD9DA707}">
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:Q22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="15" ySplit="8" topLeftCell="P21" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="P1" sqref="P1"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomRight" activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -718,16 +772,21 @@
     <col min="2" max="2" width="27.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.140625" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.85546875" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="61.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="59.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="33.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="33.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -738,13 +797,18 @@
       <c r="F1" s="11"/>
       <c r="G1" s="11"/>
       <c r="H1" s="11"/>
-      <c r="I1" s="12"/>
-      <c r="L1" s="9" t="s">
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="12"/>
+      <c r="O1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="10"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P1" s="19"/>
+      <c r="Q1" s="10"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="13"/>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
@@ -753,15 +817,19 @@
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
       <c r="H2" s="13"/>
-      <c r="I2" s="14"/>
-      <c r="L2" s="1" t="s">
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="14"/>
+      <c r="O2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="M2" t="s">
+      <c r="P2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="13"/>
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
@@ -770,15 +838,19 @@
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
-      <c r="I3" s="14"/>
-      <c r="L3" s="1" t="s">
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="14"/>
+      <c r="O3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="M3" t="s">
+      <c r="P3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="13"/>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
@@ -787,66 +859,82 @@
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
-      <c r="I4" s="14"/>
-      <c r="L4" s="4" t="s">
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="14"/>
+      <c r="O4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="M4" t="s">
+      <c r="P4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
       <c r="I5" s="15"/>
-      <c r="L5" s="1" t="s">
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="16"/>
+      <c r="O5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="M5" t="s">
+      <c r="P5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
       <c r="I6" s="15"/>
-      <c r="L6" s="1" t="s">
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="16"/>
+      <c r="O6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="M6" t="s">
+      <c r="P6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
       <c r="I7" s="17"/>
-      <c r="L7" s="1" t="s">
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="18"/>
+      <c r="O7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="M7" t="s">
+      <c r="P7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
@@ -871,11 +959,23 @@
       <c r="H8" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="M8" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>344</v>
       </c>
@@ -900,11 +1000,23 @@
       <c r="H9" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="I9" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="K9" s="9">
+        <v>60</v>
+      </c>
+      <c r="L9" s="9">
+        <v>2</v>
+      </c>
+      <c r="M9" s="6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>541</v>
       </c>
@@ -929,11 +1041,23 @@
       <c r="H10" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="I10" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="K10" s="9">
+        <v>60</v>
+      </c>
+      <c r="L10" s="9">
+        <v>2</v>
+      </c>
+      <c r="M10" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>345</v>
       </c>
@@ -958,11 +1082,23 @@
       <c r="H11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I11" s="6" t="s">
+      <c r="I11" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="K11" s="9">
+        <v>60</v>
+      </c>
+      <c r="L11" s="9">
+        <v>2</v>
+      </c>
+      <c r="M11" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>557</v>
       </c>
@@ -987,11 +1123,23 @@
       <c r="H12" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="I12" s="6" t="s">
+      <c r="I12" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="K12" s="9">
+        <v>60</v>
+      </c>
+      <c r="L12" s="9">
+        <v>2</v>
+      </c>
+      <c r="M12" s="6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>237</v>
       </c>
@@ -1016,11 +1164,23 @@
       <c r="H13" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="I13" s="6" t="s">
+      <c r="I13" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="K13" s="9">
+        <v>60</v>
+      </c>
+      <c r="L13" s="9">
+        <v>2</v>
+      </c>
+      <c r="M13" s="6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>136</v>
       </c>
@@ -1045,11 +1205,23 @@
       <c r="H14" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="I14" s="6" t="s">
+      <c r="I14" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="K14" s="9">
+        <v>60</v>
+      </c>
+      <c r="L14" s="9">
+        <v>1</v>
+      </c>
+      <c r="M14" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>206</v>
       </c>
@@ -1074,11 +1246,23 @@
       <c r="H15" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="I15" s="6" t="s">
+      <c r="I15" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="K15" s="9">
+        <v>60</v>
+      </c>
+      <c r="L15" s="9">
+        <v>2</v>
+      </c>
+      <c r="M15" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>21</v>
       </c>
@@ -1103,11 +1287,23 @@
       <c r="H16" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="I16" s="6" t="s">
+      <c r="I16" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="K16" s="9">
+        <v>60</v>
+      </c>
+      <c r="L16" s="9">
+        <v>1</v>
+      </c>
+      <c r="M16" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>1512</v>
       </c>
@@ -1132,11 +1328,23 @@
       <c r="H17" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="I17" s="6" t="s">
+      <c r="I17" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="K17" s="9">
+        <v>60</v>
+      </c>
+      <c r="L17" s="9">
+        <v>1</v>
+      </c>
+      <c r="M17" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>88</v>
       </c>
@@ -1161,11 +1369,23 @@
       <c r="H18" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="I18" s="6" t="s">
+      <c r="I18" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="K18" s="9">
+        <v>60</v>
+      </c>
+      <c r="L18" s="9">
+        <v>1</v>
+      </c>
+      <c r="M18" s="6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>1</v>
       </c>
@@ -1190,14 +1410,149 @@
       <c r="H19" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="I19" s="6" t="s">
+      <c r="I19" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J19" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="K19" s="9">
         <v>60</v>
+      </c>
+      <c r="L19" s="9">
+        <v>1</v>
+      </c>
+      <c r="M19" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
+        <v>125</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="K20" s="9">
+        <v>60</v>
+      </c>
+      <c r="L20" s="9">
+        <v>1</v>
+      </c>
+      <c r="M20" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="7">
+        <v>141</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K21" s="9">
+        <v>60</v>
+      </c>
+      <c r="L21" s="9">
+        <v>1</v>
+      </c>
+      <c r="M21" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="7">
+        <v>160</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K22" s="9">
+        <v>60</v>
+      </c>
+      <c r="L22" s="9">
+        <v>1</v>
+      </c>
+      <c r="M22" s="6" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="A1:I7"/>
+    <mergeCell ref="A1:M7"/>
+    <mergeCell ref="O1:P1"/>
   </mergeCells>
   <conditionalFormatting sqref="C1:C4 C8:C1048576">
     <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Hard">

--- a/LeetCode Tracker.xlsx
+++ b/LeetCode Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leon\Desktop\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4A9BEC3-C8E7-4291-99D3-87C9CCB9078C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6355FCAB-F87E-41F9-91A6-FE31F174CFEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2FA590F6-CEBE-453D-A814-55EB366ADEEE}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="81">
   <si>
     <t>LeetCode Problems</t>
   </si>
@@ -98,12 +98,6 @@
     <t>Find Optimal Solution</t>
   </si>
   <si>
-    <t>Understand Optimal solution</t>
-  </si>
-  <si>
-    <t>Understand Time/Space Complexity</t>
-  </si>
-  <si>
     <t>Phase 1 - 2</t>
   </si>
   <si>
@@ -165,9 +159,6 @@
   </si>
   <si>
     <t>Phase</t>
-  </si>
-  <si>
-    <t>***This is not easy, new method to count elements in array.</t>
   </si>
   <si>
     <t>Bit Manipulation</t>
@@ -225,9 +216,6 @@
     <t>O(n)?</t>
   </si>
   <si>
-    <t>***This is very very important!! Even though most of the people did Brute force, it is still better to find optimal solution. The Optimal Solution is testing to see if you really understand programming language in classes or not. Should really understand how the optimal solution works.</t>
-  </si>
-  <si>
     <t>Linked List Cycle</t>
   </si>
   <si>
@@ -246,22 +234,116 @@
     <t># Visited</t>
   </si>
   <si>
-    <t>Time Taken (min)</t>
-  </si>
-  <si>
     <t>Solved</t>
   </si>
   <si>
     <t>Intersection of Two LinkedList</t>
   </si>
   <si>
-    <t>RunTime</t>
-  </si>
-  <si>
     <t>Yes/No</t>
   </si>
   <si>
     <t>***This is a very good question. At least, the solution has been understood, however, do not underestimate and keep practicing and try it again, try to understand it better so it becomes a habit to solve it.</t>
+  </si>
+  <si>
+    <t>Palindrome Linked List</t>
+  </si>
+  <si>
+    <t>RunTime Error</t>
+  </si>
+  <si>
+    <r>
+      <t>****Need to practice again. This question teaches a lot of things. Need to revisit it again next week to understand how it works.
+1. When working on palindrome, we no need to reverse all the elements/everything, we just need to</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> reverse half of it and compare</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.
+2. This also includes </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>two pointers (Fast/Slow)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, such as the method in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>141. LinkedList Cycle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Also, including how to use an additional to class method.</t>
+    </r>
+  </si>
+  <si>
+    <t>Palindrome Numbers</t>
+  </si>
+  <si>
+    <t>Math</t>
+  </si>
+  <si>
+    <t>Time (min)</t>
+  </si>
+  <si>
+    <t>Time/Space Complexity</t>
+  </si>
+  <si>
+    <t>Understood solution</t>
+  </si>
+  <si>
+    <t>***This is very very important!! Even though most of the people did Brute force, it is still better to find optimal solution. The Optimal Solution is testing to see if you can find solution without relying on built-in libraries. Should really understand how the optimal solution works.</t>
+  </si>
+  <si>
+    <t>Master</t>
+  </si>
+  <si>
+    <t>***This is not easy, new method to count elements in array. Better to go over and understand the optimal solution. Own code is too long and confusing, already forgot how it works, mathematically.</t>
   </si>
 </sst>
 </file>
@@ -362,7 +444,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -393,6 +475,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -425,7 +510,27 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -757,13 +862,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CECAF50C-0FA8-4FE8-AF1F-0197AD9DA707}">
-  <dimension ref="A1:Q22"/>
+  <dimension ref="A1:S24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="15" ySplit="8" topLeftCell="P21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="17" ySplit="8" topLeftCell="R9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="P1" sqref="P1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="M23" sqref="M23"/>
+      <selection pane="bottomRight" activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -778,163 +883,179 @@
     <col min="8" max="8" width="10.28515625" style="5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5.5703125" style="9" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" style="9" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="59.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="33.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.7109375" style="11" customWidth="1"/>
+    <col min="14" max="14" width="7.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="59.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="33.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
       <c r="M1" s="12"/>
-      <c r="O1" s="19" t="s">
+      <c r="N1" s="12"/>
+      <c r="O1" s="13"/>
+      <c r="Q1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="10"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="10"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
       <c r="M2" s="14"/>
-      <c r="O2" s="1" t="s">
+      <c r="N2" s="14"/>
+      <c r="O2" s="15"/>
+      <c r="Q2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="P2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
+      <c r="R2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
       <c r="M3" s="14"/>
-      <c r="O3" s="1" t="s">
+      <c r="N3" s="14"/>
+      <c r="O3" s="15"/>
+      <c r="Q3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P3" t="s">
+      <c r="R3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
       <c r="M4" s="14"/>
-      <c r="O4" s="4" t="s">
+      <c r="N4" s="14"/>
+      <c r="O4" s="15"/>
+      <c r="Q4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="P4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
+      <c r="R4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
       <c r="M5" s="16"/>
-      <c r="O5" s="1" t="s">
+      <c r="N5" s="16"/>
+      <c r="O5" s="17"/>
+      <c r="Q5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="17"/>
+      <c r="Q6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="P5" t="s">
+      <c r="R6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="16"/>
-      <c r="O6" s="1" t="s">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="19"/>
+      <c r="Q7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="P6" t="s">
+      <c r="R7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="18"/>
-      <c r="O7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="P7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
@@ -957,25 +1078,31 @@
         <v>5</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="K8" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="M8" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="O8" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>344</v>
       </c>
@@ -998,13 +1125,13 @@
         <v>8</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K9" s="9">
         <v>60</v>
@@ -1012,11 +1139,14 @@
       <c r="L9" s="9">
         <v>2</v>
       </c>
-      <c r="M9" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="M9" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>541</v>
       </c>
@@ -1039,25 +1169,28 @@
         <v>7</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K10" s="9">
         <v>60</v>
       </c>
       <c r="L10" s="9">
-        <v>2</v>
-      </c>
-      <c r="M10" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="M10" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="O10" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>345</v>
       </c>
@@ -1080,13 +1213,13 @@
         <v>7</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K11" s="9">
         <v>60</v>
@@ -1094,16 +1227,19 @@
       <c r="L11" s="9">
         <v>2</v>
       </c>
-      <c r="M11" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="M11" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>557</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>2</v>
@@ -1115,19 +1251,19 @@
         <v>10</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>8</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K12" s="9">
         <v>60</v>
@@ -1135,22 +1271,25 @@
       <c r="L12" s="9">
         <v>2</v>
       </c>
-      <c r="M12" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M12" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="O12" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>237</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>10</v>
@@ -1162,13 +1301,13 @@
         <v>8</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K13" s="9">
         <v>60</v>
@@ -1176,22 +1315,25 @@
       <c r="L13" s="9">
         <v>2</v>
       </c>
-      <c r="M13" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="M13" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="O13" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>136</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>10</v>
@@ -1203,13 +1345,13 @@
         <v>8</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K14" s="9">
         <v>60</v>
@@ -1217,22 +1359,25 @@
       <c r="L14" s="9">
         <v>1</v>
       </c>
-      <c r="M14" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M14" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="O14" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>206</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>10</v>
@@ -1244,13 +1389,13 @@
         <v>8</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K15" s="9">
         <v>60</v>
@@ -1258,22 +1403,28 @@
       <c r="L15" s="9">
         <v>2</v>
       </c>
-      <c r="M15" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M15" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="N15" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="O15" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>21</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>10</v>
@@ -1285,13 +1436,13 @@
         <v>8</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K16" s="9">
         <v>60</v>
@@ -1299,22 +1450,25 @@
       <c r="L16" s="9">
         <v>1</v>
       </c>
-      <c r="M16" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M16" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="O16" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>1512</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>10</v>
@@ -1326,13 +1480,13 @@
         <v>7</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K17" s="9">
         <v>60</v>
@@ -1340,40 +1494,43 @@
       <c r="L17" s="9">
         <v>1</v>
       </c>
-      <c r="M17" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="M17" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="O17" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="90" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>88</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>8</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K18" s="9">
         <v>60</v>
@@ -1381,22 +1538,25 @@
       <c r="L18" s="9">
         <v>1</v>
       </c>
-      <c r="M18" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="M18" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="O18" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>1</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>10</v>
@@ -1408,13 +1568,13 @@
         <v>7</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K19" s="9">
         <v>60</v>
@@ -1422,16 +1582,19 @@
       <c r="L19" s="9">
         <v>1</v>
       </c>
-      <c r="M19" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="M19" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="O19" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>125</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>2</v>
@@ -1446,16 +1609,16 @@
         <v>7</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K20" s="9">
         <v>60</v>
@@ -1463,22 +1626,25 @@
       <c r="L20" s="9">
         <v>1</v>
       </c>
-      <c r="M20" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="M20" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="O20" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>141</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>10</v>
@@ -1490,13 +1656,13 @@
         <v>8</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K21" s="9">
         <v>60</v>
@@ -1504,25 +1670,28 @@
       <c r="L21" s="9">
         <v>1</v>
       </c>
-      <c r="M21" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+      <c r="M21" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="O21" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>160</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>7</v>
@@ -1531,13 +1700,13 @@
         <v>8</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K22" s="9">
         <v>60</v>
@@ -1545,24 +1714,75 @@
       <c r="L22" s="9">
         <v>1</v>
       </c>
-      <c r="M22" s="6" t="s">
-        <v>75</v>
+      <c r="M22" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="O22" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="120" x14ac:dyDescent="0.25">
+      <c r="A23" s="7">
+        <v>234</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J23" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="M23" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="O23" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="7">
+        <v>9</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J24" s="9" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:M7"/>
-    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="A1:O7"/>
+    <mergeCell ref="Q1:R1"/>
   </mergeCells>
   <conditionalFormatting sqref="C1:C4 C8:C1048576">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Hard">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="Hard">
       <formula>NOT(ISERROR(SEARCH("Hard",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="Easy">
+    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="Easy">
       <formula>NOT(ISERROR(SEARCH("Easy",C1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J1:J1048576">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",J1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="No">
+      <formula>NOT(ISERROR(SEARCH("No",J1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LeetCode Tracker.xlsx
+++ b/LeetCode Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leon\Desktop\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6355FCAB-F87E-41F9-91A6-FE31F174CFEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4EA9CF2-B7F3-4367-B3CD-A4DEAFC5AC7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2FA590F6-CEBE-453D-A814-55EB366ADEEE}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="81">
   <si>
     <t>LeetCode Problems</t>
   </si>
@@ -865,10 +865,10 @@
   <dimension ref="A1:S24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="17" ySplit="8" topLeftCell="R9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="17" ySplit="8" topLeftCell="R21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="P1" sqref="P1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="K17" sqref="K17"/>
+      <selection pane="bottomRight" activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1733,6 +1733,12 @@
       </c>
       <c r="D23" s="5" t="s">
         <v>28</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="J23" s="9" t="s">
         <v>64</v>

--- a/LeetCode Tracker.xlsx
+++ b/LeetCode Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leon\Desktop\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4EA9CF2-B7F3-4367-B3CD-A4DEAFC5AC7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EF39CAD-01AC-4C0F-9444-057B52C00892}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2FA590F6-CEBE-453D-A814-55EB366ADEEE}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="81">
   <si>
     <t>LeetCode Problems</t>
   </si>
@@ -162,9 +162,6 @@
   </si>
   <si>
     <t>Bit Manipulation</t>
-  </si>
-  <si>
-    <t>This is new chapter. Haven't learn yet. Brute force solution is better than all 3 previous solution except Bit Manipulation method.</t>
   </si>
   <si>
     <t>This is complicated. Need to understand why for loop loops through (2*k). Example: for(int i=0; i&lt;arr.length; i+=2*k);</t>
@@ -344,6 +341,33 @@
   </si>
   <si>
     <t>***This is not easy, new method to count elements in array. Better to go over and understand the optimal solution. Own code is too long and confusing, already forgot how it works, mathematically.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This is new chapter. Haven't learn yet. Brute force solution is better than all 3 previous solution except Bit Manipulation method.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>UPDATE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: XOR (^) is the solution and checking each number using bits/binary. For example, {1, 2, 1} means 1^ 2 ^ 1, will result in 2 because 1^ 1 = 0 and 0^2 will end up with 2. In binary form, 1^0 =0^1, in other words, becoming the number that is not the same. However, 0^0 = 1^1=2^2, which eventually will result in 0.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -865,10 +889,10 @@
   <dimension ref="A1:S24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="17" ySplit="8" topLeftCell="R21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="17" ySplit="8" topLeftCell="R12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="P1" sqref="P1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="F24" sqref="F24"/>
+      <selection pane="bottomRight" activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -937,7 +961,7 @@
         <v>17</v>
       </c>
       <c r="R2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -983,7 +1007,7 @@
         <v>19</v>
       </c>
       <c r="R4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
@@ -1081,22 +1105,22 @@
         <v>41</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M8" s="2" t="s">
         <v>35</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O8" s="3" t="s">
         <v>1</v>
@@ -1128,10 +1152,10 @@
         <v>21</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K9" s="9">
         <v>60</v>
@@ -1140,10 +1164,13 @@
         <v>2</v>
       </c>
       <c r="M9" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
+      </c>
+      <c r="N9" s="11" t="s">
+        <v>62</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="30" x14ac:dyDescent="0.25">
@@ -1172,10 +1199,10 @@
         <v>22</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K10" s="9">
         <v>60</v>
@@ -1184,10 +1211,10 @@
         <v>1</v>
       </c>
       <c r="M10" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O10" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="45" x14ac:dyDescent="0.25">
@@ -1216,10 +1243,10 @@
         <v>23</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K11" s="9">
         <v>60</v>
@@ -1228,10 +1255,10 @@
         <v>2</v>
       </c>
       <c r="M11" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O11" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="45" x14ac:dyDescent="0.25">
@@ -1260,10 +1287,10 @@
         <v>26</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K12" s="9">
         <v>60</v>
@@ -1272,10 +1299,10 @@
         <v>2</v>
       </c>
       <c r="M12" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O12" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
@@ -1304,10 +1331,10 @@
         <v>36</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K13" s="9">
         <v>60</v>
@@ -1316,13 +1343,16 @@
         <v>2</v>
       </c>
       <c r="M13" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
+      </c>
+      <c r="N13" s="11" t="s">
+        <v>62</v>
       </c>
       <c r="O13" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="135" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>136</v>
       </c>
@@ -1348,10 +1378,10 @@
         <v>26</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K14" s="9">
         <v>60</v>
@@ -1360,10 +1390,13 @@
         <v>1</v>
       </c>
       <c r="M14" s="11" t="s">
-        <v>64</v>
+        <v>62</v>
+      </c>
+      <c r="N14" s="11" t="s">
+        <v>63</v>
       </c>
       <c r="O14" s="6" t="s">
-        <v>43</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
@@ -1392,10 +1425,10 @@
         <v>36</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K15" s="9">
         <v>60</v>
@@ -1404,13 +1437,13 @@
         <v>2</v>
       </c>
       <c r="M15" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N15" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O15" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
@@ -1439,10 +1472,10 @@
         <v>36</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K16" s="9">
         <v>60</v>
@@ -1451,10 +1484,13 @@
         <v>1</v>
       </c>
       <c r="M16" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
+      </c>
+      <c r="N16" s="11" t="s">
+        <v>62</v>
       </c>
       <c r="O16" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="60" x14ac:dyDescent="0.25">
@@ -1483,10 +1519,10 @@
         <v>36</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K17" s="9">
         <v>60</v>
@@ -1495,10 +1531,10 @@
         <v>1</v>
       </c>
       <c r="M17" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O17" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="90" x14ac:dyDescent="0.25">
@@ -1506,19 +1542,19 @@
         <v>88</v>
       </c>
       <c r="B18" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>51</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>52</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>8</v>
@@ -1527,10 +1563,10 @@
         <v>36</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K18" s="9">
         <v>60</v>
@@ -1539,10 +1575,10 @@
         <v>1</v>
       </c>
       <c r="M18" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O18" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="75" x14ac:dyDescent="0.25">
@@ -1550,13 +1586,13 @@
         <v>1</v>
       </c>
       <c r="B19" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>55</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>56</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>10</v>
@@ -1571,10 +1607,10 @@
         <v>36</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K19" s="9">
         <v>60</v>
@@ -1583,10 +1619,10 @@
         <v>1</v>
       </c>
       <c r="M19" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O19" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="75" x14ac:dyDescent="0.25">
@@ -1594,7 +1630,7 @@
         <v>125</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>2</v>
@@ -1609,16 +1645,16 @@
         <v>7</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>36</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K20" s="9">
         <v>60</v>
@@ -1627,10 +1663,13 @@
         <v>1</v>
       </c>
       <c r="M20" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
+      </c>
+      <c r="N20" s="11" t="s">
+        <v>63</v>
       </c>
       <c r="O20" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="60" x14ac:dyDescent="0.25">
@@ -1638,7 +1677,7 @@
         <v>141</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>2</v>
@@ -1659,10 +1698,10 @@
         <v>36</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K21" s="9">
         <v>60</v>
@@ -1671,10 +1710,10 @@
         <v>1</v>
       </c>
       <c r="M21" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O21" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="60" x14ac:dyDescent="0.25">
@@ -1682,7 +1721,7 @@
         <v>160</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>2</v>
@@ -1691,7 +1730,7 @@
         <v>28</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>7</v>
@@ -1703,10 +1742,10 @@
         <v>36</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K22" s="9">
         <v>60</v>
@@ -1715,10 +1754,10 @@
         <v>1</v>
       </c>
       <c r="M22" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O22" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="120" x14ac:dyDescent="0.25">
@@ -1726,7 +1765,7 @@
         <v>234</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>2</v>
@@ -1741,13 +1780,13 @@
         <v>8</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M23" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O23" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
@@ -1755,16 +1794,16 @@
         <v>9</v>
       </c>
       <c r="B24" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>74</v>
-      </c>
       <c r="J24" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/LeetCode Tracker.xlsx
+++ b/LeetCode Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leon\Desktop\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EF39CAD-01AC-4C0F-9444-057B52C00892}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBF82A79-8AB6-40EB-AA3C-4721DAC78739}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2FA590F6-CEBE-453D-A814-55EB366ADEEE}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="82">
   <si>
     <t>LeetCode Problems</t>
   </si>
@@ -249,8 +249,59 @@
     <t>RunTime Error</t>
   </si>
   <si>
+    <t>Palindrome Numbers</t>
+  </si>
+  <si>
+    <t>Math</t>
+  </si>
+  <si>
+    <t>Time (min)</t>
+  </si>
+  <si>
+    <t>Time/Space Complexity</t>
+  </si>
+  <si>
+    <t>Understood solution</t>
+  </si>
+  <si>
+    <t>***This is very very important!! Even though most of the people did Brute force, it is still better to find optimal solution. The Optimal Solution is testing to see if you can find solution without relying on built-in libraries. Should really understand how the optimal solution works.</t>
+  </si>
+  <si>
+    <t>Master</t>
+  </si>
+  <si>
+    <t>***This is not easy, new method to count elements in array. Better to go over and understand the optimal solution. Own code is too long and confusing, already forgot how it works, mathematically.</t>
+  </si>
+  <si>
     <r>
-      <t>****Need to practice again. This question teaches a lot of things. Need to revisit it again next week to understand how it works.
+      <t xml:space="preserve">This is new chapter. Haven't learn yet. Brute force solution is better than all 3 previous solution except Bit Manipulation method.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>UPDATE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: XOR (^) is the solution and checking each number using bits/binary. For example, {1, 2, 1} means 1^ 2 ^ 1, will result in 2 because 1^ 1 = 0 and 0^2 will end up with 2. In binary form, 1^0 =0^1, in other words, becoming the number that is not the same. However, 0^0 = 1^1=2^2, which eventually will result in 0.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>***Need to practice again. This question teaches a lot of things. Need to revisit it again next week to understand how it works.
 1. When working on palindrome, we no need to reverse all the elements/everything, we just need to</t>
     </r>
     <r>
@@ -315,36 +366,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>. Also, including how to use an additional to class method.</t>
-    </r>
-  </si>
-  <si>
-    <t>Palindrome Numbers</t>
-  </si>
-  <si>
-    <t>Math</t>
-  </si>
-  <si>
-    <t>Time (min)</t>
-  </si>
-  <si>
-    <t>Time/Space Complexity</t>
-  </si>
-  <si>
-    <t>Understood solution</t>
-  </si>
-  <si>
-    <t>***This is very very important!! Even though most of the people did Brute force, it is still better to find optimal solution. The Optimal Solution is testing to see if you can find solution without relying on built-in libraries. Should really understand how the optimal solution works.</t>
-  </si>
-  <si>
-    <t>Master</t>
-  </si>
-  <si>
-    <t>***This is not easy, new method to count elements in array. Better to go over and understand the optimal solution. Own code is too long and confusing, already forgot how it works, mathematically.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">This is new chapter. Haven't learn yet. Brute force solution is better than all 3 previous solution except Bit Manipulation method.
+      <t xml:space="preserve">. Also, including how to use an additional to class method.
 </t>
     </r>
     <r>
@@ -366,8 +388,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: XOR (^) is the solution and checking each number using bits/binary. For example, {1, 2, 1} means 1^ 2 ^ 1, will result in 2 because 1^ 1 = 0 and 0^2 will end up with 2. In binary form, 1^0 =0^1, in other words, becoming the number that is not the same. However, 0^0 = 1^1=2^2, which eventually will result in 0.</t>
+      <t>: Finally able to work on solution, but there is an optimal solution left to master! Optimal solution is using one pointer instead of two pointer. Also, optimal solution will count the length of linked list first and then divide by two to get first and second half of linked list to compare.</t>
     </r>
+  </si>
+  <si>
+    <t>***Still haven't able to understand the solution, but starting to see the picture in separating integers into digits. Bascially, taking the remainder, and multiply by 10 to get back results. 
+For example, 121. When reversed using remainder after multiple by 10, it will become 1*10 = 10 and 121/10 will become 12. This method is to remove and reduced left half of integer and append/increased right half of integer after reversing. If still confused : https://www.youtube.com/watch?v=IKY7BTa4aq8</t>
   </si>
 </sst>
 </file>
@@ -534,7 +560,119 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="18">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -889,10 +1027,10 @@
   <dimension ref="A1:S24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="17" ySplit="8" topLeftCell="R12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="17" ySplit="8" topLeftCell="R23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="P1" sqref="P1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="L14" sqref="L14"/>
+      <selection pane="bottomRight" activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -961,7 +1099,7 @@
         <v>17</v>
       </c>
       <c r="R2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -1007,7 +1145,7 @@
         <v>19</v>
       </c>
       <c r="R4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
@@ -1111,7 +1249,7 @@
         <v>65</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>64</v>
@@ -1120,7 +1258,7 @@
         <v>35</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O8" s="3" t="s">
         <v>1</v>
@@ -1157,9 +1295,6 @@
       <c r="J9" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="K9" s="9">
-        <v>60</v>
-      </c>
       <c r="L9" s="9">
         <v>2</v>
       </c>
@@ -1204,13 +1339,13 @@
       <c r="J10" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="K10" s="9">
-        <v>60</v>
-      </c>
       <c r="L10" s="9">
         <v>1</v>
       </c>
       <c r="M10" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="N10" s="11" t="s">
         <v>63</v>
       </c>
       <c r="O10" s="6" t="s">
@@ -1248,14 +1383,14 @@
       <c r="J11" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="K11" s="9">
-        <v>60</v>
-      </c>
       <c r="L11" s="9">
         <v>2</v>
       </c>
       <c r="M11" s="11" t="s">
         <v>62</v>
+      </c>
+      <c r="N11" s="11" t="s">
+        <v>63</v>
       </c>
       <c r="O11" s="6" t="s">
         <v>46</v>
@@ -1292,14 +1427,14 @@
       <c r="J12" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="K12" s="9">
-        <v>60</v>
-      </c>
       <c r="L12" s="9">
         <v>2</v>
       </c>
       <c r="M12" s="11" t="s">
         <v>62</v>
+      </c>
+      <c r="N12" s="11" t="s">
+        <v>63</v>
       </c>
       <c r="O12" s="6" t="s">
         <v>44</v>
@@ -1336,9 +1471,6 @@
       <c r="J13" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="K13" s="9">
-        <v>60</v>
-      </c>
       <c r="L13" s="9">
         <v>2</v>
       </c>
@@ -1383,9 +1515,6 @@
       <c r="J14" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="K14" s="9">
-        <v>60</v>
-      </c>
       <c r="L14" s="9">
         <v>1</v>
       </c>
@@ -1396,7 +1525,7 @@
         <v>63</v>
       </c>
       <c r="O14" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
@@ -1430,9 +1559,6 @@
       <c r="J15" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="K15" s="9">
-        <v>60</v>
-      </c>
       <c r="L15" s="9">
         <v>2</v>
       </c>
@@ -1477,9 +1603,6 @@
       <c r="J16" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="K16" s="9">
-        <v>60</v>
-      </c>
       <c r="L16" s="9">
         <v>1</v>
       </c>
@@ -1524,17 +1647,17 @@
       <c r="J17" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="K17" s="9">
-        <v>60</v>
-      </c>
       <c r="L17" s="9">
         <v>1</v>
       </c>
       <c r="M17" s="11" t="s">
         <v>63</v>
       </c>
+      <c r="N17" s="11" t="s">
+        <v>63</v>
+      </c>
       <c r="O17" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="90" x14ac:dyDescent="0.25">
@@ -1568,13 +1691,13 @@
       <c r="J18" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="K18" s="9">
-        <v>60</v>
-      </c>
       <c r="L18" s="9">
         <v>1</v>
       </c>
       <c r="M18" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="N18" s="11" t="s">
         <v>63</v>
       </c>
       <c r="O18" s="6" t="s">
@@ -1612,14 +1735,14 @@
       <c r="J19" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="K19" s="9">
-        <v>60</v>
-      </c>
       <c r="L19" s="9">
         <v>1</v>
       </c>
       <c r="M19" s="11" t="s">
         <v>62</v>
+      </c>
+      <c r="N19" s="11" t="s">
+        <v>63</v>
       </c>
       <c r="O19" s="6" t="s">
         <v>56</v>
@@ -1656,9 +1779,6 @@
       <c r="J20" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="K20" s="9">
-        <v>60</v>
-      </c>
       <c r="L20" s="9">
         <v>1</v>
       </c>
@@ -1669,7 +1789,7 @@
         <v>63</v>
       </c>
       <c r="O20" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="60" x14ac:dyDescent="0.25">
@@ -1703,13 +1823,13 @@
       <c r="J21" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="K21" s="9">
-        <v>60</v>
-      </c>
       <c r="L21" s="9">
         <v>1</v>
       </c>
       <c r="M21" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="N21" s="11" t="s">
         <v>63</v>
       </c>
       <c r="O21" s="6" t="s">
@@ -1747,20 +1867,20 @@
       <c r="J22" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="K22" s="9">
-        <v>60</v>
-      </c>
       <c r="L22" s="9">
         <v>1</v>
       </c>
       <c r="M22" s="11" t="s">
         <v>63</v>
       </c>
+      <c r="N22" s="11" t="s">
+        <v>63</v>
+      </c>
       <c r="O22" s="6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="120" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" ht="210" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>234</v>
       </c>
@@ -1773,37 +1893,58 @@
       <c r="D23" s="5" t="s">
         <v>28</v>
       </c>
+      <c r="E23" s="5" t="s">
+        <v>10</v>
+      </c>
       <c r="F23" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>8</v>
       </c>
+      <c r="H23" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>62</v>
+      </c>
       <c r="J23" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
+      </c>
+      <c r="L23" s="9">
+        <v>2</v>
       </c>
       <c r="M23" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="N23" s="11" t="s">
         <v>63</v>
       </c>
       <c r="O23" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="135" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>9</v>
       </c>
       <c r="B24" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>73</v>
-      </c>
       <c r="J24" s="9" t="s">
         <v>63</v>
+      </c>
+      <c r="N24" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="O24" s="6" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1812,22 +1953,30 @@
     <mergeCell ref="Q1:R1"/>
   </mergeCells>
   <conditionalFormatting sqref="C1:C4 C8:C1048576">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="Hard">
+    <cfRule type="containsText" dxfId="12" priority="5" operator="containsText" text="Hard">
       <formula>NOT(ISERROR(SEARCH("Hard",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="11" priority="6" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="Easy">
+    <cfRule type="containsText" dxfId="10" priority="7" operator="containsText" text="Easy">
       <formula>NOT(ISERROR(SEARCH("Easy",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:J1048576">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",J1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",J1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N1:N1048576">
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",N1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="No">
+      <formula>NOT(ISERROR(SEARCH("No",N1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LeetCode Tracker.xlsx
+++ b/LeetCode Tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leon\Desktop\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBF82A79-8AB6-40EB-AA3C-4721DAC78739}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE9D2A3F-8C0D-4977-B64B-D12F647BE7CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2FA590F6-CEBE-453D-A814-55EB366ADEEE}"/>
+    <workbookView xWindow="9165" yWindow="345" windowWidth="19635" windowHeight="7095" xr2:uid="{2FA590F6-CEBE-453D-A814-55EB366ADEEE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="84">
   <si>
     <t>LeetCode Problems</t>
   </si>
@@ -155,9 +155,6 @@
     <t>Number of Good Pairs</t>
   </si>
   <si>
-    <t>Math/Arrays/HashMap</t>
-  </si>
-  <si>
     <t>Phase</t>
   </si>
   <si>
@@ -186,9 +183,6 @@
   </si>
   <si>
     <t>Merge Sorted Arrays</t>
-  </si>
-  <si>
-    <t>Arrays/Two Pointers</t>
   </si>
   <si>
     <t>O(m+n)</t>
@@ -199,9 +193,6 @@
   </si>
   <si>
     <t>Two Sums</t>
-  </si>
-  <si>
-    <t>Arrays/HashMap</t>
   </si>
   <si>
     <t>***This is an important interview question as well. Because it is between x=target -y; inserting the elements into HashMap and compare from there. It seems that second part is two pointers but need to figure out how to do binary search first, since second part will always be sorted.</t>
@@ -395,6 +386,23 @@
     <t>***Still haven't able to understand the solution, but starting to see the picture in separating integers into digits. Bascially, taking the remainder, and multiply by 10 to get back results. 
 For example, 121. When reversed using remainder after multiple by 10, it will become 1*10 = 10 and 121/10 will become 12. This method is to remove and reduced left half of integer and append/increased right half of integer after reversing. If still confused : https://www.youtube.com/watch?v=IKY7BTa4aq8</t>
   </si>
+  <si>
+    <t>Move Zeroes</t>
+  </si>
+  <si>
+    <t>Array/Two Pointers</t>
+  </si>
+  <si>
+    <t>Array/HashMap</t>
+  </si>
+  <si>
+    <t>Math/Array/HashMap</t>
+  </si>
+  <si>
+    <t>****There are two types of solutions to this: 
+1. Two pointers i=0, j = 1 counting till the end of array.
+2. Insertion method - two pointer as well but with 1 pointer looping and fill all 0 in front with non-zeroes. After that, just change all the remaining elements with 0's. i = 0, pos = 0.</t>
+  </si>
 </sst>
 </file>
 
@@ -433,7 +441,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -490,11 +498,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -529,6 +546,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -552,6 +572,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -560,7 +583,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="7">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -578,98 +601,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1024,13 +955,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CECAF50C-0FA8-4FE8-AF1F-0197AD9DA707}">
-  <dimension ref="A1:S24"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="17" ySplit="8" topLeftCell="R23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="17" ySplit="8" topLeftCell="R12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="P1" sqref="P1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="K23" sqref="K23"/>
+      <selection pane="bottomRight" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1049,171 +980,172 @@
     <col min="12" max="12" width="8.7109375" style="9" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8.7109375" style="11" customWidth="1"/>
     <col min="14" max="14" width="7.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="59.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="67" style="6" customWidth="1"/>
+    <col min="17" max="17" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="23.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="33.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="13"/>
-      <c r="Q1" s="20" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="20"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="12"/>
       <c r="S1" s="10"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="15"/>
-      <c r="Q2" s="1" t="s">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="R2" t="s">
-        <v>74</v>
+      <c r="Q2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="15"/>
-      <c r="Q3" s="1" t="s">
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="R3" t="s">
+      <c r="Q3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="15"/>
-      <c r="Q4" s="4" t="s">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="R4" t="s">
-        <v>75</v>
+      <c r="Q4" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="17"/>
-      <c r="Q5" s="1" t="s">
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="R5" t="s">
+      <c r="Q5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="17"/>
-      <c r="Q6" s="1" t="s">
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="R6" t="s">
+      <c r="Q6" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="18"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="19"/>
-      <c r="Q7" s="1" t="s">
+      <c r="A7" s="19"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="R7" t="s">
+      <c r="Q7" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1240,25 +1172,25 @@
         <v>5</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="L8" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="M8" s="2" t="s">
         <v>35</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="O8" s="3" t="s">
         <v>1</v>
@@ -1290,22 +1222,22 @@
         <v>21</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="L9" s="9">
         <v>2</v>
       </c>
       <c r="M9" s="11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="N9" s="11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="30" x14ac:dyDescent="0.25">
@@ -1334,22 +1266,22 @@
         <v>22</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="L10" s="9">
         <v>1</v>
       </c>
       <c r="M10" s="11" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="N10" s="11" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="O10" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="45" x14ac:dyDescent="0.25">
@@ -1378,22 +1310,22 @@
         <v>23</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="L11" s="9">
         <v>2</v>
       </c>
       <c r="M11" s="11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="N11" s="11" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="O11" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="45" x14ac:dyDescent="0.25">
@@ -1422,22 +1354,22 @@
         <v>26</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="L12" s="9">
         <v>2</v>
       </c>
       <c r="M12" s="11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="N12" s="11" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="O12" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
@@ -1466,25 +1398,25 @@
         <v>36</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="L13" s="9">
         <v>2</v>
       </c>
       <c r="M13" s="11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="N13" s="11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="O13" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" ht="135" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="120" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>136</v>
       </c>
@@ -1495,7 +1427,7 @@
         <v>2</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>10</v>
@@ -1510,22 +1442,22 @@
         <v>26</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="L14" s="9">
         <v>1</v>
       </c>
       <c r="M14" s="11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="N14" s="11" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="O14" s="6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
@@ -1554,22 +1486,22 @@
         <v>36</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="L15" s="9">
         <v>2</v>
       </c>
       <c r="M15" s="11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="N15" s="11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="O15" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
@@ -1598,25 +1530,25 @@
         <v>36</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="L16" s="9">
         <v>1</v>
       </c>
       <c r="M16" s="11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="N16" s="11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="O16" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>1512</v>
       </c>
@@ -1627,7 +1559,7 @@
         <v>2</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>10</v>
@@ -1642,22 +1574,22 @@
         <v>36</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="L17" s="9">
         <v>1</v>
       </c>
       <c r="M17" s="11" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="N17" s="11" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="O17" s="6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="90" x14ac:dyDescent="0.25">
@@ -1665,19 +1597,19 @@
         <v>88</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>8</v>
@@ -1686,22 +1618,22 @@
         <v>36</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="L18" s="9">
         <v>1</v>
       </c>
       <c r="M18" s="11" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="N18" s="11" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="O18" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="75" x14ac:dyDescent="0.25">
@@ -1709,13 +1641,13 @@
         <v>1</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>10</v>
@@ -1730,22 +1662,22 @@
         <v>36</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="L19" s="9">
         <v>1</v>
       </c>
       <c r="M19" s="11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="N19" s="11" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="O19" s="6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="75" x14ac:dyDescent="0.25">
@@ -1753,7 +1685,7 @@
         <v>125</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>2</v>
@@ -1768,28 +1700,28 @@
         <v>7</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>36</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="L20" s="9">
         <v>1</v>
       </c>
       <c r="M20" s="11" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="N20" s="11" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="O20" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="60" x14ac:dyDescent="0.25">
@@ -1797,7 +1729,7 @@
         <v>141</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>2</v>
@@ -1818,22 +1750,22 @@
         <v>36</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="L21" s="9">
         <v>1</v>
       </c>
       <c r="M21" s="11" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="N21" s="11" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="O21" s="6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="60" x14ac:dyDescent="0.25">
@@ -1841,7 +1773,7 @@
         <v>160</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>2</v>
@@ -1850,7 +1782,7 @@
         <v>28</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>7</v>
@@ -1862,30 +1794,30 @@
         <v>36</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="L22" s="9">
         <v>1</v>
       </c>
       <c r="M22" s="11" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="N22" s="11" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="O22" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" ht="210" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="195" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>234</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>2</v>
@@ -1906,22 +1838,22 @@
         <v>18</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="L23" s="9">
         <v>2</v>
       </c>
       <c r="M23" s="11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="N23" s="11" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="O23" s="6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="135" x14ac:dyDescent="0.25">
@@ -1929,54 +1861,104 @@
         <v>9</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="N24" s="11" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="O24" s="6" t="s">
-        <v>81</v>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+      <c r="A25" s="7">
+        <v>283</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="J25" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="K25" s="9">
+        <v>30</v>
+      </c>
+      <c r="L25" s="9">
+        <v>1</v>
+      </c>
+      <c r="M25" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="N25" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="O25" s="6" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:O7"/>
-    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="P1:Q1"/>
   </mergeCells>
   <conditionalFormatting sqref="C1:C4 C8:C1048576">
-    <cfRule type="containsText" dxfId="12" priority="5" operator="containsText" text="Hard">
+    <cfRule type="containsText" dxfId="6" priority="5" operator="containsText" text="Hard">
       <formula>NOT(ISERROR(SEARCH("Hard",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="6" operator="containsText" text="Medium">
+    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="Medium">
       <formula>NOT(ISERROR(SEARCH("Medium",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="7" operator="containsText" text="Easy">
+    <cfRule type="containsText" dxfId="4" priority="7" operator="containsText" text="Easy">
       <formula>NOT(ISERROR(SEARCH("Easy",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:J1048576">
-    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",J1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",J1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1:N1048576">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="No">
+      <formula>NOT(ISERROR(SEARCH("No",N1)))</formula>
+    </cfRule>
     <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",N1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="No">
-      <formula>NOT(ISERROR(SEARCH("No",N1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/LeetCode Tracker.xlsx
+++ b/LeetCode Tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leon\Desktop\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE9D2A3F-8C0D-4977-B64B-D12F647BE7CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE38D757-6B11-4FA3-AB68-B46B73D24AE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9165" yWindow="345" windowWidth="19635" windowHeight="7095" xr2:uid="{2FA590F6-CEBE-453D-A814-55EB366ADEEE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2FA590F6-CEBE-453D-A814-55EB366ADEEE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="96">
   <si>
     <t>LeetCode Problems</t>
   </si>
@@ -253,9 +253,6 @@
   </si>
   <si>
     <t>Understood solution</t>
-  </si>
-  <si>
-    <t>***This is very very important!! Even though most of the people did Brute force, it is still better to find optimal solution. The Optimal Solution is testing to see if you can find solution without relying on built-in libraries. Should really understand how the optimal solution works.</t>
   </si>
   <si>
     <t>Master</t>
@@ -402,6 +399,572 @@
     <t>****There are two types of solutions to this: 
 1. Two pointers i=0, j = 1 counting till the end of array.
 2. Insertion method - two pointer as well but with 1 pointer looping and fill all 0 in front with non-zeroes. After that, just change all the remaining elements with 0's. i = 0, pos = 0.</t>
+  </si>
+  <si>
+    <t>Majority element</t>
+  </si>
+  <si>
+    <t>Array/Divide &amp; Conquer/Bit Manipulation</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">****This is a special question. Have to learn not only basic of solving this with brute force, but also the optimal solution is called </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Boyer-Moore Voting Algorithm, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">which is a interesting solving method for this problem.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">UPDATE: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">This problem uses counter to calculate the majority element present in the array. However, this algorithm only works if there are two kinds of elements. If there are more than 2, the it would not have worked. For example: [2, 2, 1, 1, 1, 2, 2], </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pos = nums[0], counter = 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, and then will continue move on until end of array. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">***This is very very important!! Even though most of the people did Brute force, it is still better to find optimal solution. The Optimal Solution is testing to see if you can find solution without relying on built-in libraries. Should really understand how the optimal solution works.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Brute Force</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Include</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> .toLowerCase() </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>and</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> .replaceAll()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> function to remove special characters, then use two pointers to solve this problem. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Optimal Solution</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Library </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.toLowerCase() </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">is also used here but we could determine if the character is a special character by using </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">!isAlphanumeric() </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>or</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> !Character.isLetterOrDigit()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, then use  two pointers as usual.</t>
+    </r>
+  </si>
+  <si>
+    <t>Remove Duplicates from Sorted Array</t>
+  </si>
+  <si>
+    <t>FizzBuzz</t>
+  </si>
+  <si>
+    <t>Array</t>
+  </si>
+  <si>
+    <t>Array/Math</t>
+  </si>
+  <si>
+    <t>This is a very straightforward problem, basically using "if/else" to solve it. It seems that by using modulo (%), it gives us optimal solution.</t>
+  </si>
+  <si>
+    <t>Contain Duplicates</t>
+  </si>
+  <si>
+    <t>O(nlogn)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Optimal solution using while loop and two pointers, which loop through the array linearly, time complexity, O(n) but able to modify the elements in the same array, which make the space complexity O(1). 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>UPDATE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Learned that </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nums[k++]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is different than </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nums[++k]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nums[k++</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">]:  means after assign </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nums[k</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">], </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>k</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> will increment by 1.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nums[++k]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: means </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>k</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> will increment by 1 first, before assign </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nums[k]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Brute Force:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Using HashMap is fine but it will have space complexity of O(n). Also, it is quite slow when added into the HashMap and is better when just added into the array itself.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Optimal solution:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is to just linearly loop through the array after sorting array by comparing (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nums[i] == nums[i+1])</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. This is an interesting problem because the for loops through (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nums.length - 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) and increment with</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ++i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, instaed of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i++.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -955,13 +1518,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CECAF50C-0FA8-4FE8-AF1F-0197AD9DA707}">
-  <dimension ref="A1:S25"/>
+  <dimension ref="A1:S29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="17" ySplit="8" topLeftCell="R12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="17" ySplit="8" topLeftCell="R28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="P1" sqref="P1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="B18" sqref="B18"/>
+      <selection pane="bottomRight" activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1190,7 +1753,7 @@
         <v>35</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O8" s="3" t="s">
         <v>1</v>
@@ -1457,7 +2020,7 @@
         <v>60</v>
       </c>
       <c r="O14" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
@@ -1559,7 +2122,7 @@
         <v>2</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>10</v>
@@ -1589,7 +2152,7 @@
         <v>60</v>
       </c>
       <c r="O17" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="90" x14ac:dyDescent="0.25">
@@ -1603,7 +2166,7 @@
         <v>2</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>10</v>
@@ -1647,7 +2210,7 @@
         <v>2</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>10</v>
@@ -1680,7 +2243,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" ht="180" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>125</v>
       </c>
@@ -1721,7 +2284,7 @@
         <v>60</v>
       </c>
       <c r="O20" s="6" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="60" x14ac:dyDescent="0.25">
@@ -1768,7 +2331,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>160</v>
       </c>
@@ -1853,7 +2416,7 @@
         <v>60</v>
       </c>
       <c r="O23" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="135" x14ac:dyDescent="0.25">
@@ -1879,7 +2442,7 @@
         <v>60</v>
       </c>
       <c r="O24" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="75" x14ac:dyDescent="0.25">
@@ -1887,13 +2450,13 @@
         <v>283</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>10</v>
@@ -1926,7 +2489,192 @@
         <v>60</v>
       </c>
       <c r="O25" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="150" x14ac:dyDescent="0.25">
+      <c r="A26" s="7">
+        <v>169</v>
+      </c>
+      <c r="B26" s="7" t="s">
         <v>83</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="J26" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="K26" s="9">
+        <v>40</v>
+      </c>
+      <c r="M26" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="N26" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="O26" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="105" x14ac:dyDescent="0.25">
+      <c r="A27" s="7">
+        <v>26</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I27" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="J27" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="K27" s="9">
+        <v>45</v>
+      </c>
+      <c r="L27" s="9">
+        <v>1</v>
+      </c>
+      <c r="M27" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="N27" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="O27" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="7">
+        <v>412</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="J28" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="K28" s="9">
+        <v>15</v>
+      </c>
+      <c r="L28" s="9">
+        <v>2</v>
+      </c>
+      <c r="M28" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="N28" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="O28" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="120" x14ac:dyDescent="0.25">
+      <c r="A29" s="7">
+        <v>217</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I29" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="J29" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="K29" s="9">
+        <v>30</v>
+      </c>
+      <c r="L29" s="9">
+        <v>1</v>
+      </c>
+      <c r="M29" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="N29" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="O29" s="6" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/LeetCode Tracker.xlsx
+++ b/LeetCode Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leon\Desktop\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE38D757-6B11-4FA3-AB68-B46B73D24AE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{708EAB8A-3FC5-4B2E-AE04-6EE0735C9099}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2FA590F6-CEBE-453D-A814-55EB366ADEEE}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="98">
   <si>
     <t>LeetCode Problems</t>
   </si>
@@ -965,6 +965,15 @@
       </rPr>
       <t>i++.</t>
     </r>
+  </si>
+  <si>
+    <t>Find All Numbers Disappeared in an Array</t>
+  </si>
+  <si>
+    <t>****This is a good problem but the wording of the problem is not good enough. Technically, this question wants to determine what are the missing numbers in the array by matching the index after subtracting elements by 1. 
+[4,3,2,7,8,2,3,1] --&gt; elements (deduct by 1 to get the following array)
+[3,2,1,6,7,1,2,0] --&gt; index (missing index 4 and 5)
+After adding 1 to index, the missing numbers are [5, 6]</t>
   </si>
 </sst>
 </file>
@@ -1518,13 +1527,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CECAF50C-0FA8-4FE8-AF1F-0197AD9DA707}">
-  <dimension ref="A1:S29"/>
+  <dimension ref="A1:S30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="17" ySplit="8" topLeftCell="R28" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="17" ySplit="8" topLeftCell="R27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="P1" sqref="P1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="B29" sqref="B29"/>
+      <selection pane="bottomRight" activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2675,6 +2684,53 @@
       </c>
       <c r="O29" s="6" t="s">
         <v>95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="120" x14ac:dyDescent="0.25">
+      <c r="A30" s="7">
+        <v>448</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I30" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="J30" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="K30" s="9">
+        <v>35</v>
+      </c>
+      <c r="L30" s="9">
+        <v>1</v>
+      </c>
+      <c r="M30" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="N30" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="O30" s="6" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/LeetCode Tracker.xlsx
+++ b/LeetCode Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leon\Desktop\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{708EAB8A-3FC5-4B2E-AE04-6EE0735C9099}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{744F5321-EDC7-4EA7-9535-6BAB2C241139}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2FA590F6-CEBE-453D-A814-55EB366ADEEE}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="100">
   <si>
     <t>LeetCode Problems</t>
   </si>
@@ -974,6 +974,12 @@
 [4,3,2,7,8,2,3,1] --&gt; elements (deduct by 1 to get the following array)
 [3,2,1,6,7,1,2,0] --&gt; index (missing index 4 and 5)
 After adding 1 to index, the missing numbers are [5, 6]</t>
+  </si>
+  <si>
+    <t>Remove Duplicates from Sorted List</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*** Very very good problem. Also quite an interesting problem. Just have to figure out or add another pointer to move along with the current pointer then should be able to solve it. </t>
   </si>
 </sst>
 </file>
@@ -1527,13 +1533,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CECAF50C-0FA8-4FE8-AF1F-0197AD9DA707}">
-  <dimension ref="A1:S30"/>
+  <dimension ref="A1:S31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="17" ySplit="8" topLeftCell="R27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="17" ySplit="8" topLeftCell="R30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="P1" sqref="P1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="O30" sqref="O30"/>
+      <selection pane="bottomRight" activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2731,6 +2737,53 @@
       </c>
       <c r="O30" s="6" t="s">
         <v>97</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="7">
+        <v>83</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I31" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="J31" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="K31" s="9">
+        <v>35</v>
+      </c>
+      <c r="L31" s="9">
+        <v>1</v>
+      </c>
+      <c r="M31" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="N31" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="O31" s="6" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/LeetCode Tracker.xlsx
+++ b/LeetCode Tracker.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leon\Desktop\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{744F5321-EDC7-4EA7-9535-6BAB2C241139}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A55ACE92-F1CC-4E29-824D-4A086071E337}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2FA590F6-CEBE-453D-A814-55EB366ADEEE}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="LeetCode" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="110">
   <si>
     <t>LeetCode Problems</t>
   </si>
@@ -96,15 +96,6 @@
   </si>
   <si>
     <t>Find Optimal Solution</t>
-  </si>
-  <si>
-    <t>Phase 1 - 2</t>
-  </si>
-  <si>
-    <t>Phase 2 - 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phase 2 -3 </t>
   </si>
   <si>
     <t>Reverse Words in a String III</t>
@@ -396,11 +387,6 @@
     <t>Math/Array/HashMap</t>
   </si>
   <si>
-    <t>****There are two types of solutions to this: 
-1. Two pointers i=0, j = 1 counting till the end of array.
-2. Insertion method - two pointer as well but with 1 pointer looping and fill all 0 in front with non-zeroes. After that, just change all the remaining elements with 0's. i = 0, pos = 0.</t>
-  </si>
-  <si>
     <t>Majority element</t>
   </si>
   <si>
@@ -845,125 +831,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Brute Force:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Using HashMap is fine but it will have space complexity of O(n). Also, it is quite slow when added into the HashMap and is better when just added into the array itself.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Optimal solution:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> is to just linearly loop through the array after sorting array by comparing (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>nums[i] == nums[i+1])</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. This is an interesting problem because the for loops through (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>nums.length - 1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>) and increment with</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ++i</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, instaed of </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>i++.</t>
     </r>
   </si>
   <si>
@@ -980,6 +847,236 @@
   </si>
   <si>
     <t xml:space="preserve">*** Very very good problem. Also quite an interesting problem. Just have to figure out or add another pointer to move along with the current pointer then should be able to solve it. </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Brute Force:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Using HashMap is fine but it will have space complexity of O(n). Also, it is quite slow when added into the HashMap and is better when just added into the array itself.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Optimal solution:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is to just linearly loop through the array after sorting array by comparing (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nums[i] == nums[i+1])</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. This is an interesting problem because we use for loop to loop through (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nums.length - 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) and increment with</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ++i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, instaed of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i++.</t>
+    </r>
+  </si>
+  <si>
+    <t>****There are two types of solutions to this: 
+1. Two pointers i=0, j = 1 counting till the end of array. (Messy Code)
+2. Insertion method - two pointer as well but with 1 pointer looping and fill all 0 in front with non-zeroes first. After that, just change all the remaining elements with 0's. i = 0, pos = 0.</t>
+  </si>
+  <si>
+    <t>Min Stack</t>
+  </si>
+  <si>
+    <t>Stack</t>
+  </si>
+  <si>
+    <t>Valid Parentheses</t>
+  </si>
+  <si>
+    <t>****Still need practice Java and Stack fundamentals. Else, this problem is very straightforward.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">****This problem is also very straightforward, almost solved it without any whiteboarding. The improvements that could be made here, is to learn how to debug, list out potential examples, or errors that might occurred when running. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FYI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Not necessarily needed to length check, as in real world, there are other characters such as space, special characters etc.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Time Complexity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: O(n), because looping through array, push(), pop() or peek() only caused O(1).
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Space Complexity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: O(n) because we used extra stack and not on the array itself.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Phase 2 </t>
+  </si>
+  <si>
+    <t>Implemenet strStr()</t>
+  </si>
+  <si>
+    <t>Two Pointers/String</t>
+  </si>
+  <si>
+    <t>Running Sum of 1d Array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is a very very easy question. Not fibonacci. </t>
+  </si>
+  <si>
+    <t>Suffle the Array</t>
+  </si>
+  <si>
+    <t>****This should be a straightforward question, but cannot seem to get it</t>
+  </si>
+  <si>
+    <t>Kids with the greatest number of candies</t>
   </si>
 </sst>
 </file>
@@ -1533,13 +1630,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CECAF50C-0FA8-4FE8-AF1F-0197AD9DA707}">
-  <dimension ref="A1:S31"/>
+  <dimension ref="A1:S37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="17" ySplit="8" topLeftCell="R30" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="17" ySplit="8" topLeftCell="R33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="P1" sqref="P1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="G37" sqref="G37"/>
+      <selection pane="bottomRight" activeCell="N40" sqref="N40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1609,7 +1706,7 @@
         <v>17</v>
       </c>
       <c r="Q2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -1655,7 +1752,7 @@
         <v>19</v>
       </c>
       <c r="Q4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
@@ -1675,10 +1772,10 @@
       <c r="N5" s="17"/>
       <c r="O5" s="18"/>
       <c r="P5" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="Q5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
@@ -1698,10 +1795,10 @@
       <c r="N6" s="17"/>
       <c r="O6" s="18"/>
       <c r="P6" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Q6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -1721,10 +1818,10 @@
       <c r="N7" s="19"/>
       <c r="O7" s="20"/>
       <c r="P7" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="Q7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
@@ -1750,25 +1847,25 @@
         <v>5</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="L8" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="K8" s="2" t="s">
+      <c r="M8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N8" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="O8" s="3" t="s">
         <v>1</v>
@@ -1797,25 +1894,25 @@
         <v>8</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>21</v>
+        <v>102</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="L9" s="9">
         <v>2</v>
       </c>
       <c r="M9" s="11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="N9" s="11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="30" x14ac:dyDescent="0.25">
@@ -1841,25 +1938,25 @@
         <v>7</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="L10" s="9">
         <v>1</v>
       </c>
       <c r="M10" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="N10" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="O10" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="45" x14ac:dyDescent="0.25">
@@ -1885,25 +1982,25 @@
         <v>7</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="L11" s="9">
         <v>2</v>
       </c>
       <c r="M11" s="11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="N11" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="O11" s="6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="45" x14ac:dyDescent="0.25">
@@ -1911,7 +2008,7 @@
         <v>557</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>2</v>
@@ -1923,31 +2020,31 @@
         <v>10</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>8</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="L12" s="9">
         <v>2</v>
       </c>
       <c r="M12" s="11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="N12" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="O12" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
@@ -1955,13 +2052,13 @@
         <v>237</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>10</v>
@@ -1973,25 +2070,25 @@
         <v>8</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="L13" s="9">
         <v>2</v>
       </c>
       <c r="M13" s="11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="N13" s="11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="O13" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="120" x14ac:dyDescent="0.25">
@@ -1999,13 +2096,13 @@
         <v>136</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>10</v>
@@ -2017,25 +2114,25 @@
         <v>8</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="L14" s="9">
         <v>1</v>
       </c>
       <c r="M14" s="11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="N14" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="O14" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
@@ -2043,13 +2140,13 @@
         <v>206</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>10</v>
@@ -2061,25 +2158,25 @@
         <v>8</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="L15" s="9">
         <v>2</v>
       </c>
       <c r="M15" s="11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="N15" s="11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="O15" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
@@ -2087,13 +2184,13 @@
         <v>21</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>10</v>
@@ -2105,25 +2202,25 @@
         <v>8</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="L16" s="9">
         <v>1</v>
       </c>
       <c r="M16" s="11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="N16" s="11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="O16" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="45" x14ac:dyDescent="0.25">
@@ -2131,13 +2228,13 @@
         <v>1512</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>10</v>
@@ -2149,25 +2246,25 @@
         <v>7</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="L17" s="9">
         <v>1</v>
       </c>
       <c r="M17" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="N17" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="O17" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="90" x14ac:dyDescent="0.25">
@@ -2175,43 +2272,43 @@
         <v>88</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>8</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="L18" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M18" s="11" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="N18" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="O18" s="6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="75" x14ac:dyDescent="0.25">
@@ -2219,13 +2316,13 @@
         <v>1</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>10</v>
@@ -2237,25 +2334,25 @@
         <v>7</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="L19" s="9">
         <v>1</v>
       </c>
       <c r="M19" s="11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="N19" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="O19" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="180" x14ac:dyDescent="0.25">
@@ -2263,7 +2360,7 @@
         <v>125</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>2</v>
@@ -2278,28 +2375,28 @@
         <v>7</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="L20" s="9">
         <v>1</v>
       </c>
       <c r="M20" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="N20" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="O20" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="60" x14ac:dyDescent="0.25">
@@ -2307,13 +2404,13 @@
         <v>141</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>10</v>
@@ -2325,25 +2422,25 @@
         <v>8</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="L21" s="9">
         <v>1</v>
       </c>
       <c r="M21" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="N21" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="O21" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="45" x14ac:dyDescent="0.25">
@@ -2351,16 +2448,16 @@
         <v>160</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>7</v>
@@ -2369,25 +2466,25 @@
         <v>8</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="L22" s="9">
         <v>1</v>
       </c>
       <c r="M22" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="N22" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="O22" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="195" x14ac:dyDescent="0.25">
@@ -2395,13 +2492,13 @@
         <v>234</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>10</v>
@@ -2416,22 +2513,22 @@
         <v>18</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="L23" s="9">
         <v>2</v>
       </c>
       <c r="M23" s="11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="N23" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="O23" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="135" x14ac:dyDescent="0.25">
@@ -2439,25 +2536,25 @@
         <v>9</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>10</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="N24" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="O24" s="6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="75" x14ac:dyDescent="0.25">
@@ -2465,13 +2562,13 @@
         <v>283</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>10</v>
@@ -2486,25 +2583,25 @@
         <v>18</v>
       </c>
       <c r="I25" s="9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J25" s="9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K25" s="9">
         <v>30</v>
       </c>
       <c r="L25" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M25" s="11" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="N25" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="O25" s="6" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="150" x14ac:dyDescent="0.25">
@@ -2512,13 +2609,13 @@
         <v>169</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>10</v>
@@ -2533,22 +2630,22 @@
         <v>18</v>
       </c>
       <c r="I26" s="9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J26" s="9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K26" s="9">
         <v>40</v>
       </c>
       <c r="M26" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="N26" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="O26" s="6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="105" x14ac:dyDescent="0.25">
@@ -2556,13 +2653,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>10</v>
@@ -2574,28 +2671,28 @@
         <v>8</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I27" s="9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J27" s="9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K27" s="9">
         <v>45</v>
       </c>
       <c r="L27" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M27" s="11" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="N27" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="O27" s="6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="30" x14ac:dyDescent="0.25">
@@ -2603,13 +2700,13 @@
         <v>412</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>10</v>
@@ -2621,13 +2718,13 @@
         <v>8</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K28" s="9">
         <v>15</v>
@@ -2636,13 +2733,13 @@
         <v>2</v>
       </c>
       <c r="M28" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="N28" s="11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="O28" s="6" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="120" x14ac:dyDescent="0.25">
@@ -2650,31 +2747,31 @@
         <v>217</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G29" s="5" t="s">
         <v>8</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K29" s="9">
         <v>30</v>
@@ -2683,10 +2780,10 @@
         <v>1</v>
       </c>
       <c r="M29" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="N29" s="11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="O29" s="6" t="s">
         <v>95</v>
@@ -2697,13 +2794,13 @@
         <v>448</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>10</v>
@@ -2718,10 +2815,10 @@
         <v>18</v>
       </c>
       <c r="I30" s="9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J30" s="9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K30" s="9">
         <v>35</v>
@@ -2730,13 +2827,13 @@
         <v>1</v>
       </c>
       <c r="M30" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="N30" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="O30" s="6" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="45" x14ac:dyDescent="0.25">
@@ -2744,13 +2841,13 @@
         <v>83</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>10</v>
@@ -2762,13 +2859,13 @@
         <v>8</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J31" s="9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K31" s="9">
         <v>35</v>
@@ -2777,13 +2874,220 @@
         <v>1</v>
       </c>
       <c r="M31" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="N31" s="11" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="O31" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="7">
+        <v>155</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="I32" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="J32" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="L32" s="9">
+        <v>1</v>
+      </c>
+      <c r="M32" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="N32" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="O32" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="180" x14ac:dyDescent="0.25">
+      <c r="A33" s="7">
+        <v>26</v>
+      </c>
+      <c r="B33" s="7" t="s">
         <v>99</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I33" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="J33" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="K33" s="9">
+        <v>40</v>
+      </c>
+      <c r="L33" s="9">
+        <v>1</v>
+      </c>
+      <c r="M33" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="N33" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="O33" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" s="7">
+        <v>28</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="I34" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="J34" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="K34" s="9">
+        <v>45</v>
+      </c>
+      <c r="L34" s="9">
+        <v>1</v>
+      </c>
+      <c r="M34" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="N34" s="11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" s="7">
+        <v>1480</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I35" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="J35" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="K35" s="9">
+        <v>5</v>
+      </c>
+      <c r="L35" s="9">
+        <v>1</v>
+      </c>
+      <c r="M35" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="N35" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="O35" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" s="7">
+        <v>1470</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="I36" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="J36" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="K36" s="9">
+        <v>45</v>
+      </c>
+      <c r="L36" s="9">
+        <v>1</v>
+      </c>
+      <c r="M36" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="N36" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="O36" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="7">
+        <v>1431</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/LeetCode Tracker.xlsx
+++ b/LeetCode Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leon\Desktop\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A55ACE92-F1CC-4E29-824D-4A086071E337}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C247C38-3E10-4515-B6D5-A135FEEE19BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2FA590F6-CEBE-453D-A814-55EB366ADEEE}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="110">
   <si>
     <t>LeetCode Problems</t>
   </si>
@@ -1636,7 +1636,7 @@
       <pane xSplit="17" ySplit="8" topLeftCell="R33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="P1" sqref="P1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="N40" sqref="N40"/>
+      <selection pane="bottomRight" activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3088,6 +3088,12 @@
       </c>
       <c r="D37" s="5" t="s">
         <v>85</v>
+      </c>
+      <c r="I37" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="J37" s="9" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/LeetCode Tracker.xlsx
+++ b/LeetCode Tracker.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leon\Desktop\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C247C38-3E10-4515-B6D5-A135FEEE19BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C50F80DA-E44E-4069-8067-6B23C7031707}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2FA590F6-CEBE-453D-A814-55EB366ADEEE}"/>
   </bookViews>
   <sheets>
     <sheet name="LeetCode" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LeetCode!$A$8:$N$38</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="114">
   <si>
     <t>LeetCode Problems</t>
   </si>
@@ -1073,10 +1076,243 @@
     <t>Suffle the Array</t>
   </si>
   <si>
-    <t>****This should be a straightforward question, but cannot seem to get it</t>
-  </si>
-  <si>
     <t>Kids with the greatest number of candies</t>
+  </si>
+  <si>
+    <r>
+      <t>**** It's better to understand</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> KMP substring</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> method to do this</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">****Not a very straightforward question. This makes so much sense with two poiners. However, one thing to remember is always try to think of BRUTE FORCE first!! Because of thinking how to get a better time/space complexity, ended up not knowing how to do it.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>UPDATE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Optimal Solution is bit manipulation</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">****I think there should be a better solution for this, but for now, we need to loop twice, one is to find </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>max</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, and the second time is to find if adding the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>extraCandies</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, will result more or equal to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>max</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Also, need to create and additional </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ArrayList&lt;Boolean&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to store </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"true"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> or </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"false"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Time Complexity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: O(n) Loop through array.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Space Complexity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: O(n) because we created an extra Boolean array.</t>
+    </r>
+  </si>
+  <si>
+    <t>How Many Numbers Are Smaller Than the Current Number</t>
+  </si>
+  <si>
+    <t>****There should be optimal. Brute force took time complexity O(n^2).
+Optimal Solution Explanation: 
+https://leetcode.com/problems/how-many-numbers-are-smaller-than-the-current-number/discuss/641884/Java-O(n)-1ms-less-memory-than-100-explained</t>
   </si>
 </sst>
 </file>
@@ -1630,13 +1866,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CECAF50C-0FA8-4FE8-AF1F-0197AD9DA707}">
-  <dimension ref="A1:S37"/>
+  <dimension ref="A1:S38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="17" ySplit="8" topLeftCell="R33" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="17" ySplit="8" topLeftCell="R36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="P1" sqref="P1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="K35" sqref="K35"/>
+      <selection pane="bottomRight" activeCell="O44" sqref="O44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1644,18 +1880,19 @@
     <col min="1" max="1" width="8.5703125" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.140625" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5.5703125" style="9" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7" style="9" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.7109375" style="9" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.7109375" style="11" customWidth="1"/>
+    <col min="13" max="13" width="8.5703125" style="11" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="7.140625" style="11" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="67" style="6" customWidth="1"/>
+    <col min="16" max="16" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="23.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="33.42578125" bestFit="1" customWidth="1"/>
@@ -2993,6 +3230,9 @@
       <c r="N34" s="11" t="s">
         <v>57</v>
       </c>
+      <c r="O34" s="6" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
@@ -3041,7 +3281,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" ht="90" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
         <v>1470</v>
       </c>
@@ -3054,6 +3294,18 @@
       <c r="D36" s="5" t="s">
         <v>85</v>
       </c>
+      <c r="E36" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="I36" s="9" t="s">
         <v>56</v>
       </c>
@@ -3064,24 +3316,24 @@
         <v>45</v>
       </c>
       <c r="L36" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M36" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N36" s="11" t="s">
         <v>57</v>
       </c>
       <c r="O36" s="6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="105" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
         <v>1431</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>2</v>
@@ -3089,14 +3341,89 @@
       <c r="D37" s="5" t="s">
         <v>85</v>
       </c>
+      <c r="E37" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="I37" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
+      </c>
+      <c r="K37" s="9">
+        <v>20</v>
+      </c>
+      <c r="L37" s="9">
+        <v>1</v>
+      </c>
+      <c r="M37" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="N37" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="O37" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+      <c r="A38" s="7">
+        <v>1365</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I38" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="J38" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="K38" s="9">
+        <v>20</v>
+      </c>
+      <c r="L38" s="9">
+        <v>1</v>
+      </c>
+      <c r="M38" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="N38" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="O38" s="6" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A8:N38" xr:uid="{A1AADE2E-A8D0-41F9-A599-7CDB900FF573}"/>
   <mergeCells count="2">
     <mergeCell ref="A1:O7"/>
     <mergeCell ref="P1:Q1"/>

--- a/LeetCode Tracker.xlsx
+++ b/LeetCode Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leon\Desktop\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C50F80DA-E44E-4069-8067-6B23C7031707}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFA29960-FA17-4C79-A9E4-5351F70AE30F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2FA590F6-CEBE-453D-A814-55EB366ADEEE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="122">
   <si>
     <t>LeetCode Problems</t>
   </si>
@@ -1313,6 +1313,77 @@
     <t>****There should be optimal. Brute force took time complexity O(n^2).
 Optimal Solution Explanation: 
 https://leetcode.com/problems/how-many-numbers-are-smaller-than-the-current-number/discuss/641884/Java-O(n)-1ms-less-memory-than-100-explained</t>
+  </si>
+  <si>
+    <t>Missing Number</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">****Brute Force worked with Arrays.sort() and using 'bucket' method. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>UPDATE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Bit manipulation method for optimal solution!</t>
+    </r>
+  </si>
+  <si>
+    <t>PlusOne</t>
+  </si>
+  <si>
+    <t>This question is veru straightforward, but the space complexity is O(n). Wonder if we can find O(1) space complexity solution.</t>
+  </si>
+  <si>
+    <t>Missing Ranges</t>
+  </si>
+  <si>
+    <t>Not Sure</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">****This seems like a easy to medium question. I think I solved it but cannot try because it is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PREMIUM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, maybe after I purchase then can try. </t>
+    </r>
+  </si>
+  <si>
+    <t>Premium</t>
   </si>
 </sst>
 </file>
@@ -1344,12 +1415,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="7">
@@ -1422,7 +1499,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1489,6 +1566,22 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1866,13 +1959,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CECAF50C-0FA8-4FE8-AF1F-0197AD9DA707}">
-  <dimension ref="A1:S38"/>
+  <dimension ref="A1:S41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="17" ySplit="8" topLeftCell="R36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="P1" sqref="P1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="O44" sqref="O44"/>
+      <selection pane="bottomRight" activeCell="Q39" sqref="Q39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3152,7 +3245,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="180" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" ht="180" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
         <v>26</v>
       </c>
@@ -3199,7 +3292,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
         <v>28</v>
       </c>
@@ -3234,7 +3327,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
         <v>1480</v>
       </c>
@@ -3281,7 +3374,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" ht="90" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
         <v>1470</v>
       </c>
@@ -3328,7 +3421,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="105" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" ht="105" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
         <v>1431</v>
       </c>
@@ -3375,7 +3468,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" ht="90" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
         <v>1365</v>
       </c>
@@ -3421,6 +3514,143 @@
       <c r="O38" s="6" t="s">
         <v>113</v>
       </c>
+    </row>
+    <row r="39" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="A39" s="7">
+        <v>268</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I39" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="J39" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="K39" s="9">
+        <v>30</v>
+      </c>
+      <c r="L39" s="9">
+        <v>1</v>
+      </c>
+      <c r="M39" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="N39" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="O39" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="7">
+        <v>66</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I40" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="J40" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="K40" s="9">
+        <v>30</v>
+      </c>
+      <c r="L40" s="9">
+        <v>1</v>
+      </c>
+      <c r="M40" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="N40" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="O40" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" s="26" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="23">
+        <v>163</v>
+      </c>
+      <c r="B41" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="C41" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="24"/>
+      <c r="H41" s="24"/>
+      <c r="I41" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="J41" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="K41" s="24">
+        <v>45</v>
+      </c>
+      <c r="L41" s="24">
+        <v>1</v>
+      </c>
+      <c r="M41" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="N41" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="O41" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q41" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="R41" s="27"/>
     </row>
   </sheetData>
   <autoFilter ref="A8:N38" xr:uid="{A1AADE2E-A8D0-41F9-A599-7CDB900FF573}"/>

--- a/LeetCode Tracker.xlsx
+++ b/LeetCode Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leon\Desktop\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFA29960-FA17-4C79-A9E4-5351F70AE30F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E192FD0-6B91-420A-971A-E81C5ECE272E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2FA590F6-CEBE-453D-A814-55EB366ADEEE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="124">
   <si>
     <t>LeetCode Problems</t>
   </si>
@@ -1384,6 +1384,12 @@
   </si>
   <si>
     <t>Premium</t>
+  </si>
+  <si>
+    <t>First Unique Character in a String</t>
+  </si>
+  <si>
+    <t>****There is a better solution which is faster and not using HashMap.</t>
   </si>
 </sst>
 </file>
@@ -1499,7 +1505,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1537,6 +1543,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1566,22 +1591,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1959,13 +1968,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CECAF50C-0FA8-4FE8-AF1F-0197AD9DA707}">
-  <dimension ref="A1:S41"/>
+  <dimension ref="A1:S42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="17" ySplit="8" topLeftCell="R36" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="17" ySplit="8" topLeftCell="R38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="P1" sqref="P1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="Q39" sqref="Q39"/>
+      <selection pane="bottomRight" activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1992,46 +2001,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="21" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="22"/>
+      <c r="Q1" s="29"/>
       <c r="R1" s="12"/>
       <c r="S1" s="10"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="16"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="23"/>
       <c r="P2" s="1" t="s">
         <v>17</v>
       </c>
@@ -2040,21 +2049,21 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="16"/>
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="23"/>
       <c r="P3" s="1" t="s">
         <v>18</v>
       </c>
@@ -2063,21 +2072,21 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="16"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="23"/>
       <c r="P4" s="4" t="s">
         <v>19</v>
       </c>
@@ -2086,21 +2095,21 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="18"/>
+      <c r="A5" s="24"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="25"/>
       <c r="P5" s="1" t="s">
         <v>27</v>
       </c>
@@ -2109,21 +2118,21 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="18"/>
+      <c r="A6" s="24"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="25"/>
       <c r="P6" s="1" t="s">
         <v>29</v>
       </c>
@@ -2132,21 +2141,21 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="19"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="20"/>
+      <c r="A7" s="26"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="27"/>
       <c r="P7" s="1" t="s">
         <v>31</v>
       </c>
@@ -2247,28 +2256,28 @@
     </row>
     <row r="10" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
-        <v>541</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>9</v>
+        <v>237</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I10" s="9" t="s">
         <v>56</v>
@@ -2277,13 +2286,13 @@
         <v>56</v>
       </c>
       <c r="L10" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M10" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N10" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O10" s="6" t="s">
         <v>39</v>
@@ -2291,16 +2300,16 @@
     </row>
     <row r="11" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
-        <v>345</v>
+        <v>206</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>10</v>
@@ -2309,10 +2318,10 @@
         <v>7</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>102</v>
+        <v>33</v>
       </c>
       <c r="I11" s="9" t="s">
         <v>56</v>
@@ -2327,7 +2336,7 @@
         <v>56</v>
       </c>
       <c r="N11" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O11" s="6" t="s">
         <v>42</v>
@@ -2335,28 +2344,28 @@
     </row>
     <row r="12" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
-        <v>557</v>
+        <v>21</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>8</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9" t="s">
         <v>56</v>
@@ -2365,13 +2374,13 @@
         <v>56</v>
       </c>
       <c r="L12" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M12" s="11" t="s">
         <v>56</v>
       </c>
       <c r="N12" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O12" s="6" t="s">
         <v>40</v>
@@ -2379,22 +2388,22 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
-        <v>237</v>
+        <v>412</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>25</v>
+      <c r="D13" s="13" t="s">
+        <v>86</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>8</v>
@@ -2408,11 +2417,14 @@
       <c r="J13" s="9" t="s">
         <v>56</v>
       </c>
+      <c r="K13" s="9">
+        <v>15</v>
+      </c>
       <c r="L13" s="9">
         <v>2</v>
       </c>
       <c r="M13" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N13" s="11" t="s">
         <v>56</v>
@@ -2423,59 +2435,62 @@
     </row>
     <row r="14" spans="1:19" ht="120" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
-        <v>136</v>
+        <v>217</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>26</v>
+        <v>88</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>38</v>
+      <c r="D14" s="13" t="s">
+        <v>85</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>7</v>
+        <v>89</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>8</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I14" s="9" t="s">
         <v>56</v>
       </c>
       <c r="J14" s="9" t="s">
         <v>56</v>
+      </c>
+      <c r="K14" s="9">
+        <v>30</v>
       </c>
       <c r="L14" s="9">
         <v>1</v>
       </c>
       <c r="M14" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N14" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O14" s="6" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
-        <v>206</v>
+        <v>83</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>34</v>
+        <v>93</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="13" t="s">
         <v>25</v>
       </c>
       <c r="E15" s="5" t="s">
@@ -2496,11 +2511,14 @@
       <c r="J15" s="9" t="s">
         <v>56</v>
       </c>
+      <c r="K15" s="9">
+        <v>35</v>
+      </c>
       <c r="L15" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M15" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N15" s="11" t="s">
         <v>56</v>
@@ -2511,16 +2529,16 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
-        <v>21</v>
+        <v>1480</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>35</v>
+        <v>105</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>25</v>
+      <c r="D16" s="13" t="s">
+        <v>85</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>10</v>
@@ -2532,19 +2550,22 @@
         <v>8</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="I16" s="9" t="s">
         <v>56</v>
       </c>
       <c r="J16" s="9" t="s">
         <v>56</v>
+      </c>
+      <c r="K16" s="9">
+        <v>5</v>
       </c>
       <c r="L16" s="9">
         <v>1</v>
       </c>
       <c r="M16" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N16" s="11" t="s">
         <v>56</v>
@@ -2555,16 +2576,16 @@
     </row>
     <row r="17" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
-        <v>1512</v>
+        <v>66</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>36</v>
+        <v>116</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>78</v>
+      <c r="D17" s="13" t="s">
+        <v>85</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>10</v>
@@ -2584,6 +2605,9 @@
       <c r="J17" s="9" t="s">
         <v>56</v>
       </c>
+      <c r="K17" s="9">
+        <v>30</v>
+      </c>
       <c r="L17" s="9">
         <v>1</v>
       </c>
@@ -2591,7 +2615,7 @@
         <v>57</v>
       </c>
       <c r="N17" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O17" s="6" t="s">
         <v>71</v>
@@ -2599,28 +2623,28 @@
     </row>
     <row r="18" spans="1:15" ht="90" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
-        <v>88</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>46</v>
+        <v>541</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>76</v>
+      <c r="D18" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I18" s="9" t="s">
         <v>56</v>
@@ -2629,10 +2653,10 @@
         <v>56</v>
       </c>
       <c r="L18" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M18" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N18" s="11" t="s">
         <v>57</v>
@@ -2643,16 +2667,16 @@
     </row>
     <row r="19" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
-        <v>1</v>
+        <v>345</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>77</v>
+      <c r="D19" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>10</v>
@@ -2664,7 +2688,7 @@
         <v>7</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>33</v>
+        <v>102</v>
       </c>
       <c r="I19" s="9" t="s">
         <v>56</v>
@@ -2673,7 +2697,7 @@
         <v>56</v>
       </c>
       <c r="L19" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M19" s="11" t="s">
         <v>56</v>
@@ -2687,28 +2711,28 @@
     </row>
     <row r="20" spans="1:15" ht="180" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
-        <v>125</v>
+        <v>557</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="7" t="s">
         <v>13</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I20" s="9" t="s">
         <v>56</v>
@@ -2717,10 +2741,10 @@
         <v>56</v>
       </c>
       <c r="L20" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M20" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N20" s="11" t="s">
         <v>57</v>
@@ -2731,16 +2755,16 @@
     </row>
     <row r="21" spans="1:15" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D21" s="5" t="s">
-        <v>25</v>
+      <c r="D21" s="7" t="s">
+        <v>38</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>10</v>
@@ -2752,19 +2776,19 @@
         <v>8</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L21" s="9">
         <v>1</v>
       </c>
       <c r="M21" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N21" s="11" t="s">
         <v>57</v>
@@ -2775,34 +2799,34 @@
     </row>
     <row r="22" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
-        <v>160</v>
+        <v>1512</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D22" s="5" t="s">
-        <v>25</v>
+      <c r="D22" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="F22" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H22" s="5" t="s">
         <v>33</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L22" s="9">
         <v>1</v>
@@ -2819,28 +2843,28 @@
     </row>
     <row r="23" spans="1:15" ht="195" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
-        <v>234</v>
+        <v>88</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>8</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I23" s="9" t="s">
         <v>56</v>
@@ -2863,22 +2887,40 @@
     </row>
     <row r="24" spans="1:15" ht="135" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>10</v>
       </c>
+      <c r="F24" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>56</v>
+      </c>
       <c r="J24" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
+      </c>
+      <c r="L24" s="9">
+        <v>1</v>
+      </c>
+      <c r="M24" s="11" t="s">
+        <v>56</v>
       </c>
       <c r="N24" s="11" t="s">
         <v>57</v>
@@ -2889,16 +2931,16 @@
     </row>
     <row r="25" spans="1:15" ht="75" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
-        <v>283</v>
+        <v>125</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>10</v>
@@ -2907,10 +2949,10 @@
         <v>7</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I25" s="9" t="s">
         <v>56</v>
@@ -2918,14 +2960,11 @@
       <c r="J25" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="K25" s="9">
-        <v>30</v>
-      </c>
       <c r="L25" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M25" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N25" s="11" t="s">
         <v>57</v>
@@ -2936,16 +2975,16 @@
     </row>
     <row r="26" spans="1:15" ht="150" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
-        <v>169</v>
+        <v>141</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>10</v>
@@ -2957,16 +2996,16 @@
         <v>8</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I26" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J26" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="K26" s="9">
-        <v>40</v>
+      <c r="L26" s="9">
+        <v>1</v>
       </c>
       <c r="M26" s="11" t="s">
         <v>57</v>
@@ -2980,19 +3019,19 @@
     </row>
     <row r="27" spans="1:15" ht="105" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
-        <v>26</v>
+        <v>160</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>76</v>
+        <v>25</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>7</v>
@@ -3004,19 +3043,16 @@
         <v>33</v>
       </c>
       <c r="I27" s="9" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="J27" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="K27" s="9">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="L27" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M27" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N27" s="11" t="s">
         <v>57</v>
@@ -3027,16 +3063,16 @@
     </row>
     <row r="28" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
-        <v>412</v>
+        <v>234</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>86</v>
+        <v>25</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>10</v>
@@ -3048,7 +3084,7 @@
         <v>8</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I28" s="9" t="s">
         <v>56</v>
@@ -3056,17 +3092,14 @@
       <c r="J28" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="K28" s="9">
-        <v>15</v>
-      </c>
       <c r="L28" s="9">
         <v>2</v>
       </c>
       <c r="M28" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N28" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O28" s="6" t="s">
         <v>87</v>
@@ -3074,46 +3107,25 @@
     </row>
     <row r="29" spans="1:15" ht="120" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
-        <v>217</v>
+        <v>9</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F29" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I29" s="9" t="s">
-        <v>56</v>
-      </c>
       <c r="J29" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="K29" s="9">
-        <v>30</v>
-      </c>
-      <c r="L29" s="9">
-        <v>1</v>
-      </c>
-      <c r="M29" s="11" t="s">
         <v>57</v>
       </c>
       <c r="N29" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O29" s="6" t="s">
         <v>95</v>
@@ -3121,16 +3133,16 @@
     </row>
     <row r="30" spans="1:15" ht="120" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
-        <v>448</v>
+        <v>283</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>10</v>
@@ -3148,16 +3160,16 @@
         <v>56</v>
       </c>
       <c r="J30" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K30" s="9">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="L30" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M30" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N30" s="11" t="s">
         <v>57</v>
@@ -3168,16 +3180,16 @@
     </row>
     <row r="31" spans="1:15" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
-        <v>83</v>
+        <v>169</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>10</v>
@@ -3189,25 +3201,22 @@
         <v>8</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I31" s="9" t="s">
         <v>56</v>
       </c>
       <c r="J31" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K31" s="9">
-        <v>35</v>
-      </c>
-      <c r="L31" s="9">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="M31" s="11" t="s">
         <v>57</v>
       </c>
       <c r="N31" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O31" s="6" t="s">
         <v>94</v>
@@ -3215,30 +3224,45 @@
     </row>
     <row r="32" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
-        <v>155</v>
+        <v>26</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="I32" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="J32" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="L32" s="9">
-        <v>1</v>
-      </c>
-      <c r="M32" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="N32" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G32" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H32" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I32" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="J32" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="K32" s="13">
+        <v>45</v>
+      </c>
+      <c r="L32" s="13">
+        <v>2</v>
+      </c>
+      <c r="M32" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="N32" s="13" t="s">
         <v>57</v>
       </c>
       <c r="O32" s="6" t="s">
@@ -3247,16 +3271,16 @@
     </row>
     <row r="33" spans="1:18" ht="180" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
-        <v>26</v>
+        <v>448</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D33" s="5" t="s">
-        <v>98</v>
+      <c r="D33" s="13" t="s">
+        <v>85</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>10</v>
@@ -3265,7 +3289,7 @@
         <v>7</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H33" s="5" t="s">
         <v>18</v>
@@ -3277,7 +3301,7 @@
         <v>57</v>
       </c>
       <c r="K33" s="9">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="L33" s="9">
         <v>1</v>
@@ -3294,25 +3318,22 @@
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
-        <v>28</v>
+        <v>155</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D34" s="5" t="s">
-        <v>104</v>
+      <c r="D34" s="13" t="s">
+        <v>98</v>
       </c>
       <c r="I34" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J34" s="9" t="s">
         <v>57</v>
-      </c>
-      <c r="K34" s="9">
-        <v>45</v>
       </c>
       <c r="L34" s="9">
         <v>1</v>
@@ -3329,16 +3350,16 @@
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
-        <v>1480</v>
+        <v>26</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D35" s="5" t="s">
-        <v>85</v>
+      <c r="D35" s="13" t="s">
+        <v>98</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>10</v>
@@ -3347,19 +3368,19 @@
         <v>7</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I35" s="9" t="s">
         <v>56</v>
       </c>
       <c r="J35" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K35" s="9">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="L35" s="9">
         <v>1</v>
@@ -3368,7 +3389,7 @@
         <v>57</v>
       </c>
       <c r="N35" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O35" s="6" t="s">
         <v>106</v>
@@ -3376,28 +3397,16 @@
     </row>
     <row r="36" spans="1:18" ht="90" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
-        <v>1470</v>
+        <v>28</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D36" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H36" s="5" t="s">
-        <v>18</v>
+      <c r="D36" s="13" t="s">
+        <v>104</v>
       </c>
       <c r="I36" s="9" t="s">
         <v>56</v>
@@ -3409,10 +3418,10 @@
         <v>45</v>
       </c>
       <c r="L36" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M36" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N36" s="11" t="s">
         <v>57</v>
@@ -3423,10 +3432,10 @@
     </row>
     <row r="37" spans="1:18" ht="105" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
-        <v>1431</v>
+        <v>1470</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>2</v>
@@ -3450,16 +3459,16 @@
         <v>56</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K37" s="9">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="L37" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M37" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N37" s="11" t="s">
         <v>57</v>
@@ -3470,10 +3479,10 @@
     </row>
     <row r="38" spans="1:18" ht="90" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
-        <v>1365</v>
+        <v>1431</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>2</v>
@@ -3485,7 +3494,7 @@
         <v>10</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="G38" s="5" t="s">
         <v>7</v>
@@ -3517,10 +3526,10 @@
     </row>
     <row r="39" spans="1:18" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
-        <v>268</v>
+        <v>1365</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>2</v>
@@ -3532,10 +3541,10 @@
         <v>10</v>
       </c>
       <c r="F39" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G39" s="5" t="s">
         <v>7</v>
-      </c>
-      <c r="G39" s="5" t="s">
-        <v>8</v>
       </c>
       <c r="H39" s="5" t="s">
         <v>18</v>
@@ -3547,7 +3556,7 @@
         <v>56</v>
       </c>
       <c r="K39" s="9">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="L39" s="9">
         <v>1</v>
@@ -3564,10 +3573,10 @@
     </row>
     <row r="40" spans="1:18" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="7">
-        <v>66</v>
+        <v>268</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>2</v>
@@ -3582,10 +3591,10 @@
         <v>7</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I40" s="9" t="s">
         <v>56</v>
@@ -3603,57 +3612,108 @@
         <v>57</v>
       </c>
       <c r="N40" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O40" s="6" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="41" spans="1:18" s="26" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="23">
+    <row r="41" spans="1:18" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="14">
         <v>163</v>
       </c>
-      <c r="B41" s="23" t="s">
+      <c r="B41" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="C41" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D41" s="24" t="s">
+      <c r="C41" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="E41" s="24"/>
-      <c r="F41" s="24"/>
-      <c r="G41" s="24"/>
-      <c r="H41" s="24"/>
-      <c r="I41" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="J41" s="24" t="s">
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="J41" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="K41" s="24">
+      <c r="K41" s="15">
         <v>45</v>
       </c>
-      <c r="L41" s="24">
+      <c r="L41" s="15">
         <v>1</v>
       </c>
-      <c r="M41" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="N41" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="O41" s="25" t="s">
+      <c r="M41" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="N41" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="O41" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="Q41" s="28" t="s">
+      <c r="Q41" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="R41" s="27"/>
+      <c r="R41" s="18"/>
+    </row>
+    <row r="42" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="7">
+        <v>387</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I42" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="J42" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="K42" s="9">
+        <v>30</v>
+      </c>
+      <c r="L42" s="9">
+        <v>1</v>
+      </c>
+      <c r="M42" s="11">
+        <v>1</v>
+      </c>
+      <c r="N42" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="O42" s="6" t="s">
+        <v>123</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A8:N38" xr:uid="{A1AADE2E-A8D0-41F9-A599-7CDB900FF573}"/>
+  <autoFilter ref="A8:N38" xr:uid="{A1AADE2E-A8D0-41F9-A599-7CDB900FF573}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:N41">
+      <sortCondition descending="1" ref="N8:N38"/>
+    </sortState>
+  </autoFilter>
   <mergeCells count="2">
     <mergeCell ref="A1:O7"/>
     <mergeCell ref="P1:Q1"/>

--- a/LeetCode Tracker.xlsx
+++ b/LeetCode Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leon\Desktop\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E192FD0-6B91-420A-971A-E81C5ECE272E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F14AD2F2-43B4-4970-BBF8-480C62DA7422}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2FA590F6-CEBE-453D-A814-55EB366ADEEE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="125">
   <si>
     <t>LeetCode Problems</t>
   </si>
@@ -1390,6 +1390,9 @@
   </si>
   <si>
     <t>****There is a better solution which is faster and not using HashMap.</t>
+  </si>
+  <si>
+    <t>Revision/Practiced</t>
   </si>
 </sst>
 </file>
@@ -1971,10 +1974,10 @@
   <dimension ref="A1:S42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="17" ySplit="8" topLeftCell="R38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="17" ySplit="8" topLeftCell="R9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="P1" sqref="P1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="J43" sqref="J43"/>
+      <selection pane="bottomRight" activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2160,7 +2163,7 @@
         <v>31</v>
       </c>
       <c r="Q7" t="s">
-        <v>32</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">

--- a/LeetCode Tracker.xlsx
+++ b/LeetCode Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leon\Desktop\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F14AD2F2-43B4-4970-BBF8-480C62DA7422}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B66B854B-9820-4FBB-A626-20660D03AFD5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2FA590F6-CEBE-453D-A814-55EB366ADEEE}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="LeetCode" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LeetCode!$A$8:$N$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LeetCode!$A$8:$O$8</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="135">
   <si>
     <t>LeetCode Problems</t>
   </si>
@@ -238,9 +238,6 @@
   </si>
   <si>
     <t>Math</t>
-  </si>
-  <si>
-    <t>Time (min)</t>
   </si>
   <si>
     <t>Time/Space Complexity</t>
@@ -1393,6 +1390,161 @@
   </si>
   <si>
     <t>Revision/Practiced</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>Jewels</t>
+  </si>
+  <si>
+    <t>Jewels &amp; Stones</t>
+  </si>
+  <si>
+    <r>
+      <t>****</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Brute Force: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Able to solve it with HashMap, but there is a better optimal solution with pointers. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Optimal Solution:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Time complexity is O(n*m) and is linear and not O(n^2). The reason is because both array are different length and it is like looping row with columns. Therefore, it is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NOT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> O(n^2).</t>
+    </r>
+  </si>
+  <si>
+    <t>Find Common Characters</t>
+  </si>
+  <si>
+    <t>Number of Steps to Reduce a Number to Zero</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">****There are two methods to solving this question: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Iteration </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bit Manipulation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.
+Still need practice on </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bit manipulation solution</t>
+    </r>
+  </si>
+  <si>
+    <t>Find the Difference</t>
+  </si>
+  <si>
+    <t>****This is bit manipulation problem. Not easy after trying with HashTable.</t>
   </si>
 </sst>
 </file>
@@ -1508,7 +1660,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1564,6 +1716,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1971,202 +2129,210 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CECAF50C-0FA8-4FE8-AF1F-0197AD9DA707}">
-  <dimension ref="A1:S42"/>
+  <dimension ref="A1:U69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="17" ySplit="8" topLeftCell="R9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="18" ySplit="8" topLeftCell="T42" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="P1" sqref="P1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="Q11" sqref="Q11"/>
+      <selection pane="bottomRight" activeCell="P46" sqref="P46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.5703125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" style="8" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" style="20" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.28515625" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.140625" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.85546875" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5.5703125" style="9" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.85546875" style="9" customWidth="1"/>
     <col min="12" max="12" width="8.7109375" style="9" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8.5703125" style="11" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="7.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="67" style="6" customWidth="1"/>
-    <col min="16" max="16" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="23.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.85546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="67" style="6" customWidth="1"/>
+    <col min="17" max="17" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="23.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="33.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="28" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="10"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="1" t="s">
+      <c r="R1" s="31"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="10"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="24"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="24"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="25"/>
-      <c r="P5" s="1" t="s">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="26"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="27"/>
+      <c r="Q5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="24"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="24"/>
-      <c r="O6" s="25"/>
-      <c r="P6" s="1" t="s">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="26"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="26"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="26"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="27"/>
-      <c r="P7" s="1" t="s">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="28"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="28"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="Q7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
@@ -2198,7 +2364,7 @@
         <v>59</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>67</v>
+        <v>124</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>58</v>
@@ -2207,13 +2373,16 @@
         <v>32</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="O8" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="P8" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>344</v>
       </c>
@@ -2223,7 +2392,7 @@
       <c r="C9" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="20" t="s">
         <v>13</v>
       </c>
       <c r="E9" s="5" t="s">
@@ -2236,7 +2405,7 @@
         <v>8</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I9" s="9" t="s">
         <v>56</v>
@@ -2253,21 +2422,21 @@
       <c r="N9" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="O9" s="6" t="s">
+      <c r="P9" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>237</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="20" t="s">
         <v>25</v>
       </c>
       <c r="E10" s="5" t="s">
@@ -2297,21 +2466,21 @@
       <c r="N10" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="O10" s="6" t="s">
+      <c r="P10" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>206</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="8" t="s">
         <v>34</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="20" t="s">
         <v>25</v>
       </c>
       <c r="E11" s="5" t="s">
@@ -2341,21 +2510,21 @@
       <c r="N11" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="O11" s="6" t="s">
+      <c r="P11" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>21</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="8" t="s">
         <v>35</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="20" t="s">
         <v>25</v>
       </c>
       <c r="E12" s="5" t="s">
@@ -2385,22 +2554,22 @@
       <c r="N12" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="O12" s="6" t="s">
+      <c r="P12" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>412</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>84</v>
+      <c r="B13" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="13" t="s">
-        <v>86</v>
+      <c r="D13" s="20" t="s">
+        <v>85</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>10</v>
@@ -2432,28 +2601,28 @@
       <c r="N13" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="O13" s="6" t="s">
+      <c r="P13" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="120" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" ht="120" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>217</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>88</v>
+      <c r="B14" s="8" t="s">
+        <v>87</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="13" t="s">
-        <v>85</v>
+      <c r="D14" s="20" t="s">
+        <v>84</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>8</v>
@@ -2479,21 +2648,21 @@
       <c r="N14" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="O14" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="P14" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>83</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>93</v>
+      <c r="B15" s="8" t="s">
+        <v>92</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="20" t="s">
         <v>25</v>
       </c>
       <c r="E15" s="5" t="s">
@@ -2526,22 +2695,22 @@
       <c r="N15" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="O15" s="6" t="s">
+      <c r="P15" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>1480</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>105</v>
+      <c r="B16" s="8" t="s">
+        <v>104</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="13" t="s">
-        <v>85</v>
+      <c r="D16" s="20" t="s">
+        <v>84</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>10</v>
@@ -2573,22 +2742,22 @@
       <c r="N16" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="O16" s="6" t="s">
+      <c r="P16" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>66</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>116</v>
+      <c r="B17" s="8" t="s">
+        <v>115</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="13" t="s">
-        <v>85</v>
+      <c r="D17" s="20" t="s">
+        <v>84</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>10</v>
@@ -2618,13 +2787,13 @@
         <v>57</v>
       </c>
       <c r="N17" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="O17" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="90" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="P17" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="90" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>541</v>
       </c>
@@ -2634,7 +2803,7 @@
       <c r="C18" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="20" t="s">
         <v>13</v>
       </c>
       <c r="E18" s="5" t="s">
@@ -2664,21 +2833,21 @@
       <c r="N18" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="O18" s="6" t="s">
+      <c r="P18" s="6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>345</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="20" t="s">
         <v>13</v>
       </c>
       <c r="E19" s="5" t="s">
@@ -2691,7 +2860,7 @@
         <v>7</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I19" s="9" t="s">
         <v>56</v>
@@ -2708,21 +2877,21 @@
       <c r="N19" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="O19" s="6" t="s">
+      <c r="P19" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="180" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" ht="180" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>557</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="8" t="s">
         <v>21</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="20" t="s">
         <v>13</v>
       </c>
       <c r="E20" s="5" t="s">
@@ -2752,21 +2921,21 @@
       <c r="N20" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="O20" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="P20" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>136</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="20" t="s">
         <v>38</v>
       </c>
       <c r="E21" s="5" t="s">
@@ -2796,22 +2965,22 @@
       <c r="N21" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="O21" s="6" t="s">
+      <c r="P21" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>1512</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="8" t="s">
         <v>36</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D22" s="7" t="s">
-        <v>78</v>
+      <c r="D22" s="20" t="s">
+        <v>77</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>10</v>
@@ -2840,22 +3009,22 @@
       <c r="N22" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="O22" s="6" t="s">
+      <c r="P22" s="6" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="195" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" ht="195" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>88</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="8" t="s">
         <v>46</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D23" s="5" t="s">
-        <v>76</v>
+      <c r="D23" s="20" t="s">
+        <v>75</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>10</v>
@@ -2884,22 +3053,22 @@
       <c r="N23" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="O23" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" ht="135" x14ac:dyDescent="0.25">
+      <c r="P23" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="135" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>1</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="8" t="s">
         <v>49</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D24" s="5" t="s">
-        <v>77</v>
+      <c r="D24" s="20" t="s">
+        <v>76</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>10</v>
@@ -2928,21 +3097,21 @@
       <c r="N24" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="O24" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" ht="75" x14ac:dyDescent="0.25">
+      <c r="P24" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>125</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="8" t="s">
         <v>51</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="20" t="s">
         <v>13</v>
       </c>
       <c r="E25" s="5" t="s">
@@ -2972,21 +3141,21 @@
       <c r="N25" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="O25" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" ht="150" x14ac:dyDescent="0.25">
+      <c r="P25" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="150" x14ac:dyDescent="0.25">
       <c r="A26" s="7">
         <v>141</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="8" t="s">
         <v>53</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="20" t="s">
         <v>25</v>
       </c>
       <c r="E26" s="5" t="s">
@@ -3016,21 +3185,21 @@
       <c r="N26" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="O26" s="6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" ht="105" x14ac:dyDescent="0.25">
+      <c r="P26" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="105" x14ac:dyDescent="0.25">
       <c r="A27" s="7">
         <v>160</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="8" t="s">
         <v>60</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="20" t="s">
         <v>25</v>
       </c>
       <c r="E27" s="5" t="s">
@@ -3060,21 +3229,24 @@
       <c r="N27" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="O27" s="6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="O27" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="P27" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <v>234</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="8" t="s">
         <v>63</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="20" t="s">
         <v>25</v>
       </c>
       <c r="E28" s="5" t="s">
@@ -3104,21 +3276,21 @@
       <c r="N28" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="O28" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" ht="120" x14ac:dyDescent="0.25">
+      <c r="P28" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="120" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
         <v>9</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="8" t="s">
         <v>65</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="20" t="s">
         <v>66</v>
       </c>
       <c r="E29" s="5" t="s">
@@ -3130,22 +3302,22 @@
       <c r="N29" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="O29" s="6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" ht="120" x14ac:dyDescent="0.25">
+      <c r="P29" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="120" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <v>283</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" s="20" t="s">
         <v>75</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>76</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>10</v>
@@ -3177,22 +3349,22 @@
       <c r="N30" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="O30" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="P30" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
         <v>169</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="20" t="s">
         <v>79</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>80</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>10</v>
@@ -3221,22 +3393,22 @@
       <c r="N31" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="O31" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="P31" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
         <v>26</v>
       </c>
-      <c r="B32" s="7" t="s">
-        <v>83</v>
+      <c r="B32" s="8" t="s">
+        <v>82</v>
       </c>
       <c r="C32" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D32" s="13" t="s">
-        <v>76</v>
+      <c r="D32" s="20" t="s">
+        <v>75</v>
       </c>
       <c r="E32" s="13" t="s">
         <v>10</v>
@@ -3268,22 +3440,22 @@
       <c r="N32" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="O32" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" ht="180" x14ac:dyDescent="0.25">
+      <c r="P32" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" ht="180" x14ac:dyDescent="0.25">
       <c r="A33" s="7">
         <v>448</v>
       </c>
-      <c r="B33" s="7" t="s">
-        <v>91</v>
+      <c r="B33" s="8" t="s">
+        <v>90</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D33" s="13" t="s">
-        <v>85</v>
+      <c r="D33" s="20" t="s">
+        <v>84</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>10</v>
@@ -3315,22 +3487,22 @@
       <c r="N33" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="O33" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P33" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="7">
         <v>155</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" s="20" t="s">
         <v>97</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D34" s="13" t="s">
-        <v>98</v>
       </c>
       <c r="I34" s="9" t="s">
         <v>57</v>
@@ -3347,22 +3519,22 @@
       <c r="N34" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="O34" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P34" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
         <v>26</v>
       </c>
-      <c r="B35" s="7" t="s">
-        <v>99</v>
+      <c r="B35" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D35" s="13" t="s">
-        <v>98</v>
+      <c r="D35" s="20" t="s">
+        <v>97</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>10</v>
@@ -3394,22 +3566,22 @@
       <c r="N35" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="O35" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+      <c r="P35" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" ht="90" x14ac:dyDescent="0.25">
       <c r="A36" s="7">
         <v>28</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36" s="20" t="s">
         <v>103</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D36" s="13" t="s">
-        <v>104</v>
       </c>
       <c r="I36" s="9" t="s">
         <v>56</v>
@@ -3429,22 +3601,22 @@
       <c r="N36" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="O36" s="6" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" ht="105" x14ac:dyDescent="0.25">
+      <c r="P36" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" ht="105" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
         <v>1470</v>
       </c>
-      <c r="B37" s="7" t="s">
-        <v>107</v>
+      <c r="B37" s="8" t="s">
+        <v>106</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D37" s="5" t="s">
-        <v>85</v>
+      <c r="D37" s="20" t="s">
+        <v>84</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>10</v>
@@ -3476,22 +3648,22 @@
       <c r="N37" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="O37" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+      <c r="P37" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" ht="90" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
         <v>1431</v>
       </c>
-      <c r="B38" s="7" t="s">
-        <v>108</v>
+      <c r="B38" s="8" t="s">
+        <v>107</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D38" s="5" t="s">
-        <v>85</v>
+      <c r="D38" s="20" t="s">
+        <v>84</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>10</v>
@@ -3523,22 +3695,22 @@
       <c r="N38" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="O38" s="6" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18" ht="45" x14ac:dyDescent="0.25">
+      <c r="P38" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
         <v>1365</v>
       </c>
-      <c r="B39" s="7" t="s">
-        <v>112</v>
+      <c r="B39" s="8" t="s">
+        <v>111</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D39" s="5" t="s">
-        <v>85</v>
+      <c r="D39" s="20" t="s">
+        <v>84</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>10</v>
@@ -3570,22 +3742,22 @@
       <c r="N39" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="O39" s="6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="P39" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="7">
         <v>268</v>
       </c>
-      <c r="B40" s="7" t="s">
-        <v>114</v>
+      <c r="B40" s="8" t="s">
+        <v>113</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D40" s="5" t="s">
-        <v>85</v>
+      <c r="D40" s="20" t="s">
+        <v>84</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>10</v>
@@ -3617,22 +3789,22 @@
       <c r="N40" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="O40" s="6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="P40" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="14">
         <v>163</v>
       </c>
-      <c r="B41" s="14" t="s">
-        <v>118</v>
+      <c r="B41" s="21" t="s">
+        <v>117</v>
       </c>
       <c r="C41" s="15" t="s">
         <v>2</v>
       </c>
       <c r="D41" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E41" s="15"/>
       <c r="F41" s="15"/>
@@ -3642,7 +3814,7 @@
         <v>56</v>
       </c>
       <c r="J41" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K41" s="15">
         <v>45</v>
@@ -3656,26 +3828,27 @@
       <c r="N41" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="O41" s="16" t="s">
+      <c r="O41" s="15"/>
+      <c r="P41" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="R41" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="Q41" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="R41" s="18"/>
-    </row>
-    <row r="42" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="S41" s="18"/>
+    </row>
+    <row r="42" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="7">
         <v>387</v>
       </c>
-      <c r="B42" s="7" t="s">
-        <v>122</v>
+      <c r="B42" s="8" t="s">
+        <v>121</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D42" s="5" t="s">
-        <v>85</v>
+      <c r="D42" s="20" t="s">
+        <v>84</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>10</v>
@@ -3707,19 +3880,169 @@
       <c r="N42" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="O42" s="6" t="s">
-        <v>123</v>
+      <c r="P42" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" ht="90" x14ac:dyDescent="0.25">
+      <c r="A43" s="7">
+        <v>771</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D43" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I43" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="J43" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="K43" s="9">
+        <v>30</v>
+      </c>
+      <c r="L43" s="9">
+        <v>1</v>
+      </c>
+      <c r="M43" s="11">
+        <v>1</v>
+      </c>
+      <c r="N43" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="P43" s="6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="7">
+        <v>1002</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D44" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="I44" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="J44" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A45" s="7">
+        <v>1342</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D45" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I45" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="J45" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="K45" s="9">
+        <v>30</v>
+      </c>
+      <c r="L45" s="9">
+        <v>1</v>
+      </c>
+      <c r="M45" s="11">
+        <v>0</v>
+      </c>
+      <c r="N45" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="P45" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="7">
+        <v>389</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D46" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="I46" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="J46" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="K46" s="9">
+        <v>30</v>
+      </c>
+      <c r="L46" s="9">
+        <v>1</v>
+      </c>
+      <c r="M46" s="11">
+        <v>0</v>
+      </c>
+      <c r="N46" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="P46" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="69" spans="21:21" x14ac:dyDescent="0.25">
+      <c r="U69" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A8:N38" xr:uid="{A1AADE2E-A8D0-41F9-A599-7CDB900FF573}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:N41">
-      <sortCondition descending="1" ref="N8:N38"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A8:O8" xr:uid="{8ABACED9-8F79-47BF-9A3C-8F50050FAD82}"/>
   <mergeCells count="2">
-    <mergeCell ref="A1:O7"/>
-    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="A1:P7"/>
+    <mergeCell ref="Q1:R1"/>
   </mergeCells>
   <conditionalFormatting sqref="C1:C4 C8:C1048576">
     <cfRule type="containsText" dxfId="6" priority="5" operator="containsText" text="Hard">
@@ -3740,7 +4063,7 @@
       <formula>NOT(ISERROR(SEARCH("No",J1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1048576">
+  <conditionalFormatting sqref="N1:O1048576">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",N1)))</formula>
     </cfRule>

--- a/LeetCode Tracker.xlsx
+++ b/LeetCode Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leon\Desktop\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B66B854B-9820-4FBB-A626-20660D03AFD5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE2ABEF-4DB3-4B53-9F4A-012533367219}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2FA590F6-CEBE-453D-A814-55EB366ADEEE}"/>
   </bookViews>
@@ -1544,7 +1544,30 @@
     <t>Find the Difference</t>
   </si>
   <si>
-    <t>****This is bit manipulation problem. Not easy after trying with HashTable.</t>
+    <r>
+      <t xml:space="preserve">****This is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bit manipulation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> problem. Not easy after trying with HashTable.</t>
+    </r>
   </si>
 </sst>
 </file>

--- a/LeetCode Tracker.xlsx
+++ b/LeetCode Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leon\Desktop\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE2ABEF-4DB3-4B53-9F4A-012533367219}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64D60DE9-0F6A-4CA5-9CF7-40B54B37277E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2FA590F6-CEBE-453D-A814-55EB366ADEEE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="138">
   <si>
     <t>LeetCode Problems</t>
   </si>
@@ -1568,6 +1568,38 @@
       </rPr>
       <t xml:space="preserve"> problem. Not easy after trying with HashTable.</t>
     </r>
+  </si>
+  <si>
+    <t>Fliping an Image</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">**** Able to solve with two for loops, since this is a row and column problem. However, there should be a better solution for this using </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bit manipulation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>O(nm)?</t>
   </si>
 </sst>
 </file>
@@ -2155,10 +2187,10 @@
   <dimension ref="A1:U69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="18" ySplit="8" topLeftCell="T42" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="18" ySplit="8" topLeftCell="S39" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="P1" sqref="P1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="P46" sqref="P46"/>
+      <selection pane="bottomRight" activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4054,6 +4086,53 @@
       </c>
       <c r="P46" s="6" t="s">
         <v>134</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A47" s="7">
+        <v>832</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D47" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I47" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="J47" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="K47" s="9">
+        <v>30</v>
+      </c>
+      <c r="L47" s="9">
+        <v>1</v>
+      </c>
+      <c r="M47" s="11">
+        <v>0</v>
+      </c>
+      <c r="N47" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="P47" s="6" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="69" spans="21:21" x14ac:dyDescent="0.25">

--- a/LeetCode Tracker.xlsx
+++ b/LeetCode Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leon\Desktop\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64D60DE9-0F6A-4CA5-9CF7-40B54B37277E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D37519CD-9BC5-4EEA-AF55-61AAAD6097B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2FA590F6-CEBE-453D-A814-55EB366ADEEE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="139">
   <si>
     <t>LeetCode Problems</t>
   </si>
@@ -1600,6 +1600,9 @@
   </si>
   <si>
     <t>O(nm)?</t>
+  </si>
+  <si>
+    <t>Pascal's Triangle</t>
   </si>
 </sst>
 </file>
@@ -2187,10 +2190,10 @@
   <dimension ref="A1:U69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="18" ySplit="8" topLeftCell="S39" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="18" ySplit="8" topLeftCell="S45" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="P1" sqref="P1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="F45" sqref="F45"/>
+      <selection pane="bottomRight" activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4133,6 +4136,29 @@
       </c>
       <c r="P47" s="6" t="s">
         <v>136</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A48" s="7">
+        <v>118</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D48" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="I48" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="J48" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="N48" s="11" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="69" spans="21:21" x14ac:dyDescent="0.25">

--- a/LeetCode Tracker.xlsx
+++ b/LeetCode Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leon\Desktop\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D37519CD-9BC5-4EEA-AF55-61AAAD6097B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{990DC2D0-B2AC-4D80-9216-33123A5C05A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2FA590F6-CEBE-453D-A814-55EB366ADEEE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="143">
   <si>
     <t>LeetCode Problems</t>
   </si>
@@ -1603,6 +1603,62 @@
   </si>
   <si>
     <t>Pascal's Triangle</t>
+  </si>
+  <si>
+    <t>Amazon, Facebook</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">**** This question is so tricky. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Python </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Java </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>solutions are very different, but the whiteboarding should be similar.</t>
+    </r>
+  </si>
+  <si>
+    <t>Pascal's Triangle II</t>
+  </si>
+  <si>
+    <t>**** Same as previous question with slight additonal lines of code.</t>
   </si>
 </sst>
 </file>
@@ -2190,10 +2246,10 @@
   <dimension ref="A1:U69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="18" ySplit="8" topLeftCell="S45" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="18" ySplit="8" topLeftCell="S42" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="P1" sqref="P1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="F55" sqref="F55"/>
+      <selection pane="bottomRight" activeCell="P48" sqref="P48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4138,7 +4194,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="7">
         <v>118</v>
       </c>
@@ -4159,6 +4215,38 @@
       </c>
       <c r="N48" s="11" t="s">
         <v>57</v>
+      </c>
+      <c r="O48" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="P48" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A49" s="7">
+        <v>119</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D49" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="I49" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="J49" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="N49" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="P49" s="6" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="69" spans="21:21" x14ac:dyDescent="0.25">

--- a/LeetCode Tracker.xlsx
+++ b/LeetCode Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leon\Desktop\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{990DC2D0-B2AC-4D80-9216-33123A5C05A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF309D7F-B9EF-440C-853E-528E565DD03F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2FA590F6-CEBE-453D-A814-55EB366ADEEE}"/>
   </bookViews>
@@ -16,9 +16,10 @@
     <sheet name="LeetCode" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LeetCode!$A$8:$O$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LeetCode!$A$8:$O$49</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2246,10 +2247,10 @@
   <dimension ref="A1:U69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="18" ySplit="8" topLeftCell="S42" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="18" ySplit="8" topLeftCell="S9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="P1" sqref="P1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="P48" sqref="P48"/>
+      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2766,7 +2767,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="60" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>83</v>
       </c>
@@ -2813,7 +2814,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>1480</v>
       </c>
@@ -4255,7 +4256,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A8:O8" xr:uid="{8ABACED9-8F79-47BF-9A3C-8F50050FAD82}"/>
+  <autoFilter ref="A8:O49" xr:uid="{8ABACED9-8F79-47BF-9A3C-8F50050FAD82}"/>
   <mergeCells count="2">
     <mergeCell ref="A1:P7"/>
     <mergeCell ref="Q1:R1"/>

--- a/LeetCode Tracker.xlsx
+++ b/LeetCode Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leon\Desktop\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF309D7F-B9EF-440C-853E-528E565DD03F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D6E19B6-A477-44D7-A3AE-016940153EFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2FA590F6-CEBE-453D-A814-55EB366ADEEE}"/>
   </bookViews>
@@ -19,7 +19,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LeetCode!$A$8:$O$49</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2244,13 +2243,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CECAF50C-0FA8-4FE8-AF1F-0197AD9DA707}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:U69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="18" ySplit="8" topLeftCell="S9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="P1" sqref="P1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomRight" activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2497,7 +2497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>344</v>
       </c>
@@ -2541,7 +2541,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>237</v>
       </c>
@@ -2585,7 +2585,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>206</v>
       </c>
@@ -2629,7 +2629,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>21</v>
       </c>
@@ -2673,7 +2673,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>412</v>
       </c>
@@ -2720,7 +2720,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="120" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>217</v>
       </c>
@@ -2767,7 +2767,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>83</v>
       </c>
@@ -2814,7 +2814,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>1480</v>
       </c>
@@ -2861,7 +2861,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>66</v>
       </c>
@@ -2908,7 +2908,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="90" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
         <v>541</v>
       </c>
@@ -2952,7 +2952,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
         <v>345</v>
       </c>
@@ -2996,7 +2996,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="180" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" ht="180" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>557</v>
       </c>
@@ -3040,7 +3040,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="60" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>136</v>
       </c>
@@ -3084,7 +3084,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>1512</v>
       </c>
@@ -3128,7 +3128,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="195" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" ht="195" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
         <v>88</v>
       </c>
@@ -3172,7 +3172,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="135" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" ht="135" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
         <v>1</v>
       </c>
@@ -3216,7 +3216,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
         <v>125</v>
       </c>
@@ -3351,7 +3351,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
         <v>234</v>
       </c>
@@ -3421,7 +3421,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="120" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
         <v>283</v>
       </c>
@@ -3512,7 +3512,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7">
         <v>26</v>
       </c>
@@ -3767,7 +3767,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="38" spans="1:19" ht="90" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
         <v>1431</v>
       </c>
@@ -3814,7 +3814,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="39" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
         <v>1365</v>
       </c>
@@ -3861,7 +3861,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="40" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="7">
         <v>268</v>
       </c>
@@ -3908,7 +3908,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="41" spans="1:19" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" s="17" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="14">
         <v>163</v>
       </c>
@@ -3952,7 +3952,7 @@
       </c>
       <c r="S41" s="18"/>
     </row>
-    <row r="42" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7">
         <v>387</v>
       </c>
@@ -3999,7 +3999,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="43" spans="1:19" ht="90" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7">
         <v>771</v>
       </c>
@@ -4066,7 +4066,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="45" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7">
         <v>1342</v>
       </c>
@@ -4148,7 +4148,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="47" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7">
         <v>832</v>
       </c>
@@ -4256,7 +4256,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A8:O49" xr:uid="{8ABACED9-8F79-47BF-9A3C-8F50050FAD82}"/>
+  <autoFilter ref="A8:O49" xr:uid="{8ABACED9-8F79-47BF-9A3C-8F50050FAD82}">
+    <filterColumn colId="9">
+      <filters>
+        <filter val="No"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="2">
     <mergeCell ref="A1:P7"/>
     <mergeCell ref="Q1:R1"/>

--- a/LeetCode Tracker.xlsx
+++ b/LeetCode Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leon\Desktop\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D6E19B6-A477-44D7-A3AE-016940153EFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10DC6E45-8054-4382-B19A-76BB89D260E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2FA590F6-CEBE-453D-A814-55EB366ADEEE}"/>
   </bookViews>
@@ -2250,7 +2250,7 @@
       <pane xSplit="18" ySplit="8" topLeftCell="S9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="P1" sqref="P1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="M27" sqref="M27"/>
+      <selection pane="bottomRight" activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/LeetCode Tracker.xlsx
+++ b/LeetCode Tracker.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leon\Desktop\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10DC6E45-8054-4382-B19A-76BB89D260E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91934261-538A-4D8E-9341-A3B8EAE59D33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2FA590F6-CEBE-453D-A814-55EB366ADEEE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2FA590F6-CEBE-453D-A814-55EB366ADEEE}"/>
   </bookViews>
   <sheets>
     <sheet name="LeetCode" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="150">
   <si>
     <t>LeetCode Problems</t>
   </si>
@@ -1659,6 +1659,73 @@
   </si>
   <si>
     <t>**** Same as previous question with slight additonal lines of code.</t>
+  </si>
+  <si>
+    <t>Richest Customer Wealth</t>
+  </si>
+  <si>
+    <t>O(nm)</t>
+  </si>
+  <si>
+    <t>Count the Number of Consistent Strings</t>
+  </si>
+  <si>
+    <t>Array/String</t>
+  </si>
+  <si>
+    <t>O(nxm)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">****This is a new question, able to solve with </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Brute Force solution</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> with (nxm). However, there should be a better soltuion maybe using a HashMap?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">****Did this with </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Brute Force Solution</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> but ther should be a better solution. Seems like it can be done with bit manipulation and counting sort.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2243,41 +2310,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CECAF50C-0FA8-4FE8-AF1F-0197AD9DA707}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:U69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="18" ySplit="8" topLeftCell="S9" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="18" ySplit="8" topLeftCell="S42" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="P1" sqref="P1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="J26" sqref="J26"/>
+      <selection pane="bottomRight" activeCell="P51" sqref="P51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.5546875" style="7" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.44140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5546875" style="9" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.85546875" style="9" customWidth="1"/>
-    <col min="12" max="12" width="8.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.85546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.88671875" style="9" customWidth="1"/>
+    <col min="12" max="12" width="8.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.5546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.88671875" style="20" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="67" style="6" customWidth="1"/>
-    <col min="17" max="17" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="23.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="23.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="33.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
@@ -2303,7 +2369,7 @@
       <c r="S1" s="12"/>
       <c r="T1" s="10"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="24"/>
       <c r="B2" s="24"/>
       <c r="C2" s="24"/>
@@ -2327,7 +2393,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="24"/>
       <c r="B3" s="24"/>
       <c r="C3" s="24"/>
@@ -2351,7 +2417,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="24"/>
       <c r="B4" s="24"/>
       <c r="C4" s="24"/>
@@ -2375,7 +2441,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="26"/>
       <c r="B5" s="26"/>
       <c r="C5" s="26"/>
@@ -2399,7 +2465,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="26"/>
       <c r="B6" s="26"/>
       <c r="C6" s="26"/>
@@ -2423,7 +2489,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="28"/>
       <c r="B7" s="28"/>
       <c r="C7" s="28"/>
@@ -2447,7 +2513,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
@@ -2497,7 +2563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>344</v>
       </c>
@@ -2541,7 +2607,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>237</v>
       </c>
@@ -2585,7 +2651,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>206</v>
       </c>
@@ -2629,7 +2695,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <v>21</v>
       </c>
@@ -2673,7 +2739,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <v>412</v>
       </c>
@@ -2720,7 +2786,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
         <v>217</v>
       </c>
@@ -2767,7 +2833,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <v>83</v>
       </c>
@@ -2814,7 +2880,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
         <v>1480</v>
       </c>
@@ -2861,7 +2927,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
         <v>66</v>
       </c>
@@ -2908,7 +2974,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
         <v>541</v>
       </c>
@@ -2952,7 +3018,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
         <v>345</v>
       </c>
@@ -2996,7 +3062,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A20" s="7">
         <v>557</v>
       </c>
@@ -3040,7 +3106,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A21" s="7">
         <v>136</v>
       </c>
@@ -3084,7 +3150,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" s="7">
         <v>1512</v>
       </c>
@@ -3128,7 +3194,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="195" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A23" s="7">
         <v>88</v>
       </c>
@@ -3172,7 +3238,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A24" s="7">
         <v>1</v>
       </c>
@@ -3216,7 +3282,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A25" s="7">
         <v>125</v>
       </c>
@@ -3260,7 +3326,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="150" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A26" s="7">
         <v>141</v>
       </c>
@@ -3304,7 +3370,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="105" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A27" s="7">
         <v>160</v>
       </c>
@@ -3351,7 +3417,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="7">
         <v>234</v>
       </c>
@@ -3395,7 +3461,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="120" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A29" s="7">
         <v>9</v>
       </c>
@@ -3421,7 +3487,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A30" s="7">
         <v>283</v>
       </c>
@@ -3468,7 +3534,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="31" spans="1:16" ht="45" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A31" s="7">
         <v>169</v>
       </c>
@@ -3512,7 +3578,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="32" spans="1:16" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="7">
         <v>26</v>
       </c>
@@ -3559,7 +3625,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="33" spans="1:19" ht="180" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A33" s="7">
         <v>448</v>
       </c>
@@ -3606,7 +3672,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A34" s="7">
         <v>155</v>
       </c>
@@ -3638,7 +3704,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A35" s="7">
         <v>26</v>
       </c>
@@ -3685,7 +3751,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="36" spans="1:19" ht="90" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A36" s="7">
         <v>28</v>
       </c>
@@ -3720,7 +3786,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="37" spans="1:19" ht="105" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A37" s="7">
         <v>1470</v>
       </c>
@@ -3767,7 +3833,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="38" spans="1:19" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A38" s="7">
         <v>1431</v>
       </c>
@@ -3814,7 +3880,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="39" spans="1:19" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A39" s="7">
         <v>1365</v>
       </c>
@@ -3861,7 +3927,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="40" spans="1:19" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="7">
         <v>268</v>
       </c>
@@ -3908,7 +3974,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="41" spans="1:19" s="17" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" s="17" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="14">
         <v>163</v>
       </c>
@@ -3952,7 +4018,7 @@
       </c>
       <c r="S41" s="18"/>
     </row>
-    <row r="42" spans="1:19" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="7">
         <v>387</v>
       </c>
@@ -3999,7 +4065,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="43" spans="1:19" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A43" s="7">
         <v>771</v>
       </c>
@@ -4046,7 +4112,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="44" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="7">
         <v>1002</v>
       </c>
@@ -4066,7 +4132,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="45" spans="1:19" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A45" s="7">
         <v>1342</v>
       </c>
@@ -4113,7 +4179,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="46" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A46" s="7">
         <v>389</v>
       </c>
@@ -4148,7 +4214,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="47" spans="1:19" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="7">
         <v>832</v>
       </c>
@@ -4195,7 +4261,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="48" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" s="7">
         <v>118</v>
       </c>
@@ -4224,7 +4290,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49" s="7">
         <v>119</v>
       </c>
@@ -4250,19 +4316,107 @@
         <v>142</v>
       </c>
     </row>
-    <row r="69" spans="21:21" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A50" s="7">
+        <v>1672</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D50" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H50" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I50" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="J50" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="K50" s="9">
+        <v>15</v>
+      </c>
+      <c r="L50" s="9">
+        <v>1</v>
+      </c>
+      <c r="M50" s="11">
+        <v>0</v>
+      </c>
+      <c r="N50" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="P50" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A51" s="7">
+        <v>1684</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D51" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H51" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I51" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="J51" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="K51" s="9">
+        <v>10</v>
+      </c>
+      <c r="L51" s="9">
+        <v>1</v>
+      </c>
+      <c r="M51" s="11">
+        <v>0</v>
+      </c>
+      <c r="N51" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="P51" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="69" spans="21:21" x14ac:dyDescent="0.3">
       <c r="U69" t="s">
         <v>127</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A8:O49" xr:uid="{8ABACED9-8F79-47BF-9A3C-8F50050FAD82}">
-    <filterColumn colId="9">
-      <filters>
-        <filter val="No"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A8:O49" xr:uid="{8ABACED9-8F79-47BF-9A3C-8F50050FAD82}"/>
   <mergeCells count="2">
     <mergeCell ref="A1:P7"/>
     <mergeCell ref="Q1:R1"/>

--- a/LeetCode Tracker.xlsx
+++ b/LeetCode Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leon\Desktop\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91934261-538A-4D8E-9341-A3B8EAE59D33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4CFE837-EAFA-45DC-B3DF-126A49B9560E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2FA590F6-CEBE-453D-A814-55EB366ADEEE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="154">
   <si>
     <t>LeetCode Problems</t>
   </si>
@@ -1725,6 +1725,149 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> but ther should be a better solution. Seems like it can be done with bit manipulation and counting sort.</t>
+    </r>
+  </si>
+  <si>
+    <t>Goal Parser Interpretation</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">**** This is a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>StringBuilder</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> question. For now, is the best solution. Need more more practice with </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>String</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Char</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, because I am very weak at that. </t>
+    </r>
+  </si>
+  <si>
+    <t>Check if Two String Arrays are Equivalent</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">****Able to solve it with </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Brute Force, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">by using two pointers (extra variables) and then compare. There should be an optimal soution.
+**** Turns out </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Optimal Solution</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, is also using </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>StringBuilder</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Try it before looking at answers.</t>
     </r>
   </si>
 </sst>
@@ -2313,16 +2456,16 @@
   <dimension ref="A1:U69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="18" ySplit="8" topLeftCell="S42" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="18" ySplit="8" topLeftCell="S44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="P1" sqref="P1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="P51" sqref="P51"/>
+      <selection pane="bottomRight" activeCell="P50" sqref="P50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.5546875" style="7" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" style="8" customWidth="1"/>
     <col min="3" max="3" width="9.109375" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.44140625" style="20" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.33203125" style="5" bestFit="1" customWidth="1"/>
@@ -4408,6 +4551,100 @@
       </c>
       <c r="P51" s="6" t="s">
         <v>149</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A52" s="7">
+        <v>1674</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D52" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H52" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I52" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="J52" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="K52" s="9">
+        <v>45</v>
+      </c>
+      <c r="L52" s="9">
+        <v>1</v>
+      </c>
+      <c r="M52" s="11">
+        <v>0</v>
+      </c>
+      <c r="N52" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="P52" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+      <c r="A53" s="7">
+        <v>1662</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D53" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H53" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I53" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="J53" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="K53" s="9">
+        <v>30</v>
+      </c>
+      <c r="L53" s="9">
+        <v>1</v>
+      </c>
+      <c r="M53" s="11">
+        <v>0</v>
+      </c>
+      <c r="N53" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="P53" s="6" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="69" spans="21:21" x14ac:dyDescent="0.3">

--- a/LeetCode Tracker.xlsx
+++ b/LeetCode Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leon\Desktop\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4CFE837-EAFA-45DC-B3DF-126A49B9560E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2133DDC3-F24F-4427-8A75-0B7D573390F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2FA590F6-CEBE-453D-A814-55EB366ADEEE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="158">
   <si>
     <t>LeetCode Problems</t>
   </si>
@@ -1354,32 +1354,6 @@
     <t>Not Sure</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">****This seems like a easy to medium question. I think I solved it but cannot try because it is </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PREMIUM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, maybe after I purchase then can try. </t>
-    </r>
-  </si>
-  <si>
     <t>Premium</t>
   </si>
   <si>
@@ -1868,6 +1842,111 @@
         <scheme val="minor"/>
       </rPr>
       <t>. Try it before looking at answers.</t>
+    </r>
+  </si>
+  <si>
+    <t>Defanging an IP Address</t>
+  </si>
+  <si>
+    <r>
+      <t>****</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Brute Force </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>is StringBuilder method. There could be a optimal solution.</t>
+    </r>
+  </si>
+  <si>
+    <t>Remove Vowels from a String</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">****Subscribed question. However, I think I solved it with </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>StringBuilder</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and also added another boolean method to check whether there are vowels.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>****</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Subscribed question</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. This seems like a easy to medium question. I think I solved it but cannot try because it is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PREMIUM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, maybe after I purchase then can try. </t>
     </r>
   </si>
 </sst>
@@ -2456,10 +2535,10 @@
   <dimension ref="A1:U69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="18" ySplit="8" topLeftCell="S44" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="18" ySplit="8" topLeftCell="S43" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="P1" sqref="P1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="P50" sqref="P50"/>
+      <selection pane="bottomRight" activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2653,7 +2732,7 @@
         <v>31</v>
       </c>
       <c r="R7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
@@ -2688,7 +2767,7 @@
         <v>59</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>58</v>
@@ -2700,7 +2779,7 @@
         <v>69</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P8" s="3" t="s">
         <v>1</v>
@@ -3554,7 +3633,7 @@
         <v>57</v>
       </c>
       <c r="O27" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="P27" s="6" t="s">
         <v>89</v>
@@ -4117,7 +4196,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="41" spans="1:19" s="17" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" s="17" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A41" s="14">
         <v>163</v>
       </c>
@@ -4154,10 +4233,10 @@
       </c>
       <c r="O41" s="15"/>
       <c r="P41" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="R41" s="19" t="s">
         <v>119</v>
-      </c>
-      <c r="R41" s="19" t="s">
-        <v>120</v>
       </c>
       <c r="S41" s="18"/>
     </row>
@@ -4166,7 +4245,7 @@
         <v>387</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>2</v>
@@ -4205,7 +4284,7 @@
         <v>57</v>
       </c>
       <c r="P42" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="43" spans="1:19" ht="86.4" x14ac:dyDescent="0.3">
@@ -4213,7 +4292,7 @@
         <v>771</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>2</v>
@@ -4252,7 +4331,7 @@
         <v>57</v>
       </c>
       <c r="P43" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="44" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
@@ -4260,7 +4339,7 @@
         <v>1002</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>2</v>
@@ -4280,7 +4359,7 @@
         <v>1342</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>2</v>
@@ -4319,7 +4398,7 @@
         <v>57</v>
       </c>
       <c r="P45" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.3">
@@ -4327,7 +4406,7 @@
         <v>389</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>2</v>
@@ -4354,7 +4433,7 @@
         <v>57</v>
       </c>
       <c r="P46" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="47" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
@@ -4362,7 +4441,7 @@
         <v>832</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>2</v>
@@ -4374,7 +4453,7 @@
         <v>10</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G47" s="5" t="s">
         <v>8</v>
@@ -4401,7 +4480,7 @@
         <v>57</v>
       </c>
       <c r="P47" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="48" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
@@ -4409,7 +4488,7 @@
         <v>118</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>2</v>
@@ -4427,18 +4506,18 @@
         <v>57</v>
       </c>
       <c r="O48" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="P48" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="P48" s="6" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A49" s="7">
         <v>119</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>2</v>
@@ -4456,15 +4535,15 @@
         <v>57</v>
       </c>
       <c r="P49" s="6" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="7">
         <v>1672</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>2</v>
@@ -4476,7 +4555,7 @@
         <v>10</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G50" s="5" t="s">
         <v>8</v>
@@ -4503,27 +4582,27 @@
         <v>57</v>
       </c>
       <c r="P50" s="6" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A51" s="7">
         <v>1684</v>
       </c>
       <c r="B51" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D51" s="20" t="s">
         <v>145</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D51" s="20" t="s">
-        <v>146</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G51" s="5" t="s">
         <v>7</v>
@@ -4550,15 +4629,15 @@
         <v>57</v>
       </c>
       <c r="P51" s="6" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" s="7">
         <v>1674</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>2</v>
@@ -4597,21 +4676,21 @@
         <v>57</v>
       </c>
       <c r="P52" s="6" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" ht="72" x14ac:dyDescent="0.3">
       <c r="A53" s="7">
         <v>1662</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D53" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>10</v>
@@ -4644,12 +4723,102 @@
         <v>57</v>
       </c>
       <c r="P53" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A54" s="7">
+        <v>1108</v>
+      </c>
+      <c r="B54" s="8" t="s">
         <v>153</v>
       </c>
+      <c r="C54" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D54" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H54" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I54" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="J54" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="K54" s="9">
+        <v>10</v>
+      </c>
+      <c r="L54" s="9">
+        <v>1</v>
+      </c>
+      <c r="M54" s="11">
+        <v>0</v>
+      </c>
+      <c r="N54" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="P54" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" s="17" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A55" s="14">
+        <v>1119</v>
+      </c>
+      <c r="B55" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="C55" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D55" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E55" s="15"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="15"/>
+      <c r="H55" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="I55" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="J55" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="K55" s="15">
+        <v>10</v>
+      </c>
+      <c r="L55" s="15">
+        <v>1</v>
+      </c>
+      <c r="M55" s="15">
+        <v>0</v>
+      </c>
+      <c r="N55" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="O55" s="15"/>
+      <c r="P55" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="S55" s="18"/>
     </row>
     <row r="69" spans="21:21" x14ac:dyDescent="0.3">
       <c r="U69" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/LeetCode Tracker.xlsx
+++ b/LeetCode Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leon\Desktop\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2133DDC3-F24F-4427-8A75-0B7D573390F0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58375F72-52A3-416C-AE4A-E22721B5AF66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2FA590F6-CEBE-453D-A814-55EB366ADEEE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="162">
   <si>
     <t>LeetCode Problems</t>
   </si>
@@ -1947,6 +1947,316 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">, maybe after I purchase then can try. </t>
+    </r>
+  </si>
+  <si>
+    <t>Decompress Run-Length Encoded List</t>
+  </si>
+  <si>
+    <r>
+      <t>****</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Brute Force </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>solution is initializing another array size, depending on the frequency count. After that, loop through O(nxm) to fill in the 0 in new array. ****</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Optimal Solution </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">has </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Space Complexity O(1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, but with better </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Time Complexity of O(n)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Also, instead of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i++</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, most solution works on </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i+=2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, which reduces the complexity of the code.</t>
+    </r>
+  </si>
+  <si>
+    <t>Create Target Array in the Given Order</t>
+  </si>
+  <si>
+    <r>
+      <t>****</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Brute Force Solution </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">is to use </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ArrayList </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">but it is quite slow as it takes up </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Space Complexity </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">of O(n), and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Time Complexity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of O(n^2) because of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Insertions Sort </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">method. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Optimal Solution</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> should be faster and only takes up </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Space Complexity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of O(1), but it is long and uses </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Merge Sort </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>implementation.</t>
     </r>
   </si>
 </sst>
@@ -2535,10 +2845,10 @@
   <dimension ref="A1:U69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="18" ySplit="8" topLeftCell="S43" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="18" ySplit="8" topLeftCell="S53" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="P1" sqref="P1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="G53" sqref="G53"/>
+      <selection pane="bottomRight" activeCell="K59" sqref="K59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4815,6 +5125,100 @@
         <v>156</v>
       </c>
       <c r="S55" s="18"/>
+    </row>
+    <row r="56" spans="1:19" ht="72" x14ac:dyDescent="0.3">
+      <c r="A56" s="7">
+        <v>1313</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D56" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H56" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I56" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="J56" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="K56" s="9">
+        <v>30</v>
+      </c>
+      <c r="L56" s="9">
+        <v>1</v>
+      </c>
+      <c r="M56" s="11">
+        <v>0</v>
+      </c>
+      <c r="N56" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="P56" s="6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A57" s="7">
+        <v>1389</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D57" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H57" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I57" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="J57" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="K57" s="9">
+        <v>60</v>
+      </c>
+      <c r="L57" s="9">
+        <v>1</v>
+      </c>
+      <c r="M57" s="11">
+        <v>0</v>
+      </c>
+      <c r="N57" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="P57" s="6" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="69" spans="21:21" x14ac:dyDescent="0.3">
       <c r="U69" t="s">

--- a/LeetCode Tracker.xlsx
+++ b/LeetCode Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leon\Desktop\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58375F72-52A3-416C-AE4A-E22721B5AF66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76AF64D2-531B-4500-A3C0-1FCDC5A09B68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2FA590F6-CEBE-453D-A814-55EB366ADEEE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="162">
   <si>
     <t>LeetCode Problems</t>
   </si>
@@ -1582,57 +1582,7 @@
     <t>Amazon, Facebook</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">**** This question is so tricky. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Python </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">and </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Java </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>solutions are very different, but the whiteboarding should be similar.</t>
-    </r>
-  </si>
-  <si>
     <t>Pascal's Triangle II</t>
-  </si>
-  <si>
-    <t>**** Same as previous question with slight additonal lines of code.</t>
   </si>
   <si>
     <t>Richest Customer Wealth</t>
@@ -2257,6 +2207,261 @@
         <scheme val="minor"/>
       </rPr>
       <t>implementation.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">**** This question is so tricky. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Python </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Java </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">solutions are very different, but the whiteboarding should be similar.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NOTE:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Should always have base case!!!
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>UPDATE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Solved it with two lists looping. Good practice for looping </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ArrayList </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">in another </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ArrayList </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(ArrayList.get(int x).get(int y)).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">**** Same as previous question with slight additonal lines of code.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>UPDATE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Brute Force </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">is just to modify a few lines but is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>quadratic time and space.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> However, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Optimal Solution</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is to use </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>recursion</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> method, to get </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>linear time and space.</t>
     </r>
   </si>
 </sst>
@@ -2845,10 +3050,10 @@
   <dimension ref="A1:U69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="18" ySplit="8" topLeftCell="S53" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="18" ySplit="8" topLeftCell="S48" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="P1" sqref="P1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="K59" sqref="K59"/>
+      <selection pane="bottomRight" activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4543,7 +4748,7 @@
       </c>
       <c r="O41" s="15"/>
       <c r="P41" s="16" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="R41" s="19" t="s">
         <v>119</v>
@@ -4793,7 +4998,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="48" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A48" s="7">
         <v>118</v>
       </c>
@@ -4806,11 +5011,32 @@
       <c r="D48" s="20" t="s">
         <v>84</v>
       </c>
+      <c r="E48" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="I48" s="9" t="s">
         <v>56</v>
       </c>
       <c r="J48" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
+      </c>
+      <c r="K48" s="9">
+        <v>60</v>
+      </c>
+      <c r="L48" s="9">
+        <v>1</v>
+      </c>
+      <c r="M48" s="11">
+        <v>1</v>
       </c>
       <c r="N48" s="11" t="s">
         <v>57</v>
@@ -4819,15 +5045,15 @@
         <v>138</v>
       </c>
       <c r="P48" s="6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" ht="72" x14ac:dyDescent="0.3">
       <c r="A49" s="7">
         <v>119</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>2</v>
@@ -4835,17 +5061,38 @@
       <c r="D49" s="20" t="s">
         <v>84</v>
       </c>
+      <c r="E49" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="I49" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J49" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
+      </c>
+      <c r="K49" s="9">
+        <v>15</v>
+      </c>
+      <c r="L49" s="9">
+        <v>1</v>
+      </c>
+      <c r="M49" s="11">
+        <v>1</v>
       </c>
       <c r="N49" s="11" t="s">
         <v>57</v>
       </c>
       <c r="P49" s="6" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
     </row>
     <row r="50" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
@@ -4853,7 +5100,7 @@
         <v>1672</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>2</v>
@@ -4865,7 +5112,7 @@
         <v>10</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G50" s="5" t="s">
         <v>8</v>
@@ -4892,7 +5139,7 @@
         <v>57</v>
       </c>
       <c r="P50" s="6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="51" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
@@ -4900,19 +5147,19 @@
         <v>1684</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D51" s="20" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G51" s="5" t="s">
         <v>7</v>
@@ -4939,7 +5186,7 @@
         <v>57</v>
       </c>
       <c r="P51" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="52" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
@@ -4947,7 +5194,7 @@
         <v>1674</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>2</v>
@@ -4986,7 +5233,7 @@
         <v>57</v>
       </c>
       <c r="P52" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="53" spans="1:19" ht="72" x14ac:dyDescent="0.3">
@@ -4994,13 +5241,13 @@
         <v>1662</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D53" s="20" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>10</v>
@@ -5033,7 +5280,7 @@
         <v>57</v>
       </c>
       <c r="P53" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="54" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
@@ -5041,7 +5288,7 @@
         <v>1108</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>2</v>
@@ -5080,7 +5327,7 @@
         <v>57</v>
       </c>
       <c r="P54" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="55" spans="1:19" s="17" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -5088,7 +5335,7 @@
         <v>1119</v>
       </c>
       <c r="B55" s="21" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C55" s="15" t="s">
         <v>2</v>
@@ -5122,7 +5369,7 @@
       </c>
       <c r="O55" s="15"/>
       <c r="P55" s="16" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="S55" s="18"/>
     </row>
@@ -5131,7 +5378,7 @@
         <v>1313</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>2</v>
@@ -5143,7 +5390,7 @@
         <v>10</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G56" s="5" t="s">
         <v>7</v>
@@ -5170,7 +5417,7 @@
         <v>57</v>
       </c>
       <c r="P56" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="57" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
@@ -5178,7 +5425,7 @@
         <v>1389</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C57" s="5" t="s">
         <v>2</v>
@@ -5217,7 +5464,7 @@
         <v>57</v>
       </c>
       <c r="P57" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="69" spans="21:21" x14ac:dyDescent="0.3">

--- a/LeetCode Tracker.xlsx
+++ b/LeetCode Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leon\Desktop\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76AF64D2-531B-4500-A3C0-1FCDC5A09B68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53528648-3E6B-423E-BF55-A702463F000D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2FA590F6-CEBE-453D-A814-55EB366ADEEE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="170">
   <si>
     <t>LeetCode Problems</t>
   </si>
@@ -2462,6 +2462,205 @@
         <scheme val="minor"/>
       </rPr>
       <t>linear time and space.</t>
+    </r>
+  </si>
+  <si>
+    <t>Sum of All Odd Length Subarrays</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">****This is not and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>easy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> question but a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">hard </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">question. Was accepted as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">easy </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">because </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Brute Force passed the test.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Need to revisit this question because this gives a good thinking. Will need more medium practice to come back to this question. </t>
+    </r>
+  </si>
+  <si>
+    <t>Find Numbers with Even Number of Digit</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">****This is a very very easy question, just take notice of contraints next time. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Brute Force </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">was working on while loops, but if you look closely at the questions, there is a very simple solution for </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Optimal Solution</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Numbers of Students Doing Homework at a Given Time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">****This is not really a straightforward question. No calculation needed, just loop through the arrays linearly and compare using logical statement. </t>
+  </si>
+  <si>
+    <t>Maximum Product of Two Elements in an Array</t>
+  </si>
+  <si>
+    <r>
+      <t>****</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Brute Force Solution </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>is to sort the array first and multiply the two largest element, which is the last two elements of the array.
+****</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Optimal Solution </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>is to use two pointers, need to redo to figure it out</t>
     </r>
   </si>
 </sst>
@@ -2494,7 +2693,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2504,6 +2703,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2578,7 +2783,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2670,6 +2875,22 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3050,10 +3271,10 @@
   <dimension ref="A1:U69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="18" ySplit="8" topLeftCell="S48" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="18" ySplit="8" topLeftCell="S59" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="P1" sqref="P1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="G50" sqref="G50"/>
+      <selection pane="bottomRight" activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5465,6 +5686,182 @@
       </c>
       <c r="P57" s="6" t="s">
         <v>159</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" s="36" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A58" s="32">
+        <v>1588</v>
+      </c>
+      <c r="B58" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="C58" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="D58" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="E58" s="34"/>
+      <c r="F58" s="34"/>
+      <c r="G58" s="34"/>
+      <c r="H58" s="34"/>
+      <c r="I58" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="J58" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="K58" s="34"/>
+      <c r="L58" s="34"/>
+      <c r="M58" s="34"/>
+      <c r="N58" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="O58" s="34"/>
+      <c r="P58" s="35" t="s">
+        <v>163</v>
+      </c>
+      <c r="S58" s="37"/>
+    </row>
+    <row r="59" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A59" s="7">
+        <v>1295</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D59" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H59" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I59" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="J59" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="K59" s="9">
+        <v>60</v>
+      </c>
+      <c r="L59" s="9">
+        <v>1</v>
+      </c>
+      <c r="M59" s="11">
+        <v>0</v>
+      </c>
+      <c r="N59" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="P59" s="6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A60" s="7">
+        <v>1450</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D60" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H60" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I60" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="J60" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="K60" s="9">
+        <v>35</v>
+      </c>
+      <c r="L60" s="9">
+        <v>1</v>
+      </c>
+      <c r="M60" s="11">
+        <v>0</v>
+      </c>
+      <c r="N60" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="P60" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A61" s="7">
+        <v>1464</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D61" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H61" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I61" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="J61" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="K61" s="9">
+        <v>35</v>
+      </c>
+      <c r="L61" s="9">
+        <v>1</v>
+      </c>
+      <c r="M61" s="11">
+        <v>0</v>
+      </c>
+      <c r="N61" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="P61" s="6" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="69" spans="21:21" x14ac:dyDescent="0.3">

--- a/LeetCode Tracker.xlsx
+++ b/LeetCode Tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leon\Desktop\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53528648-3E6B-423E-BF55-A702463F000D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3350F55-8EFB-41A7-99B4-7C9557BF0FB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2FA590F6-CEBE-453D-A814-55EB366ADEEE}"/>
+    <workbookView xWindow="5664" yWindow="2424" windowWidth="17280" windowHeight="8964" xr2:uid="{2FA590F6-CEBE-453D-A814-55EB366ADEEE}"/>
   </bookViews>
   <sheets>
     <sheet name="LeetCode" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="174">
   <si>
     <t>LeetCode Problems</t>
   </si>
@@ -2661,6 +2661,116 @@
         <scheme val="minor"/>
       </rPr>
       <t>is to use two pointers, need to redo to figure it out</t>
+    </r>
+  </si>
+  <si>
+    <t>Find N Unique Integers Sum up to Zero</t>
+  </si>
+  <si>
+    <t>****This is a math question, need to revisit.</t>
+  </si>
+  <si>
+    <t>Final Prices With a Special Discount in a Shop</t>
+  </si>
+  <si>
+    <r>
+      <t>****</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">NOTE: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Always try to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Brute Force</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the solution to save time. Could've done it in 15 minutes, but wasted 60 minutes to find the optimal solution.
+****</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Brute Force </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Solution is using two for loops to solve this problem. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Optimal Solution </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">is to use </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Monotone Stack.</t>
     </r>
   </si>
 </sst>
@@ -2846,6 +2956,22 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2875,22 +3001,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3271,10 +3381,10 @@
   <dimension ref="A1:U69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="18" ySplit="8" topLeftCell="S59" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="18" ySplit="8" topLeftCell="S61" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="P1" sqref="P1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="A62" sqref="A62"/>
+      <selection pane="bottomRight" activeCell="P63" sqref="P63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3302,48 +3412,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="30" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="31"/>
+      <c r="R1" s="37"/>
       <c r="S1" s="12"/>
       <c r="T1" s="10"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="25"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="31"/>
       <c r="Q2" s="1" t="s">
         <v>17</v>
       </c>
@@ -3352,22 +3462,22 @@
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A3" s="24"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="25"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="31"/>
       <c r="Q3" s="1" t="s">
         <v>18</v>
       </c>
@@ -3376,22 +3486,22 @@
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A4" s="24"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="25"/>
+      <c r="A4" s="30"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="31"/>
       <c r="Q4" s="4" t="s">
         <v>19</v>
       </c>
@@ -3400,22 +3510,22 @@
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5" s="26"/>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="27"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="32"/>
+      <c r="P5" s="33"/>
       <c r="Q5" s="1" t="s">
         <v>27</v>
       </c>
@@ -3424,22 +3534,22 @@
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6" s="26"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="26"/>
-      <c r="P6" s="27"/>
+      <c r="A6" s="32"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="32"/>
+      <c r="O6" s="32"/>
+      <c r="P6" s="33"/>
       <c r="Q6" s="1" t="s">
         <v>29</v>
       </c>
@@ -3448,22 +3558,22 @@
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A7" s="28"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="28"/>
-      <c r="P7" s="29"/>
+      <c r="A7" s="34"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="34"/>
+      <c r="P7" s="35"/>
       <c r="Q7" s="1" t="s">
         <v>31</v>
       </c>
@@ -5688,40 +5798,40 @@
         <v>159</v>
       </c>
     </row>
-    <row r="58" spans="1:19" s="36" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A58" s="32">
+    <row r="58" spans="1:19" s="26" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A58" s="22">
         <v>1588</v>
       </c>
-      <c r="B58" s="33" t="s">
+      <c r="B58" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="C58" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="D58" s="34" t="s">
+      <c r="C58" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D58" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="E58" s="34"/>
-      <c r="F58" s="34"/>
-      <c r="G58" s="34"/>
-      <c r="H58" s="34"/>
-      <c r="I58" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="J58" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="K58" s="34"/>
-      <c r="L58" s="34"/>
-      <c r="M58" s="34"/>
-      <c r="N58" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="O58" s="34"/>
-      <c r="P58" s="35" t="s">
+      <c r="E58" s="24"/>
+      <c r="F58" s="24"/>
+      <c r="G58" s="24"/>
+      <c r="H58" s="24"/>
+      <c r="I58" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="J58" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="K58" s="24"/>
+      <c r="L58" s="24"/>
+      <c r="M58" s="24"/>
+      <c r="N58" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="O58" s="24"/>
+      <c r="P58" s="25" t="s">
         <v>163</v>
       </c>
-      <c r="S58" s="37"/>
+      <c r="S58" s="27"/>
     </row>
     <row r="59" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A59" s="7">
@@ -5862,6 +5972,82 @@
       </c>
       <c r="P61" s="6" t="s">
         <v>169</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A62" s="7">
+        <v>1304</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D62" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="I62" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="J62" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="M62" s="11">
+        <v>0</v>
+      </c>
+      <c r="N62" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="P62" s="6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" ht="72" x14ac:dyDescent="0.3">
+      <c r="A63" s="7">
+        <v>1475</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D63" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H63" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I63" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="J63" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="K63" s="9">
+        <v>60</v>
+      </c>
+      <c r="L63" s="9">
+        <v>1</v>
+      </c>
+      <c r="M63" s="11">
+        <v>0</v>
+      </c>
+      <c r="N63" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="P63" s="6" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="69" spans="21:21" x14ac:dyDescent="0.3">

--- a/LeetCode Tracker.xlsx
+++ b/LeetCode Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leon\Desktop\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3350F55-8EFB-41A7-99B4-7C9557BF0FB4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8082BFFA-9213-40F4-88FD-178EFDF02DEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5664" yWindow="2424" windowWidth="17280" windowHeight="8964" xr2:uid="{2FA590F6-CEBE-453D-A814-55EB366ADEEE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="176">
   <si>
     <t>LeetCode Problems</t>
   </si>
@@ -2771,6 +2771,56 @@
         <scheme val="minor"/>
       </rPr>
       <t>Monotone Stack.</t>
+    </r>
+  </si>
+  <si>
+    <t>Replace Elements with Greatest Elements on Right Side</t>
+  </si>
+  <si>
+    <r>
+      <t>****</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Brute Force </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Solution is really slow. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Optimal Solution </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>shuld be using two pointers. Should try to work on it.</t>
     </r>
   </si>
 </sst>
@@ -3381,10 +3431,10 @@
   <dimension ref="A1:U69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="18" ySplit="8" topLeftCell="S61" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="18" ySplit="8" topLeftCell="S62" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="P1" sqref="P1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="P63" sqref="P63"/>
+      <selection pane="bottomRight" activeCell="F65" sqref="F65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6048,6 +6098,53 @@
       </c>
       <c r="P63" s="6" t="s">
         <v>173</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A64" s="7">
+        <v>1299</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D64" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H64" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I64" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="J64" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="K64" s="9">
+        <v>40</v>
+      </c>
+      <c r="L64" s="9">
+        <v>1</v>
+      </c>
+      <c r="M64" s="11">
+        <v>0</v>
+      </c>
+      <c r="N64" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="P64" s="6" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="69" spans="21:21" x14ac:dyDescent="0.3">

--- a/LeetCode Tracker.xlsx
+++ b/LeetCode Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leon\Desktop\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8082BFFA-9213-40F4-88FD-178EFDF02DEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F510AF33-3376-481A-AE54-890DC65250D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5664" yWindow="2424" windowWidth="17280" windowHeight="8964" xr2:uid="{2FA590F6-CEBE-453D-A814-55EB366ADEEE}"/>
   </bookViews>
@@ -19,6 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LeetCode!$A$8:$O$49</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="178">
   <si>
     <t>LeetCode Problems</t>
   </si>
@@ -2822,6 +2823,12 @@
       </rPr>
       <t>shuld be using two pointers. Should try to work on it.</t>
     </r>
+  </si>
+  <si>
+    <t>Non-decreasing Array</t>
+  </si>
+  <si>
+    <t>****This is a good question and should practice again. The solution is just knowing what condition to fulfilled.</t>
   </si>
 </sst>
 </file>
@@ -3431,10 +3438,10 @@
   <dimension ref="A1:U69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="18" ySplit="8" topLeftCell="S62" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="18" ySplit="8" topLeftCell="S63" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="P1" sqref="P1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="F65" sqref="F65"/>
+      <selection pane="bottomRight" activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6147,7 +6154,45 @@
         <v>175</v>
       </c>
     </row>
-    <row r="69" spans="21:21" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A65" s="7">
+        <v>665</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D65" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="H65" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I65" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="J65" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="K65" s="9">
+        <v>60</v>
+      </c>
+      <c r="L65" s="9">
+        <v>1</v>
+      </c>
+      <c r="M65" s="11">
+        <v>0</v>
+      </c>
+      <c r="N65" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="P65" s="6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
       <c r="U69" t="s">
         <v>126</v>
       </c>

--- a/LeetCode Tracker.xlsx
+++ b/LeetCode Tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leon\Desktop\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F510AF33-3376-481A-AE54-890DC65250D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6A685D3-7047-49F8-9BDE-EA36B2E27145}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5664" yWindow="2424" windowWidth="17280" windowHeight="8964" xr2:uid="{2FA590F6-CEBE-453D-A814-55EB366ADEEE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2FA590F6-CEBE-453D-A814-55EB366ADEEE}"/>
   </bookViews>
   <sheets>
     <sheet name="LeetCode" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LeetCode!$A$8:$O$49</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="186">
   <si>
     <t>LeetCode Problems</t>
   </si>
@@ -239,9 +238,6 @@
   </si>
   <si>
     <t>Math</t>
-  </si>
-  <si>
-    <t>Time/Space Complexity</t>
   </si>
   <si>
     <t>Understood solution</t>
@@ -2829,6 +2825,187 @@
   </si>
   <si>
     <t>****This is a good question and should practice again. The solution is just knowing what condition to fulfilled.</t>
+  </si>
+  <si>
+    <t>Remove Element</t>
+  </si>
+  <si>
+    <t>Two Pointers/Array</t>
+  </si>
+  <si>
+    <t>Need practice || Time/Space Complexity</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">****Almost got it. The concept is there but was not able to grasp the array index. Even came up with solutions from leetcode but only missed a line of code or two. Definitely need more practice! </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Similar to question 26.</t>
+    </r>
+  </si>
+  <si>
+    <t>Squares of Sorted Array</t>
+  </si>
+  <si>
+    <t>HashMap</t>
+  </si>
+  <si>
+    <r>
+      <t>****</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Brute Force </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">is to square first and just sort it using </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Arrays.sort()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. But there should be </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Optimal Solution.</t>
+    </r>
+  </si>
+  <si>
+    <t>Intersection of Two Arrays</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">****Was able to use </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">HashMap </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">twice to solve it, but still should be able to find </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Optimal Solution</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Should not be this complicated with </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Brute Force</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Could be the same as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>160</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2860,7 +3037,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2876,6 +3053,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2950,7 +3133,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2987,9 +3170,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3058,6 +3238,22 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3438,10 +3634,10 @@
   <dimension ref="A1:U69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="18" ySplit="8" topLeftCell="S63" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="18" ySplit="8" topLeftCell="S64" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="P1" sqref="P1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="A66" sqref="A66"/>
+      <selection pane="bottomRight" activeCell="M66" sqref="M66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3449,7 +3645,7 @@
     <col min="1" max="1" width="8.5546875" style="7" customWidth="1"/>
     <col min="2" max="2" width="19.6640625" style="8" customWidth="1"/>
     <col min="3" max="3" width="9.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.44140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.44140625" style="19" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.109375" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.88671875" style="5" bestFit="1" customWidth="1"/>
@@ -3460,7 +3656,7 @@
     <col min="12" max="12" width="8.6640625" style="9" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8.5546875" style="11" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="7.109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.88671875" style="20" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.88671875" style="19" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="67" style="6" customWidth="1"/>
     <col min="17" max="17" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="23.33203125" bestFit="1" customWidth="1"/>
@@ -3469,72 +3665,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="36" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="37"/>
+      <c r="R1" s="36"/>
       <c r="S1" s="12"/>
       <c r="T1" s="10"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="31"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="30"/>
       <c r="Q2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="R2" t="s">
-        <v>67</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A3" s="30"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="31"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="30"/>
       <c r="Q3" s="1" t="s">
         <v>18</v>
       </c>
@@ -3543,46 +3739,46 @@
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A4" s="30"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="30"/>
-      <c r="P4" s="31"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="30"/>
       <c r="Q4" s="4" t="s">
         <v>19</v>
       </c>
       <c r="R4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5" s="32"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="32"/>
-      <c r="O5" s="32"/>
-      <c r="P5" s="33"/>
+      <c r="A5" s="31"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="32"/>
       <c r="Q5" s="1" t="s">
         <v>27</v>
       </c>
@@ -3591,22 +3787,22 @@
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6" s="32"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="32"/>
-      <c r="N6" s="32"/>
-      <c r="O6" s="32"/>
-      <c r="P6" s="33"/>
+      <c r="A6" s="31"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+      <c r="P6" s="32"/>
       <c r="Q6" s="1" t="s">
         <v>29</v>
       </c>
@@ -3615,27 +3811,27 @@
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A7" s="34"/>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34"/>
-      <c r="M7" s="34"/>
-      <c r="N7" s="34"/>
-      <c r="O7" s="34"/>
-      <c r="P7" s="35"/>
+      <c r="A7" s="33"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="33"/>
+      <c r="P7" s="34"/>
       <c r="Q7" s="1" t="s">
         <v>31</v>
       </c>
       <c r="R7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
@@ -3670,7 +3866,7 @@
         <v>59</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>58</v>
@@ -3679,10 +3875,10 @@
         <v>32</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P8" s="3" t="s">
         <v>1</v>
@@ -3698,7 +3894,7 @@
       <c r="C9" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="19" t="s">
         <v>13</v>
       </c>
       <c r="E9" s="5" t="s">
@@ -3711,7 +3907,7 @@
         <v>8</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I9" s="9" t="s">
         <v>56</v>
@@ -3742,7 +3938,7 @@
       <c r="C10" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="19" t="s">
         <v>25</v>
       </c>
       <c r="E10" s="5" t="s">
@@ -3786,7 +3982,7 @@
       <c r="C11" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="19" t="s">
         <v>25</v>
       </c>
       <c r="E11" s="5" t="s">
@@ -3830,7 +4026,7 @@
       <c r="C12" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="19" t="s">
         <v>25</v>
       </c>
       <c r="E12" s="5" t="s">
@@ -3869,13 +4065,13 @@
         <v>412</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="20" t="s">
-        <v>85</v>
+      <c r="D13" s="19" t="s">
+        <v>84</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>10</v>
@@ -3916,19 +4112,19 @@
         <v>217</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="20" t="s">
-        <v>84</v>
+      <c r="D14" s="19" t="s">
+        <v>83</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>8</v>
@@ -3955,7 +4151,7 @@
         <v>56</v>
       </c>
       <c r="P14" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
@@ -3963,12 +4159,12 @@
         <v>83</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="D15" s="19" t="s">
         <v>25</v>
       </c>
       <c r="E15" s="5" t="s">
@@ -4010,13 +4206,13 @@
         <v>1480</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="20" t="s">
-        <v>84</v>
+      <c r="D16" s="19" t="s">
+        <v>83</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>10</v>
@@ -4052,18 +4248,18 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
         <v>66</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="20" t="s">
-        <v>84</v>
+      <c r="D17" s="19" t="s">
+        <v>83</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>10</v>
@@ -4096,10 +4292,10 @@
         <v>57</v>
       </c>
       <c r="P17" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="72" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
         <v>541</v>
       </c>
@@ -4109,7 +4305,7 @@
       <c r="C18" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="20" t="s">
+      <c r="D18" s="19" t="s">
         <v>13</v>
       </c>
       <c r="E18" s="5" t="s">
@@ -4143,7 +4339,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
         <v>345</v>
       </c>
@@ -4153,7 +4349,7 @@
       <c r="C19" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="20" t="s">
+      <c r="D19" s="19" t="s">
         <v>13</v>
       </c>
       <c r="E19" s="5" t="s">
@@ -4166,7 +4362,7 @@
         <v>7</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I19" s="9" t="s">
         <v>56</v>
@@ -4187,7 +4383,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A20" s="7">
         <v>557</v>
       </c>
@@ -4197,7 +4393,7 @@
       <c r="C20" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="20" t="s">
+      <c r="D20" s="19" t="s">
         <v>13</v>
       </c>
       <c r="E20" s="5" t="s">
@@ -4228,10 +4424,10 @@
         <v>57</v>
       </c>
       <c r="P20" s="6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A21" s="7">
         <v>136</v>
       </c>
@@ -4241,7 +4437,7 @@
       <c r="C21" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D21" s="20" t="s">
+      <c r="D21" s="19" t="s">
         <v>38</v>
       </c>
       <c r="E21" s="5" t="s">
@@ -4275,7 +4471,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" s="7">
         <v>1512</v>
       </c>
@@ -4285,8 +4481,8 @@
       <c r="C22" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D22" s="20" t="s">
-        <v>77</v>
+      <c r="D22" s="19" t="s">
+        <v>76</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>10</v>
@@ -4319,7 +4515,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A23" s="7">
         <v>88</v>
       </c>
@@ -4329,8 +4525,8 @@
       <c r="C23" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D23" s="20" t="s">
-        <v>75</v>
+      <c r="D23" s="19" t="s">
+        <v>74</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>10</v>
@@ -4360,10 +4556,10 @@
         <v>57</v>
       </c>
       <c r="P23" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" ht="115.2" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A24" s="7">
         <v>1</v>
       </c>
@@ -4373,8 +4569,8 @@
       <c r="C24" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D24" s="20" t="s">
-        <v>76</v>
+      <c r="D24" s="19" t="s">
+        <v>75</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>10</v>
@@ -4404,10 +4600,10 @@
         <v>57</v>
       </c>
       <c r="P24" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="72" x14ac:dyDescent="0.3">
       <c r="A25" s="7">
         <v>125</v>
       </c>
@@ -4417,7 +4613,7 @@
       <c r="C25" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="20" t="s">
+      <c r="D25" s="19" t="s">
         <v>13</v>
       </c>
       <c r="E25" s="5" t="s">
@@ -4448,10 +4644,10 @@
         <v>57</v>
       </c>
       <c r="P25" s="6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" ht="129.6" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A26" s="7">
         <v>141</v>
       </c>
@@ -4461,7 +4657,7 @@
       <c r="C26" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D26" s="20" t="s">
+      <c r="D26" s="19" t="s">
         <v>25</v>
       </c>
       <c r="E26" s="5" t="s">
@@ -4492,10 +4688,10 @@
         <v>57</v>
       </c>
       <c r="P26" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" ht="100.8" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A27" s="7">
         <v>160</v>
       </c>
@@ -4505,7 +4701,7 @@
       <c r="C27" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D27" s="20" t="s">
+      <c r="D27" s="19" t="s">
         <v>25</v>
       </c>
       <c r="E27" s="5" t="s">
@@ -4535,14 +4731,14 @@
       <c r="N27" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="O27" s="20" t="s">
-        <v>125</v>
+      <c r="O27" s="19" t="s">
+        <v>124</v>
       </c>
       <c r="P27" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="7">
         <v>234</v>
       </c>
@@ -4552,7 +4748,7 @@
       <c r="C28" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D28" s="20" t="s">
+      <c r="D28" s="19" t="s">
         <v>25</v>
       </c>
       <c r="E28" s="5" t="s">
@@ -4583,10 +4779,10 @@
         <v>57</v>
       </c>
       <c r="P28" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" ht="115.2" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A29" s="7">
         <v>9</v>
       </c>
@@ -4596,7 +4792,7 @@
       <c r="C29" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D29" s="20" t="s">
+      <c r="D29" s="19" t="s">
         <v>66</v>
       </c>
       <c r="E29" s="5" t="s">
@@ -4609,21 +4805,21 @@
         <v>57</v>
       </c>
       <c r="P29" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" ht="100.8" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A30" s="7">
         <v>283</v>
       </c>
       <c r="B30" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" s="19" t="s">
         <v>74</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D30" s="20" t="s">
-        <v>75</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>10</v>
@@ -4656,21 +4852,21 @@
         <v>57</v>
       </c>
       <c r="P30" s="6" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A31" s="7">
         <v>169</v>
       </c>
       <c r="B31" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="19" t="s">
         <v>78</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D31" s="20" t="s">
-        <v>79</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>10</v>
@@ -4700,68 +4896,70 @@
         <v>57</v>
       </c>
       <c r="P31" s="6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="7">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" s="41" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="37">
         <v>26</v>
       </c>
-      <c r="B32" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D32" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="E32" s="13" t="s">
+      <c r="B32" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="C32" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="E32" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="F32" s="13" t="s">
+      <c r="F32" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="G32" s="13" t="s">
+      <c r="G32" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="H32" s="13" t="s">
+      <c r="H32" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="I32" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="J32" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="K32" s="13">
+      <c r="I32" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="J32" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="K32" s="39">
         <v>45</v>
       </c>
-      <c r="L32" s="13">
-        <v>2</v>
-      </c>
-      <c r="M32" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="N32" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="P32" s="6" t="s">
-        <v>99</v>
-      </c>
+      <c r="L32" s="39">
+        <v>2</v>
+      </c>
+      <c r="M32" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="N32" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="O32" s="39"/>
+      <c r="P32" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="S32" s="42"/>
     </row>
     <row r="33" spans="1:19" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A33" s="7">
         <v>448</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D33" s="20" t="s">
-        <v>84</v>
+      <c r="D33" s="19" t="s">
+        <v>83</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>10</v>
@@ -4794,7 +4992,7 @@
         <v>57</v>
       </c>
       <c r="P33" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.3">
@@ -4802,13 +5000,13 @@
         <v>155</v>
       </c>
       <c r="B34" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" s="19" t="s">
         <v>96</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D34" s="20" t="s">
-        <v>97</v>
       </c>
       <c r="I34" s="9" t="s">
         <v>57</v>
@@ -4826,7 +5024,7 @@
         <v>57</v>
       </c>
       <c r="P34" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.3">
@@ -4834,13 +5032,13 @@
         <v>26</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D35" s="20" t="s">
-        <v>97</v>
+      <c r="D35" s="19" t="s">
+        <v>96</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>10</v>
@@ -4873,7 +5071,7 @@
         <v>57</v>
       </c>
       <c r="P35" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="36" spans="1:19" ht="86.4" x14ac:dyDescent="0.3">
@@ -4881,13 +5079,13 @@
         <v>28</v>
       </c>
       <c r="B36" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36" s="19" t="s">
         <v>102</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D36" s="20" t="s">
-        <v>103</v>
       </c>
       <c r="I36" s="9" t="s">
         <v>56</v>
@@ -4908,7 +5106,7 @@
         <v>57</v>
       </c>
       <c r="P36" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="37" spans="1:19" ht="100.8" x14ac:dyDescent="0.3">
@@ -4916,13 +5114,13 @@
         <v>1470</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D37" s="20" t="s">
-        <v>84</v>
+      <c r="D37" s="19" t="s">
+        <v>83</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>10</v>
@@ -4955,7 +5153,7 @@
         <v>57</v>
       </c>
       <c r="P37" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="38" spans="1:19" ht="86.4" x14ac:dyDescent="0.3">
@@ -4963,13 +5161,13 @@
         <v>1431</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D38" s="20" t="s">
-        <v>84</v>
+      <c r="D38" s="19" t="s">
+        <v>83</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>10</v>
@@ -5002,7 +5200,7 @@
         <v>57</v>
       </c>
       <c r="P38" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="39" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
@@ -5010,13 +5208,13 @@
         <v>1365</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D39" s="20" t="s">
-        <v>84</v>
+      <c r="D39" s="19" t="s">
+        <v>83</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>10</v>
@@ -5049,7 +5247,7 @@
         <v>57</v>
       </c>
       <c r="P39" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="40" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
@@ -5057,13 +5255,13 @@
         <v>268</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D40" s="20" t="s">
-        <v>84</v>
+      <c r="D40" s="19" t="s">
+        <v>83</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>10</v>
@@ -5096,65 +5294,65 @@
         <v>57</v>
       </c>
       <c r="P40" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" s="16" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A41" s="13">
+        <v>163</v>
+      </c>
+      <c r="B41" s="20" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="41" spans="1:19" s="17" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A41" s="14">
-        <v>163</v>
-      </c>
-      <c r="B41" s="21" t="s">
+      <c r="C41" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="J41" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="C41" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D41" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="E41" s="15"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="15"/>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="J41" s="15" t="s">
+      <c r="K41" s="14">
+        <v>45</v>
+      </c>
+      <c r="L41" s="14">
+        <v>1</v>
+      </c>
+      <c r="M41" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="N41" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="O41" s="14"/>
+      <c r="P41" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="R41" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="K41" s="15">
-        <v>45</v>
-      </c>
-      <c r="L41" s="15">
-        <v>1</v>
-      </c>
-      <c r="M41" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="N41" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="O41" s="15"/>
-      <c r="P41" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="R41" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="S41" s="18"/>
+      <c r="S41" s="17"/>
     </row>
     <row r="42" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="7">
         <v>387</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D42" s="20" t="s">
-        <v>84</v>
+      <c r="D42" s="19" t="s">
+        <v>83</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>10</v>
@@ -5187,7 +5385,7 @@
         <v>57</v>
       </c>
       <c r="P42" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="43" spans="1:19" ht="86.4" x14ac:dyDescent="0.3">
@@ -5195,12 +5393,12 @@
         <v>771</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D43" s="20" t="s">
+      <c r="D43" s="19" t="s">
         <v>13</v>
       </c>
       <c r="E43" s="5" t="s">
@@ -5234,7 +5432,7 @@
         <v>57</v>
       </c>
       <c r="P43" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="44" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
@@ -5242,12 +5440,12 @@
         <v>1002</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D44" s="20" t="s">
+      <c r="D44" s="19" t="s">
         <v>13</v>
       </c>
       <c r="I44" s="9" t="s">
@@ -5262,12 +5460,12 @@
         <v>1342</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D45" s="20" t="s">
+      <c r="D45" s="19" t="s">
         <v>38</v>
       </c>
       <c r="E45" s="5" t="s">
@@ -5301,7 +5499,7 @@
         <v>57</v>
       </c>
       <c r="P45" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.3">
@@ -5309,12 +5507,12 @@
         <v>389</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D46" s="20" t="s">
+      <c r="D46" s="19" t="s">
         <v>38</v>
       </c>
       <c r="I46" s="9" t="s">
@@ -5336,7 +5534,7 @@
         <v>57</v>
       </c>
       <c r="P46" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="47" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
@@ -5344,19 +5542,19 @@
         <v>832</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D47" s="20" t="s">
-        <v>84</v>
+      <c r="D47" s="19" t="s">
+        <v>83</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G47" s="5" t="s">
         <v>8</v>
@@ -5383,7 +5581,7 @@
         <v>57</v>
       </c>
       <c r="P47" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="48" spans="1:19" ht="86.4" x14ac:dyDescent="0.3">
@@ -5391,13 +5589,13 @@
         <v>118</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D48" s="20" t="s">
-        <v>84</v>
+      <c r="D48" s="19" t="s">
+        <v>83</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>10</v>
@@ -5429,11 +5627,11 @@
       <c r="N48" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="O48" s="20" t="s">
-        <v>138</v>
+      <c r="O48" s="19" t="s">
+        <v>137</v>
       </c>
       <c r="P48" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="49" spans="1:19" ht="72" x14ac:dyDescent="0.3">
@@ -5441,13 +5639,13 @@
         <v>119</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D49" s="20" t="s">
-        <v>84</v>
+      <c r="D49" s="19" t="s">
+        <v>83</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>10</v>
@@ -5480,7 +5678,7 @@
         <v>57</v>
       </c>
       <c r="P49" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="50" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
@@ -5488,19 +5686,19 @@
         <v>1672</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D50" s="20" t="s">
-        <v>84</v>
+      <c r="D50" s="19" t="s">
+        <v>83</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G50" s="5" t="s">
         <v>8</v>
@@ -5527,7 +5725,7 @@
         <v>57</v>
       </c>
       <c r="P50" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="51" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
@@ -5535,19 +5733,19 @@
         <v>1684</v>
       </c>
       <c r="B51" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D51" s="19" t="s">
         <v>142</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D51" s="20" t="s">
-        <v>143</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G51" s="5" t="s">
         <v>7</v>
@@ -5574,7 +5772,7 @@
         <v>57</v>
       </c>
       <c r="P51" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="52" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
@@ -5582,12 +5780,12 @@
         <v>1674</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D52" s="20" t="s">
+      <c r="D52" s="19" t="s">
         <v>13</v>
       </c>
       <c r="E52" s="5" t="s">
@@ -5621,7 +5819,7 @@
         <v>57</v>
       </c>
       <c r="P52" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="53" spans="1:19" ht="72" x14ac:dyDescent="0.3">
@@ -5629,13 +5827,13 @@
         <v>1662</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D53" s="20" t="s">
-        <v>143</v>
+      <c r="D53" s="19" t="s">
+        <v>142</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>10</v>
@@ -5668,7 +5866,7 @@
         <v>57</v>
       </c>
       <c r="P53" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="54" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
@@ -5676,12 +5874,12 @@
         <v>1108</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D54" s="20" t="s">
+      <c r="D54" s="19" t="s">
         <v>13</v>
       </c>
       <c r="E54" s="5" t="s">
@@ -5715,70 +5913,70 @@
         <v>57</v>
       </c>
       <c r="P54" s="6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" s="16" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A55" s="13">
+        <v>1119</v>
+      </c>
+      <c r="B55" s="20" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="55" spans="1:19" s="17" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A55" s="14">
-        <v>1119</v>
-      </c>
-      <c r="B55" s="21" t="s">
+      <c r="C55" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D55" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c r="G55" s="14"/>
+      <c r="H55" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I55" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="J55" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="K55" s="14">
+        <v>10</v>
+      </c>
+      <c r="L55" s="14">
+        <v>1</v>
+      </c>
+      <c r="M55" s="14">
+        <v>0</v>
+      </c>
+      <c r="N55" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="O55" s="14"/>
+      <c r="P55" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="C55" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D55" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E55" s="15"/>
-      <c r="F55" s="15"/>
-      <c r="G55" s="15"/>
-      <c r="H55" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="I55" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="J55" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="K55" s="15">
-        <v>10</v>
-      </c>
-      <c r="L55" s="15">
-        <v>1</v>
-      </c>
-      <c r="M55" s="15">
-        <v>0</v>
-      </c>
-      <c r="N55" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="O55" s="15"/>
-      <c r="P55" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="S55" s="18"/>
+      <c r="S55" s="17"/>
     </row>
     <row r="56" spans="1:19" ht="72" x14ac:dyDescent="0.3">
       <c r="A56" s="7">
         <v>1313</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D56" s="20" t="s">
-        <v>84</v>
+      <c r="D56" s="19" t="s">
+        <v>83</v>
       </c>
       <c r="E56" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G56" s="5" t="s">
         <v>7</v>
@@ -5805,7 +6003,7 @@
         <v>57</v>
       </c>
       <c r="P56" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="57" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
@@ -5813,13 +6011,13 @@
         <v>1389</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C57" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D57" s="20" t="s">
-        <v>84</v>
+      <c r="D57" s="19" t="s">
+        <v>83</v>
       </c>
       <c r="E57" s="5" t="s">
         <v>10</v>
@@ -5852,56 +6050,56 @@
         <v>57</v>
       </c>
       <c r="P57" s="6" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="58" spans="1:19" s="26" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A58" s="22">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" s="25" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A58" s="21">
         <v>1588</v>
       </c>
-      <c r="B58" s="23" t="s">
+      <c r="B58" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="C58" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D58" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="E58" s="23"/>
+      <c r="F58" s="23"/>
+      <c r="G58" s="23"/>
+      <c r="H58" s="23"/>
+      <c r="I58" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="J58" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="K58" s="23"/>
+      <c r="L58" s="23"/>
+      <c r="M58" s="23"/>
+      <c r="N58" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="O58" s="23"/>
+      <c r="P58" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="C58" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D58" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="E58" s="24"/>
-      <c r="F58" s="24"/>
-      <c r="G58" s="24"/>
-      <c r="H58" s="24"/>
-      <c r="I58" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="J58" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="K58" s="24"/>
-      <c r="L58" s="24"/>
-      <c r="M58" s="24"/>
-      <c r="N58" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="O58" s="24"/>
-      <c r="P58" s="25" t="s">
-        <v>163</v>
-      </c>
-      <c r="S58" s="27"/>
+      <c r="S58" s="26"/>
     </row>
     <row r="59" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A59" s="7">
         <v>1295</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D59" s="20" t="s">
-        <v>84</v>
+      <c r="D59" s="19" t="s">
+        <v>83</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>10</v>
@@ -5934,7 +6132,7 @@
         <v>57</v>
       </c>
       <c r="P59" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="60" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
@@ -5942,13 +6140,13 @@
         <v>1450</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D60" s="20" t="s">
-        <v>84</v>
+      <c r="D60" s="19" t="s">
+        <v>83</v>
       </c>
       <c r="E60" s="5" t="s">
         <v>10</v>
@@ -5981,7 +6179,7 @@
         <v>57</v>
       </c>
       <c r="P60" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="61" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
@@ -5989,13 +6187,13 @@
         <v>1464</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C61" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D61" s="20" t="s">
-        <v>84</v>
+      <c r="D61" s="19" t="s">
+        <v>83</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>10</v>
@@ -6028,7 +6226,7 @@
         <v>57</v>
       </c>
       <c r="P61" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="62" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
@@ -6036,13 +6234,13 @@
         <v>1304</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C62" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D62" s="20" t="s">
-        <v>84</v>
+      <c r="D62" s="19" t="s">
+        <v>83</v>
       </c>
       <c r="I62" s="9" t="s">
         <v>57</v>
@@ -6057,7 +6255,7 @@
         <v>57</v>
       </c>
       <c r="P62" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="63" spans="1:19" ht="72" x14ac:dyDescent="0.3">
@@ -6065,13 +6263,13 @@
         <v>1475</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C63" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D63" s="20" t="s">
-        <v>84</v>
+      <c r="D63" s="19" t="s">
+        <v>83</v>
       </c>
       <c r="E63" s="5" t="s">
         <v>10</v>
@@ -6104,7 +6302,7 @@
         <v>57</v>
       </c>
       <c r="P63" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="64" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
@@ -6112,13 +6310,13 @@
         <v>1299</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C64" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D64" s="20" t="s">
-        <v>84</v>
+      <c r="D64" s="19" t="s">
+        <v>83</v>
       </c>
       <c r="E64" s="5" t="s">
         <v>10</v>
@@ -6151,7 +6349,7 @@
         <v>57</v>
       </c>
       <c r="P64" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="65" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
@@ -6159,13 +6357,13 @@
         <v>665</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C65" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D65" s="20" t="s">
-        <v>84</v>
+      <c r="D65" s="19" t="s">
+        <v>83</v>
       </c>
       <c r="H65" s="5" t="s">
         <v>17</v>
@@ -6189,12 +6387,144 @@
         <v>57</v>
       </c>
       <c r="P65" s="6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A66" s="7">
+        <v>27</v>
+      </c>
+      <c r="B66" s="8" t="s">
         <v>177</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D66" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="H66" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I66" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="J66" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="K66" s="9">
+        <v>60</v>
+      </c>
+      <c r="L66" s="9">
+        <v>1</v>
+      </c>
+      <c r="M66" s="11">
+        <v>0</v>
+      </c>
+      <c r="N66" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="P66" s="6" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A67" s="7">
+        <v>977</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D67" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H67" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I67" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="J67" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="K67" s="9">
+        <v>15</v>
+      </c>
+      <c r="L67" s="9">
+        <v>1</v>
+      </c>
+      <c r="M67" s="11">
+        <v>0</v>
+      </c>
+      <c r="N67" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="P67" s="6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A68" s="7">
+        <v>349</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D68" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="G68" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H68" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I68" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="J68" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="K68" s="9">
+        <v>20</v>
+      </c>
+      <c r="L68" s="9">
+        <v>1</v>
+      </c>
+      <c r="M68" s="11">
+        <v>0</v>
+      </c>
+      <c r="N68" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="P68" s="6" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="69" spans="1:21" x14ac:dyDescent="0.3">
       <c r="U69" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/LeetCode Tracker.xlsx
+++ b/LeetCode Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leon\Desktop\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6A685D3-7047-49F8-9BDE-EA36B2E27145}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{466E2CDD-2D7F-4253-83FD-D39522C892C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2FA590F6-CEBE-453D-A814-55EB366ADEEE}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="LeetCode" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LeetCode!$A$8:$O$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LeetCode!$A$8:$P$68</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="187">
   <si>
     <t>LeetCode Problems</t>
   </si>
@@ -171,9 +171,6 @@
   </si>
   <si>
     <t>Even though code is short, need to understand solution.</t>
-  </si>
-  <si>
-    <t>Could use the MergeSort but be clear minded on LinkList.</t>
   </si>
   <si>
     <t>Merge Sorted Arrays</t>
@@ -225,9 +222,6 @@
     <t>Yes/No</t>
   </si>
   <si>
-    <t>***This is a very good question. At least, the solution has been understood, however, do not underestimate and keep practicing and try it again, try to understand it better so it becomes a habit to solve it.</t>
-  </si>
-  <si>
     <t>Palindrome Linked List</t>
   </si>
   <si>
@@ -244,9 +238,6 @@
   </si>
   <si>
     <t>Master</t>
-  </si>
-  <si>
-    <t>***This is not easy, new method to count elements in array. Better to go over and understand the optimal solution. Own code is too long and confusing, already forgot how it works, mathematically.</t>
   </si>
   <si>
     <r>
@@ -366,10 +357,6 @@
       </rPr>
       <t>: Finally able to work on solution, but there is an optimal solution left to master! Optimal solution is using one pointer instead of two pointer. Also, optimal solution will count the length of linked list first and then divide by two to get first and second half of linked list to compare.</t>
     </r>
-  </si>
-  <si>
-    <t>***Still haven't able to understand the solution, but starting to see the picture in separating integers into digits. Bascially, taking the remainder, and multiply by 10 to get back results. 
-For example, 121. When reversed using remainder after multiple by 10, it will become 1*10 = 10 and 121/10 will become 12. This method is to remove and reduced left half of integer and append/increased right half of integer after reversing. If still confused : https://www.youtube.com/watch?v=IKY7BTa4aq8</t>
   </si>
   <si>
     <t>Move Zeroes</t>
@@ -3006,6 +2993,134 @@
       </rPr>
       <t>.</t>
     </r>
+  </si>
+  <si>
+    <t>Array/Bit Manipulation</t>
+  </si>
+  <si>
+    <t>****Always need to remember the base case!!
+Could use MergeSort but be clear minded on LinkedList.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">***This is not easy, new method to count elements in array. Better to go over and understand the optimal solution. Own code is too long and confusing, already forgot how it works, mathematically.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>UPDATE (2 months):</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> This is very easy and straightforward? Still took almost equal amount of time (30min+) to finish. Just need to put the elements into a new array. Still do not think need to do counting.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">***This is a very good question. At least, the solution has been understood, however, do not underestimate and keep practicing and try it again, try to understand it better so it becomes a habit to solve it.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">UPDATE: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Able to improve run time with </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>HashMap/Math</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> but the better solution is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Counting Sort</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Also, this question, is based on </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Artihmetic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> [n(n-1)/2].</t>
+    </r>
+  </si>
+  <si>
+    <t>***Still haven't able to understand the solution, but starting to see the picture in separating integers into digits. Basically, taking the remainder, and multiply by 10 to get back results. 
+For example, 121. When reversed using remainder after multiple by 10, it will become 1*10 = 10 and 121/10 will become 12. This method is to remove and reduced left half of integer and append/increased right half of integer after reversing. If still confused : https://www.youtube.com/watch?v=IKY7BTa4aq8</t>
   </si>
 </sst>
 </file>
@@ -3209,6 +3324,22 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3238,22 +3369,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3634,10 +3749,10 @@
   <dimension ref="A1:U69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="18" ySplit="8" topLeftCell="S64" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="18" ySplit="8" topLeftCell="S9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="P1" sqref="P1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="M66" sqref="M66"/>
+      <selection pane="bottomRight" activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3665,72 +3780,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="35" t="s">
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="36"/>
+      <c r="R1" s="42"/>
       <c r="S1" s="12"/>
       <c r="T1" s="10"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="30"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="36"/>
       <c r="Q2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="R2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="29"/>
-      <c r="P3" s="30"/>
+      <c r="A3" s="35"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="36"/>
       <c r="Q3" s="1" t="s">
         <v>18</v>
       </c>
@@ -3739,46 +3854,46 @@
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A4" s="29"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
-      <c r="P4" s="30"/>
+      <c r="A4" s="35"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="36"/>
       <c r="Q4" s="4" t="s">
         <v>19</v>
       </c>
       <c r="R4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5" s="31"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="32"/>
+      <c r="A5" s="37"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="37"/>
+      <c r="P5" s="38"/>
       <c r="Q5" s="1" t="s">
         <v>27</v>
       </c>
@@ -3787,22 +3902,22 @@
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6" s="31"/>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-      <c r="P6" s="32"/>
+      <c r="A6" s="37"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="37"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="37"/>
+      <c r="P6" s="38"/>
       <c r="Q6" s="1" t="s">
         <v>29</v>
       </c>
@@ -3811,27 +3926,27 @@
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A7" s="33"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="33"/>
-      <c r="O7" s="33"/>
-      <c r="P7" s="34"/>
+      <c r="A7" s="39"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="39"/>
+      <c r="O7" s="39"/>
+      <c r="P7" s="40"/>
       <c r="Q7" s="1" t="s">
         <v>31</v>
       </c>
       <c r="R7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
@@ -3860,25 +3975,25 @@
         <v>37</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M8" s="2" t="s">
         <v>32</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="P8" s="3" t="s">
         <v>1</v>
@@ -3907,22 +4022,22 @@
         <v>8</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L9" s="9">
         <v>2</v>
       </c>
       <c r="M9" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N9" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P9" s="6" t="s">
         <v>41</v>
@@ -3954,19 +4069,19 @@
         <v>33</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L10" s="9">
         <v>2</v>
       </c>
       <c r="M10" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N10" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P10" s="6" t="s">
         <v>39</v>
@@ -3998,19 +4113,19 @@
         <v>33</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L11" s="9">
         <v>2</v>
       </c>
       <c r="M11" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N11" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P11" s="6" t="s">
         <v>42</v>
@@ -4042,19 +4157,19 @@
         <v>33</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L12" s="9">
         <v>1</v>
       </c>
       <c r="M12" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N12" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P12" s="6" t="s">
         <v>40</v>
@@ -4065,13 +4180,13 @@
         <v>412</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>10</v>
@@ -4086,22 +4201,22 @@
         <v>33</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K13" s="9">
         <v>15</v>
       </c>
       <c r="L13" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M13" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="N13" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P13" s="6" t="s">
         <v>43</v>
@@ -4112,19 +4227,19 @@
         <v>217</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>83</v>
+        <v>182</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>8</v>
@@ -4133,10 +4248,10 @@
         <v>33</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K14" s="9">
         <v>30</v>
@@ -4145,13 +4260,13 @@
         <v>1</v>
       </c>
       <c r="M14" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N14" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P14" s="6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
@@ -4159,7 +4274,7 @@
         <v>83</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>2</v>
@@ -4180,10 +4295,10 @@
         <v>33</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K15" s="9">
         <v>35</v>
@@ -4192,27 +4307,27 @@
         <v>1</v>
       </c>
       <c r="M15" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N15" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P15" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
         <v>1480</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>10</v>
@@ -4227,39 +4342,39 @@
         <v>27</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K16" s="9">
         <v>5</v>
       </c>
       <c r="L16" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M16" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="N16" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P16" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
         <v>66</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>10</v>
@@ -4274,25 +4389,25 @@
         <v>33</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K17" s="9">
         <v>30</v>
       </c>
       <c r="L17" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M17" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="N17" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P17" s="6" t="s">
-        <v>69</v>
+        <v>184</v>
       </c>
     </row>
     <row r="18" spans="1:19" ht="72" x14ac:dyDescent="0.3">
@@ -4321,22 +4436,22 @@
         <v>18</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L18" s="9">
         <v>1</v>
       </c>
       <c r="M18" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N18" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P18" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
@@ -4362,25 +4477,25 @@
         <v>7</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L19" s="9">
         <v>2</v>
       </c>
       <c r="M19" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N19" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P19" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="158.4" x14ac:dyDescent="0.3">
@@ -4409,22 +4524,22 @@
         <v>18</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L20" s="9">
         <v>2</v>
       </c>
       <c r="M20" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N20" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P20" s="6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
@@ -4453,25 +4568,25 @@
         <v>23</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L21" s="9">
         <v>1</v>
       </c>
       <c r="M21" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N21" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P21" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A22" s="7">
         <v>1512</v>
       </c>
@@ -4482,7 +4597,7 @@
         <v>2</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>10</v>
@@ -4497,22 +4612,25 @@
         <v>33</v>
       </c>
       <c r="I22" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
+      </c>
+      <c r="K22" s="9">
+        <v>50</v>
       </c>
       <c r="L22" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M22" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="N22" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P22" s="6" t="s">
-        <v>62</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="158.4" x14ac:dyDescent="0.3">
@@ -4520,19 +4638,19 @@
         <v>88</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>8</v>
@@ -4541,22 +4659,22 @@
         <v>33</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L23" s="9">
         <v>2</v>
       </c>
       <c r="M23" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N23" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P23" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:19" ht="115.2" x14ac:dyDescent="0.3">
@@ -4564,13 +4682,13 @@
         <v>1</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>10</v>
@@ -4585,22 +4703,22 @@
         <v>33</v>
       </c>
       <c r="I24" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L24" s="9">
         <v>1</v>
       </c>
       <c r="M24" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N24" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P24" s="6" t="s">
-        <v>72</v>
+        <v>186</v>
       </c>
     </row>
     <row r="25" spans="1:19" ht="72" x14ac:dyDescent="0.3">
@@ -4608,7 +4726,7 @@
         <v>125</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>2</v>
@@ -4623,28 +4741,28 @@
         <v>7</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H25" s="5" t="s">
         <v>33</v>
       </c>
       <c r="I25" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J25" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L25" s="9">
         <v>1</v>
       </c>
       <c r="M25" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N25" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P25" s="6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:19" ht="129.6" x14ac:dyDescent="0.3">
@@ -4652,7 +4770,7 @@
         <v>141</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>2</v>
@@ -4673,22 +4791,22 @@
         <v>33</v>
       </c>
       <c r="I26" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J26" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L26" s="9">
         <v>1</v>
       </c>
       <c r="M26" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N26" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P26" s="6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" spans="1:19" ht="100.8" x14ac:dyDescent="0.3">
@@ -4696,7 +4814,7 @@
         <v>160</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>2</v>
@@ -4705,7 +4823,7 @@
         <v>25</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>7</v>
@@ -4717,25 +4835,25 @@
         <v>33</v>
       </c>
       <c r="I27" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J27" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L27" s="9">
         <v>1</v>
       </c>
       <c r="M27" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N27" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O27" s="19" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="P27" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
@@ -4743,7 +4861,7 @@
         <v>234</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>2</v>
@@ -4764,22 +4882,22 @@
         <v>18</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L28" s="9">
         <v>2</v>
       </c>
       <c r="M28" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N28" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P28" s="6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:19" ht="115.2" x14ac:dyDescent="0.3">
@@ -4787,25 +4905,25 @@
         <v>9</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>10</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N29" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P29" s="6" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:19" ht="100.8" x14ac:dyDescent="0.3">
@@ -4813,13 +4931,13 @@
         <v>283</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>10</v>
@@ -4834,10 +4952,10 @@
         <v>18</v>
       </c>
       <c r="I30" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J30" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K30" s="9">
         <v>30</v>
@@ -4846,13 +4964,13 @@
         <v>2</v>
       </c>
       <c r="M30" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N30" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P30" s="6" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
@@ -4860,13 +4978,13 @@
         <v>169</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>10</v>
@@ -4881,85 +4999,85 @@
         <v>18</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J31" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K31" s="9">
         <v>40</v>
       </c>
       <c r="M31" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N31" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P31" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" s="41" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="37">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" s="31" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="27">
         <v>26</v>
       </c>
-      <c r="B32" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="C32" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="D32" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="E32" s="39" t="s">
+      <c r="B32" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="E32" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="F32" s="39" t="s">
+      <c r="F32" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="G32" s="39" t="s">
+      <c r="G32" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="H32" s="39" t="s">
+      <c r="H32" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="I32" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="J32" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="K32" s="39">
+      <c r="I32" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="J32" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="K32" s="29">
         <v>45</v>
       </c>
-      <c r="L32" s="39">
-        <v>2</v>
-      </c>
-      <c r="M32" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="N32" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="O32" s="39"/>
-      <c r="P32" s="40" t="s">
-        <v>98</v>
-      </c>
-      <c r="S32" s="42"/>
+      <c r="L32" s="29">
+        <v>2</v>
+      </c>
+      <c r="M32" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="N32" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="O32" s="29"/>
+      <c r="P32" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="S32" s="32"/>
     </row>
     <row r="33" spans="1:19" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A33" s="7">
         <v>448</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>10</v>
@@ -4974,10 +5092,10 @@
         <v>18</v>
       </c>
       <c r="I33" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J33" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K33" s="9">
         <v>35</v>
@@ -4986,13 +5104,13 @@
         <v>1</v>
       </c>
       <c r="M33" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N33" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P33" s="6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.3">
@@ -5000,31 +5118,31 @@
         <v>155</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D34" s="19" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="I34" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J34" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L34" s="9">
         <v>1</v>
       </c>
       <c r="M34" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N34" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P34" s="6" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.3">
@@ -5032,13 +5150,13 @@
         <v>26</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D35" s="19" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>10</v>
@@ -5053,10 +5171,10 @@
         <v>18</v>
       </c>
       <c r="I35" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J35" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K35" s="9">
         <v>40</v>
@@ -5065,13 +5183,13 @@
         <v>1</v>
       </c>
       <c r="M35" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N35" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P35" s="6" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:19" ht="86.4" x14ac:dyDescent="0.3">
@@ -5079,19 +5197,19 @@
         <v>28</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D36" s="19" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="I36" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J36" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K36" s="9">
         <v>45</v>
@@ -5100,13 +5218,13 @@
         <v>1</v>
       </c>
       <c r="M36" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N36" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P36" s="6" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="37" spans="1:19" ht="100.8" x14ac:dyDescent="0.3">
@@ -5114,13 +5232,13 @@
         <v>1470</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D37" s="19" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>10</v>
@@ -5135,10 +5253,10 @@
         <v>18</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K37" s="9">
         <v>45</v>
@@ -5147,13 +5265,13 @@
         <v>2</v>
       </c>
       <c r="M37" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N37" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P37" s="6" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="38" spans="1:19" ht="86.4" x14ac:dyDescent="0.3">
@@ -5161,13 +5279,13 @@
         <v>1431</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="19" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>10</v>
@@ -5182,10 +5300,10 @@
         <v>18</v>
       </c>
       <c r="I38" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J38" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K38" s="9">
         <v>20</v>
@@ -5194,13 +5312,13 @@
         <v>1</v>
       </c>
       <c r="M38" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N38" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P38" s="6" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="39" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
@@ -5208,13 +5326,13 @@
         <v>1365</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D39" s="19" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>10</v>
@@ -5229,10 +5347,10 @@
         <v>18</v>
       </c>
       <c r="I39" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J39" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K39" s="9">
         <v>20</v>
@@ -5241,13 +5359,13 @@
         <v>1</v>
       </c>
       <c r="M39" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N39" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P39" s="6" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="40" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
@@ -5255,13 +5373,13 @@
         <v>268</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D40" s="19" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>10</v>
@@ -5276,10 +5394,10 @@
         <v>18</v>
       </c>
       <c r="I40" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J40" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K40" s="9">
         <v>30</v>
@@ -5288,13 +5406,13 @@
         <v>1</v>
       </c>
       <c r="M40" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N40" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P40" s="6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="41" spans="1:19" s="16" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
@@ -5302,23 +5420,23 @@
         <v>163</v>
       </c>
       <c r="B41" s="20" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C41" s="14" t="s">
         <v>2</v>
       </c>
       <c r="D41" s="14" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E41" s="14"/>
       <c r="F41" s="14"/>
       <c r="G41" s="14"/>
       <c r="H41" s="14"/>
       <c r="I41" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J41" s="14" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="K41" s="14">
         <v>45</v>
@@ -5327,17 +5445,17 @@
         <v>1</v>
       </c>
       <c r="M41" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N41" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O41" s="14"/>
       <c r="P41" s="15" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="R41" s="18" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="S41" s="17"/>
     </row>
@@ -5346,13 +5464,13 @@
         <v>387</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D42" s="19" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>10</v>
@@ -5367,10 +5485,10 @@
         <v>18</v>
       </c>
       <c r="I42" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J42" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K42" s="9">
         <v>30</v>
@@ -5382,10 +5500,10 @@
         <v>1</v>
       </c>
       <c r="N42" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P42" s="6" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="43" spans="1:19" ht="86.4" x14ac:dyDescent="0.3">
@@ -5393,7 +5511,7 @@
         <v>771</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>2</v>
@@ -5414,10 +5532,10 @@
         <v>18</v>
       </c>
       <c r="I43" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J43" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K43" s="9">
         <v>30</v>
@@ -5429,10 +5547,10 @@
         <v>1</v>
       </c>
       <c r="N43" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P43" s="6" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="44" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
@@ -5440,7 +5558,7 @@
         <v>1002</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>2</v>
@@ -5449,10 +5567,10 @@
         <v>13</v>
       </c>
       <c r="I44" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J44" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
@@ -5460,7 +5578,7 @@
         <v>1342</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>2</v>
@@ -5481,10 +5599,10 @@
         <v>18</v>
       </c>
       <c r="I45" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J45" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K45" s="9">
         <v>30</v>
@@ -5496,10 +5614,10 @@
         <v>0</v>
       </c>
       <c r="N45" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P45" s="6" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.3">
@@ -5507,7 +5625,7 @@
         <v>389</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>2</v>
@@ -5516,10 +5634,10 @@
         <v>38</v>
       </c>
       <c r="I46" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J46" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K46" s="9">
         <v>30</v>
@@ -5531,10 +5649,10 @@
         <v>0</v>
       </c>
       <c r="N46" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P46" s="6" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="47" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
@@ -5542,19 +5660,19 @@
         <v>832</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D47" s="19" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G47" s="5" t="s">
         <v>8</v>
@@ -5563,10 +5681,10 @@
         <v>18</v>
       </c>
       <c r="I47" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J47" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K47" s="9">
         <v>30</v>
@@ -5578,10 +5696,10 @@
         <v>0</v>
       </c>
       <c r="N47" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P47" s="6" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="48" spans="1:19" ht="86.4" x14ac:dyDescent="0.3">
@@ -5589,13 +5707,13 @@
         <v>118</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D48" s="19" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>10</v>
@@ -5610,10 +5728,10 @@
         <v>18</v>
       </c>
       <c r="I48" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J48" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K48" s="9">
         <v>60</v>
@@ -5625,13 +5743,13 @@
         <v>1</v>
       </c>
       <c r="N48" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O48" s="19" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="P48" s="6" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="49" spans="1:19" ht="72" x14ac:dyDescent="0.3">
@@ -5639,13 +5757,13 @@
         <v>119</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D49" s="19" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>10</v>
@@ -5660,10 +5778,10 @@
         <v>18</v>
       </c>
       <c r="I49" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J49" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K49" s="9">
         <v>15</v>
@@ -5675,10 +5793,10 @@
         <v>1</v>
       </c>
       <c r="N49" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P49" s="6" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="50" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
@@ -5686,19 +5804,19 @@
         <v>1672</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D50" s="19" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G50" s="5" t="s">
         <v>8</v>
@@ -5707,10 +5825,10 @@
         <v>18</v>
       </c>
       <c r="I50" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J50" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K50" s="9">
         <v>15</v>
@@ -5722,10 +5840,10 @@
         <v>0</v>
       </c>
       <c r="N50" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P50" s="6" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="51" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
@@ -5733,19 +5851,19 @@
         <v>1684</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D51" s="19" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G51" s="5" t="s">
         <v>7</v>
@@ -5754,10 +5872,10 @@
         <v>18</v>
       </c>
       <c r="I51" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J51" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K51" s="9">
         <v>10</v>
@@ -5769,10 +5887,10 @@
         <v>0</v>
       </c>
       <c r="N51" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P51" s="6" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="52" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
@@ -5780,7 +5898,7 @@
         <v>1674</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>2</v>
@@ -5801,10 +5919,10 @@
         <v>18</v>
       </c>
       <c r="I52" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J52" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K52" s="9">
         <v>45</v>
@@ -5816,10 +5934,10 @@
         <v>0</v>
       </c>
       <c r="N52" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P52" s="6" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="53" spans="1:19" ht="72" x14ac:dyDescent="0.3">
@@ -5827,13 +5945,13 @@
         <v>1662</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D53" s="19" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>10</v>
@@ -5848,10 +5966,10 @@
         <v>18</v>
       </c>
       <c r="I53" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J53" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K53" s="9">
         <v>30</v>
@@ -5863,10 +5981,10 @@
         <v>0</v>
       </c>
       <c r="N53" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P53" s="6" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="54" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
@@ -5874,7 +5992,7 @@
         <v>1108</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>2</v>
@@ -5895,10 +6013,10 @@
         <v>18</v>
       </c>
       <c r="I54" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J54" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K54" s="9">
         <v>10</v>
@@ -5910,10 +6028,10 @@
         <v>0</v>
       </c>
       <c r="N54" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P54" s="6" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="55" spans="1:19" s="16" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
@@ -5921,7 +6039,7 @@
         <v>1119</v>
       </c>
       <c r="B55" s="20" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C55" s="14" t="s">
         <v>2</v>
@@ -5936,10 +6054,10 @@
         <v>18</v>
       </c>
       <c r="I55" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J55" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K55" s="14">
         <v>10</v>
@@ -5951,11 +6069,11 @@
         <v>0</v>
       </c>
       <c r="N55" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O55" s="14"/>
       <c r="P55" s="15" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="S55" s="17"/>
     </row>
@@ -5964,19 +6082,19 @@
         <v>1313</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D56" s="19" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E56" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G56" s="5" t="s">
         <v>7</v>
@@ -5985,10 +6103,10 @@
         <v>18</v>
       </c>
       <c r="I56" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J56" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K56" s="9">
         <v>30</v>
@@ -6000,10 +6118,10 @@
         <v>0</v>
       </c>
       <c r="N56" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P56" s="6" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="57" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
@@ -6011,13 +6129,13 @@
         <v>1389</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C57" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D57" s="19" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E57" s="5" t="s">
         <v>10</v>
@@ -6032,10 +6150,10 @@
         <v>18</v>
       </c>
       <c r="I57" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J57" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K57" s="9">
         <v>60</v>
@@ -6047,10 +6165,10 @@
         <v>0</v>
       </c>
       <c r="N57" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P57" s="6" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="58" spans="1:19" s="25" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
@@ -6058,33 +6176,33 @@
         <v>1588</v>
       </c>
       <c r="B58" s="22" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C58" s="23" t="s">
         <v>2</v>
       </c>
       <c r="D58" s="23" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E58" s="23"/>
       <c r="F58" s="23"/>
       <c r="G58" s="23"/>
       <c r="H58" s="23"/>
       <c r="I58" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J58" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K58" s="23"/>
       <c r="L58" s="23"/>
       <c r="M58" s="23"/>
       <c r="N58" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O58" s="23"/>
       <c r="P58" s="24" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="S58" s="26"/>
     </row>
@@ -6093,13 +6211,13 @@
         <v>1295</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D59" s="19" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>10</v>
@@ -6114,10 +6232,10 @@
         <v>33</v>
       </c>
       <c r="I59" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J59" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K59" s="9">
         <v>60</v>
@@ -6129,10 +6247,10 @@
         <v>0</v>
       </c>
       <c r="N59" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P59" s="6" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="60" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
@@ -6140,13 +6258,13 @@
         <v>1450</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D60" s="19" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E60" s="5" t="s">
         <v>10</v>
@@ -6161,10 +6279,10 @@
         <v>18</v>
       </c>
       <c r="I60" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J60" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K60" s="9">
         <v>35</v>
@@ -6176,10 +6294,10 @@
         <v>0</v>
       </c>
       <c r="N60" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P60" s="6" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="61" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
@@ -6187,13 +6305,13 @@
         <v>1464</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C61" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D61" s="19" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>10</v>
@@ -6208,10 +6326,10 @@
         <v>18</v>
       </c>
       <c r="I61" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J61" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K61" s="9">
         <v>35</v>
@@ -6223,10 +6341,10 @@
         <v>0</v>
       </c>
       <c r="N61" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P61" s="6" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="62" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
@@ -6234,28 +6352,28 @@
         <v>1304</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C62" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D62" s="19" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="I62" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J62" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M62" s="11">
         <v>0</v>
       </c>
       <c r="N62" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P62" s="6" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="63" spans="1:19" ht="72" x14ac:dyDescent="0.3">
@@ -6263,13 +6381,13 @@
         <v>1475</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C63" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D63" s="19" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E63" s="5" t="s">
         <v>10</v>
@@ -6284,10 +6402,10 @@
         <v>18</v>
       </c>
       <c r="I63" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J63" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K63" s="9">
         <v>60</v>
@@ -6299,10 +6417,10 @@
         <v>0</v>
       </c>
       <c r="N63" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P63" s="6" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="64" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
@@ -6310,13 +6428,13 @@
         <v>1299</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C64" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D64" s="19" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E64" s="5" t="s">
         <v>10</v>
@@ -6331,10 +6449,10 @@
         <v>18</v>
       </c>
       <c r="I64" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J64" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K64" s="9">
         <v>40</v>
@@ -6346,10 +6464,10 @@
         <v>0</v>
       </c>
       <c r="N64" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P64" s="6" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="65" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
@@ -6357,22 +6475,22 @@
         <v>665</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C65" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D65" s="19" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H65" s="5" t="s">
         <v>17</v>
       </c>
       <c r="I65" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J65" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K65" s="9">
         <v>60</v>
@@ -6384,10 +6502,10 @@
         <v>0</v>
       </c>
       <c r="N65" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P65" s="6" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="66" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
@@ -6395,22 +6513,22 @@
         <v>27</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C66" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D66" s="19" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H66" s="5" t="s">
         <v>17</v>
       </c>
       <c r="I66" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J66" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K66" s="9">
         <v>60</v>
@@ -6422,10 +6540,10 @@
         <v>0</v>
       </c>
       <c r="N66" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P66" s="6" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="67" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
@@ -6433,19 +6551,19 @@
         <v>977</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C67" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D67" s="19" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E67" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G67" s="5" t="s">
         <v>8</v>
@@ -6454,10 +6572,10 @@
         <v>18</v>
       </c>
       <c r="I67" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J67" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K67" s="9">
         <v>15</v>
@@ -6469,10 +6587,10 @@
         <v>0</v>
       </c>
       <c r="N67" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P67" s="6" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="68" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
@@ -6480,19 +6598,19 @@
         <v>349</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C68" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D68" s="19" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E68" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G68" s="5" t="s">
         <v>7</v>
@@ -6501,10 +6619,10 @@
         <v>18</v>
       </c>
       <c r="I68" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J68" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K68" s="9">
         <v>20</v>
@@ -6516,19 +6634,19 @@
         <v>0</v>
       </c>
       <c r="N68" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P68" s="6" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="69" spans="1:21" x14ac:dyDescent="0.3">
       <c r="U69" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A8:O49" xr:uid="{8ABACED9-8F79-47BF-9A3C-8F50050FAD82}"/>
+  <autoFilter ref="A8:P68" xr:uid="{57DD97F8-0FE5-4F41-AAF2-1F48E42A70CC}"/>
   <mergeCells count="2">
     <mergeCell ref="A1:P7"/>
     <mergeCell ref="Q1:R1"/>

--- a/LeetCode Tracker.xlsx
+++ b/LeetCode Tracker.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leon\Desktop\LeetCode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leon\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{466E2CDD-2D7F-4253-83FD-D39522C892C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{759F092D-BC8A-4460-BFB2-25763BE5549B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2FA590F6-CEBE-453D-A814-55EB366ADEEE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2FA590F6-CEBE-453D-A814-55EB366ADEEE}"/>
   </bookViews>
   <sheets>
     <sheet name="LeetCode" sheetId="1" r:id="rId1"/>
@@ -833,125 +833,6 @@
     <t xml:space="preserve">*** Very very good problem. Also quite an interesting problem. Just have to figure out or add another pointer to move along with the current pointer then should be able to solve it. </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Brute Force:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Using HashMap is fine but it will have space complexity of O(n). Also, it is quite slow when added into the HashMap and is better when just added into the array itself.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Optimal solution:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> is to just linearly loop through the array after sorting array by comparing (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>nums[i] == nums[i+1])</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. This is an interesting problem because we use for loop to loop through (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>nums.length - 1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>) and increment with</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ++i</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, instaed of </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>i++.</t>
-    </r>
-  </si>
-  <si>
     <t>****There are two types of solutions to this: 
 1. Two pointers i=0, j = 1 counting till the end of array. (Messy Code)
 2. Insertion method - two pointer as well but with 1 pointer looping and fill all 0 in front with non-zeroes first. After that, just change all the remaining elements with 0's. i = 0, pos = 0.</t>
@@ -1051,9 +932,6 @@
     <t>Running Sum of 1d Array</t>
   </si>
   <si>
-    <t xml:space="preserve">This is a very very easy question. Not fibonacci. </t>
-  </si>
-  <si>
     <t>Suffle the Array</t>
   </si>
   <si>
@@ -1329,9 +1207,6 @@
     <t>PlusOne</t>
   </si>
   <si>
-    <t>This question is veru straightforward, but the space complexity is O(n). Wonder if we can find O(1) space complexity solution.</t>
-  </si>
-  <si>
     <t>Missing Ranges</t>
   </si>
   <si>
@@ -2998,8 +2873,157 @@
     <t>Array/Bit Manipulation</t>
   </si>
   <si>
-    <t>****Always need to remember the base case!!
-Could use MergeSort but be clear minded on LinkedList.</t>
+    <t>***Still haven't able to understand the solution, but starting to see the picture in separating integers into digits. Basically, taking the remainder, and multiply by 10 to get back results. 
+For example, 121. When reversed using remainder after multiple by 10, it will become 1*10 = 10 and 121/10 will become 12. This method is to remove and reduced left half of integer and append/increased right half of integer after reversing. If still confused : https://www.youtube.com/watch?v=IKY7BTa4aq8</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Brute Force:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Using HashMap is fine but it will have space complexity of O(n). Also, it is quite slow when added into the HashMap and is better when just added into the array itself.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Optimal solution:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is to just linearly loop through the array after sorting array by comparing (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nums[i] == nums[i+1])</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. This is an interesting problem because we use for loop to loop through (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nums.length - 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) and increment with</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ++i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, instead of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i++.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This question is very straightforward, but the space complexity is O(n). Wonder if we can find O(1) space complexity solution.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>UPDATE (2 months)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: This is very easy and straightforward? Still took almost equal amount of time (30min+) to finish. Just need to put the elements into a new array. Still do not think need to do counting.</t>
+    </r>
+  </si>
+  <si>
+    <t>***This is a very good question. At least, the solution has been understood, however, do not underestimate and keep practicing and try it again, try to understand it better so it becomes a habit to solve it.</t>
   </si>
   <si>
     <r>
@@ -3015,44 +3039,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>UPDATE (2 months):</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> This is very easy and straightforward? Still took almost equal amount of time (30min+) to finish. Just need to put the elements into a new array. Still do not think need to do counting.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">***This is a very good question. At least, the solution has been understood, however, do not underestimate and keep practicing and try it again, try to understand it better so it becomes a habit to solve it.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">UPDATE: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Able to improve run time with </t>
+      <t>UPDATE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Able to improve run time with </t>
     </r>
     <r>
       <rPr>
@@ -3084,28 +3081,28 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Counting Sort</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. Also, this question, is based on </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Artihmetic</t>
+      <t>Counting Sort.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Also, this question, is based on</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Artihmetic</t>
     </r>
     <r>
       <rPr>
@@ -3119,8 +3116,11 @@
     </r>
   </si>
   <si>
-    <t>***Still haven't able to understand the solution, but starting to see the picture in separating integers into digits. Basically, taking the remainder, and multiply by 10 to get back results. 
-For example, 121. When reversed using remainder after multiple by 10, it will become 1*10 = 10 and 121/10 will become 12. This method is to remove and reduced left half of integer and append/increased right half of integer after reversing. If still confused : https://www.youtube.com/watch?v=IKY7BTa4aq8</t>
+    <t>Could use MergeSort but be clear minded on LinkedList.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">****Always need to remember the base case!!
+This is a very very easy question. Not fibonacci. </t>
   </si>
 </sst>
 </file>
@@ -3152,7 +3152,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3174,6 +3174,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3248,7 +3254,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3299,9 +3305,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3336,9 +3339,18 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3364,10 +3376,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3748,208 +3760,208 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CECAF50C-0FA8-4FE8-AF1F-0197AD9DA707}">
   <dimension ref="A1:U69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="18" ySplit="8" topLeftCell="S9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="P1" sqref="P1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="O14" sqref="O14"/>
+      <selection pane="bottomRight" activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.5546875" style="7" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.44140625" style="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.5703125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" style="8" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5703125" style="9" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.88671875" style="9" customWidth="1"/>
-    <col min="12" max="12" width="8.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.5546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.88671875" style="19" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.85546875" style="9" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.85546875" style="18" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="67" style="6" customWidth="1"/>
-    <col min="17" max="17" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="23.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="33.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.7109375" style="31" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23.28515625" style="31" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="23.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="33.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="41" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="42"/>
+      <c r="R1" s="44"/>
       <c r="S1" s="12"/>
       <c r="T1" s="10"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="1" t="s">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="37"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="R2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A3" s="35"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="1" t="s">
+      <c r="R2" s="31" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="37"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="R3" t="s">
+      <c r="R3" s="31" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A4" s="35"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="35"/>
-      <c r="P4" s="36"/>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="37"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="38"/>
       <c r="Q4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="R4" t="s">
+      <c r="R4" s="31" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5" s="37"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="37"/>
-      <c r="M5" s="37"/>
-      <c r="N5" s="37"/>
-      <c r="O5" s="37"/>
-      <c r="P5" s="38"/>
-      <c r="Q5" s="1" t="s">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="39"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="39"/>
+      <c r="P5" s="40"/>
+      <c r="Q5" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="R5" t="s">
+      <c r="R5" s="31" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6" s="37"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="37"/>
-      <c r="M6" s="37"/>
-      <c r="N6" s="37"/>
-      <c r="O6" s="37"/>
-      <c r="P6" s="38"/>
-      <c r="Q6" s="1" t="s">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="39"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="39"/>
+      <c r="N6" s="39"/>
+      <c r="O6" s="39"/>
+      <c r="P6" s="40"/>
+      <c r="Q6" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="R6" t="s">
+      <c r="R6" s="31" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A7" s="39"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="1" t="s">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="41"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41"/>
+      <c r="O7" s="41"/>
+      <c r="P7" s="42"/>
+      <c r="Q7" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="R7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="R7" s="31" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
@@ -3981,7 +3993,7 @@
         <v>58</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>57</v>
@@ -3993,24 +4005,24 @@
         <v>66</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="P8" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
-        <v>344</v>
+        <v>1</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="19" t="s">
-        <v>13</v>
+      <c r="D9" s="18" t="s">
+        <v>71</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>10</v>
@@ -4019,10 +4031,10 @@
         <v>7</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>96</v>
+        <v>33</v>
       </c>
       <c r="I9" s="9" t="s">
         <v>55</v>
@@ -4031,73 +4043,55 @@
         <v>55</v>
       </c>
       <c r="L9" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M9" s="11" t="s">
         <v>55</v>
       </c>
       <c r="N9" s="11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P9" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="135" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
-        <v>237</v>
+        <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="19" t="s">
-        <v>25</v>
+      <c r="D10" s="18" t="s">
+        <v>64</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>55</v>
-      </c>
       <c r="J10" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" s="9">
-        <v>2</v>
-      </c>
-      <c r="M10" s="11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N10" s="11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P10" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
-        <v>206</v>
+        <v>21</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E11" s="5" t="s">
@@ -4119,7 +4113,7 @@
         <v>55</v>
       </c>
       <c r="L11" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M11" s="11" t="s">
         <v>55</v>
@@ -4128,65 +4122,69 @@
         <v>55</v>
       </c>
       <c r="P11" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="7">
-        <v>21</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="105" x14ac:dyDescent="0.25">
+      <c r="A12" s="26">
+        <v>26</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="I12" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="J12" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="L12" s="9">
-        <v>1</v>
-      </c>
-      <c r="M12" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="N12" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="P12" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="I12" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="J12" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="K12" s="28">
+        <v>45</v>
+      </c>
+      <c r="L12" s="28">
+        <v>2</v>
+      </c>
+      <c r="M12" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="N12" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="O12" s="28"/>
+      <c r="P12" s="34" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="180" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
-        <v>412</v>
+        <v>26</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="19" t="s">
-        <v>80</v>
+      <c r="D13" s="18" t="s">
+        <v>91</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>10</v>
@@ -4195,113 +4193,92 @@
         <v>7</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I13" s="9" t="s">
         <v>55</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K13" s="9">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="L13" s="9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M13" s="11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N13" s="11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P13" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" ht="115.2" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
-        <v>217</v>
+        <v>27</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>82</v>
+        <v>170</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>8</v>
+      <c r="D14" s="18" t="s">
+        <v>171</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="I14" s="9" t="s">
         <v>55</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K14" s="9">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="L14" s="9">
         <v>1</v>
       </c>
-      <c r="M14" s="11" t="s">
-        <v>56</v>
+      <c r="M14" s="11">
+        <v>0</v>
       </c>
       <c r="N14" s="11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P14" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
-        <v>83</v>
+        <v>28</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>33</v>
+      <c r="D15" s="18" t="s">
+        <v>97</v>
       </c>
       <c r="I15" s="9" t="s">
         <v>55</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K15" s="9">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="L15" s="9">
         <v>1</v>
@@ -4310,71 +4287,72 @@
         <v>56</v>
       </c>
       <c r="N15" s="11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P15" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="90" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
-        <v>1480</v>
+        <v>66</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="G16" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I16" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="J16" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="K16" s="9">
-        <v>5</v>
-      </c>
-      <c r="L16" s="9">
-        <v>2</v>
-      </c>
-      <c r="M16" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="N16" s="11" t="s">
-        <v>55</v>
-      </c>
+      <c r="G16" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="I16" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="J16" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="K16" s="30">
+        <v>30</v>
+      </c>
+      <c r="L16" s="30">
+        <v>2</v>
+      </c>
+      <c r="M16" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="N16" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="O16" s="30"/>
       <c r="P16" s="6" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" ht="100.8" x14ac:dyDescent="0.3">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="19" t="s">
-        <v>79</v>
+      <c r="D17" s="18" t="s">
+        <v>25</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>10</v>
@@ -4383,7 +4361,7 @@
         <v>7</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>33</v>
@@ -4395,45 +4373,45 @@
         <v>55</v>
       </c>
       <c r="K17" s="9">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="L17" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M17" s="11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N17" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P17" s="6" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" ht="72" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="90" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
-        <v>541</v>
+        <v>88</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="19" t="s">
-        <v>13</v>
+      <c r="D18" s="18" t="s">
+        <v>70</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I18" s="9" t="s">
         <v>55</v>
@@ -4442,10 +4420,10 @@
         <v>55</v>
       </c>
       <c r="L18" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M18" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N18" s="11" t="s">
         <v>56</v>
@@ -4454,30 +4432,30 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" ht="90" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
-        <v>345</v>
+        <v>118</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>16</v>
+        <v>129</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="19" t="s">
-        <v>13</v>
+      <c r="D19" s="18" t="s">
+        <v>79</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>96</v>
+        <v>18</v>
       </c>
       <c r="I19" s="9" t="s">
         <v>55</v>
@@ -4485,31 +4463,37 @@
       <c r="J19" s="9" t="s">
         <v>55</v>
       </c>
+      <c r="K19" s="9">
+        <v>60</v>
+      </c>
       <c r="L19" s="9">
-        <v>2</v>
-      </c>
-      <c r="M19" s="11" t="s">
-        <v>55</v>
+        <v>1</v>
+      </c>
+      <c r="M19" s="11">
+        <v>1</v>
       </c>
       <c r="N19" s="11" t="s">
         <v>56</v>
       </c>
+      <c r="O19" s="18" t="s">
+        <v>130</v>
+      </c>
       <c r="P19" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" ht="158.4" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
-        <v>557</v>
+        <v>119</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>21</v>
+        <v>131</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="19" t="s">
-        <v>13</v>
+      <c r="D20" s="18" t="s">
+        <v>79</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>10</v>
@@ -4518,7 +4502,7 @@
         <v>22</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>18</v>
@@ -4529,31 +4513,34 @@
       <c r="J20" s="9" t="s">
         <v>55</v>
       </c>
+      <c r="K20" s="9">
+        <v>15</v>
+      </c>
       <c r="L20" s="9">
-        <v>2</v>
-      </c>
-      <c r="M20" s="11" t="s">
-        <v>55</v>
+        <v>1</v>
+      </c>
+      <c r="M20" s="11">
+        <v>1</v>
       </c>
       <c r="N20" s="11" t="s">
         <v>56</v>
       </c>
       <c r="P20" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="180" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D21" s="19" t="s">
-        <v>38</v>
+      <c r="D21" s="18" t="s">
+        <v>13</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>10</v>
@@ -4562,10 +4549,10 @@
         <v>7</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I21" s="9" t="s">
         <v>55</v>
@@ -4577,27 +4564,27 @@
         <v>1</v>
       </c>
       <c r="M21" s="11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N21" s="11" t="s">
         <v>56</v>
       </c>
       <c r="P21" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" ht="86.4" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="120" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
-        <v>1512</v>
+        <v>136</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D22" s="19" t="s">
-        <v>72</v>
+      <c r="D22" s="18" t="s">
+        <v>38</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>10</v>
@@ -4606,10 +4593,10 @@
         <v>7</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I22" s="9" t="s">
         <v>55</v>
@@ -4617,11 +4604,8 @@
       <c r="J22" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="K22" s="9">
-        <v>50</v>
-      </c>
       <c r="L22" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M22" s="11" t="s">
         <v>55</v>
@@ -4630,27 +4614,27 @@
         <v>56</v>
       </c>
       <c r="P22" s="6" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" ht="158.4" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="7">
-        <v>88</v>
+        <v>141</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D23" s="19" t="s">
-        <v>70</v>
+      <c r="D23" s="18" t="s">
+        <v>25</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>8</v>
@@ -4659,98 +4643,92 @@
         <v>33</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L23" s="9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M23" s="11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N23" s="11" t="s">
         <v>56</v>
       </c>
       <c r="P23" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" ht="115.2" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="7">
+        <v>155</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="J24" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="K24" s="30"/>
+      <c r="L24" s="30">
         <v>1</v>
       </c>
-      <c r="B24" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D24" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I24" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="J24" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="L24" s="9">
-        <v>1</v>
-      </c>
-      <c r="M24" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="N24" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="P24" s="6" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" ht="72" x14ac:dyDescent="0.3">
+      <c r="M24" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="N24" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="O24" s="30"/>
+      <c r="P24" s="29" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="7">
-        <v>125</v>
+        <v>160</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="19" t="s">
-        <v>13</v>
+      <c r="D25" s="18" t="s">
+        <v>25</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>7</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="H25" s="5" t="s">
         <v>33</v>
       </c>
       <c r="I25" s="9" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="J25" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L25" s="9">
         <v>1</v>
@@ -4761,69 +4739,68 @@
       <c r="N25" s="11" t="s">
         <v>56</v>
       </c>
+      <c r="O25" s="18" t="s">
+        <v>117</v>
+      </c>
       <c r="P25" s="6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="7">
-        <v>141</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D26" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="E26" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="13">
+        <v>163</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="J26" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="K26" s="14">
+        <v>45</v>
+      </c>
+      <c r="L26" s="14">
+        <v>1</v>
+      </c>
+      <c r="M26" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="N26" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="O26" s="14"/>
+      <c r="P26" s="15" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="150" x14ac:dyDescent="0.25">
+      <c r="A27" s="7">
+        <v>169</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="E27" s="5" t="s">
         <v>10</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I26" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="J26" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="L26" s="9">
-        <v>1</v>
-      </c>
-      <c r="M26" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="N26" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="P26" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="7">
-        <v>160</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D27" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>62</v>
       </c>
       <c r="F27" s="5" t="s">
         <v>7</v>
@@ -4832,16 +4809,16 @@
         <v>8</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I27" s="9" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="J27" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="L27" s="9">
-        <v>1</v>
+      <c r="K27" s="9">
+        <v>40</v>
       </c>
       <c r="M27" s="11" t="s">
         <v>56</v>
@@ -4849,24 +4826,21 @@
       <c r="N27" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="O27" s="19" t="s">
-        <v>120</v>
-      </c>
       <c r="P27" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="7">
-        <v>234</v>
+        <v>206</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D28" s="19" t="s">
+      <c r="D28" s="18" t="s">
         <v>25</v>
       </c>
       <c r="E28" s="5" t="s">
@@ -4879,7 +4853,7 @@
         <v>8</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I28" s="9" t="s">
         <v>55</v>
@@ -4894,50 +4868,71 @@
         <v>55</v>
       </c>
       <c r="N28" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P28" s="6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" ht="115.2" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="120" x14ac:dyDescent="0.25">
       <c r="A29" s="7">
-        <v>9</v>
+        <v>217</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D29" s="19" t="s">
-        <v>64</v>
+      <c r="D29" s="18" t="s">
+        <v>179</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>10</v>
       </c>
+      <c r="F29" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I29" s="9" t="s">
+        <v>55</v>
+      </c>
       <c r="J29" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="K29" s="9">
+        <v>30</v>
+      </c>
+      <c r="L29" s="9">
+        <v>1</v>
+      </c>
+      <c r="M29" s="11" t="s">
         <v>56</v>
       </c>
       <c r="N29" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P29" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" ht="100.8" x14ac:dyDescent="0.3">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" ht="195" x14ac:dyDescent="0.25">
       <c r="A30" s="7">
-        <v>283</v>
+        <v>234</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D30" s="19" t="s">
-        <v>70</v>
+      <c r="D30" s="18" t="s">
+        <v>25</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>10</v>
@@ -4957,9 +4952,6 @@
       <c r="J30" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="K30" s="9">
-        <v>30</v>
-      </c>
       <c r="L30" s="9">
         <v>2</v>
       </c>
@@ -4970,114 +4962,114 @@
         <v>56</v>
       </c>
       <c r="P30" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="7">
-        <v>169</v>
+        <v>237</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D31" s="19" t="s">
-        <v>74</v>
+      <c r="D31" s="18" t="s">
+        <v>25</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G31" s="5" t="s">
         <v>8</v>
       </c>
       <c r="H31" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I31" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="J31" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="L31" s="9">
+        <v>2</v>
+      </c>
+      <c r="M31" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="N31" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="P31" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" s="31" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A32" s="7">
+        <v>268</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C32" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="E32" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="G32" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="H32" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="I31" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="J31" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="K31" s="9">
-        <v>40</v>
-      </c>
-      <c r="M31" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="N31" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="P31" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" s="31" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="27">
-        <v>26</v>
-      </c>
-      <c r="B32" s="28" t="s">
-        <v>77</v>
-      </c>
-      <c r="C32" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="D32" s="29" t="s">
+      <c r="I32" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="J32" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="K32" s="30">
+        <v>30</v>
+      </c>
+      <c r="L32" s="30">
+        <v>1</v>
+      </c>
+      <c r="M32" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="N32" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="O32" s="30"/>
+      <c r="P32" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="S32" s="32"/>
+    </row>
+    <row r="33" spans="1:19" ht="75" x14ac:dyDescent="0.25">
+      <c r="A33" s="7">
+        <v>283</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" s="18" t="s">
         <v>70</v>
-      </c>
-      <c r="E32" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="F32" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="G32" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="H32" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="I32" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="J32" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="K32" s="29">
-        <v>45</v>
-      </c>
-      <c r="L32" s="29">
-        <v>2</v>
-      </c>
-      <c r="M32" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="N32" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="O32" s="29"/>
-      <c r="P32" s="30" t="s">
-        <v>94</v>
-      </c>
-      <c r="S32" s="32"/>
-    </row>
-    <row r="33" spans="1:19" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A33" s="7">
-        <v>448</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D33" s="19" t="s">
-        <v>79</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>10</v>
@@ -5095,68 +5087,80 @@
         <v>55</v>
       </c>
       <c r="J33" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K33" s="9">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="L33" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M33" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N33" s="11" t="s">
         <v>56</v>
       </c>
       <c r="P33" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A34" s="7">
+        <v>344</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H34" s="5" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A34" s="7">
-        <v>155</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D34" s="19" t="s">
-        <v>92</v>
-      </c>
       <c r="I34" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J34" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L34" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M34" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N34" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P34" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="7">
-        <v>26</v>
+        <v>345</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D35" s="19" t="s">
-        <v>92</v>
+      <c r="D35" s="18" t="s">
+        <v>13</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>10</v>
@@ -5168,76 +5172,85 @@
         <v>7</v>
       </c>
       <c r="H35" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="I35" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="J35" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="L35" s="9">
+        <v>2</v>
+      </c>
+      <c r="M35" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="N35" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="P35" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A36" s="7">
+        <v>349</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H36" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I35" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="J35" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="K35" s="9">
-        <v>40</v>
-      </c>
-      <c r="L35" s="9">
-        <v>1</v>
-      </c>
-      <c r="M35" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="N35" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="P35" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A36" s="7">
-        <v>28</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D36" s="19" t="s">
-        <v>98</v>
-      </c>
       <c r="I36" s="9" t="s">
         <v>55</v>
       </c>
       <c r="J36" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K36" s="9">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="L36" s="9">
         <v>1</v>
       </c>
-      <c r="M36" s="11" t="s">
-        <v>56</v>
+      <c r="M36" s="11">
+        <v>0</v>
       </c>
       <c r="N36" s="11" t="s">
         <v>56</v>
       </c>
       <c r="P36" s="6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" ht="100.8" x14ac:dyDescent="0.3">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="7">
-        <v>1470</v>
+        <v>387</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D37" s="19" t="s">
+      <c r="D37" s="18" t="s">
         <v>79</v>
       </c>
       <c r="E37" s="5" t="s">
@@ -5256,230 +5269,226 @@
         <v>55</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K37" s="9">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="L37" s="9">
-        <v>2</v>
-      </c>
-      <c r="M37" s="11" t="s">
-        <v>55</v>
+        <v>1</v>
+      </c>
+      <c r="M37" s="11">
+        <v>1</v>
       </c>
       <c r="N37" s="11" t="s">
         <v>56</v>
       </c>
       <c r="P37" s="6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" ht="86.4" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="7">
-        <v>1431</v>
+        <v>389</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D38" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G38" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H38" s="5" t="s">
-        <v>18</v>
+      <c r="D38" s="18" t="s">
+        <v>38</v>
       </c>
       <c r="I38" s="9" t="s">
         <v>55</v>
       </c>
       <c r="J38" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K38" s="9">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="L38" s="9">
         <v>1</v>
       </c>
-      <c r="M38" s="11" t="s">
-        <v>56</v>
+      <c r="M38" s="11">
+        <v>0</v>
       </c>
       <c r="N38" s="11" t="s">
         <v>56</v>
       </c>
       <c r="P38" s="6" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="7">
-        <v>1365</v>
+        <v>412</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D39" s="19" t="s">
-        <v>79</v>
+      <c r="D39" s="18" t="s">
+        <v>80</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="G39" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I39" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="J39" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="K39" s="9">
+        <v>15</v>
+      </c>
+      <c r="L39" s="9">
+        <v>3</v>
+      </c>
+      <c r="M39" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="N39" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="P39" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" ht="120" x14ac:dyDescent="0.25">
+      <c r="A40" s="7">
+        <v>448</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C40" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="E40" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="H39" s="5" t="s">
+      <c r="G40" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="H40" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="I39" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="J39" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="K39" s="9">
-        <v>20</v>
-      </c>
-      <c r="L39" s="9">
+      <c r="I40" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="J40" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="K40" s="30">
+        <v>35</v>
+      </c>
+      <c r="L40" s="30">
         <v>1</v>
       </c>
-      <c r="M39" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="N39" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="P39" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A40" s="7">
-        <v>268</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D40" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="E40" s="5" t="s">
+      <c r="M40" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="N40" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="O40" s="30"/>
+      <c r="P40" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="7">
+        <v>541</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="F40" s="5" t="s">
+      <c r="F41" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="G40" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H40" s="5" t="s">
+      <c r="G41" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="H41" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="I40" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="J40" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="K40" s="9">
-        <v>30</v>
-      </c>
-      <c r="L40" s="9">
+      <c r="I41" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="J41" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="K41" s="30"/>
+      <c r="L41" s="30">
         <v>1</v>
       </c>
-      <c r="M40" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="N40" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="P40" s="6" t="s">
+      <c r="M41" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="N41" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="O41" s="30"/>
+      <c r="P41" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q41" s="31"/>
+      <c r="R41" s="33" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="41" spans="1:19" s="16" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A41" s="13">
-        <v>163</v>
-      </c>
-      <c r="B41" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="C41" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="D41" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="14"/>
-      <c r="H41" s="14"/>
-      <c r="I41" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="J41" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="K41" s="14">
-        <v>45</v>
-      </c>
-      <c r="L41" s="14">
-        <v>1</v>
-      </c>
-      <c r="M41" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="N41" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="O41" s="14"/>
-      <c r="P41" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="R41" s="18" t="s">
-        <v>114</v>
-      </c>
       <c r="S41" s="17"/>
     </row>
-    <row r="42" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="7">
-        <v>387</v>
+        <v>557</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>115</v>
+        <v>21</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D42" s="19" t="s">
-        <v>79</v>
+      <c r="D42" s="18" t="s">
+        <v>13</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H42" s="5" t="s">
         <v>18</v>
@@ -5490,239 +5499,250 @@
       <c r="J42" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="K42" s="9">
-        <v>30</v>
-      </c>
       <c r="L42" s="9">
-        <v>1</v>
-      </c>
-      <c r="M42" s="11">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="M42" s="11" t="s">
+        <v>55</v>
       </c>
       <c r="N42" s="11" t="s">
         <v>56</v>
       </c>
       <c r="P42" s="6" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" ht="86.4" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="7">
-        <v>771</v>
+        <v>665</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>122</v>
+        <v>168</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D43" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G43" s="5" t="s">
-        <v>7</v>
+      <c r="D43" s="18" t="s">
+        <v>79</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I43" s="9" t="s">
         <v>55</v>
       </c>
       <c r="J43" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K43" s="9">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="L43" s="9">
         <v>1</v>
       </c>
       <c r="M43" s="11">
+        <v>0</v>
+      </c>
+      <c r="N43" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="P43" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" ht="90" x14ac:dyDescent="0.25">
+      <c r="A44" s="7">
+        <v>771</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D44" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I44" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="J44" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="K44" s="9">
+        <v>30</v>
+      </c>
+      <c r="L44" s="9">
         <v>1</v>
       </c>
-      <c r="N43" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="P43" s="6" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A44" s="7">
+      <c r="M44" s="11">
+        <v>1</v>
+      </c>
+      <c r="N44" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="P44" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A45" s="7">
+        <v>832</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C45" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="D45" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="E45" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="F45" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="G45" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="H45" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="I45" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="J45" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="K45" s="30">
+        <v>30</v>
+      </c>
+      <c r="L45" s="30">
+        <v>1</v>
+      </c>
+      <c r="M45" s="30">
+        <v>0</v>
+      </c>
+      <c r="N45" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="O45" s="30"/>
+      <c r="P45" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="7">
+        <v>977</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="C46" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="D46" s="30" t="s">
+        <v>171</v>
+      </c>
+      <c r="E46" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="F46" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="G46" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="H46" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="I46" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="J46" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="K46" s="30">
+        <v>15</v>
+      </c>
+      <c r="L46" s="30">
+        <v>1</v>
+      </c>
+      <c r="M46" s="30">
+        <v>0</v>
+      </c>
+      <c r="N46" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="O46" s="30"/>
+      <c r="P46" s="6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="7">
         <v>1002</v>
       </c>
-      <c r="B44" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D44" s="19" t="s">
+      <c r="B47" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C47" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="D47" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="I44" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="J44" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A45" s="7">
-        <v>1342</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D45" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F45" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G45" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H45" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I45" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="J45" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="K45" s="9">
-        <v>30</v>
-      </c>
-      <c r="L45" s="9">
-        <v>1</v>
-      </c>
-      <c r="M45" s="11">
-        <v>0</v>
-      </c>
-      <c r="N45" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="P45" s="6" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A46" s="7">
-        <v>389</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D46" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="I46" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="J46" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="K46" s="9">
-        <v>30</v>
-      </c>
-      <c r="L46" s="9">
-        <v>1</v>
-      </c>
-      <c r="M46" s="11">
-        <v>0</v>
-      </c>
-      <c r="N46" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="P46" s="6" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A47" s="7">
-        <v>832</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D47" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="G47" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H47" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I47" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="J47" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="K47" s="9">
-        <v>30</v>
-      </c>
-      <c r="L47" s="9">
-        <v>1</v>
-      </c>
-      <c r="M47" s="11">
-        <v>0</v>
-      </c>
-      <c r="N47" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="P47" s="6" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="E47" s="30"/>
+      <c r="F47" s="30"/>
+      <c r="G47" s="30"/>
+      <c r="H47" s="30"/>
+      <c r="I47" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="J47" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="K47" s="30"/>
+      <c r="L47" s="30"/>
+      <c r="M47" s="30"/>
+      <c r="N47" s="30"/>
+      <c r="O47" s="30"/>
+    </row>
+    <row r="48" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="7">
-        <v>118</v>
+        <v>1108</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D48" s="19" t="s">
-        <v>79</v>
+      <c r="D48" s="18" t="s">
+        <v>13</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="H48" s="5" t="s">
         <v>18</v>
@@ -5734,95 +5754,87 @@
         <v>55</v>
       </c>
       <c r="K48" s="9">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="L48" s="9">
         <v>1</v>
       </c>
       <c r="M48" s="11">
+        <v>0</v>
+      </c>
+      <c r="N48" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="P48" s="6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A49" s="13">
+        <v>1119</v>
+      </c>
+      <c r="B49" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="C49" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D49" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
+      <c r="H49" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I49" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="J49" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="K49" s="14">
+        <v>10</v>
+      </c>
+      <c r="L49" s="14">
         <v>1</v>
       </c>
-      <c r="N48" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="O48" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="P48" s="6" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19" ht="72" x14ac:dyDescent="0.3">
-      <c r="A49" s="7">
-        <v>119</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D49" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F49" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G49" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H49" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I49" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="J49" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="K49" s="9">
-        <v>15</v>
-      </c>
-      <c r="L49" s="9">
-        <v>1</v>
-      </c>
-      <c r="M49" s="11">
-        <v>1</v>
-      </c>
-      <c r="N49" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="P49" s="6" t="s">
+      <c r="M49" s="14">
+        <v>0</v>
+      </c>
+      <c r="N49" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="O49" s="14"/>
+      <c r="P49" s="15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A50" s="7">
+        <v>1295</v>
+      </c>
+      <c r="B50" s="8" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="50" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A50" s="7">
-        <v>1672</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>135</v>
-      </c>
       <c r="C50" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D50" s="19" t="s">
+      <c r="D50" s="18" t="s">
         <v>79</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>136</v>
+        <v>22</v>
       </c>
       <c r="G50" s="5" t="s">
         <v>8</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I50" s="9" t="s">
         <v>55</v>
@@ -5831,7 +5843,7 @@
         <v>55</v>
       </c>
       <c r="K50" s="9">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="L50" s="9">
         <v>1</v>
@@ -5843,30 +5855,30 @@
         <v>56</v>
       </c>
       <c r="P50" s="6" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A51" s="7">
-        <v>1684</v>
+        <v>1299</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>137</v>
+        <v>166</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D51" s="19" t="s">
-        <v>138</v>
+      <c r="D51" s="18" t="s">
+        <v>79</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>139</v>
+        <v>22</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H51" s="5" t="s">
         <v>18</v>
@@ -5878,7 +5890,7 @@
         <v>55</v>
       </c>
       <c r="K51" s="9">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="L51" s="9">
         <v>1</v>
@@ -5890,45 +5902,27 @@
         <v>56</v>
       </c>
       <c r="P51" s="6" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A52" s="7">
-        <v>1674</v>
+        <v>1304</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D52" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F52" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G52" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H52" s="5" t="s">
-        <v>18</v>
+      <c r="D52" s="18" t="s">
+        <v>79</v>
       </c>
       <c r="I52" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J52" s="9" t="s">
         <v>56</v>
-      </c>
-      <c r="K52" s="9">
-        <v>45</v>
-      </c>
-      <c r="L52" s="9">
-        <v>1</v>
       </c>
       <c r="M52" s="11">
         <v>0</v>
@@ -5937,30 +5931,30 @@
         <v>56</v>
       </c>
       <c r="P52" s="6" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="53" spans="1:19" ht="72" x14ac:dyDescent="0.3">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" ht="75" x14ac:dyDescent="0.25">
       <c r="A53" s="7">
-        <v>1662</v>
+        <v>1313</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D53" s="19" t="s">
-        <v>138</v>
+      <c r="D53" s="18" t="s">
+        <v>79</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F53" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="G53" s="5" t="s">
         <v>7</v>
-      </c>
-      <c r="G53" s="5" t="s">
-        <v>8</v>
       </c>
       <c r="H53" s="5" t="s">
         <v>18</v>
@@ -5984,21 +5978,21 @@
         <v>56</v>
       </c>
       <c r="P53" s="6" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="54" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A54" s="7">
-        <v>1108</v>
+        <v>1342</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D54" s="19" t="s">
-        <v>13</v>
+      <c r="D54" s="18" t="s">
+        <v>38</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>10</v>
@@ -6007,7 +6001,7 @@
         <v>7</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H54" s="5" t="s">
         <v>18</v>
@@ -6019,7 +6013,7 @@
         <v>55</v>
       </c>
       <c r="K54" s="9">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="L54" s="9">
         <v>1</v>
@@ -6031,70 +6025,78 @@
         <v>56</v>
       </c>
       <c r="P54" s="6" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="55" spans="1:19" s="16" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A55" s="13">
-        <v>1119</v>
-      </c>
-      <c r="B55" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="C55" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="D55" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-      <c r="G55" s="14"/>
-      <c r="H55" s="14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" s="16" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A55" s="7">
+        <v>1365</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C55" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="D55" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="E55" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="F55" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="G55" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="H55" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="I55" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="J55" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="K55" s="14">
-        <v>10</v>
-      </c>
-      <c r="L55" s="14">
+      <c r="I55" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="J55" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="K55" s="30">
+        <v>20</v>
+      </c>
+      <c r="L55" s="30">
         <v>1</v>
       </c>
-      <c r="M55" s="14">
-        <v>0</v>
-      </c>
-      <c r="N55" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="O55" s="14"/>
-      <c r="P55" s="15" t="s">
-        <v>149</v>
-      </c>
+      <c r="M55" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="N55" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="O55" s="30"/>
+      <c r="P55" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q55" s="31"/>
+      <c r="R55" s="31"/>
       <c r="S55" s="17"/>
     </row>
-    <row r="56" spans="1:19" ht="72" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:19" ht="75" x14ac:dyDescent="0.25">
       <c r="A56" s="7">
-        <v>1313</v>
+        <v>1389</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D56" s="19" t="s">
+      <c r="D56" s="18" t="s">
         <v>79</v>
       </c>
       <c r="E56" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>136</v>
+        <v>22</v>
       </c>
       <c r="G56" s="5" t="s">
         <v>7</v>
@@ -6109,7 +6111,7 @@
         <v>55</v>
       </c>
       <c r="K56" s="9">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="L56" s="9">
         <v>1</v>
@@ -6121,27 +6123,27 @@
         <v>56</v>
       </c>
       <c r="P56" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="57" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" ht="105" x14ac:dyDescent="0.25">
       <c r="A57" s="7">
-        <v>1389</v>
+        <v>1431</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>153</v>
+        <v>100</v>
       </c>
       <c r="C57" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D57" s="19" t="s">
+      <c r="D57" s="18" t="s">
         <v>79</v>
       </c>
       <c r="E57" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="G57" s="5" t="s">
         <v>7</v>
@@ -6156,80 +6158,96 @@
         <v>55</v>
       </c>
       <c r="K57" s="9">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="L57" s="9">
         <v>1</v>
       </c>
-      <c r="M57" s="11">
+      <c r="M57" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="N57" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="P57" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" s="24" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A58" s="7">
+        <v>1450</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="C58" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="D58" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="E58" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="F58" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="G58" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="H58" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="I58" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="J58" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="K58" s="30">
+        <v>35</v>
+      </c>
+      <c r="L58" s="30">
+        <v>1</v>
+      </c>
+      <c r="M58" s="30">
         <v>0</v>
       </c>
-      <c r="N57" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="P57" s="6" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="58" spans="1:19" s="25" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A58" s="21">
-        <v>1588</v>
-      </c>
-      <c r="B58" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="C58" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="D58" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="E58" s="23"/>
-      <c r="F58" s="23"/>
-      <c r="G58" s="23"/>
-      <c r="H58" s="23"/>
-      <c r="I58" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="J58" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="K58" s="23"/>
-      <c r="L58" s="23"/>
-      <c r="M58" s="23"/>
-      <c r="N58" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="O58" s="23"/>
-      <c r="P58" s="24" t="s">
-        <v>158</v>
-      </c>
-      <c r="S58" s="26"/>
-    </row>
-    <row r="59" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="N58" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="O58" s="30"/>
+      <c r="P58" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q58" s="31"/>
+      <c r="R58" s="31"/>
+      <c r="S58" s="25"/>
+    </row>
+    <row r="59" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A59" s="7">
-        <v>1295</v>
+        <v>1464</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D59" s="19" t="s">
+      <c r="D59" s="18" t="s">
         <v>79</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="G59" s="5" t="s">
         <v>8</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I59" s="9" t="s">
         <v>55</v>
@@ -6238,7 +6256,7 @@
         <v>55</v>
       </c>
       <c r="K59" s="9">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="L59" s="9">
         <v>1</v>
@@ -6250,20 +6268,20 @@
         <v>56</v>
       </c>
       <c r="P59" s="6" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="60" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" ht="90" x14ac:dyDescent="0.25">
       <c r="A60" s="7">
-        <v>1450</v>
+        <v>1470</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>161</v>
+        <v>99</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D60" s="19" t="s">
+      <c r="D60" s="18" t="s">
         <v>79</v>
       </c>
       <c r="E60" s="5" t="s">
@@ -6273,7 +6291,7 @@
         <v>7</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H60" s="5" t="s">
         <v>18</v>
@@ -6282,42 +6300,42 @@
         <v>55</v>
       </c>
       <c r="J60" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K60" s="9">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="L60" s="9">
-        <v>1</v>
-      </c>
-      <c r="M60" s="11">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="M60" s="11" t="s">
+        <v>55</v>
       </c>
       <c r="N60" s="11" t="s">
         <v>56</v>
       </c>
       <c r="P60" s="6" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="61" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" ht="90" x14ac:dyDescent="0.25">
       <c r="A61" s="7">
-        <v>1464</v>
+        <v>1475</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C61" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D61" s="19" t="s">
+      <c r="D61" s="18" t="s">
         <v>79</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="G61" s="5" t="s">
         <v>8</v>
@@ -6332,7 +6350,7 @@
         <v>55</v>
       </c>
       <c r="K61" s="9">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="L61" s="9">
         <v>1</v>
@@ -6344,194 +6362,218 @@
         <v>56</v>
       </c>
       <c r="P61" s="6" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="62" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="7">
-        <v>1304</v>
+        <v>1480</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>165</v>
+        <v>98</v>
       </c>
       <c r="C62" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D62" s="19" t="s">
+      <c r="D62" s="18" t="s">
         <v>79</v>
       </c>
+      <c r="E62" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H62" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="I62" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J62" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="M62" s="11">
-        <v>0</v>
+        <v>55</v>
+      </c>
+      <c r="K62" s="9">
+        <v>5</v>
+      </c>
+      <c r="L62" s="9">
+        <v>2</v>
+      </c>
+      <c r="M62" s="11" t="s">
+        <v>55</v>
       </c>
       <c r="N62" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P62" s="6" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="63" spans="1:19" ht="72" x14ac:dyDescent="0.3">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" ht="105" x14ac:dyDescent="0.25">
       <c r="A63" s="7">
-        <v>1475</v>
+        <v>1512</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>167</v>
+        <v>36</v>
       </c>
       <c r="C63" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D63" s="19" t="s">
-        <v>79</v>
+      <c r="D63" s="18" t="s">
+        <v>72</v>
       </c>
       <c r="E63" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="G63" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H63" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I63" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="J63" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="K63" s="9">
+        <v>50</v>
+      </c>
+      <c r="L63" s="9">
+        <v>2</v>
+      </c>
+      <c r="M63" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="N63" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="P63" s="6" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A64" s="20">
+        <v>1588</v>
+      </c>
+      <c r="B64" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="C64" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D64" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="E64" s="22"/>
+      <c r="F64" s="22"/>
+      <c r="G64" s="22"/>
+      <c r="H64" s="22"/>
+      <c r="I64" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="J64" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="K64" s="22"/>
+      <c r="L64" s="22"/>
+      <c r="M64" s="22"/>
+      <c r="N64" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="O64" s="22"/>
+      <c r="P64" s="23" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" ht="75" x14ac:dyDescent="0.25">
+      <c r="A65" s="7">
+        <v>1662</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C65" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="D65" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="E65" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="F65" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="G65" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="H63" s="5" t="s">
+      <c r="H65" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="I63" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="J63" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="K63" s="9">
-        <v>60</v>
-      </c>
-      <c r="L63" s="9">
+      <c r="I65" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="J65" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="K65" s="30">
+        <v>30</v>
+      </c>
+      <c r="L65" s="30">
         <v>1</v>
       </c>
-      <c r="M63" s="11">
+      <c r="M65" s="30">
         <v>0</v>
       </c>
-      <c r="N63" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="P63" s="6" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="64" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A64" s="7">
-        <v>1299</v>
-      </c>
-      <c r="B64" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D64" s="19" t="s">
+      <c r="N65" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="O65" s="30"/>
+      <c r="P65" s="6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+      <c r="A66" s="7">
+        <v>1672</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D66" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="E64" s="5" t="s">
+      <c r="E66" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F64" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G64" s="5" t="s">
+      <c r="F66" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="G66" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H64" s="5" t="s">
+      <c r="H66" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I64" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="J64" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="K64" s="9">
-        <v>40</v>
-      </c>
-      <c r="L64" s="9">
-        <v>1</v>
-      </c>
-      <c r="M64" s="11">
-        <v>0</v>
-      </c>
-      <c r="N64" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="P64" s="6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="65" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A65" s="7">
-        <v>665</v>
-      </c>
-      <c r="B65" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D65" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="H65" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I65" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="J65" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="K65" s="9">
-        <v>60</v>
-      </c>
-      <c r="L65" s="9">
-        <v>1</v>
-      </c>
-      <c r="M65" s="11">
-        <v>0</v>
-      </c>
-      <c r="N65" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="P65" s="6" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="66" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A66" s="7">
-        <v>27</v>
-      </c>
-      <c r="B66" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D66" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="H66" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="I66" s="9" t="s">
         <v>55</v>
       </c>
       <c r="J66" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K66" s="9">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="L66" s="9">
         <v>1</v>
@@ -6543,30 +6585,30 @@
         <v>56</v>
       </c>
       <c r="P66" s="6" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="67" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="7">
-        <v>977</v>
+        <v>1674</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>177</v>
+        <v>139</v>
       </c>
       <c r="C67" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D67" s="19" t="s">
-        <v>174</v>
+      <c r="D67" s="18" t="s">
+        <v>13</v>
       </c>
       <c r="E67" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>83</v>
+        <v>7</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H67" s="5" t="s">
         <v>18</v>
@@ -6575,10 +6617,10 @@
         <v>55</v>
       </c>
       <c r="J67" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K67" s="9">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="L67" s="9">
         <v>1</v>
@@ -6590,27 +6632,27 @@
         <v>56</v>
       </c>
       <c r="P67" s="6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="68" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A68" s="7">
-        <v>349</v>
+        <v>1684</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>180</v>
+        <v>134</v>
       </c>
       <c r="C68" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D68" s="19" t="s">
-        <v>178</v>
+      <c r="D68" s="18" t="s">
+        <v>135</v>
       </c>
       <c r="E68" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>83</v>
+        <v>136</v>
       </c>
       <c r="G68" s="5" t="s">
         <v>7</v>
@@ -6625,7 +6667,7 @@
         <v>55</v>
       </c>
       <c r="K68" s="9">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="L68" s="9">
         <v>1</v>
@@ -6637,16 +6679,20 @@
         <v>56</v>
       </c>
       <c r="P68" s="6" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
       <c r="U69" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A8:P68" xr:uid="{57DD97F8-0FE5-4F41-AAF2-1F48E42A70CC}"/>
+  <autoFilter ref="A8:P68" xr:uid="{57DD97F8-0FE5-4F41-AAF2-1F48E42A70CC}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:P68">
+      <sortCondition ref="A8:A68"/>
+    </sortState>
+  </autoFilter>
   <mergeCells count="2">
     <mergeCell ref="A1:P7"/>
     <mergeCell ref="Q1:R1"/>

--- a/LeetCode Tracker.xlsx
+++ b/LeetCode Tracker.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leon\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leon\Desktop\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{759F092D-BC8A-4460-BFB2-25763BE5549B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA2DEB29-DA8C-4066-85DA-4430C8BBDF38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2FA590F6-CEBE-453D-A814-55EB366ADEEE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2FA590F6-CEBE-453D-A814-55EB366ADEEE}"/>
   </bookViews>
   <sheets>
     <sheet name="LeetCode" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LeetCode!$A$8:$P$68</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LeetCode!$A$8:$P$71</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="195">
   <si>
     <t>LeetCode Problems</t>
   </si>
@@ -186,9 +186,6 @@
     <t>Two Sums</t>
   </si>
   <si>
-    <t>***This is an important interview question as well. Because it is between x=target -y; inserting the elements into HashMap and compare from there. It seems that second part is two pointers but need to figure out how to do binary search first, since second part will always be sorted.</t>
-  </si>
-  <si>
     <t>Valid Palindrome</t>
   </si>
   <si>
@@ -619,203 +616,6 @@
   </si>
   <si>
     <t>O(nlogn)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Optimal solution using while loop and two pointers, which loop through the array linearly, time complexity, O(n) but able to modify the elements in the same array, which make the space complexity O(1). 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>UPDATE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Learned that </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>nums[k++]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> is different than </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>nums[++k]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>nums[k++</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">]:  means after assign </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>nums[k</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">], </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>k</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> will increment by 1.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>nums[++k]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: means </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>k</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> will increment by 1 first, before assign </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>nums[k]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
   </si>
   <si>
     <t>Find All Numbers Disappeared in an Array</t>
@@ -2698,22 +2498,6 @@
     <t>Need practice || Time/Space Complexity</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">****Almost got it. The concept is there but was not able to grasp the array index. Even came up with solutions from leetcode but only missed a line of code or two. Definitely need more practice! </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Similar to question 26.</t>
-    </r>
-  </si>
-  <si>
     <t>Squares of Sorted Array</t>
   </si>
   <si>
@@ -3121,6 +2905,530 @@
   <si>
     <t xml:space="preserve">****Always need to remember the base case!!
 This is a very very easy question. Not fibonacci. </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">***This is an important interview question as well. Because it is between x=target - y; inserting the elements into HashMap and compare from there. It seems that second part is two pointers but need to figure out how to do binary search first, since second part will always be sorted.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">UPDATE: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Almost solved it. Still need more practicing on </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>HashTable</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to look through how "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>key</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" and "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">" works. The trick is to insert elements and position of elements into the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>HashTable</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. There is also another thing we can learn here, which is to return array declared on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>return statement</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Two Sums II</t>
+  </si>
+  <si>
+    <t>Array/HashTable</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">****This is just like </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. Two Sums</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, but with a little twist. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Optimal Solution </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">is to shrink to possibility of finding the target by using two pointers instead of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>HashTable</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Just using </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Math</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to compare to target since the array is sorted.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Optimal solution using while loop and two pointers, which loop through the array linearly, time complexity, O(n) but able to modify the elements in the same array, which make the space complexity O(1). 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>UPDATE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Learned that </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nums[k++]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is different than </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nums[++k]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nums[k++</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">]:  means after assign </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nums[k</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">], </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>k</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> will increment by 1.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nums[++k]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: means </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>k</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> will increment by 1 first, before assign </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nums[k]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">UPDATE (2 months): </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Able to come up with optimal solution and cleaner code.</t>
+    </r>
+  </si>
+  <si>
+    <t>Remove Elements in Linked List</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">****Almost got the correct answer but still missing a few fundamentals understanding of pointers. Also, try to implement base case (what if the first element == value?). This question is related to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>237. Delete Node in Linked List</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">****Almost got it. The concept is there but was not able to grasp the array index. Even came up with solutions from leetcode but only missed a line of code or two. Definitely need more practice! Similar to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Question 26. Remove Duplicates from Sorted Array</t>
+    </r>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Remove Duplicates from Sorted Array II</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">****Almost had it, still need time to practice to look through the pointers. Related to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Question 26. Remove Duplicated from Sorted Array </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Question 27. Remove Element</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -3254,7 +3562,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3275,9 +3583,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3291,9 +3596,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3312,9 +3614,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -3326,9 +3625,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3351,6 +3647,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3758,210 +4057,211 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CECAF50C-0FA8-4FE8-AF1F-0197AD9DA707}">
-  <dimension ref="A1:U69"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:U71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="18" ySplit="8" topLeftCell="S9" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="18" ySplit="8" topLeftCell="S13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="P1" sqref="P1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="R10" sqref="R10"/>
+      <selection pane="bottomRight" activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" style="8" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.85546875" style="9" customWidth="1"/>
-    <col min="12" max="12" width="8.7109375" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.85546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="67" style="6" customWidth="1"/>
-    <col min="17" max="17" width="7.7109375" style="31" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="23.28515625" style="31" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="23.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.109375" style="7" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.88671875" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.21875" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.77734375" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.44140625" style="10" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5546875" style="16" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="74" style="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.44140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="37.109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="23.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="33.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="43" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="44"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="10"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="9"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="37"/>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="32" t="s">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="31" t="s">
-        <v>172</v>
+      <c r="R2" s="27" t="s">
+        <v>170</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="37"/>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="32" t="s">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A3" s="34"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="35"/>
+      <c r="Q3" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="R3" s="31" t="s">
+      <c r="R3" s="27" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="37"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
-      <c r="N4" s="37"/>
-      <c r="O4" s="37"/>
-      <c r="P4" s="38"/>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A4" s="34"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="35"/>
       <c r="Q4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="R4" s="31" t="s">
-        <v>65</v>
+      <c r="R4" s="27" t="s">
+        <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="39"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="39"/>
-      <c r="M5" s="39"/>
-      <c r="N5" s="39"/>
-      <c r="O5" s="39"/>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="32" t="s">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A5" s="36"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="37"/>
+      <c r="Q5" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="R5" s="31" t="s">
+      <c r="R5" s="27" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="39"/>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="39"/>
-      <c r="K6" s="39"/>
-      <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
-      <c r="N6" s="39"/>
-      <c r="O6" s="39"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="32" t="s">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A6" s="36"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="37"/>
+      <c r="Q6" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="R6" s="31" t="s">
+      <c r="R6" s="27" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="41"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41"/>
-      <c r="O7" s="41"/>
-      <c r="P7" s="42"/>
-      <c r="Q7" s="32" t="s">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A7" s="38"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38"/>
+      <c r="O7" s="38"/>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="R7" s="31" t="s">
-        <v>114</v>
+      <c r="R7" s="27" t="s">
+        <v>112</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
@@ -3987,42 +4287,42 @@
         <v>37</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M8" s="2" t="s">
         <v>32</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="P8" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="75" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
+    <row r="9" spans="1:20" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="31">
         <v>1</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>48</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="18" t="s">
-        <v>71</v>
+      <c r="D9" s="16" t="s">
+        <v>70</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>10</v>
@@ -4036,63 +4336,66 @@
       <c r="H9" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I9" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="L9" s="9">
+      <c r="I9" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="K9" s="8">
+        <v>45</v>
+      </c>
+      <c r="L9" s="8">
+        <v>2</v>
+      </c>
+      <c r="M9" s="10">
         <v>1</v>
       </c>
-      <c r="M9" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="N9" s="11" t="s">
-        <v>56</v>
+      <c r="N9" s="10" t="s">
+        <v>55</v>
       </c>
       <c r="P9" s="6" t="s">
-        <v>49</v>
+        <v>184</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="135" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
+    <row r="10" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="31">
         <v>9</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="16" t="s">
         <v>63</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>64</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="N10" s="11" t="s">
-        <v>56</v>
+      <c r="J10" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="N10" s="10" t="s">
+        <v>55</v>
       </c>
       <c r="P10" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
-        <v>21</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>35</v>
+    <row r="11" spans="1:20" ht="144" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="31">
+        <v>20</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>90</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="18" t="s">
-        <v>25</v>
+      <c r="D11" s="16" t="s">
+        <v>89</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>10</v>
@@ -4101,311 +4404,298 @@
         <v>7</v>
       </c>
       <c r="G11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="K11" s="8">
+        <v>40</v>
+      </c>
+      <c r="L11" s="8">
+        <v>1</v>
+      </c>
+      <c r="M11" s="10">
+        <v>0</v>
+      </c>
+      <c r="N11" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="P11" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="31">
+        <v>21</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H12" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="I11" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="J11" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="L11" s="9">
+      <c r="I12" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="J12" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31">
         <v>1</v>
       </c>
-      <c r="M11" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="N11" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="P11" s="6" t="s">
-        <v>185</v>
+      <c r="M12" s="31">
+        <v>0</v>
+      </c>
+      <c r="N12" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="O12" s="31"/>
+      <c r="P12" s="6" t="s">
+        <v>182</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="105" x14ac:dyDescent="0.25">
-      <c r="A12" s="26">
+    <row r="13" spans="1:20" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="24">
         <v>26</v>
       </c>
-      <c r="B12" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="C12" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="E12" s="28" t="s">
+      <c r="B13" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="28" t="s">
+      <c r="F13" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="28" t="s">
+      <c r="G13" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="H12" s="28" t="s">
+      <c r="H13" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="I12" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="J12" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="K12" s="28">
+      <c r="I13" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="J13" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="K13" s="24">
         <v>45</v>
       </c>
-      <c r="L12" s="28">
-        <v>2</v>
-      </c>
-      <c r="M12" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="N12" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="O12" s="28"/>
-      <c r="P12" s="34" t="s">
-        <v>84</v>
+      <c r="L13" s="24">
+        <v>2</v>
+      </c>
+      <c r="M13" s="24">
+        <v>1</v>
+      </c>
+      <c r="N13" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="O13" s="24"/>
+      <c r="P13" s="30" t="s">
+        <v>188</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="180" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
-        <v>26</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="J13" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="K13" s="9">
-        <v>40</v>
-      </c>
-      <c r="L13" s="9">
-        <v>1</v>
-      </c>
-      <c r="M13" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="N13" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="P13" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" ht="60" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
+    <row r="14" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="31">
         <v>27</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>170</v>
+      <c r="B14" s="7" t="s">
+        <v>168</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="18" t="s">
-        <v>171</v>
+      <c r="D14" s="16" t="s">
+        <v>169</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I14" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="J14" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="K14" s="9">
+      <c r="I14" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="K14" s="8">
         <v>60</v>
       </c>
-      <c r="L14" s="9">
+      <c r="L14" s="8">
         <v>1</v>
       </c>
-      <c r="M14" s="11">
+      <c r="M14" s="10">
         <v>0</v>
       </c>
-      <c r="N14" s="11" t="s">
-        <v>56</v>
+      <c r="N14" s="10" t="s">
+        <v>55</v>
       </c>
       <c r="P14" s="6" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
+    <row r="15" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="31">
         <v>28</v>
       </c>
-      <c r="B15" s="8" t="s">
-        <v>96</v>
+      <c r="B15" s="7" t="s">
+        <v>94</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="I15" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="J15" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="K15" s="9">
+      <c r="D15" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="K15" s="8">
         <v>45</v>
       </c>
-      <c r="L15" s="9">
+      <c r="L15" s="8">
         <v>1</v>
       </c>
-      <c r="M15" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="N15" s="11" t="s">
-        <v>56</v>
+      <c r="M15" s="10">
+        <v>0</v>
+      </c>
+      <c r="N15" s="10" t="s">
+        <v>55</v>
       </c>
       <c r="P15" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="90" x14ac:dyDescent="0.25">
-      <c r="A16" s="7">
+    <row r="16" spans="1:20" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="31">
         <v>66</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="C16" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="E16" s="30" t="s">
+      <c r="B16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="E16" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="F16" s="30" t="s">
+      <c r="F16" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="G16" s="30" t="s">
+      <c r="G16" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="H16" s="30" t="s">
+      <c r="H16" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="I16" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="J16" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="K16" s="30">
+      <c r="I16" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="J16" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="K16" s="26">
         <v>30</v>
       </c>
-      <c r="L16" s="30">
-        <v>2</v>
-      </c>
-      <c r="M16" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="N16" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="O16" s="30"/>
+      <c r="L16" s="26">
+        <v>2</v>
+      </c>
+      <c r="M16" s="26">
+        <v>1</v>
+      </c>
+      <c r="N16" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="O16" s="26"/>
       <c r="P16" s="6" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="7">
+    <row r="17" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="31">
+        <v>80</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="K17" s="8">
+        <v>60</v>
+      </c>
+      <c r="L17" s="8">
+        <v>1</v>
+      </c>
+      <c r="M17" s="10">
+        <v>0</v>
+      </c>
+      <c r="P17" s="6" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="31">
         <v>83</v>
       </c>
-      <c r="B17" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17" s="18" t="s">
+      <c r="B18" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="16" t="s">
         <v>25</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I17" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="J17" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="K17" s="9">
-        <v>35</v>
-      </c>
-      <c r="L17" s="9">
-        <v>1</v>
-      </c>
-      <c r="M17" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="N17" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="P17" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" ht="90" x14ac:dyDescent="0.25">
-      <c r="A18" s="7">
-        <v>88</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>70</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>8</v>
@@ -4413,87 +4703,84 @@
       <c r="H18" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I18" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="J18" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="L18" s="9">
-        <v>2</v>
-      </c>
-      <c r="M18" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="N18" s="11" t="s">
-        <v>56</v>
+      <c r="I18" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="K18" s="8">
+        <v>35</v>
+      </c>
+      <c r="L18" s="8">
+        <v>1</v>
+      </c>
+      <c r="M18" s="10">
+        <v>0</v>
+      </c>
+      <c r="N18" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="P18" s="6" t="s">
-        <v>47</v>
+        <v>86</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="90" x14ac:dyDescent="0.25">
-      <c r="A19" s="7">
-        <v>118</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>129</v>
+    <row r="19" spans="1:19" ht="72" x14ac:dyDescent="0.3">
+      <c r="A19" s="31">
+        <v>88</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="18" t="s">
-        <v>79</v>
+      <c r="D19" s="16" t="s">
+        <v>69</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I19" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="J19" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="K19" s="9">
-        <v>60</v>
-      </c>
-      <c r="L19" s="9">
+        <v>33</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="L19" s="8">
+        <v>2</v>
+      </c>
+      <c r="M19" s="10">
         <v>1</v>
       </c>
-      <c r="M19" s="11">
-        <v>1</v>
-      </c>
-      <c r="N19" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="O19" s="18" t="s">
-        <v>130</v>
+      <c r="N19" s="10" t="s">
+        <v>55</v>
       </c>
       <c r="P19" s="6" t="s">
-        <v>152</v>
+        <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="75" x14ac:dyDescent="0.25">
-      <c r="A20" s="7">
-        <v>119</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>131</v>
+    <row r="20" spans="1:19" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A20" s="31">
+        <v>118</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>127</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="18" t="s">
-        <v>79</v>
+      <c r="D20" s="16" t="s">
+        <v>78</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>10</v>
@@ -4507,84 +4794,90 @@
       <c r="H20" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I20" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="J20" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="K20" s="9">
-        <v>15</v>
-      </c>
-      <c r="L20" s="9">
+      <c r="I20" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="K20" s="8">
+        <v>60</v>
+      </c>
+      <c r="L20" s="8">
         <v>1</v>
       </c>
-      <c r="M20" s="11">
+      <c r="M20" s="10">
         <v>1</v>
       </c>
-      <c r="N20" s="11" t="s">
-        <v>56</v>
+      <c r="N20" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="O20" s="16" t="s">
+        <v>128</v>
       </c>
       <c r="P20" s="6" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="180" x14ac:dyDescent="0.25">
-      <c r="A21" s="7">
-        <v>125</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>50</v>
+    <row r="21" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="31">
+        <v>119</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>129</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D21" s="18" t="s">
-        <v>13</v>
+      <c r="D21" s="16" t="s">
+        <v>78</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I21" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="J21" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="L21" s="9">
+        <v>18</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="K21" s="8">
+        <v>15</v>
+      </c>
+      <c r="L21" s="8">
         <v>1</v>
       </c>
-      <c r="M21" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="N21" s="11" t="s">
-        <v>56</v>
+      <c r="M21" s="10">
+        <v>1</v>
+      </c>
+      <c r="N21" s="10" t="s">
+        <v>55</v>
       </c>
       <c r="P21" s="6" t="s">
-        <v>76</v>
+        <v>151</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="120" x14ac:dyDescent="0.25">
-      <c r="A22" s="7">
-        <v>136</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>26</v>
+    <row r="22" spans="1:19" ht="158.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="31">
+        <v>125</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D22" s="18" t="s">
-        <v>38</v>
+      <c r="D22" s="16" t="s">
+        <v>13</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>10</v>
@@ -4593,42 +4886,42 @@
         <v>7</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I22" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="J22" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="L22" s="9">
+        <v>33</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="L22" s="8">
         <v>1</v>
       </c>
-      <c r="M22" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="N22" s="11" t="s">
-        <v>56</v>
+      <c r="M22" s="10">
+        <v>0</v>
+      </c>
+      <c r="N22" s="10" t="s">
+        <v>55</v>
       </c>
       <c r="P22" s="6" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="60" x14ac:dyDescent="0.25">
-      <c r="A23" s="7">
-        <v>141</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>52</v>
+    <row r="23" spans="1:19" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="31">
+        <v>136</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D23" s="18" t="s">
-        <v>25</v>
+      <c r="D23" s="16" t="s">
+        <v>38</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>10</v>
@@ -4640,208 +4933,205 @@
         <v>8</v>
       </c>
       <c r="H23" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="L23" s="8">
+        <v>1</v>
+      </c>
+      <c r="M23" s="10">
+        <v>0</v>
+      </c>
+      <c r="N23" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="P23" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="31">
+        <v>141</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="G24" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="H24" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="I23" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="J23" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="L23" s="9">
+      <c r="I24" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="J24" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="K24" s="26"/>
+      <c r="L24" s="26">
         <v>1</v>
       </c>
-      <c r="M23" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="N23" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="P23" s="6" t="s">
-        <v>53</v>
+      <c r="M24" s="26">
+        <v>0</v>
+      </c>
+      <c r="N24" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="O24" s="26"/>
+      <c r="P24" s="6" t="s">
+        <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="7">
+    <row r="25" spans="1:19" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="31">
         <v>155</v>
       </c>
-      <c r="B24" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="C24" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="D24" s="30" t="s">
+      <c r="B25" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="L25" s="8">
+        <v>1</v>
+      </c>
+      <c r="M25" s="10">
+        <v>0</v>
+      </c>
+      <c r="N25" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="P25" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="J24" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="K24" s="30"/>
-      <c r="L24" s="30">
+    </row>
+    <row r="26" spans="1:19" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="31">
+        <v>160</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="F26" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="H26" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="I26" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="J26" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="K26" s="31"/>
+      <c r="L26" s="31">
         <v>1</v>
       </c>
-      <c r="M24" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="N24" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="O24" s="30"/>
-      <c r="P24" s="29" t="s">
-        <v>93</v>
+      <c r="M26" s="31">
+        <v>0</v>
+      </c>
+      <c r="N26" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="O26" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="P26" s="6" t="s">
+        <v>180</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="7">
-        <v>160</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D25" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I25" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="J25" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="L25" s="9">
+    <row r="27" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="12">
+        <v>163</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="J27" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="K27" s="12">
+        <v>45</v>
+      </c>
+      <c r="L27" s="12">
         <v>1</v>
       </c>
-      <c r="M25" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="N25" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="O25" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="P25" s="6" t="s">
-        <v>183</v>
+      <c r="M27" s="12">
+        <v>0</v>
+      </c>
+      <c r="N27" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="O27" s="12"/>
+      <c r="P27" s="13" t="s">
+        <v>145</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="13">
-        <v>163</v>
-      </c>
-      <c r="B26" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="J26" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="K26" s="14">
-        <v>45</v>
-      </c>
-      <c r="L26" s="14">
-        <v>1</v>
-      </c>
-      <c r="M26" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="N26" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="O26" s="14"/>
-      <c r="P26" s="15" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" ht="150" x14ac:dyDescent="0.25">
-      <c r="A27" s="7">
-        <v>169</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D27" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I27" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="J27" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="K27" s="9">
-        <v>40</v>
-      </c>
-      <c r="M27" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="N27" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="P27" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="7">
-        <v>206</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>34</v>
+    <row r="28" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A28" s="31">
+        <v>167</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>185</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D28" s="18" t="s">
-        <v>25</v>
+      <c r="D28" s="16" t="s">
+        <v>186</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>10</v>
@@ -4850,139 +5140,124 @@
         <v>7</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H28" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I28" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="J28" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="L28" s="9">
-        <v>2</v>
-      </c>
-      <c r="M28" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="N28" s="11" t="s">
-        <v>55</v>
+      <c r="I28" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="J28" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="K28" s="8">
+        <v>20</v>
+      </c>
+      <c r="L28" s="8">
+        <v>1</v>
+      </c>
+      <c r="M28" s="10">
+        <v>0</v>
       </c>
       <c r="P28" s="6" t="s">
-        <v>44</v>
+        <v>187</v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="120" x14ac:dyDescent="0.25">
-      <c r="A29" s="7">
-        <v>217</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>82</v>
+    <row r="29" spans="1:19" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A29" s="31">
+        <v>169</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>72</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D29" s="18" t="s">
-        <v>179</v>
+      <c r="D29" s="16" t="s">
+        <v>73</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>83</v>
+        <v>7</v>
       </c>
       <c r="G29" s="5" t="s">
         <v>8</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I29" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="J29" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="K29" s="9">
-        <v>30</v>
-      </c>
-      <c r="L29" s="9">
+        <v>18</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="J29" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="K29" s="8">
+        <v>40</v>
+      </c>
+      <c r="M29" s="10">
+        <v>0</v>
+      </c>
+      <c r="N29" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="P29" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="31">
+        <v>203</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="J30" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="K30" s="8">
+        <v>40</v>
+      </c>
+      <c r="L30" s="8">
         <v>1</v>
       </c>
-      <c r="M29" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="N29" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="P29" s="6" t="s">
-        <v>181</v>
+      <c r="M30" s="10">
+        <v>0</v>
+      </c>
+      <c r="P30" s="6" t="s">
+        <v>190</v>
       </c>
     </row>
-    <row r="30" spans="1:19" ht="195" x14ac:dyDescent="0.25">
-      <c r="A30" s="7">
-        <v>234</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D30" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I30" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="J30" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="L30" s="9">
-        <v>2</v>
-      </c>
-      <c r="M30" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="N30" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="P30" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="7">
-        <v>237</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>24</v>
+    <row r="31" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="31">
+        <v>206</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D31" s="18" t="s">
+      <c r="D31" s="16" t="s">
         <v>25</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G31" s="5" t="s">
         <v>8</v>
@@ -4990,86 +5265,86 @@
       <c r="H31" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I31" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="J31" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="L31" s="9">
-        <v>2</v>
-      </c>
-      <c r="M31" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="N31" s="11" t="s">
-        <v>55</v>
+      <c r="I31" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="J31" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="L31" s="8">
+        <v>2</v>
+      </c>
+      <c r="M31" s="10">
+        <v>1</v>
+      </c>
+      <c r="N31" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="P31" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:19" s="31" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A32" s="7">
-        <v>268</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="C32" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="D32" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="E32" s="30" t="s">
+    <row r="32" spans="1:19" s="27" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="31">
+        <v>217</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C32" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="E32" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="F32" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="G32" s="30" t="s">
+      <c r="F32" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="G32" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="H32" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="I32" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="J32" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="K32" s="30">
+      <c r="H32" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I32" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="J32" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="K32" s="26">
         <v>30</v>
       </c>
-      <c r="L32" s="30">
+      <c r="L32" s="26">
         <v>1</v>
       </c>
-      <c r="M32" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="N32" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="O32" s="30"/>
+      <c r="M32" s="26">
+        <v>0</v>
+      </c>
+      <c r="N32" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="O32" s="26"/>
       <c r="P32" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="S32" s="32"/>
+        <v>178</v>
+      </c>
+      <c r="S32" s="28"/>
     </row>
-    <row r="33" spans="1:19" ht="75" x14ac:dyDescent="0.25">
-      <c r="A33" s="7">
-        <v>283</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>69</v>
+    <row r="33" spans="1:19" ht="158.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="31">
+        <v>234</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>60</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D33" s="18" t="s">
-        <v>70</v>
+      <c r="D33" s="16" t="s">
+        <v>25</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>10</v>
@@ -5083,84 +5358,81 @@
       <c r="H33" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I33" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="J33" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="K33" s="9">
-        <v>30</v>
-      </c>
-      <c r="L33" s="9">
-        <v>2</v>
-      </c>
-      <c r="M33" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="N33" s="11" t="s">
-        <v>56</v>
+      <c r="I33" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="J33" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="L33" s="8">
+        <v>2</v>
+      </c>
+      <c r="M33" s="10">
+        <v>1</v>
+      </c>
+      <c r="N33" s="10" t="s">
+        <v>55</v>
       </c>
       <c r="P33" s="6" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A34" s="7">
-        <v>344</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>6</v>
+    <row r="34" spans="1:19" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="31">
+        <v>237</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D34" s="18" t="s">
-        <v>13</v>
+      <c r="D34" s="16" t="s">
+        <v>25</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G34" s="5" t="s">
         <v>8</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="I34" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="J34" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="L34" s="9">
-        <v>2</v>
-      </c>
-      <c r="M34" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="N34" s="11" t="s">
-        <v>55</v>
+        <v>33</v>
+      </c>
+      <c r="I34" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="J34" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="L34" s="8">
+        <v>2</v>
+      </c>
+      <c r="M34" s="10">
+        <v>1</v>
+      </c>
+      <c r="N34" s="10" t="s">
+        <v>54</v>
       </c>
       <c r="P34" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="35" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="7">
-        <v>345</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>16</v>
+    <row r="35" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A35" s="31">
+        <v>268</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>104</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D35" s="18" t="s">
-        <v>13</v>
+      <c r="D35" s="16" t="s">
+        <v>78</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>10</v>
@@ -5169,89 +5441,92 @@
         <v>7</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="I35" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="J35" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="L35" s="9">
-        <v>2</v>
-      </c>
-      <c r="M35" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="N35" s="11" t="s">
-        <v>56</v>
+        <v>18</v>
+      </c>
+      <c r="I35" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="J35" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="K35" s="8">
+        <v>30</v>
+      </c>
+      <c r="L35" s="8">
+        <v>1</v>
+      </c>
+      <c r="M35" s="10">
+        <v>0</v>
+      </c>
+      <c r="N35" s="10" t="s">
+        <v>55</v>
       </c>
       <c r="P35" s="6" t="s">
-        <v>42</v>
+        <v>105</v>
       </c>
     </row>
-    <row r="36" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" s="7">
-        <v>349</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>177</v>
+    <row r="36" spans="1:19" ht="72" x14ac:dyDescent="0.3">
+      <c r="A36" s="31">
+        <v>283</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D36" s="18" t="s">
-        <v>175</v>
+      <c r="D36" s="16" t="s">
+        <v>69</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>83</v>
+        <v>7</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H36" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I36" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="J36" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="K36" s="9">
-        <v>20</v>
-      </c>
-      <c r="L36" s="9">
+      <c r="I36" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="J36" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="K36" s="8">
+        <v>30</v>
+      </c>
+      <c r="L36" s="8">
+        <v>2</v>
+      </c>
+      <c r="M36" s="10">
         <v>1</v>
       </c>
-      <c r="M36" s="11">
-        <v>0</v>
-      </c>
-      <c r="N36" s="11" t="s">
-        <v>56</v>
+      <c r="N36" s="10" t="s">
+        <v>55</v>
       </c>
       <c r="P36" s="6" t="s">
-        <v>178</v>
+        <v>87</v>
       </c>
     </row>
-    <row r="37" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A37" s="7">
-        <v>387</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>112</v>
+    <row r="37" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="31">
+        <v>344</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D37" s="18" t="s">
-        <v>79</v>
+      <c r="D37" s="16" t="s">
+        <v>13</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>10</v>
@@ -5260,307 +5535,319 @@
         <v>7</v>
       </c>
       <c r="G37" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="I37" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="J37" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="L37" s="8">
+        <v>2</v>
+      </c>
+      <c r="M37" s="10">
+        <v>1</v>
+      </c>
+      <c r="N37" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="P37" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="31">
+        <v>345</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H37" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I37" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="J37" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="K37" s="9">
-        <v>30</v>
-      </c>
-      <c r="L37" s="9">
+      <c r="G38" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="I38" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="J38" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="L38" s="8">
+        <v>2</v>
+      </c>
+      <c r="M38" s="10">
         <v>1</v>
       </c>
-      <c r="M37" s="11">
-        <v>1</v>
-      </c>
-      <c r="N37" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="P37" s="6" t="s">
-        <v>113</v>
+      <c r="N38" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="P38" s="6" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="38" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="7">
-        <v>389</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D38" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="I38" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="J38" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="K38" s="9">
-        <v>30</v>
-      </c>
-      <c r="L38" s="9">
-        <v>1</v>
-      </c>
-      <c r="M38" s="11">
-        <v>0</v>
-      </c>
-      <c r="N38" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="P38" s="6" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="7">
-        <v>412</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>78</v>
+    <row r="39" spans="1:19" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="31">
+        <v>349</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>174</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D39" s="18" t="s">
-        <v>80</v>
+      <c r="D39" s="16" t="s">
+        <v>172</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F39" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G39" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G39" s="5" t="s">
-        <v>8</v>
-      </c>
       <c r="H39" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I39" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="J39" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="K39" s="9">
-        <v>15</v>
-      </c>
-      <c r="L39" s="9">
-        <v>3</v>
-      </c>
-      <c r="M39" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="N39" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I39" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="J39" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="K39" s="8">
+        <v>20</v>
+      </c>
+      <c r="L39" s="8">
+        <v>1</v>
+      </c>
+      <c r="M39" s="10">
+        <v>0</v>
+      </c>
+      <c r="N39" s="10" t="s">
         <v>55</v>
       </c>
       <c r="P39" s="6" t="s">
-        <v>81</v>
+        <v>175</v>
       </c>
     </row>
-    <row r="40" spans="1:19" ht="120" x14ac:dyDescent="0.25">
-      <c r="A40" s="7">
-        <v>448</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="C40" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="D40" s="30" t="s">
+    <row r="40" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A40" s="31">
+        <v>387</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C40" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="E40" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="G40" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="H40" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="I40" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="J40" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="K40" s="26">
+        <v>30</v>
+      </c>
+      <c r="L40" s="26">
+        <v>1</v>
+      </c>
+      <c r="M40" s="26">
+        <v>1</v>
+      </c>
+      <c r="N40" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="O40" s="26"/>
+      <c r="P40" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="31">
+        <v>389</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C41" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E41" s="26"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="26"/>
+      <c r="H41" s="26"/>
+      <c r="I41" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="J41" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="K41" s="26">
+        <v>30</v>
+      </c>
+      <c r="L41" s="26">
+        <v>1</v>
+      </c>
+      <c r="M41" s="26">
+        <v>0</v>
+      </c>
+      <c r="N41" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="O41" s="26"/>
+      <c r="P41" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q41" s="27"/>
+      <c r="R41" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="S41" s="15"/>
+    </row>
+    <row r="42" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A42" s="31">
+        <v>412</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D42" s="16" t="s">
         <v>79</v>
-      </c>
-      <c r="E40" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="F40" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="G40" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="H40" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="I40" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="J40" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="K40" s="30">
-        <v>35</v>
-      </c>
-      <c r="L40" s="30">
-        <v>1</v>
-      </c>
-      <c r="M40" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="N40" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="O40" s="30"/>
-      <c r="P40" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" s="16" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="7">
-        <v>541</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C41" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="D41" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E41" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="F41" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="G41" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="H41" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="I41" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="J41" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="K41" s="30"/>
-      <c r="L41" s="30">
-        <v>1</v>
-      </c>
-      <c r="M41" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="N41" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="O41" s="30"/>
-      <c r="P41" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q41" s="31"/>
-      <c r="R41" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="S41" s="17"/>
-    </row>
-    <row r="42" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A42" s="7">
-        <v>557</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D42" s="18" t="s">
-        <v>13</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="G42" s="5" t="s">
         <v>8</v>
       </c>
       <c r="H42" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I42" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="J42" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="K42" s="8">
+        <v>15</v>
+      </c>
+      <c r="L42" s="8">
+        <v>3</v>
+      </c>
+      <c r="M42" s="10">
+        <v>2</v>
+      </c>
+      <c r="N42" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="P42" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A43" s="31">
+        <v>448</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D43" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H43" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I42" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="J42" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="L42" s="9">
-        <v>2</v>
-      </c>
-      <c r="M42" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="N42" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="P42" s="6" t="s">
-        <v>40</v>
+      <c r="I43" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="J43" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="K43" s="8">
+        <v>35</v>
+      </c>
+      <c r="L43" s="8">
+        <v>1</v>
+      </c>
+      <c r="M43" s="10">
+        <v>0</v>
+      </c>
+      <c r="N43" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="P43" s="6" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="43" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A43" s="7">
-        <v>665</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D43" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="H43" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I43" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="J43" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="K43" s="9">
-        <v>60</v>
-      </c>
-      <c r="L43" s="9">
-        <v>1</v>
-      </c>
-      <c r="M43" s="11">
-        <v>0</v>
-      </c>
-      <c r="N43" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="P43" s="6" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" ht="90" x14ac:dyDescent="0.25">
-      <c r="A44" s="7">
-        <v>771</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>119</v>
+    <row r="44" spans="1:19" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="31">
+        <v>541</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D44" s="18" t="s">
+      <c r="D44" s="16" t="s">
         <v>13</v>
       </c>
       <c r="E44" s="5" t="s">
@@ -5575,430 +5862,439 @@
       <c r="H44" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I44" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="J44" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="K44" s="9">
+      <c r="I44" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="J44" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="L44" s="8">
+        <v>1</v>
+      </c>
+      <c r="M44" s="10">
+        <v>0</v>
+      </c>
+      <c r="N44" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="P44" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="31">
+        <v>557</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C45" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="D45" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="E45" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="F45" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="G45" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="H45" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="I45" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="J45" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="K45" s="26"/>
+      <c r="L45" s="26">
+        <v>2</v>
+      </c>
+      <c r="M45" s="26">
+        <v>1</v>
+      </c>
+      <c r="N45" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="O45" s="26"/>
+      <c r="P45" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A46" s="31">
+        <v>665</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C46" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="D46" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="E46" s="26"/>
+      <c r="F46" s="26"/>
+      <c r="G46" s="26"/>
+      <c r="H46" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="I46" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="J46" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="K46" s="26">
+        <v>60</v>
+      </c>
+      <c r="L46" s="26">
+        <v>1</v>
+      </c>
+      <c r="M46" s="26">
+        <v>0</v>
+      </c>
+      <c r="N46" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="O46" s="26"/>
+      <c r="P46" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="31">
+        <v>771</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C47" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="D47" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="E47" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="F47" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="G47" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="H47" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="I47" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="J47" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="K47" s="26">
         <v>30</v>
       </c>
-      <c r="L44" s="9">
+      <c r="L47" s="26">
         <v>1</v>
       </c>
-      <c r="M44" s="11">
+      <c r="M47" s="26">
         <v>1</v>
       </c>
-      <c r="N44" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="P44" s="6" t="s">
-        <v>120</v>
+      <c r="N47" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="O47" s="26"/>
+      <c r="P47" s="6" t="s">
+        <v>118</v>
       </c>
     </row>
-    <row r="45" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A45" s="7">
+    <row r="48" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A48" s="31">
         <v>832</v>
       </c>
-      <c r="B45" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="C45" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="D45" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="E45" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="F45" s="30" t="s">
-        <v>128</v>
-      </c>
-      <c r="G45" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="H45" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="I45" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="J45" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="K45" s="30">
-        <v>30</v>
-      </c>
-      <c r="L45" s="30">
-        <v>1</v>
-      </c>
-      <c r="M45" s="30">
-        <v>0</v>
-      </c>
-      <c r="N45" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="O45" s="30"/>
-      <c r="P45" s="6" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="7">
-        <v>977</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="C46" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="D46" s="30" t="s">
-        <v>171</v>
-      </c>
-      <c r="E46" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="F46" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="G46" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="H46" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="I46" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="J46" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="K46" s="30">
-        <v>15</v>
-      </c>
-      <c r="L46" s="30">
-        <v>1</v>
-      </c>
-      <c r="M46" s="30">
-        <v>0</v>
-      </c>
-      <c r="N46" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="O46" s="30"/>
-      <c r="P46" s="6" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="7">
-        <v>1002</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="C47" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="D47" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E47" s="30"/>
-      <c r="F47" s="30"/>
-      <c r="G47" s="30"/>
-      <c r="H47" s="30"/>
-      <c r="I47" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="J47" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="K47" s="30"/>
-      <c r="L47" s="30"/>
-      <c r="M47" s="30"/>
-      <c r="N47" s="30"/>
-      <c r="O47" s="30"/>
-    </row>
-    <row r="48" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A48" s="7">
-        <v>1108</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>143</v>
+      <c r="B48" s="7" t="s">
+        <v>124</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D48" s="18" t="s">
-        <v>13</v>
+      <c r="D48" s="16" t="s">
+        <v>78</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>7</v>
+        <v>126</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H48" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I48" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="J48" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="K48" s="9">
+      <c r="I48" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="J48" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="K48" s="8">
+        <v>30</v>
+      </c>
+      <c r="L48" s="8">
+        <v>1</v>
+      </c>
+      <c r="M48" s="10">
+        <v>0</v>
+      </c>
+      <c r="N48" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="P48" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A49" s="31">
+        <v>977</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C49" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="D49" s="31" t="s">
+        <v>169</v>
+      </c>
+      <c r="E49" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="L48" s="9">
+      <c r="F49" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="G49" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="H49" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="I49" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="J49" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="K49" s="31">
+        <v>15</v>
+      </c>
+      <c r="L49" s="31">
         <v>1</v>
       </c>
-      <c r="M48" s="11">
+      <c r="M49" s="31">
         <v>0</v>
       </c>
-      <c r="N48" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="P48" s="6" t="s">
-        <v>144</v>
+      <c r="N49" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="O49" s="31"/>
+      <c r="P49" s="6" t="s">
+        <v>173</v>
       </c>
     </row>
-    <row r="49" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A49" s="13">
-        <v>1119</v>
-      </c>
-      <c r="B49" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="C49" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="D49" s="14" t="s">
+    <row r="50" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="31">
+        <v>1002</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C50" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="D50" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
-      <c r="H49" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="I49" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="J49" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="K49" s="14">
-        <v>10</v>
-      </c>
-      <c r="L49" s="14">
-        <v>1</v>
-      </c>
-      <c r="M49" s="14">
-        <v>0</v>
-      </c>
-      <c r="N49" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="O49" s="14"/>
-      <c r="P49" s="15" t="s">
-        <v>146</v>
-      </c>
+      <c r="E50" s="31"/>
+      <c r="F50" s="31"/>
+      <c r="G50" s="31"/>
+      <c r="H50" s="31"/>
+      <c r="I50" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="J50" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="K50" s="31"/>
+      <c r="L50" s="31"/>
+      <c r="M50" s="31"/>
+      <c r="N50" s="31"/>
+      <c r="O50" s="31"/>
     </row>
-    <row r="50" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A50" s="7">
-        <v>1295</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D50" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F50" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G50" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H50" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I50" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="J50" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="K50" s="9">
-        <v>60</v>
-      </c>
-      <c r="L50" s="9">
-        <v>1</v>
-      </c>
-      <c r="M50" s="11">
-        <v>0</v>
-      </c>
-      <c r="N50" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="P50" s="6" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19" ht="60" x14ac:dyDescent="0.25">
-      <c r="A51" s="7">
-        <v>1299</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>166</v>
+    <row r="51" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="31">
+        <v>1108</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D51" s="18" t="s">
-        <v>79</v>
+      <c r="D51" s="16" t="s">
+        <v>13</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H51" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I51" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="J51" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="K51" s="9">
-        <v>40</v>
-      </c>
-      <c r="L51" s="9">
+      <c r="I51" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="J51" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="K51" s="8">
+        <v>10</v>
+      </c>
+      <c r="L51" s="8">
         <v>1</v>
       </c>
-      <c r="M51" s="11">
+      <c r="M51" s="10">
         <v>0</v>
       </c>
-      <c r="N51" s="11" t="s">
-        <v>56</v>
+      <c r="N51" s="10" t="s">
+        <v>55</v>
       </c>
       <c r="P51" s="6" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
     </row>
-    <row r="52" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A52" s="7">
-        <v>1304</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D52" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="I52" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="J52" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="M52" s="11">
+    <row r="52" spans="1:19" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="12">
+        <v>1119</v>
+      </c>
+      <c r="B52" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I52" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="J52" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="K52" s="12">
+        <v>10</v>
+      </c>
+      <c r="L52" s="12">
+        <v>1</v>
+      </c>
+      <c r="M52" s="12">
         <v>0</v>
       </c>
-      <c r="N52" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="P52" s="6" t="s">
-        <v>163</v>
+      <c r="N52" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="O52" s="12"/>
+      <c r="P52" s="13" t="s">
+        <v>144</v>
       </c>
     </row>
-    <row r="53" spans="1:19" ht="75" x14ac:dyDescent="0.25">
-      <c r="A53" s="7">
-        <v>1313</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>148</v>
+    <row r="53" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A53" s="31">
+        <v>1295</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>154</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D53" s="18" t="s">
-        <v>79</v>
+      <c r="D53" s="16" t="s">
+        <v>78</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>133</v>
+        <v>22</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I53" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="J53" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="K53" s="9">
-        <v>30</v>
-      </c>
-      <c r="L53" s="9">
+        <v>33</v>
+      </c>
+      <c r="I53" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="J53" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="K53" s="8">
+        <v>60</v>
+      </c>
+      <c r="L53" s="8">
         <v>1</v>
       </c>
-      <c r="M53" s="11">
+      <c r="M53" s="10">
         <v>0</v>
       </c>
-      <c r="N53" s="11" t="s">
-        <v>56</v>
+      <c r="N53" s="10" t="s">
+        <v>55</v>
       </c>
       <c r="P53" s="6" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
     </row>
-    <row r="54" spans="1:19" ht="60" x14ac:dyDescent="0.25">
-      <c r="A54" s="7">
-        <v>1342</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>122</v>
+    <row r="54" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A54" s="31">
+        <v>1299</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>164</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D54" s="18" t="s">
-        <v>38</v>
+      <c r="D54" s="16" t="s">
+        <v>78</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="G54" s="5" t="s">
         <v>8</v>
@@ -6006,97 +6302,85 @@
       <c r="H54" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I54" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="J54" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="K54" s="9">
-        <v>30</v>
-      </c>
-      <c r="L54" s="9">
+      <c r="I54" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="J54" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="K54" s="8">
+        <v>40</v>
+      </c>
+      <c r="L54" s="8">
         <v>1</v>
       </c>
-      <c r="M54" s="11">
+      <c r="M54" s="10">
         <v>0</v>
       </c>
-      <c r="N54" s="11" t="s">
-        <v>56</v>
+      <c r="N54" s="10" t="s">
+        <v>55</v>
       </c>
       <c r="P54" s="6" t="s">
-        <v>123</v>
+        <v>165</v>
       </c>
     </row>
-    <row r="55" spans="1:19" s="16" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A55" s="7">
-        <v>1365</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="C55" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="D55" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="E55" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="F55" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="G55" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="H55" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="I55" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="J55" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="K55" s="30">
-        <v>20</v>
-      </c>
-      <c r="L55" s="30">
-        <v>1</v>
-      </c>
-      <c r="M55" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="N55" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="O55" s="30"/>
+    <row r="55" spans="1:19" s="14" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A55" s="31">
+        <v>1304</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C55" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="D55" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="E55" s="26"/>
+      <c r="F55" s="26"/>
+      <c r="G55" s="26"/>
+      <c r="H55" s="26"/>
+      <c r="I55" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="J55" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="K55" s="26"/>
+      <c r="L55" s="26"/>
+      <c r="M55" s="26">
+        <v>0</v>
+      </c>
+      <c r="N55" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="O55" s="26"/>
       <c r="P55" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q55" s="31"/>
-      <c r="R55" s="31"/>
-      <c r="S55" s="17"/>
+        <v>161</v>
+      </c>
+      <c r="Q55" s="27"/>
+      <c r="R55" s="27"/>
+      <c r="S55" s="15"/>
     </row>
-    <row r="56" spans="1:19" ht="75" x14ac:dyDescent="0.25">
-      <c r="A56" s="7">
-        <v>1389</v>
-      </c>
-      <c r="B56" s="8" t="s">
-        <v>150</v>
+    <row r="56" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A56" s="31">
+        <v>1313</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>146</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D56" s="18" t="s">
-        <v>79</v>
+      <c r="D56" s="16" t="s">
+        <v>78</v>
       </c>
       <c r="E56" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>22</v>
+        <v>131</v>
       </c>
       <c r="G56" s="5" t="s">
         <v>7</v>
@@ -6104,40 +6388,40 @@
       <c r="H56" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I56" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="J56" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="K56" s="9">
-        <v>60</v>
-      </c>
-      <c r="L56" s="9">
+      <c r="I56" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="J56" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="K56" s="8">
+        <v>30</v>
+      </c>
+      <c r="L56" s="8">
         <v>1</v>
       </c>
-      <c r="M56" s="11">
+      <c r="M56" s="10">
         <v>0</v>
       </c>
-      <c r="N56" s="11" t="s">
-        <v>56</v>
+      <c r="N56" s="10" t="s">
+        <v>55</v>
       </c>
       <c r="P56" s="6" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
-    <row r="57" spans="1:19" ht="105" x14ac:dyDescent="0.25">
-      <c r="A57" s="7">
-        <v>1431</v>
-      </c>
-      <c r="B57" s="8" t="s">
-        <v>100</v>
+    <row r="57" spans="1:19" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="31">
+        <v>1342</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>120</v>
       </c>
       <c r="C57" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D57" s="18" t="s">
-        <v>79</v>
+      <c r="D57" s="16" t="s">
+        <v>38</v>
       </c>
       <c r="E57" s="5" t="s">
         <v>10</v>
@@ -6146,143 +6430,143 @@
         <v>7</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H57" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I57" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="J57" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="K57" s="9">
+      <c r="I57" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="J57" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="K57" s="8">
+        <v>30</v>
+      </c>
+      <c r="L57" s="8">
+        <v>1</v>
+      </c>
+      <c r="M57" s="10">
+        <v>0</v>
+      </c>
+      <c r="N57" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="P57" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" s="21" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A58" s="31">
+        <v>1365</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C58" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="D58" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="E58" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="F58" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="G58" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="H58" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="I58" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="J58" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="K58" s="26">
         <v>20</v>
       </c>
-      <c r="L57" s="9">
+      <c r="L58" s="26">
         <v>1</v>
       </c>
-      <c r="M57" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="N57" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="P57" s="6" t="s">
+      <c r="M58" s="26">
+        <v>0</v>
+      </c>
+      <c r="N58" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="O58" s="26"/>
+      <c r="P58" s="6" t="s">
         <v>103</v>
       </c>
+      <c r="Q58" s="27"/>
+      <c r="R58" s="27"/>
+      <c r="S58" s="22"/>
     </row>
-    <row r="58" spans="1:19" s="24" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A58" s="7">
-        <v>1450</v>
-      </c>
-      <c r="B58" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="C58" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="D58" s="30" t="s">
-        <v>79</v>
-      </c>
-      <c r="E58" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="F58" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="G58" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="H58" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="I58" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="J58" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="K58" s="30">
-        <v>35</v>
-      </c>
-      <c r="L58" s="30">
-        <v>1</v>
-      </c>
-      <c r="M58" s="30">
-        <v>0</v>
-      </c>
-      <c r="N58" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="O58" s="30"/>
-      <c r="P58" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q58" s="31"/>
-      <c r="R58" s="31"/>
-      <c r="S58" s="25"/>
-    </row>
-    <row r="59" spans="1:19" ht="60" x14ac:dyDescent="0.25">
-      <c r="A59" s="7">
-        <v>1464</v>
-      </c>
-      <c r="B59" s="8" t="s">
-        <v>160</v>
+    <row r="59" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A59" s="31">
+        <v>1389</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>148</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D59" s="18" t="s">
-        <v>79</v>
+      <c r="D59" s="16" t="s">
+        <v>78</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F59" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G59" s="5" t="s">
         <v>7</v>
-      </c>
-      <c r="G59" s="5" t="s">
-        <v>8</v>
       </c>
       <c r="H59" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I59" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="J59" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="K59" s="9">
-        <v>35</v>
-      </c>
-      <c r="L59" s="9">
+      <c r="I59" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="J59" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="K59" s="8">
+        <v>60</v>
+      </c>
+      <c r="L59" s="8">
         <v>1</v>
       </c>
-      <c r="M59" s="11">
+      <c r="M59" s="10">
         <v>0</v>
       </c>
-      <c r="N59" s="11" t="s">
-        <v>56</v>
+      <c r="N59" s="10" t="s">
+        <v>55</v>
       </c>
       <c r="P59" s="6" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
     </row>
-    <row r="60" spans="1:19" ht="90" x14ac:dyDescent="0.25">
-      <c r="A60" s="7">
-        <v>1470</v>
-      </c>
-      <c r="B60" s="8" t="s">
-        <v>99</v>
+    <row r="60" spans="1:19" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A60" s="31">
+        <v>1431</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>98</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D60" s="18" t="s">
-        <v>79</v>
+      <c r="D60" s="16" t="s">
+        <v>78</v>
       </c>
       <c r="E60" s="5" t="s">
         <v>10</v>
@@ -6296,46 +6580,46 @@
       <c r="H60" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I60" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="J60" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="K60" s="9">
-        <v>45</v>
-      </c>
-      <c r="L60" s="9">
-        <v>2</v>
-      </c>
-      <c r="M60" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="N60" s="11" t="s">
-        <v>56</v>
+      <c r="I60" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="J60" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="K60" s="8">
+        <v>20</v>
+      </c>
+      <c r="L60" s="8">
+        <v>1</v>
+      </c>
+      <c r="M60" s="10">
+        <v>0</v>
+      </c>
+      <c r="N60" s="10" t="s">
+        <v>55</v>
       </c>
       <c r="P60" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
-    <row r="61" spans="1:19" ht="90" x14ac:dyDescent="0.25">
-      <c r="A61" s="7">
-        <v>1475</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>164</v>
+    <row r="61" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A61" s="31">
+        <v>1450</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>156</v>
       </c>
       <c r="C61" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D61" s="18" t="s">
-        <v>79</v>
+      <c r="D61" s="16" t="s">
+        <v>78</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="G61" s="5" t="s">
         <v>8</v>
@@ -6343,40 +6627,40 @@
       <c r="H61" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I61" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="J61" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="K61" s="9">
-        <v>60</v>
-      </c>
-      <c r="L61" s="9">
+      <c r="I61" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="J61" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="K61" s="8">
+        <v>35</v>
+      </c>
+      <c r="L61" s="8">
         <v>1</v>
       </c>
-      <c r="M61" s="11">
+      <c r="M61" s="10">
         <v>0</v>
       </c>
-      <c r="N61" s="11" t="s">
-        <v>56</v>
+      <c r="N61" s="10" t="s">
+        <v>55</v>
       </c>
       <c r="P61" s="6" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
-    <row r="62" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="7">
-        <v>1480</v>
-      </c>
-      <c r="B62" s="8" t="s">
-        <v>98</v>
+    <row r="62" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A62" s="31">
+        <v>1464</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>158</v>
       </c>
       <c r="C62" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D62" s="18" t="s">
-        <v>79</v>
+      <c r="D62" s="16" t="s">
+        <v>78</v>
       </c>
       <c r="E62" s="5" t="s">
         <v>10</v>
@@ -6388,42 +6672,42 @@
         <v>8</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I62" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="J62" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="K62" s="9">
-        <v>5</v>
-      </c>
-      <c r="L62" s="9">
-        <v>2</v>
-      </c>
-      <c r="M62" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="N62" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I62" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="J62" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="K62" s="8">
+        <v>35</v>
+      </c>
+      <c r="L62" s="8">
+        <v>1</v>
+      </c>
+      <c r="M62" s="10">
+        <v>0</v>
+      </c>
+      <c r="N62" s="10" t="s">
         <v>55</v>
       </c>
       <c r="P62" s="6" t="s">
-        <v>186</v>
+        <v>159</v>
       </c>
     </row>
-    <row r="63" spans="1:19" ht="105" x14ac:dyDescent="0.25">
-      <c r="A63" s="7">
-        <v>1512</v>
-      </c>
-      <c r="B63" s="8" t="s">
-        <v>36</v>
+    <row r="63" spans="1:19" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A63" s="31">
+        <v>1470</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>97</v>
       </c>
       <c r="C63" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D63" s="18" t="s">
-        <v>72</v>
+      <c r="D63" s="16" t="s">
+        <v>78</v>
       </c>
       <c r="E63" s="5" t="s">
         <v>10</v>
@@ -6435,262 +6719,416 @@
         <v>7</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I63" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="J63" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="K63" s="9">
-        <v>50</v>
-      </c>
-      <c r="L63" s="9">
-        <v>2</v>
-      </c>
-      <c r="M63" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="N63" s="11" t="s">
-        <v>56</v>
+        <v>18</v>
+      </c>
+      <c r="I63" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="J63" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="K63" s="8">
+        <v>45</v>
+      </c>
+      <c r="L63" s="8">
+        <v>2</v>
+      </c>
+      <c r="M63" s="10">
+        <v>1</v>
+      </c>
+      <c r="N63" s="10" t="s">
+        <v>55</v>
       </c>
       <c r="P63" s="6" t="s">
-        <v>184</v>
+        <v>100</v>
       </c>
     </row>
-    <row r="64" spans="1:19" ht="60" x14ac:dyDescent="0.25">
-      <c r="A64" s="20">
-        <v>1588</v>
-      </c>
-      <c r="B64" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="C64" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="D64" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="E64" s="22"/>
-      <c r="F64" s="22"/>
-      <c r="G64" s="22"/>
-      <c r="H64" s="22"/>
-      <c r="I64" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="J64" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="K64" s="22"/>
-      <c r="L64" s="22"/>
-      <c r="M64" s="22"/>
-      <c r="N64" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="O64" s="22"/>
-      <c r="P64" s="23" t="s">
-        <v>155</v>
+    <row r="64" spans="1:19" ht="72" x14ac:dyDescent="0.3">
+      <c r="A64" s="31">
+        <v>1475</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C64" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="D64" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="E64" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="F64" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="G64" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="H64" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="I64" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="J64" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="K64" s="31">
+        <v>60</v>
+      </c>
+      <c r="L64" s="31">
+        <v>1</v>
+      </c>
+      <c r="M64" s="31">
+        <v>0</v>
+      </c>
+      <c r="N64" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="O64" s="31"/>
+      <c r="P64" s="6" t="s">
+        <v>163</v>
       </c>
     </row>
-    <row r="65" spans="1:21" ht="75" x14ac:dyDescent="0.25">
-      <c r="A65" s="7">
-        <v>1662</v>
-      </c>
-      <c r="B65" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="C65" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="D65" s="30" t="s">
-        <v>135</v>
-      </c>
-      <c r="E65" s="30" t="s">
+    <row r="65" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A65" s="31">
+        <v>1480</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C65" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="D65" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="E65" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="F65" s="30" t="s">
+      <c r="F65" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="G65" s="30" t="s">
+      <c r="G65" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="H65" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="I65" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="J65" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="K65" s="30">
-        <v>30</v>
-      </c>
-      <c r="L65" s="30">
+      <c r="H65" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="I65" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="J65" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="K65" s="31">
+        <v>5</v>
+      </c>
+      <c r="L65" s="31">
+        <v>2</v>
+      </c>
+      <c r="M65" s="31">
         <v>1</v>
       </c>
-      <c r="M65" s="30">
-        <v>0</v>
-      </c>
-      <c r="N65" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="O65" s="30"/>
+      <c r="N65" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="O65" s="31"/>
       <c r="P65" s="6" t="s">
-        <v>142</v>
+        <v>183</v>
       </c>
     </row>
-    <row r="66" spans="1:21" ht="45" x14ac:dyDescent="0.25">
-      <c r="A66" s="7">
-        <v>1672</v>
-      </c>
-      <c r="B66" s="8" t="s">
-        <v>132</v>
+    <row r="66" spans="1:21" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A66" s="31">
+        <v>1512</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="C66" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D66" s="18" t="s">
-        <v>79</v>
+      <c r="D66" s="16" t="s">
+        <v>71</v>
       </c>
       <c r="E66" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F66" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G66" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H66" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I66" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="J66" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="K66" s="8">
+        <v>50</v>
+      </c>
+      <c r="L66" s="8">
+        <v>2</v>
+      </c>
+      <c r="M66" s="10">
+        <v>1</v>
+      </c>
+      <c r="N66" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="P66" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A67" s="19">
+        <v>1588</v>
+      </c>
+      <c r="B67" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="C67" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D67" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="E67" s="19"/>
+      <c r="F67" s="19"/>
+      <c r="G67" s="19"/>
+      <c r="H67" s="19"/>
+      <c r="I67" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="J67" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="K67" s="19"/>
+      <c r="L67" s="19"/>
+      <c r="M67" s="19"/>
+      <c r="N67" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="O67" s="19"/>
+      <c r="P67" s="20" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" ht="72" x14ac:dyDescent="0.3">
+      <c r="A68" s="31">
+        <v>1662</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D68" s="16" t="s">
         <v>133</v>
-      </c>
-      <c r="G66" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H66" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I66" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="J66" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="K66" s="9">
-        <v>15</v>
-      </c>
-      <c r="L66" s="9">
-        <v>1</v>
-      </c>
-      <c r="M66" s="11">
-        <v>0</v>
-      </c>
-      <c r="N66" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="P66" s="6" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="67" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A67" s="7">
-        <v>1674</v>
-      </c>
-      <c r="B67" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D67" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="E67" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F67" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G67" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H67" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I67" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="J67" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="K67" s="9">
-        <v>45</v>
-      </c>
-      <c r="L67" s="9">
-        <v>1</v>
-      </c>
-      <c r="M67" s="11">
-        <v>0</v>
-      </c>
-      <c r="N67" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="P67" s="6" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="68" spans="1:21" ht="45" x14ac:dyDescent="0.25">
-      <c r="A68" s="7">
-        <v>1684</v>
-      </c>
-      <c r="B68" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D68" s="18" t="s">
-        <v>135</v>
       </c>
       <c r="E68" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>136</v>
+        <v>7</v>
       </c>
       <c r="G68" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H68" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I68" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="J68" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="K68" s="9">
+      <c r="I68" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="J68" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="K68" s="8">
+        <v>30</v>
+      </c>
+      <c r="L68" s="8">
+        <v>1</v>
+      </c>
+      <c r="M68" s="10">
+        <v>0</v>
+      </c>
+      <c r="N68" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="P68" s="6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A69" s="31">
+        <v>1672</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D69" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="E69" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L68" s="9">
+      <c r="F69" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="G69" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H69" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I69" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="J69" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="K69" s="8">
+        <v>15</v>
+      </c>
+      <c r="L69" s="8">
         <v>1</v>
       </c>
-      <c r="M68" s="11">
+      <c r="M69" s="10">
         <v>0</v>
       </c>
-      <c r="N68" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="P68" s="6" t="s">
+      <c r="N69" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="P69" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="U69" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="31">
+        <v>1674</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D70" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G70" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H70" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I70" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="J70" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="K70" s="8">
+        <v>45</v>
+      </c>
+      <c r="L70" s="8">
+        <v>1</v>
+      </c>
+      <c r="M70" s="10">
+        <v>0</v>
+      </c>
+      <c r="N70" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="P70" s="6" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="U69" t="s">
-        <v>118</v>
+    <row r="71" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A71" s="31">
+        <v>1684</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D71" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="G71" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H71" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I71" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="J71" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="K71" s="8">
+        <v>10</v>
+      </c>
+      <c r="L71" s="8">
+        <v>1</v>
+      </c>
+      <c r="M71" s="10">
+        <v>0</v>
+      </c>
+      <c r="N71" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="P71" s="6" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A8:P68" xr:uid="{57DD97F8-0FE5-4F41-AAF2-1F48E42A70CC}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:P68">
-      <sortCondition ref="A8:A68"/>
+  <autoFilter ref="A8:P71" xr:uid="{57DD97F8-0FE5-4F41-AAF2-1F48E42A70CC}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="Array"/>
+        <filter val="Array/Bit Manipulation"/>
+        <filter val="Array/Divide &amp; Conquer/Bit Manipulation"/>
+        <filter val="Array/HashMap"/>
+        <filter val="Array/HashTable"/>
+        <filter val="Array/Math"/>
+        <filter val="Array/String"/>
+        <filter val="Array/Two Pointers"/>
+        <filter val="Math/Array/HashMap"/>
+        <filter val="Two Pointers/Array"/>
+      </filters>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:P71">
+      <sortCondition ref="A8:A71"/>
     </sortState>
   </autoFilter>
   <mergeCells count="2">

--- a/LeetCode Tracker.xlsx
+++ b/LeetCode Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leon\Desktop\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA2DEB29-DA8C-4066-85DA-4430C8BBDF38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D9EE1C1-AF40-4C83-8082-05148FDD391B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2FA590F6-CEBE-453D-A814-55EB366ADEEE}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="LeetCode" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LeetCode!$A$8:$P$71</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LeetCode!$A$8:$P$72</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="198">
   <si>
     <t>LeetCode Problems</t>
   </si>
@@ -177,10 +177,6 @@
   </si>
   <si>
     <t>O(m+n)</t>
-  </si>
-  <si>
-    <t>***This is really important. Even though acceptance rate is low, need to remember how to do it and understand problem properly. This problem is between pointers and need to be clear position of pointers. This is array m+n. 
-Hint: Try to insert elements in decrement order.</t>
   </si>
   <si>
     <t>Two Sums</t>
@@ -621,21 +617,10 @@
     <t>Find All Numbers Disappeared in an Array</t>
   </si>
   <si>
-    <t>****This is a good problem but the wording of the problem is not good enough. Technically, this question wants to determine what are the missing numbers in the array by matching the index after subtracting elements by 1. 
-[4,3,2,7,8,2,3,1] --&gt; elements (deduct by 1 to get the following array)
-[3,2,1,6,7,1,2,0] --&gt; index (missing index 4 and 5)
-After adding 1 to index, the missing numbers are [5, 6]</t>
-  </si>
-  <si>
     <t>Remove Duplicates from Sorted List</t>
   </si>
   <si>
     <t xml:space="preserve">*** Very very good problem. Also quite an interesting problem. Just have to figure out or add another pointer to move along with the current pointer then should be able to solve it. </t>
-  </si>
-  <si>
-    <t>****There are two types of solutions to this: 
-1. Two pointers i=0, j = 1 counting till the end of array. (Messy Code)
-2. Insertion method - two pointer as well but with 1 pointer looping and fill all 0 in front with non-zeroes first. After that, just change all the remaining elements with 0's. i = 0, pos = 0.</t>
   </si>
   <si>
     <t>Min Stack</t>
@@ -1019,9 +1004,6 @@
     <t>First Unique Character in a String</t>
   </si>
   <si>
-    <t>****There is a better solution which is faster and not using HashMap.</t>
-  </si>
-  <si>
     <t>Revision/Practiced</t>
   </si>
   <si>
@@ -1870,6 +1852,1516 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">**** Same as previous question with slight additonal lines of code.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>UPDATE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Brute Force </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">is just to modify a few lines but is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>quadratic time and space.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> However, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Optimal Solution</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is to use </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>recursion</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> method, to get </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>linear time and space.</t>
+    </r>
+  </si>
+  <si>
+    <t>Sum of All Odd Length Subarrays</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">****This is not and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>easy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> question but a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">hard </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">question. Was accepted as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">easy </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">because </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Brute Force passed the test.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Need to revisit this question because this gives a good thinking. Will need more medium practice to come back to this question. </t>
+    </r>
+  </si>
+  <si>
+    <t>Find Numbers with Even Number of Digit</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">****This is a very very easy question, just take notice of contraints next time. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Brute Force </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">was working on while loops, but if you look closely at the questions, there is a very simple solution for </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Optimal Solution</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Numbers of Students Doing Homework at a Given Time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">****This is not really a straightforward question. No calculation needed, just loop through the arrays linearly and compare using logical statement. </t>
+  </si>
+  <si>
+    <t>Maximum Product of Two Elements in an Array</t>
+  </si>
+  <si>
+    <r>
+      <t>****</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Brute Force Solution </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>is to sort the array first and multiply the two largest element, which is the last two elements of the array.
+****</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Optimal Solution </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>is to use two pointers, need to redo to figure it out</t>
+    </r>
+  </si>
+  <si>
+    <t>Find N Unique Integers Sum up to Zero</t>
+  </si>
+  <si>
+    <t>****This is a math question, need to revisit.</t>
+  </si>
+  <si>
+    <t>Final Prices With a Special Discount in a Shop</t>
+  </si>
+  <si>
+    <r>
+      <t>****</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">NOTE: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Always try to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Brute Force</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the solution to save time. Could've done it in 15 minutes, but wasted 60 minutes to find the optimal solution.
+****</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Brute Force </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Solution is using two for loops to solve this problem. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Optimal Solution </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">is to use </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Monotone Stack.</t>
+    </r>
+  </si>
+  <si>
+    <t>Replace Elements with Greatest Elements on Right Side</t>
+  </si>
+  <si>
+    <r>
+      <t>****</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Brute Force </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Solution is really slow. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Optimal Solution </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>shuld be using two pointers. Should try to work on it.</t>
+    </r>
+  </si>
+  <si>
+    <t>Non-decreasing Array</t>
+  </si>
+  <si>
+    <t>****This is a good question and should practice again. The solution is just knowing what condition to fulfilled.</t>
+  </si>
+  <si>
+    <t>Remove Element</t>
+  </si>
+  <si>
+    <t>Two Pointers/Array</t>
+  </si>
+  <si>
+    <t>Need practice || Time/Space Complexity</t>
+  </si>
+  <si>
+    <t>Squares of Sorted Array</t>
+  </si>
+  <si>
+    <t>HashMap</t>
+  </si>
+  <si>
+    <r>
+      <t>****</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Brute Force </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">is to square first and just sort it using </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Arrays.sort()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. But there should be </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Optimal Solution.</t>
+    </r>
+  </si>
+  <si>
+    <t>Intersection of Two Arrays</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">****Was able to use </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">HashMap </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">twice to solve it, but still should be able to find </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Optimal Solution</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Should not be this complicated with </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Brute Force</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Could be the same as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>160</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Array/Bit Manipulation</t>
+  </si>
+  <si>
+    <t>***Still haven't able to understand the solution, but starting to see the picture in separating integers into digits. Basically, taking the remainder, and multiply by 10 to get back results. 
+For example, 121. When reversed using remainder after multiple by 10, it will become 1*10 = 10 and 121/10 will become 12. This method is to remove and reduced left half of integer and append/increased right half of integer after reversing. If still confused : https://www.youtube.com/watch?v=IKY7BTa4aq8</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Brute Force:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Using HashMap is fine but it will have space complexity of O(n). Also, it is quite slow when added into the HashMap and is better when just added into the array itself.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Optimal solution:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is to just linearly loop through the array after sorting array by comparing (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nums[i] == nums[i+1])</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. This is an interesting problem because we use for loop to loop through (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nums.length - 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) and increment with</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ++i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, instead of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i++.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This question is very straightforward, but the space complexity is O(n). Wonder if we can find O(1) space complexity solution.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>UPDATE (2 months)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: This is very easy and straightforward? Still took almost equal amount of time (30min+) to finish. Just need to put the elements into a new array. Still do not think need to do counting.</t>
+    </r>
+  </si>
+  <si>
+    <t>***This is a very good question. At least, the solution has been understood, however, do not underestimate and keep practicing and try it again, try to understand it better so it becomes a habit to solve it.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">***This is not easy, new method to count elements in array. Better to go over and understand the optimal solution. Own code is too long and confusing, already forgot how it works, mathematically.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>UPDATE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Able to improve run time with </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>HashMap/Math</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> but the better solution is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Counting Sort.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Also, this question, is based on</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Artihmetic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> [n(n-1)/2].</t>
+    </r>
+  </si>
+  <si>
+    <t>Could use MergeSort but be clear minded on LinkedList.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">****Always need to remember the base case!!
+This is a very very easy question. Not fibonacci. </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">***This is an important interview question as well. Because it is between x=target - y; inserting the elements into HashMap and compare from there. It seems that second part is two pointers but need to figure out how to do binary search first, since second part will always be sorted.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">UPDATE: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Almost solved it. Still need more practicing on </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>HashTable</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to look through how "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>key</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" and "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">" works. The trick is to insert elements and position of elements into the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>HashTable</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. There is also another thing we can learn here, which is to return array declared on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>return statement</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Two Sums II</t>
+  </si>
+  <si>
+    <t>Array/HashTable</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">****This is just like </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. Two Sums</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, but with a little twist. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Optimal Solution </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">is to shrink to possibility of finding the target by using two pointers instead of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>HashTable</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Just using </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Math</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to compare to target since the array is sorted.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Optimal solution using while loop and two pointers, which loop through the array linearly, time complexity, O(n) but able to modify the elements in the same array, which make the space complexity O(1). 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>UPDATE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Learned that </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nums[k++]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is different than </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nums[++k]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nums[k++</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">]:  means after assign </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nums[k</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">], </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>k</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> will increment by 1.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nums[++k]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: means </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>k</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> will increment by 1 first, before assign </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nums[k]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">UPDATE (2 months): </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Able to come up with optimal solution and cleaner code.</t>
+    </r>
+  </si>
+  <si>
+    <t>Remove Elements in Linked List</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">****Almost got the correct answer but still missing a few fundamentals understanding of pointers. Also, try to implement base case (what if the first element == value?). This question is related to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>237. Delete Node in Linked List</t>
+    </r>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Remove Duplicates from Sorted Array II</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">****Almost had it, still need time to practice to look through the pointers. Related to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Question 26. Remove Duplicated from Sorted Array </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Question 27. Remove Element</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">****Almost got it. The concept is there but was not able to grasp the array index. Even came up with solutions from leetcode but only missed a line of code or two. Definitely need more practice! Similar to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Question 26. Remove Duplicates from Sorted Array
+UPDATE: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Still did not get it, probably worst than last time I tried. Should just try again next week, understand the solution, instead of trying to redo right away.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">***This is really important. Even though acceptance rate is low, need to remember how to do it and understand problem properly. This problem is between pointers and need to be clear position of pointers. This is array m+n. 
+Hint: Try to insert elements in decrement order.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">UPDATE (2 months): </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Able to solve it, just remember that </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">MergeSort </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">uses </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>while loop</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and this problem needs 3 pointers to solve it. </t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">**** This question is so tricky. </t>
     </r>
     <r>
@@ -1998,12 +3490,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>(ArrayList.get(int x).get(int y)).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">**** Same as previous question with slight additonal lines of code.
+      <t xml:space="preserve">(ArrayList.get(int x).get(int y)).
 </t>
     </r>
     <r>
@@ -2015,244 +3502,264 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>UPDATE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Brute Force </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">is just to modify a few lines but is </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>quadratic time and space.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> However, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Optimal Solution</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> is to use </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>recursion</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> method, to get </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>linear time and space.</t>
-    </r>
-  </si>
-  <si>
-    <t>Sum of All Odd Length Subarrays</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">****This is not and </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>easy</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> question but a </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">hard </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">question. Was accepted as </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">easy </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">because </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Brute Force passed the test.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Need to revisit this question because this gives a good thinking. Will need more medium practice to come back to this question. </t>
-    </r>
-  </si>
-  <si>
-    <t>Find Numbers with Even Number of Digit</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">****This is a very very easy question, just take notice of contraints next time. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Brute Force </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">was working on while loops, but if you look closely at the questions, there is a very simple solution for </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Optimal Solution</t>
+      <t>UPDATE (1 week):</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Was almost able to solve it. Also, need to include base case and try to come up with better solution.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">****There are two types of solutions to this: 
+1. Two pointers i=0, j = 1 counting till the end of array. (Messy Code)
+2. Insertion method - two pointer as well but with 1 pointer looping and fill all 0 in front with non-zeroes first. After that, just change all the remaining elements with 0's. i = 0, pos = 0.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">UPDATE (2 months): </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Able to implement optimal solution using methods from </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Question  27. Remove Elements</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Exactly the same pattern with extra line fo codes.</t>
+    </r>
+  </si>
+  <si>
+    <t>Duplicate Zeros</t>
+  </si>
+  <si>
+    <r>
+      <t>****Was able to</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Brute Force</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> by using two pointers to loop and find 0's from the front, and then shifting elements starting from the end. However, there are </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Optimal Solutions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> but still not understanding what it is, would have to revise again tomorrow.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Optimal Solution </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">is to create an additional array as a copy, which is okay, because we just need to modify the original array and this is still in-place. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ArrayList.clone()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is the new method to learn today, which is copying array.</t>
+    </r>
+  </si>
+  <si>
+    <t>String/HashTable</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">****There is a better solution which is faster and not using HashMap. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Optimal Solution </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">is like </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Counting Sort, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">which is a lot faster as well. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">UPDATE (1 month): </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Know the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">HashMap </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">method but trying to use find other solution but came up worst </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Time Complexity</t>
     </r>
     <r>
       <rPr>
@@ -2266,39 +3773,75 @@
     </r>
   </si>
   <si>
-    <t>Numbers of Students Doing Homework at a Given Time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">****This is not really a straightforward question. No calculation needed, just loop through the arrays linearly and compare using logical statement. </t>
-  </si>
-  <si>
-    <t>Maximum Product of Two Elements in an Array</t>
-  </si>
-  <si>
-    <r>
-      <t>****</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Brute Force Solution </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>is to sort the array first and multiply the two largest element, which is the last two elements of the array.
-****</t>
+    <r>
+      <t xml:space="preserve">****This is a good problem but the wording of the problem is not good enough. Technically, this question wants to determine what are the missing numbers in the array by matching the index after subtracting elements by 1. 
+[4,3,2,7,8,2,3,1] --&gt; elements (deduct by 1 to get the following array)
+[3,2,1,6,7,1,2,0] --&gt; index (missing index 4 and 5)
+After adding 1 to index, the missing numbers are [5, 6]
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">UPDATE (2 months): </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Able to solve it using </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>HashMap</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> but </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Space </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">is o(n). </t>
     </r>
     <r>
       <rPr>
@@ -2319,1115 +3862,28 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>is to use two pointers, need to redo to figure it out</t>
-    </r>
-  </si>
-  <si>
-    <t>Find N Unique Integers Sum up to Zero</t>
-  </si>
-  <si>
-    <t>****This is a math question, need to revisit.</t>
-  </si>
-  <si>
-    <t>Final Prices With a Special Discount in a Shop</t>
-  </si>
-  <si>
-    <r>
-      <t>****</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">NOTE: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Always try to </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Brute Force</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> the solution to save time. Could've done it in 15 minutes, but wasted 60 minutes to find the optimal solution.
-****</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Brute Force </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Solution is using two for loops to solve this problem. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Optimal Solution </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">is to use </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Monotone Stack.</t>
-    </r>
-  </si>
-  <si>
-    <t>Replace Elements with Greatest Elements on Right Side</t>
-  </si>
-  <si>
-    <r>
-      <t>****</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Brute Force </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Solution is really slow. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Optimal Solution </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>shuld be using two pointers. Should try to work on it.</t>
-    </r>
-  </si>
-  <si>
-    <t>Non-decreasing Array</t>
-  </si>
-  <si>
-    <t>****This is a good question and should practice again. The solution is just knowing what condition to fulfilled.</t>
-  </si>
-  <si>
-    <t>Remove Element</t>
-  </si>
-  <si>
-    <t>Two Pointers/Array</t>
-  </si>
-  <si>
-    <t>Need practice || Time/Space Complexity</t>
-  </si>
-  <si>
-    <t>Squares of Sorted Array</t>
-  </si>
-  <si>
-    <t>HashMap</t>
-  </si>
-  <si>
-    <r>
-      <t>****</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Brute Force </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">is to square first and just sort it using </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Arrays.sort()</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. But there should be </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Optimal Solution.</t>
-    </r>
-  </si>
-  <si>
-    <t>Intersection of Two Arrays</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">****Was able to use </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">HashMap </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">twice to solve it, but still should be able to find </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Optimal Solution</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. Should not be this complicated with </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Brute Force</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. Could be the same as </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>160</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>Array/Bit Manipulation</t>
-  </si>
-  <si>
-    <t>***Still haven't able to understand the solution, but starting to see the picture in separating integers into digits. Basically, taking the remainder, and multiply by 10 to get back results. 
-For example, 121. When reversed using remainder after multiple by 10, it will become 1*10 = 10 and 121/10 will become 12. This method is to remove and reduced left half of integer and append/increased right half of integer after reversing. If still confused : https://www.youtube.com/watch?v=IKY7BTa4aq8</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Brute Force:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Using HashMap is fine but it will have space complexity of O(n). Also, it is quite slow when added into the HashMap and is better when just added into the array itself.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Optimal solution:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> is to just linearly loop through the array after sorting array by comparing (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>nums[i] == nums[i+1])</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. This is an interesting problem because we use for loop to loop through (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>nums.length - 1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>) and increment with</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ++i</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, instead of </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>i++.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">This question is very straightforward, but the space complexity is O(n). Wonder if we can find O(1) space complexity solution.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>UPDATE (2 months)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: This is very easy and straightforward? Still took almost equal amount of time (30min+) to finish. Just need to put the elements into a new array. Still do not think need to do counting.</t>
-    </r>
-  </si>
-  <si>
-    <t>***This is a very good question. At least, the solution has been understood, however, do not underestimate and keep practicing and try it again, try to understand it better so it becomes a habit to solve it.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">***This is not easy, new method to count elements in array. Better to go over and understand the optimal solution. Own code is too long and confusing, already forgot how it works, mathematically.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>UPDATE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Able to improve run time with </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>HashMap/Math</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> but the better solution is </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Counting Sort.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Also, this question, is based on</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Artihmetic</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> [n(n-1)/2].</t>
-    </r>
-  </si>
-  <si>
-    <t>Could use MergeSort but be clear minded on LinkedList.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">****Always need to remember the base case!!
-This is a very very easy question. Not fibonacci. </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">***This is an important interview question as well. Because it is between x=target - y; inserting the elements into HashMap and compare from there. It seems that second part is two pointers but need to figure out how to do binary search first, since second part will always be sorted.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">UPDATE: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Almost solved it. Still need more practicing on </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>HashTable</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> to look through how "</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>key</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>" and "</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>value</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">" works. The trick is to insert elements and position of elements into the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>HashTable</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. There is also another thing we can learn here, which is to return array declared on the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>return statement</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>Two Sums II</t>
-  </si>
-  <si>
-    <t>Array/HashTable</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">****This is just like </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1. Two Sums</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, but with a little twist. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Optimal Solution </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">is to shrink to possibility of finding the target by using two pointers instead of </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>HashTable</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. Just using </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Math</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> to compare to target since the array is sorted.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Optimal solution using while loop and two pointers, which loop through the array linearly, time complexity, O(n) but able to modify the elements in the same array, which make the space complexity O(1). 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>UPDATE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: Learned that </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>nums[k++]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> is different than </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>nums[++k]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>nums[k++</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">]:  means after assign </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>nums[k</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">], </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>k</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> will increment by 1.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>nums[++k]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: means </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>k</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> will increment by 1 first, before assign </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>nums[k]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">UPDATE (2 months): </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Able to come up with optimal solution and cleaner code.</t>
-    </r>
-  </si>
-  <si>
-    <t>Remove Elements in Linked List</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">****Almost got the correct answer but still missing a few fundamentals understanding of pointers. Also, try to implement base case (what if the first element == value?). This question is related to </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>237. Delete Node in Linked List</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">****Almost got it. The concept is there but was not able to grasp the array index. Even came up with solutions from leetcode but only missed a line of code or two. Definitely need more practice! Similar to </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Question 26. Remove Duplicates from Sorted Array</t>
-    </r>
-  </si>
-  <si>
-    <t>Medium</t>
-  </si>
-  <si>
-    <t>Remove Duplicates from Sorted Array II</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">****Almost had it, still need time to practice to look through the pointers. Related to </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Question 26. Remove Duplicated from Sorted Array </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">and </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Question 27. Remove Element</t>
+      <t xml:space="preserve">should be using </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">two pointers </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">method. </t>
     </r>
   </si>
 </sst>
@@ -3562,7 +4018,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3647,6 +4103,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4058,106 +4517,106 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CECAF50C-0FA8-4FE8-AF1F-0197AD9DA707}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:U71"/>
+  <dimension ref="A1:U72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="18" ySplit="8" topLeftCell="S13" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane xSplit="18" ySplit="8" topLeftCell="S35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="P1" sqref="P1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="P17" sqref="P17"/>
+      <selection pane="bottomRight" activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" style="31" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.109375" style="7" customWidth="1"/>
-    <col min="3" max="3" width="14.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.88671875" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.21875" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.77734375" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.44140625" style="10" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5546875" style="16" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="74" style="6" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.44140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="37.109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.77734375" style="31" customWidth="1"/>
+    <col min="2" max="2" width="28.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.77734375" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.88671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.5546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.5546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="148" style="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.88671875" style="27" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="36.77734375" style="27" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="23.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="33.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="40" t="s">
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="41"/>
+      <c r="R1" s="42"/>
       <c r="S1" s="11"/>
       <c r="T1" s="9"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A2" s="34"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="35"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="36"/>
       <c r="Q2" s="28" t="s">
         <v>17</v>
       </c>
       <c r="R2" s="27" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A3" s="34"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="35"/>
+      <c r="A3" s="35"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="36"/>
       <c r="Q3" s="28" t="s">
         <v>18</v>
       </c>
@@ -4166,46 +4625,46 @@
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A4" s="34"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="34"/>
-      <c r="P4" s="35"/>
+      <c r="A4" s="35"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="36"/>
       <c r="Q4" s="4" t="s">
         <v>19</v>
       </c>
       <c r="R4" s="27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5" s="36"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="36"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="36"/>
-      <c r="P5" s="37"/>
+      <c r="A5" s="37"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="37"/>
+      <c r="P5" s="38"/>
       <c r="Q5" s="28" t="s">
         <v>27</v>
       </c>
@@ -4214,22 +4673,22 @@
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6" s="36"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="37"/>
+      <c r="A6" s="37"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="37"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="37"/>
+      <c r="P6" s="38"/>
       <c r="Q6" s="28" t="s">
         <v>29</v>
       </c>
@@ -4238,27 +4697,27 @@
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A7" s="38"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38"/>
-      <c r="O7" s="38"/>
-      <c r="P7" s="39"/>
+      <c r="A7" s="39"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="39"/>
+      <c r="O7" s="39"/>
+      <c r="P7" s="40"/>
       <c r="Q7" s="28" t="s">
         <v>31</v>
       </c>
       <c r="R7" s="27" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
@@ -4287,42 +4746,42 @@
         <v>37</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M8" s="2" t="s">
         <v>32</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="P8" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" ht="72" x14ac:dyDescent="0.3">
       <c r="A9" s="31">
         <v>1</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>10</v>
@@ -4337,10 +4796,10 @@
         <v>33</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K9" s="8">
         <v>45</v>
@@ -4352,50 +4811,50 @@
         <v>1</v>
       </c>
       <c r="N9" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P9" s="6" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="31">
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="16" t="s">
         <v>62</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>63</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N10" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P10" s="6" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="144" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="31">
         <v>20</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>10</v>
@@ -4410,10 +4869,10 @@
         <v>18</v>
       </c>
       <c r="I11" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="J11" s="8" t="s">
         <v>54</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>55</v>
       </c>
       <c r="K11" s="8">
         <v>40</v>
@@ -4425,13 +4884,13 @@
         <v>0</v>
       </c>
       <c r="N11" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P11" s="6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="31">
         <v>21</v>
       </c>
@@ -4457,10 +4916,10 @@
         <v>33</v>
       </c>
       <c r="I12" s="31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J12" s="31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K12" s="31"/>
       <c r="L12" s="31">
@@ -4470,25 +4929,25 @@
         <v>0</v>
       </c>
       <c r="N12" s="31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O12" s="31"/>
       <c r="P12" s="6" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A13" s="24">
         <v>26</v>
       </c>
       <c r="B13" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C13" s="24" t="s">
         <v>2</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E13" s="24" t="s">
         <v>10</v>
@@ -4503,10 +4962,10 @@
         <v>33</v>
       </c>
       <c r="I13" s="24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J13" s="24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K13" s="24">
         <v>45</v>
@@ -4518,34 +4977,34 @@
         <v>1</v>
       </c>
       <c r="N13" s="24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O13" s="24"/>
       <c r="P13" s="30" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A14" s="31">
         <v>27</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>17</v>
       </c>
       <c r="I14" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="J14" s="8" t="s">
         <v>54</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>55</v>
       </c>
       <c r="K14" s="8">
         <v>60</v>
@@ -4557,10 +5016,10 @@
         <v>0</v>
       </c>
       <c r="N14" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P14" s="6" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
@@ -4568,19 +5027,19 @@
         <v>28</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I15" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="J15" s="8" t="s">
         <v>54</v>
-      </c>
-      <c r="J15" s="8" t="s">
-        <v>55</v>
       </c>
       <c r="K15" s="8">
         <v>45</v>
@@ -4592,24 +5051,24 @@
         <v>0</v>
       </c>
       <c r="N15" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P15" s="6" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A16" s="31">
         <v>66</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C16" s="26" t="s">
         <v>2</v>
       </c>
       <c r="D16" s="26" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E16" s="26" t="s">
         <v>10</v>
@@ -4624,10 +5083,10 @@
         <v>33</v>
       </c>
       <c r="I16" s="26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J16" s="26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K16" s="26">
         <v>30</v>
@@ -4639,31 +5098,31 @@
         <v>1</v>
       </c>
       <c r="N16" s="26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O16" s="26"/>
       <c r="P16" s="6" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="31">
         <v>80</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I17" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="J17" s="8" t="s">
         <v>54</v>
-      </c>
-      <c r="J17" s="8" t="s">
-        <v>55</v>
       </c>
       <c r="K17" s="8">
         <v>60</v>
@@ -4674,16 +5133,19 @@
       <c r="M17" s="10">
         <v>0</v>
       </c>
+      <c r="N17" s="10" t="s">
+        <v>54</v>
+      </c>
       <c r="P17" s="6" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="31">
         <v>83</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>2</v>
@@ -4704,10 +5166,10 @@
         <v>33</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K18" s="8">
         <v>35</v>
@@ -4719,10 +5181,10 @@
         <v>0</v>
       </c>
       <c r="N18" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P18" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="72" x14ac:dyDescent="0.3">
@@ -4736,7 +5198,7 @@
         <v>2</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>10</v>
@@ -4751,10 +5213,10 @@
         <v>33</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L19" s="8">
         <v>2</v>
@@ -4763,10 +5225,10 @@
         <v>1</v>
       </c>
       <c r="N19" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P19" s="6" t="s">
-        <v>47</v>
+        <v>190</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="86.4" x14ac:dyDescent="0.3">
@@ -4774,13 +5236,13 @@
         <v>118</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>10</v>
@@ -4795,10 +5257,10 @@
         <v>18</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K20" s="8">
         <v>60</v>
@@ -4810,27 +5272,27 @@
         <v>1</v>
       </c>
       <c r="N20" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O20" s="16" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="P20" s="6" t="s">
-        <v>150</v>
+        <v>191</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A21" s="31">
         <v>119</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>10</v>
@@ -4845,10 +5307,10 @@
         <v>18</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J21" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K21" s="8">
         <v>15</v>
@@ -4860,18 +5322,18 @@
         <v>1</v>
       </c>
       <c r="N21" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P21" s="6" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="158.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="31">
         <v>125</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>2</v>
@@ -4886,16 +5348,16 @@
         <v>7</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H22" s="5" t="s">
         <v>33</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L22" s="8">
         <v>1</v>
@@ -4904,13 +5366,13 @@
         <v>0</v>
       </c>
       <c r="N22" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P22" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="31">
         <v>136</v>
       </c>
@@ -4936,10 +5398,10 @@
         <v>23</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L23" s="8">
         <v>1</v>
@@ -4948,18 +5410,18 @@
         <v>0</v>
       </c>
       <c r="N23" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P23" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="31">
         <v>141</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C24" s="26" t="s">
         <v>2</v>
@@ -4980,10 +5442,10 @@
         <v>33</v>
       </c>
       <c r="I24" s="26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J24" s="26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K24" s="26"/>
       <c r="L24" s="26">
@@ -4993,31 +5455,31 @@
         <v>0</v>
       </c>
       <c r="N24" s="26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O24" s="26"/>
       <c r="P24" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="31">
         <v>155</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J25" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L25" s="8">
         <v>1</v>
@@ -5026,18 +5488,18 @@
         <v>0</v>
       </c>
       <c r="N25" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P25" s="25" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="31">
         <v>160</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C26" s="31" t="s">
         <v>2</v>
@@ -5046,7 +5508,7 @@
         <v>25</v>
       </c>
       <c r="E26" s="31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F26" s="31" t="s">
         <v>7</v>
@@ -5058,10 +5520,10 @@
         <v>33</v>
       </c>
       <c r="I26" s="31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J26" s="31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K26" s="31"/>
       <c r="L26" s="31">
@@ -5071,37 +5533,37 @@
         <v>0</v>
       </c>
       <c r="N26" s="31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O26" s="31" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="P26" s="6" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
-    <row r="27" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" s="12">
         <v>163</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C27" s="12" t="s">
         <v>2</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E27" s="12"/>
       <c r="F27" s="12"/>
       <c r="G27" s="12"/>
       <c r="H27" s="12"/>
       <c r="I27" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J27" s="12" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K27" s="12">
         <v>45</v>
@@ -5113,25 +5575,25 @@
         <v>0</v>
       </c>
       <c r="N27" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O27" s="12"/>
       <c r="P27" s="13" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
-    <row r="28" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="31">
         <v>167</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>10</v>
@@ -5146,10 +5608,10 @@
         <v>33</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J28" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K28" s="8">
         <v>20</v>
@@ -5160,22 +5622,25 @@
       <c r="M28" s="10">
         <v>0</v>
       </c>
+      <c r="N28" s="10" t="s">
+        <v>54</v>
+      </c>
       <c r="P28" s="6" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" ht="72" x14ac:dyDescent="0.3">
       <c r="A29" s="31">
         <v>169</v>
       </c>
       <c r="B29" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" s="16" t="s">
         <v>72</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D29" s="16" t="s">
-        <v>73</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>10</v>
@@ -5190,10 +5655,10 @@
         <v>18</v>
       </c>
       <c r="I29" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="J29" s="8" t="s">
         <v>54</v>
-      </c>
-      <c r="J29" s="8" t="s">
-        <v>55</v>
       </c>
       <c r="K29" s="8">
         <v>40</v>
@@ -5202,18 +5667,18 @@
         <v>0</v>
       </c>
       <c r="N29" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P29" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
-    <row r="30" spans="1:19" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="31">
         <v>203</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>2</v>
@@ -5222,10 +5687,10 @@
         <v>25</v>
       </c>
       <c r="I30" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="J30" s="8" t="s">
         <v>54</v>
-      </c>
-      <c r="J30" s="8" t="s">
-        <v>55</v>
       </c>
       <c r="K30" s="8">
         <v>40</v>
@@ -5236,8 +5701,11 @@
       <c r="M30" s="10">
         <v>0</v>
       </c>
+      <c r="N30" s="10" t="s">
+        <v>54</v>
+      </c>
       <c r="P30" s="6" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="31" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
@@ -5266,10 +5734,10 @@
         <v>33</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J31" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L31" s="8">
         <v>2</v>
@@ -5278,30 +5746,30 @@
         <v>1</v>
       </c>
       <c r="N31" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P31" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:19" s="27" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" s="27" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A32" s="31">
         <v>217</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C32" s="26" t="s">
         <v>2</v>
       </c>
       <c r="D32" s="26" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="E32" s="26" t="s">
         <v>10</v>
       </c>
       <c r="F32" s="26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G32" s="26" t="s">
         <v>8</v>
@@ -5310,10 +5778,10 @@
         <v>33</v>
       </c>
       <c r="I32" s="26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J32" s="26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K32" s="26">
         <v>30</v>
@@ -5325,20 +5793,20 @@
         <v>0</v>
       </c>
       <c r="N32" s="26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O32" s="26"/>
       <c r="P32" s="6" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="S32" s="28"/>
     </row>
-    <row r="33" spans="1:19" ht="158.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="31">
         <v>234</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>2</v>
@@ -5359,10 +5827,10 @@
         <v>18</v>
       </c>
       <c r="I33" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J33" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L33" s="8">
         <v>2</v>
@@ -5371,13 +5839,13 @@
         <v>1</v>
       </c>
       <c r="N33" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P33" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:19" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="31">
         <v>237</v>
       </c>
@@ -5403,10 +5871,10 @@
         <v>33</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J34" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L34" s="8">
         <v>2</v>
@@ -5415,7 +5883,7 @@
         <v>1</v>
       </c>
       <c r="N34" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P34" s="6" t="s">
         <v>43</v>
@@ -5426,13 +5894,13 @@
         <v>268</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>10</v>
@@ -5447,10 +5915,10 @@
         <v>18</v>
       </c>
       <c r="I35" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J35" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K35" s="8">
         <v>30</v>
@@ -5462,24 +5930,24 @@
         <v>0</v>
       </c>
       <c r="N35" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P35" s="6" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
-    <row r="36" spans="1:19" ht="72" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A36" s="31">
         <v>283</v>
       </c>
       <c r="B36" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36" s="16" t="s">
         <v>68</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D36" s="16" t="s">
-        <v>69</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>10</v>
@@ -5494,10 +5962,10 @@
         <v>18</v>
       </c>
       <c r="I36" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J36" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K36" s="8">
         <v>30</v>
@@ -5509,10 +5977,10 @@
         <v>1</v>
       </c>
       <c r="N36" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P36" s="6" t="s">
-        <v>87</v>
+        <v>192</v>
       </c>
     </row>
     <row r="37" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
@@ -5538,13 +6006,13 @@
         <v>8</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I37" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J37" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L37" s="8">
         <v>2</v>
@@ -5553,13 +6021,13 @@
         <v>1</v>
       </c>
       <c r="N37" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P37" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:19" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="31">
         <v>345</v>
       </c>
@@ -5582,13 +6050,13 @@
         <v>7</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I38" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J38" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L38" s="8">
         <v>2</v>
@@ -5597,30 +6065,30 @@
         <v>1</v>
       </c>
       <c r="N38" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P38" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="1:19" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="31">
         <v>349</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G39" s="5" t="s">
         <v>7</v>
@@ -5629,10 +6097,10 @@
         <v>18</v>
       </c>
       <c r="I39" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J39" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K39" s="8">
         <v>20</v>
@@ -5644,24 +6112,24 @@
         <v>0</v>
       </c>
       <c r="N39" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P39" s="6" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
-    <row r="40" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="31">
         <v>387</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C40" s="26" t="s">
         <v>2</v>
       </c>
       <c r="D40" s="26" t="s">
-        <v>78</v>
+        <v>195</v>
       </c>
       <c r="E40" s="26" t="s">
         <v>10</v>
@@ -5676,10 +6144,10 @@
         <v>18</v>
       </c>
       <c r="I40" s="26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J40" s="26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K40" s="26">
         <v>30</v>
@@ -5691,11 +6159,11 @@
         <v>1</v>
       </c>
       <c r="N40" s="26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O40" s="26"/>
       <c r="P40" s="6" t="s">
-        <v>111</v>
+        <v>196</v>
       </c>
     </row>
     <row r="41" spans="1:19" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
@@ -5703,7 +6171,7 @@
         <v>389</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C41" s="26" t="s">
         <v>2</v>
@@ -5716,10 +6184,10 @@
       <c r="G41" s="26"/>
       <c r="H41" s="26"/>
       <c r="I41" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="J41" s="26" t="s">
         <v>54</v>
-      </c>
-      <c r="J41" s="26" t="s">
-        <v>55</v>
       </c>
       <c r="K41" s="26">
         <v>30</v>
@@ -5731,30 +6199,30 @@
         <v>0</v>
       </c>
       <c r="N41" s="26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O41" s="26"/>
       <c r="P41" s="6" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="Q41" s="27"/>
       <c r="R41" s="29" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="S41" s="15"/>
     </row>
-    <row r="42" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A42" s="31">
         <v>412</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D42" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>10</v>
@@ -5769,10 +6237,10 @@
         <v>33</v>
       </c>
       <c r="I42" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J42" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K42" s="8">
         <v>15</v>
@@ -5784,24 +6252,24 @@
         <v>2</v>
       </c>
       <c r="N42" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P42" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
-    <row r="43" spans="1:19" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A43" s="31">
         <v>448</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D43" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>10</v>
@@ -5810,34 +6278,34 @@
         <v>7</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H43" s="5" t="s">
         <v>18</v>
       </c>
       <c r="I43" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J43" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K43" s="8">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="L43" s="8">
         <v>1</v>
       </c>
       <c r="M43" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N43" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P43" s="6" t="s">
-        <v>84</v>
+        <v>197</v>
       </c>
     </row>
-    <row r="44" spans="1:19" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="31">
         <v>541</v>
       </c>
@@ -5863,10 +6331,10 @@
         <v>18</v>
       </c>
       <c r="I44" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J44" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L44" s="8">
         <v>1</v>
@@ -5875,13 +6343,13 @@
         <v>0</v>
       </c>
       <c r="N44" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P44" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="1:19" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="31">
         <v>557</v>
       </c>
@@ -5907,10 +6375,10 @@
         <v>18</v>
       </c>
       <c r="I45" s="26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J45" s="26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K45" s="26"/>
       <c r="L45" s="26">
@@ -5920,25 +6388,25 @@
         <v>1</v>
       </c>
       <c r="N45" s="26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O45" s="26"/>
       <c r="P45" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A46" s="31">
         <v>665</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C46" s="26" t="s">
         <v>2</v>
       </c>
       <c r="D46" s="26" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E46" s="26"/>
       <c r="F46" s="26"/>
@@ -5947,10 +6415,10 @@
         <v>17</v>
       </c>
       <c r="I46" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="J46" s="26" t="s">
         <v>54</v>
-      </c>
-      <c r="J46" s="26" t="s">
-        <v>55</v>
       </c>
       <c r="K46" s="26">
         <v>60</v>
@@ -5962,19 +6430,19 @@
         <v>0</v>
       </c>
       <c r="N46" s="26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O46" s="26"/>
       <c r="P46" s="6" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
-    <row r="47" spans="1:19" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="31">
         <v>771</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C47" s="26" t="s">
         <v>2</v>
@@ -5995,10 +6463,10 @@
         <v>18</v>
       </c>
       <c r="I47" s="26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J47" s="26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K47" s="26">
         <v>30</v>
@@ -6010,31 +6478,31 @@
         <v>1</v>
       </c>
       <c r="N47" s="26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O47" s="26"/>
       <c r="P47" s="6" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
-    <row r="48" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A48" s="31">
         <v>832</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D48" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G48" s="5" t="s">
         <v>8</v>
@@ -6043,10 +6511,10 @@
         <v>18</v>
       </c>
       <c r="I48" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J48" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K48" s="8">
         <v>30</v>
@@ -6058,30 +6526,30 @@
         <v>0</v>
       </c>
       <c r="N48" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P48" s="6" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
-    <row r="49" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A49" s="31">
         <v>977</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C49" s="31" t="s">
         <v>2</v>
       </c>
       <c r="D49" s="31" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="E49" s="31" t="s">
         <v>10</v>
       </c>
       <c r="F49" s="31" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G49" s="31" t="s">
         <v>8</v>
@@ -6090,10 +6558,10 @@
         <v>18</v>
       </c>
       <c r="I49" s="31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J49" s="31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K49" s="31">
         <v>15</v>
@@ -6105,11 +6573,11 @@
         <v>0</v>
       </c>
       <c r="N49" s="31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O49" s="31"/>
       <c r="P49" s="6" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="50" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
@@ -6117,7 +6585,7 @@
         <v>1002</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C50" s="31" t="s">
         <v>2</v>
@@ -6130,35 +6598,37 @@
       <c r="G50" s="31"/>
       <c r="H50" s="31"/>
       <c r="I50" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="J50" s="31" t="s">
         <v>54</v>
-      </c>
-      <c r="J50" s="31" t="s">
-        <v>55</v>
       </c>
       <c r="K50" s="31"/>
       <c r="L50" s="31"/>
       <c r="M50" s="31"/>
-      <c r="N50" s="31"/>
+      <c r="N50" s="31" t="s">
+        <v>54</v>
+      </c>
       <c r="O50" s="31"/>
     </row>
-    <row r="51" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:19" ht="72" x14ac:dyDescent="0.3">
       <c r="A51" s="31">
-        <v>1108</v>
+        <v>1089</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>141</v>
+        <v>193</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D51" s="16" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="G51" s="5" t="s">
         <v>7</v>
@@ -6167,13 +6637,13 @@
         <v>18</v>
       </c>
       <c r="I51" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J51" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K51" s="8">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L51" s="8">
         <v>1</v>
@@ -6182,113 +6652,114 @@
         <v>0</v>
       </c>
       <c r="N51" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P51" s="6" t="s">
-        <v>142</v>
+        <v>194</v>
       </c>
     </row>
-    <row r="52" spans="1:19" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="12">
+    <row r="52" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="32">
+        <v>1108</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C52" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="D52" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="E52" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="F52" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="G52" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="H52" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="I52" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="J52" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="K52" s="32">
+        <v>10</v>
+      </c>
+      <c r="L52" s="32">
+        <v>1</v>
+      </c>
+      <c r="M52" s="32">
+        <v>0</v>
+      </c>
+      <c r="N52" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="O52" s="32"/>
+      <c r="P52" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="12">
         <v>1119</v>
       </c>
-      <c r="B52" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="C52" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D52" s="12" t="s">
+      <c r="B53" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D53" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E52" s="12"/>
-      <c r="F52" s="12"/>
-      <c r="G52" s="12"/>
-      <c r="H52" s="12" t="s">
+      <c r="E53" s="12"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="I52" s="12" t="s">
+      <c r="I53" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="J53" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="K53" s="12">
+        <v>10</v>
+      </c>
+      <c r="L53" s="12">
+        <v>1</v>
+      </c>
+      <c r="M53" s="12">
+        <v>0</v>
+      </c>
+      <c r="N53" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="J52" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="K52" s="12">
-        <v>10</v>
-      </c>
-      <c r="L52" s="12">
-        <v>1</v>
-      </c>
-      <c r="M52" s="12">
-        <v>0</v>
-      </c>
-      <c r="N52" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="O52" s="12"/>
-      <c r="P52" s="13" t="s">
-        <v>144</v>
+      <c r="O53" s="12"/>
+      <c r="P53" s="13" t="s">
+        <v>140</v>
       </c>
     </row>
-    <row r="53" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A53" s="31">
+    <row r="54" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A54" s="31">
         <v>1295</v>
       </c>
-      <c r="B53" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D53" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F53" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G53" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H53" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I53" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="J53" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="K53" s="8">
-        <v>60</v>
-      </c>
-      <c r="L53" s="8">
-        <v>1</v>
-      </c>
-      <c r="M53" s="10">
-        <v>0</v>
-      </c>
-      <c r="N53" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="P53" s="6" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="54" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A54" s="31">
-        <v>1299</v>
-      </c>
       <c r="B54" s="7" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D54" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>10</v>
@@ -6300,16 +6771,16 @@
         <v>8</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I54" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J54" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K54" s="8">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="L54" s="8">
         <v>1</v>
@@ -6318,75 +6789,75 @@
         <v>0</v>
       </c>
       <c r="N54" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P54" s="6" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
     </row>
     <row r="55" spans="1:19" s="14" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A55" s="31">
-        <v>1304</v>
+        <v>1299</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C55" s="26" t="s">
         <v>2</v>
       </c>
       <c r="D55" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="E55" s="26"/>
-      <c r="F55" s="26"/>
-      <c r="G55" s="26"/>
-      <c r="H55" s="26"/>
+        <v>77</v>
+      </c>
+      <c r="E55" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="F55" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="G55" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="H55" s="26" t="s">
+        <v>18</v>
+      </c>
       <c r="I55" s="26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J55" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="K55" s="26"/>
-      <c r="L55" s="26"/>
+        <v>53</v>
+      </c>
+      <c r="K55" s="26">
+        <v>40</v>
+      </c>
+      <c r="L55" s="26">
+        <v>1</v>
+      </c>
       <c r="M55" s="26">
         <v>0</v>
       </c>
       <c r="N55" s="26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O55" s="26"/>
       <c r="P55" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Q55" s="27"/>
       <c r="R55" s="27"/>
       <c r="S55" s="15"/>
     </row>
-    <row r="56" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A56" s="31">
-        <v>1313</v>
+        <v>1304</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D56" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="E56" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F56" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="G56" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H56" s="5" t="s">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="I56" s="8" t="s">
         <v>54</v>
@@ -6394,52 +6865,46 @@
       <c r="J56" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="K56" s="8">
-        <v>30</v>
-      </c>
-      <c r="L56" s="8">
-        <v>1</v>
-      </c>
       <c r="M56" s="10">
         <v>0</v>
       </c>
       <c r="N56" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P56" s="6" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
     </row>
-    <row r="57" spans="1:19" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" s="31">
-        <v>1342</v>
+        <v>1313</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="C57" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D57" s="16" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="E57" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F57" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="G57" s="5" t="s">
         <v>7</v>
-      </c>
-      <c r="G57" s="5" t="s">
-        <v>8</v>
       </c>
       <c r="H57" s="5" t="s">
         <v>18</v>
       </c>
       <c r="I57" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J57" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K57" s="8">
         <v>30</v>
@@ -6451,45 +6916,45 @@
         <v>0</v>
       </c>
       <c r="N57" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P57" s="6" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
     </row>
-    <row r="58" spans="1:19" s="21" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:19" s="21" customFormat="1" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="31">
-        <v>1365</v>
+        <v>1342</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="C58" s="26" t="s">
         <v>2</v>
       </c>
       <c r="D58" s="26" t="s">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="E58" s="26" t="s">
         <v>10</v>
       </c>
       <c r="F58" s="26" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="G58" s="26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H58" s="26" t="s">
         <v>18</v>
       </c>
       <c r="I58" s="26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J58" s="26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K58" s="26">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="L58" s="26">
         <v>1</v>
@@ -6498,11 +6963,11 @@
         <v>0</v>
       </c>
       <c r="N58" s="26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O58" s="26"/>
       <c r="P58" s="6" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="Q58" s="27"/>
       <c r="R58" s="27"/>
@@ -6510,16 +6975,16 @@
     </row>
     <row r="59" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A59" s="31">
-        <v>1389</v>
+        <v>1365</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>148</v>
+        <v>99</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D59" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>10</v>
@@ -6534,13 +6999,13 @@
         <v>18</v>
       </c>
       <c r="I59" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J59" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K59" s="8">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="L59" s="8">
         <v>1</v>
@@ -6549,30 +7014,30 @@
         <v>0</v>
       </c>
       <c r="N59" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P59" s="6" t="s">
-        <v>149</v>
+        <v>100</v>
       </c>
     </row>
-    <row r="60" spans="1:19" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A60" s="31">
-        <v>1431</v>
+        <v>1389</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>98</v>
+        <v>144</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D60" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E60" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="G60" s="5" t="s">
         <v>7</v>
@@ -6581,13 +7046,13 @@
         <v>18</v>
       </c>
       <c r="I60" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J60" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K60" s="8">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="L60" s="8">
         <v>1</v>
@@ -6596,24 +7061,24 @@
         <v>0</v>
       </c>
       <c r="N60" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P60" s="6" t="s">
-        <v>101</v>
+        <v>145</v>
       </c>
     </row>
-    <row r="61" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:19" ht="72" x14ac:dyDescent="0.3">
       <c r="A61" s="31">
-        <v>1450</v>
+        <v>1431</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>156</v>
+        <v>95</v>
       </c>
       <c r="C61" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D61" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>10</v>
@@ -6622,19 +7087,19 @@
         <v>7</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H61" s="5" t="s">
         <v>18</v>
       </c>
       <c r="I61" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J61" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K61" s="8">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="L61" s="8">
         <v>1</v>
@@ -6643,24 +7108,24 @@
         <v>0</v>
       </c>
       <c r="N61" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P61" s="6" t="s">
-        <v>157</v>
+        <v>98</v>
       </c>
     </row>
-    <row r="62" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A62" s="31">
-        <v>1464</v>
+        <v>1450</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="C62" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D62" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E62" s="5" t="s">
         <v>10</v>
@@ -6675,10 +7140,10 @@
         <v>18</v>
       </c>
       <c r="I62" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J62" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K62" s="8">
         <v>35</v>
@@ -6690,24 +7155,24 @@
         <v>0</v>
       </c>
       <c r="N62" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P62" s="6" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
-    <row r="63" spans="1:19" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A63" s="31">
-        <v>1470</v>
+        <v>1464</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>97</v>
+        <v>153</v>
       </c>
       <c r="C63" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D63" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E63" s="5" t="s">
         <v>10</v>
@@ -6716,141 +7181,141 @@
         <v>7</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H63" s="5" t="s">
         <v>18</v>
       </c>
       <c r="I63" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="J63" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="K63" s="8">
+        <v>35</v>
+      </c>
+      <c r="L63" s="8">
+        <v>1</v>
+      </c>
+      <c r="M63" s="10">
+        <v>0</v>
+      </c>
+      <c r="N63" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="J63" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="K63" s="8">
-        <v>45</v>
-      </c>
-      <c r="L63" s="8">
-        <v>2</v>
-      </c>
-      <c r="M63" s="10">
-        <v>1</v>
-      </c>
-      <c r="N63" s="10" t="s">
-        <v>55</v>
-      </c>
       <c r="P63" s="6" t="s">
-        <v>100</v>
+        <v>154</v>
       </c>
     </row>
-    <row r="64" spans="1:19" ht="72" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A64" s="31">
-        <v>1475</v>
+        <v>1470</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>162</v>
+        <v>94</v>
       </c>
       <c r="C64" s="31" t="s">
         <v>2</v>
       </c>
       <c r="D64" s="31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E64" s="31" t="s">
         <v>10</v>
       </c>
       <c r="F64" s="31" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="G64" s="31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H64" s="31" t="s">
         <v>18</v>
       </c>
       <c r="I64" s="31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J64" s="31" t="s">
         <v>54</v>
       </c>
       <c r="K64" s="31">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="L64" s="31">
+        <v>2</v>
+      </c>
+      <c r="M64" s="31">
         <v>1</v>
       </c>
-      <c r="M64" s="31">
-        <v>0</v>
-      </c>
       <c r="N64" s="31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O64" s="31"/>
       <c r="P64" s="6" t="s">
-        <v>163</v>
+        <v>97</v>
       </c>
     </row>
-    <row r="65" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A65" s="31">
-        <v>1480</v>
+        <v>1475</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>96</v>
+        <v>157</v>
       </c>
       <c r="C65" s="31" t="s">
         <v>2</v>
       </c>
       <c r="D65" s="31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E65" s="31" t="s">
         <v>10</v>
       </c>
       <c r="F65" s="31" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="G65" s="31" t="s">
         <v>8</v>
       </c>
       <c r="H65" s="31" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I65" s="31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J65" s="31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K65" s="31">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="L65" s="31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M65" s="31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N65" s="31" t="s">
         <v>54</v>
       </c>
       <c r="O65" s="31"/>
       <c r="P65" s="6" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
     </row>
-    <row r="66" spans="1:21" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A66" s="31">
-        <v>1512</v>
+        <v>1480</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>36</v>
+        <v>93</v>
       </c>
       <c r="C66" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D66" s="16" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="E66" s="5" t="s">
         <v>10</v>
@@ -6859,19 +7324,19 @@
         <v>7</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="I66" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J66" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K66" s="8">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="L66" s="8">
         <v>2</v>
@@ -6880,111 +7345,112 @@
         <v>1</v>
       </c>
       <c r="N66" s="10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="P66" s="6" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
-    <row r="67" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A67" s="19">
+    <row r="67" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A67" s="32">
+        <v>1512</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C67" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="D67" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="E67" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="F67" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="G67" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="H67" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="I67" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="J67" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="K67" s="32">
+        <v>50</v>
+      </c>
+      <c r="L67" s="32">
+        <v>2</v>
+      </c>
+      <c r="M67" s="32">
+        <v>1</v>
+      </c>
+      <c r="N67" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="O67" s="32"/>
+      <c r="P67" s="6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A68" s="19">
         <v>1588</v>
       </c>
-      <c r="B67" s="18" t="s">
-        <v>152</v>
-      </c>
-      <c r="C67" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="D67" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="E67" s="19"/>
-      <c r="F67" s="19"/>
-      <c r="G67" s="19"/>
-      <c r="H67" s="19"/>
-      <c r="I67" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="J67" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="K67" s="19"/>
-      <c r="L67" s="19"/>
-      <c r="M67" s="19"/>
-      <c r="N67" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="O67" s="19"/>
-      <c r="P67" s="20" t="s">
-        <v>153</v>
+      <c r="B68" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="C68" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D68" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="E68" s="19"/>
+      <c r="F68" s="19"/>
+      <c r="G68" s="19"/>
+      <c r="H68" s="19"/>
+      <c r="I68" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="J68" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="K68" s="19"/>
+      <c r="L68" s="19"/>
+      <c r="M68" s="19"/>
+      <c r="N68" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="O68" s="19"/>
+      <c r="P68" s="20" t="s">
+        <v>148</v>
       </c>
     </row>
-    <row r="68" spans="1:21" ht="72" x14ac:dyDescent="0.3">
-      <c r="A68" s="31">
+    <row r="69" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A69" s="31">
         <v>1662</v>
       </c>
-      <c r="B68" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D68" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="E68" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F68" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G68" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H68" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I68" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="J68" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="K68" s="8">
-        <v>30</v>
-      </c>
-      <c r="L68" s="8">
-        <v>1</v>
-      </c>
-      <c r="M68" s="10">
-        <v>0</v>
-      </c>
-      <c r="N68" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="P68" s="6" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="69" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A69" s="31">
-        <v>1672</v>
-      </c>
       <c r="B69" s="7" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C69" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D69" s="16" t="s">
-        <v>78</v>
+        <v>129</v>
       </c>
       <c r="E69" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>131</v>
+        <v>7</v>
       </c>
       <c r="G69" s="5" t="s">
         <v>8</v>
@@ -6993,13 +7459,13 @@
         <v>18</v>
       </c>
       <c r="I69" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J69" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K69" s="8">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="L69" s="8">
         <v>1</v>
@@ -7008,48 +7474,48 @@
         <v>0</v>
       </c>
       <c r="N69" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P69" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="U69" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
-    <row r="70" spans="1:21" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A70" s="31">
-        <v>1674</v>
+        <v>1672</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="C70" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D70" s="16" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="E70" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>7</v>
+        <v>127</v>
       </c>
       <c r="G70" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H70" s="5" t="s">
         <v>18</v>
       </c>
       <c r="I70" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J70" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K70" s="8">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="L70" s="8">
         <v>1</v>
@@ -7058,30 +7524,30 @@
         <v>0</v>
       </c>
       <c r="N70" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P70" s="6" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
-    <row r="71" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="31">
-        <v>1684</v>
+        <v>1674</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C71" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D71" s="16" t="s">
-        <v>133</v>
+        <v>13</v>
       </c>
       <c r="E71" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>134</v>
+        <v>7</v>
       </c>
       <c r="G71" s="5" t="s">
         <v>7</v>
@@ -7090,13 +7556,13 @@
         <v>18</v>
       </c>
       <c r="I71" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J71" s="8" t="s">
         <v>54</v>
       </c>
       <c r="K71" s="8">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="L71" s="8">
         <v>1</v>
@@ -7105,14 +7571,61 @@
         <v>0</v>
       </c>
       <c r="N71" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P71" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A72" s="31">
+        <v>1684</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D72" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="G72" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H72" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I72" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="J72" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="K72" s="8">
+        <v>10</v>
+      </c>
+      <c r="L72" s="8">
+        <v>1</v>
+      </c>
+      <c r="M72" s="10">
+        <v>0</v>
+      </c>
+      <c r="N72" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="P72" s="6" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A8:P71" xr:uid="{57DD97F8-0FE5-4F41-AAF2-1F48E42A70CC}">
+  <autoFilter ref="A8:P72" xr:uid="{57DD97F8-0FE5-4F41-AAF2-1F48E42A70CC}">
     <filterColumn colId="3">
       <filters>
         <filter val="Array"/>
@@ -7127,7 +7640,7 @@
         <filter val="Two Pointers/Array"/>
       </filters>
     </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:P71">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:P72">
       <sortCondition ref="A8:A71"/>
     </sortState>
   </autoFilter>

--- a/LeetCode Tracker.xlsx
+++ b/LeetCode Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leon\Desktop\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D9EE1C1-AF40-4C83-8082-05148FDD391B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7D4892D-6105-467F-A067-14393B299F06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2FA590F6-CEBE-453D-A814-55EB366ADEEE}"/>
   </bookViews>
@@ -3873,7 +3873,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">two pointers </t>
+      <t xml:space="preserve">Two Pointers/Counting Sort </t>
     </r>
     <r>
       <rPr>
@@ -4520,10 +4520,10 @@
   <dimension ref="A1:U72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="18" ySplit="8" topLeftCell="S35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="18" ySplit="8" topLeftCell="S43" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="P1" sqref="P1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="L43" sqref="L43"/>
+      <selection pane="bottomRight" activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/LeetCode Tracker.xlsx
+++ b/LeetCode Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leon\Desktop\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7D4892D-6105-467F-A067-14393B299F06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21903D45-7405-4316-9B77-1F62824D576F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2FA590F6-CEBE-453D-A814-55EB366ADEEE}"/>
   </bookViews>
@@ -2285,57 +2285,7 @@
     <t>Replace Elements with Greatest Elements on Right Side</t>
   </si>
   <si>
-    <r>
-      <t>****</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Brute Force </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Solution is really slow. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Optimal Solution </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>shuld be using two pointers. Should try to work on it.</t>
-    </r>
-  </si>
-  <si>
     <t>Non-decreasing Array</t>
-  </si>
-  <si>
-    <t>****This is a good question and should practice again. The solution is just knowing what condition to fulfilled.</t>
   </si>
   <si>
     <t>Remove Element</t>
@@ -3884,6 +3834,123 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">method. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">****This is a good question and should practice again. The solution is just knowing what condition to fulfilled.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">UPDATE (1 Week): </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Still not able to solve this question. Solution is to check whether the index before you are smaller than that current 'i' or not. Solution explanation is here: https://www.youtube.com/watch?v=GtQHTxCrLHI&amp;t=466s</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>****</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Brute Force </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Solution is really slow. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Optimal Solution </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">should be using two pointers. Should try to work on it.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">UPDATE (1 week): </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Able to figure out the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Optimal Solution </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>after looking at the first hint, which is to loop from the back. Next time should try to work on it first without looking at hint.</t>
     </r>
   </si>
 </sst>
@@ -4520,32 +4587,32 @@
   <dimension ref="A1:U72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="18" ySplit="8" topLeftCell="S43" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="18" ySplit="8" topLeftCell="S56" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="P1" sqref="P1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="B46" sqref="B46"/>
+      <selection pane="bottomRight" activeCell="P56" sqref="P56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.77734375" style="31" customWidth="1"/>
-    <col min="2" max="2" width="28.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.77734375" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.77734375" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.88671875" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.77734375" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.88671875" style="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.5546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.5546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="148" style="6" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.88671875" style="27" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="36.77734375" style="27" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.77734375" style="31" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.44140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.21875" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.77734375" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17" style="10" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.88671875" style="16" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="184.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9" style="27" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="40.44140625" style="27" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="23.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="33.44140625" bestFit="1" customWidth="1"/>
   </cols>
@@ -4597,7 +4664,7 @@
         <v>17</v>
       </c>
       <c r="R2" s="27" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
@@ -4814,7 +4881,7 @@
         <v>54</v>
       </c>
       <c r="P9" s="6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="72" hidden="1" x14ac:dyDescent="0.3">
@@ -4840,7 +4907,7 @@
         <v>54</v>
       </c>
       <c r="P10" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
@@ -4933,10 +5000,10 @@
       </c>
       <c r="O12" s="31"/>
       <c r="P12" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" ht="124.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="24">
         <v>26</v>
       </c>
@@ -4981,7 +5048,7 @@
       </c>
       <c r="O13" s="24"/>
       <c r="P13" s="30" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
@@ -4989,13 +5056,13 @@
         <v>27</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>17</v>
@@ -5019,7 +5086,7 @@
         <v>54</v>
       </c>
       <c r="P14" s="6" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="15" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
@@ -5057,7 +5124,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" ht="70.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="31">
         <v>66</v>
       </c>
@@ -5102,7 +5169,7 @@
       </c>
       <c r="O16" s="26"/>
       <c r="P16" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
@@ -5110,10 +5177,10 @@
         <v>80</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D17" s="16" t="s">
         <v>68</v>
@@ -5137,7 +5204,7 @@
         <v>54</v>
       </c>
       <c r="P17" s="6" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="18" spans="1:19" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -5228,7 +5295,7 @@
         <v>54</v>
       </c>
       <c r="P19" s="6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="86.4" x14ac:dyDescent="0.3">
@@ -5278,7 +5345,7 @@
         <v>124</v>
       </c>
       <c r="P20" s="6" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="21" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
@@ -5539,7 +5606,7 @@
         <v>111</v>
       </c>
       <c r="P26" s="6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.3">
@@ -5587,13 +5654,13 @@
         <v>167</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>10</v>
@@ -5626,10 +5693,10 @@
         <v>54</v>
       </c>
       <c r="P28" s="6" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="72" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A29" s="31">
         <v>169</v>
       </c>
@@ -5678,7 +5745,7 @@
         <v>203</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>2</v>
@@ -5705,7 +5772,7 @@
         <v>54</v>
       </c>
       <c r="P30" s="6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="31" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
@@ -5752,7 +5819,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:19" s="27" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" s="27" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A32" s="31">
         <v>217</v>
       </c>
@@ -5763,7 +5830,7 @@
         <v>2</v>
       </c>
       <c r="D32" s="26" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E32" s="26" t="s">
         <v>10</v>
@@ -5797,7 +5864,7 @@
       </c>
       <c r="O32" s="26"/>
       <c r="P32" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="S32" s="28"/>
     </row>
@@ -5936,7 +6003,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="36" spans="1:19" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" ht="72" x14ac:dyDescent="0.3">
       <c r="A36" s="31">
         <v>283</v>
       </c>
@@ -5980,7 +6047,7 @@
         <v>54</v>
       </c>
       <c r="P36" s="6" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="37" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
@@ -6076,13 +6143,13 @@
         <v>349</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>10</v>
@@ -6115,7 +6182,7 @@
         <v>54</v>
       </c>
       <c r="P39" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="40" spans="1:19" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
@@ -6129,7 +6196,7 @@
         <v>2</v>
       </c>
       <c r="D40" s="26" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E40" s="26" t="s">
         <v>10</v>
@@ -6163,7 +6230,7 @@
       </c>
       <c r="O40" s="26"/>
       <c r="P40" s="6" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="41" spans="1:19" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
@@ -6302,7 +6369,7 @@
         <v>54</v>
       </c>
       <c r="P43" s="6" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="44" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
@@ -6395,12 +6462,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A46" s="31">
         <v>665</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C46" s="26" t="s">
         <v>2</v>
@@ -6434,7 +6501,7 @@
       </c>
       <c r="O46" s="26"/>
       <c r="P46" s="6" t="s">
-        <v>162</v>
+        <v>196</v>
       </c>
     </row>
     <row r="47" spans="1:19" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
@@ -6537,13 +6604,13 @@
         <v>977</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C49" s="31" t="s">
         <v>2</v>
       </c>
       <c r="D49" s="31" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E49" s="31" t="s">
         <v>10</v>
@@ -6577,7 +6644,7 @@
       </c>
       <c r="O49" s="31"/>
       <c r="P49" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="50" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
@@ -6616,7 +6683,7 @@
         <v>1089</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>2</v>
@@ -6655,7 +6722,7 @@
         <v>54</v>
       </c>
       <c r="P51" s="6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="52" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
@@ -6765,7 +6832,7 @@
         <v>10</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="G54" s="5" t="s">
         <v>8</v>
@@ -6780,13 +6847,13 @@
         <v>53</v>
       </c>
       <c r="K54" s="8">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="L54" s="8">
+        <v>2</v>
+      </c>
+      <c r="M54" s="10">
         <v>1</v>
-      </c>
-      <c r="M54" s="10">
-        <v>0</v>
       </c>
       <c r="N54" s="10" t="s">
         <v>54</v>
@@ -6795,7 +6862,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="55" spans="1:19" s="14" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:19" s="14" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A55" s="31">
         <v>1299</v>
       </c>
@@ -6812,7 +6879,7 @@
         <v>10</v>
       </c>
       <c r="F55" s="26" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="G55" s="26" t="s">
         <v>8</v>
@@ -6830,17 +6897,17 @@
         <v>40</v>
       </c>
       <c r="L55" s="26">
+        <v>2</v>
+      </c>
+      <c r="M55" s="26">
         <v>1</v>
-      </c>
-      <c r="M55" s="26">
-        <v>0</v>
       </c>
       <c r="N55" s="26" t="s">
         <v>54</v>
       </c>
       <c r="O55" s="26"/>
       <c r="P55" s="6" t="s">
-        <v>160</v>
+        <v>197</v>
       </c>
       <c r="Q55" s="27"/>
       <c r="R55" s="27"/>
@@ -7348,10 +7415,10 @@
         <v>53</v>
       </c>
       <c r="P66" s="6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
-    <row r="67" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A67" s="32">
         <v>1512</v>
       </c>
@@ -7396,7 +7463,7 @@
       </c>
       <c r="O67" s="32"/>
       <c r="P67" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="68" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">

--- a/LeetCode Tracker.xlsx
+++ b/LeetCode Tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leon\Desktop\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21903D45-7405-4316-9B77-1F62824D576F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F56774F0-F9A8-4A86-A952-5F7F0067867D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2FA590F6-CEBE-453D-A814-55EB366ADEEE}"/>
+    <workbookView xWindow="12288" yWindow="4032" windowWidth="17280" windowHeight="8964" xr2:uid="{2FA590F6-CEBE-453D-A814-55EB366ADEEE}"/>
   </bookViews>
   <sheets>
     <sheet name="LeetCode" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="946" uniqueCount="286">
   <si>
     <t>LeetCode Problems</t>
   </si>
@@ -3838,6 +3838,96 @@
   </si>
   <si>
     <r>
+      <t>****</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Brute Force </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Solution is really slow. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Optimal Solution </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">should be using two pointers. Should try to work on it.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">UPDATE (1 week): </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Able to figure out the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Optimal Solution </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>after looking at the first hint, which is to loop from the back. Next time should try to work on it first without looking at hint.</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">****This is a good question and should practice again. The solution is just knowing what condition to fulfilled.
 </t>
     </r>
@@ -3850,7 +3940,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">UPDATE (1 Week): </t>
+      <t xml:space="preserve">UPDATE (1 week): </t>
     </r>
     <r>
       <rPr>
@@ -3864,101 +3954,275 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>****</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Brute Force </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Solution is really slow. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Optimal Solution </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">should be using two pointers. Should try to work on it.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">UPDATE (1 week): </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Able to figure out the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Optimal Solution </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>after looking at the first hint, which is to loop from the back. Next time should try to work on it first without looking at hint.</t>
-    </r>
+    <t>Median of Two Sorted Array</t>
+  </si>
+  <si>
+    <t>Hard</t>
+  </si>
+  <si>
+    <t>Array/Bit Manipulation/Divide &amp; Conquer</t>
+  </si>
+  <si>
+    <t>Google</t>
+  </si>
+  <si>
+    <t>Regular Expression Matching</t>
+  </si>
+  <si>
+    <t>String/Dynamic Programming/BackTracking</t>
+  </si>
+  <si>
+    <t>Letter Combinations of a Phone Number</t>
+  </si>
+  <si>
+    <t>Generate Parentheses</t>
+  </si>
+  <si>
+    <t>Merge k Sorted Lists</t>
+  </si>
+  <si>
+    <t>Next Permutation</t>
+  </si>
+  <si>
+    <t>Trapping Rain Water</t>
+  </si>
+  <si>
+    <t>Wildcard Matching</t>
+  </si>
+  <si>
+    <t>Pow(x, n)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spiral Matrix </t>
+  </si>
+  <si>
+    <t>Merge Intervals</t>
+  </si>
+  <si>
+    <t>Insert Interval</t>
+  </si>
+  <si>
+    <t>Longest Consecutive Sequence</t>
+  </si>
+  <si>
+    <t>Clone Graph</t>
+  </si>
+  <si>
+    <t>Word Break</t>
+  </si>
+  <si>
+    <t>Word Break II</t>
+  </si>
+  <si>
+    <t>LRU Cache</t>
+  </si>
+  <si>
+    <t>Read N Characters Given Read4 II - Call Multipe Times</t>
+  </si>
+  <si>
+    <t>Longest Substring with at most Two Distinct Characters</t>
+  </si>
+  <si>
+    <t>Find Peak Element</t>
+  </si>
+  <si>
+    <t>Binary Search Tree Iterator</t>
+  </si>
+  <si>
+    <t>Number of Islands</t>
+  </si>
+  <si>
+    <t>Implement Trie (Prefix Tree)</t>
+  </si>
+  <si>
+    <t>Word Search II</t>
+  </si>
+  <si>
+    <t>Shortest Palindrome</t>
+  </si>
+  <si>
+    <t>The Skyline Problem</t>
+  </si>
+  <si>
+    <t>Basic Calculator</t>
+  </si>
+  <si>
+    <t>Fraction to Recurring Decimal</t>
+  </si>
+  <si>
+    <t>Summary Ranges</t>
+  </si>
+  <si>
+    <t>Kth Smallest Element in a BST</t>
+  </si>
+  <si>
+    <t>Power of Two</t>
+  </si>
+  <si>
+    <t>Sliding Window Maximum</t>
+  </si>
+  <si>
+    <t>Search a 2D Matrix II</t>
+  </si>
+  <si>
+    <t>Group Shifted Strings</t>
+  </si>
+  <si>
+    <t>Flatten 2D Vector</t>
+  </si>
+  <si>
+    <t>Meeting Rooms II</t>
+  </si>
+  <si>
+    <t>Binary Tree Paths</t>
+  </si>
+  <si>
+    <t>3Sum Smaller</t>
+  </si>
+  <si>
+    <t>Graph Valid Tree</t>
+  </si>
+  <si>
+    <t>Palindrome Permutation</t>
+  </si>
+  <si>
+    <t>Alien Dictionary</t>
+  </si>
+  <si>
+    <t>Closest Binary Search Tree Value</t>
+  </si>
+  <si>
+    <t>Encode and Decond Strings</t>
+  </si>
+  <si>
+    <t>Closest Binary Search Tree Value II</t>
+  </si>
+  <si>
+    <t>H-Index</t>
+  </si>
+  <si>
+    <t>Paint Fence</t>
+  </si>
+  <si>
+    <t>Perfect Squares</t>
+  </si>
+  <si>
+    <t>Wiggle Sort</t>
+  </si>
+  <si>
+    <t>Zigzag Iterator</t>
+  </si>
+  <si>
+    <t>Peeking Iterator</t>
+  </si>
+  <si>
+    <t>Expression Add Operators</t>
+  </si>
+  <si>
+    <t>Walls and Gates</t>
+  </si>
+  <si>
+    <t>Unique Word Abbreviation</t>
+  </si>
+  <si>
+    <t>Games of Life</t>
+  </si>
+  <si>
+    <t>Flip Game</t>
+  </si>
+  <si>
+    <t>Flip Game II</t>
+  </si>
+  <si>
+    <t>Find Median from Data Stream</t>
+  </si>
+  <si>
+    <t>Serialize and Deserialize Binary Tree</t>
+  </si>
+  <si>
+    <t>Binary Tree Longest Consecutive Sequence</t>
+  </si>
+  <si>
+    <t>Smallest Rectangle Enclosing Black Pixels</t>
+  </si>
+  <si>
+    <t>Number of Islands II</t>
+  </si>
+  <si>
+    <t>Range Sum Query 2D – Mutable</t>
+  </si>
+  <si>
+    <t>Best Time to Buy and Sell Stock with Cooldown</t>
+  </si>
+  <si>
+    <t>Minimum Height Trees</t>
+  </si>
+  <si>
+    <t>Burst Balloons</t>
+  </si>
+  <si>
+    <t>Super Ugly Number</t>
+  </si>
+  <si>
+    <t>Binary Tree Vertical Order Traversal</t>
+  </si>
+  <si>
+    <t>Count of Smaller Numbers After Self</t>
+  </si>
+  <si>
+    <t>Remove Duplicate Letters</t>
+  </si>
+  <si>
+    <t>Shortest Distance from All Buildings</t>
+  </si>
+  <si>
+    <t>Maximum Product of Word Lengths</t>
+  </si>
+  <si>
+    <t>Generalized Abbreviation</t>
+  </si>
+  <si>
+    <t>Create Maximum Number</t>
+  </si>
+  <si>
+    <t>Number of Connected Components in an Undirected Graph</t>
+  </si>
+  <si>
+    <t>Wiggle Sort II</t>
+  </si>
+  <si>
+    <t>Power of Three</t>
+  </si>
+  <si>
+    <t>Count of Range Sum</t>
+  </si>
+  <si>
+    <t>Longest Increasing Path in a Matrix</t>
+  </si>
+  <si>
+    <t>Patching Array</t>
+  </si>
+  <si>
+    <t>Verify Preorder Serialization of a Binary Tree</t>
+  </si>
+  <si>
+    <t>Reconstruct Itinerary</t>
+  </si>
+  <si>
+    <t>Palindrome Pairs</t>
+  </si>
+  <si>
+    <t>Longest Substring with At Most K Distinct Characters</t>
+  </si>
+  <si>
+    <t>Flatten Nested List Iterator</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3978,6 +4242,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -4085,7 +4356,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4177,6 +4448,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4207,6 +4481,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4583,14 +4858,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CECAF50C-0FA8-4FE8-AF1F-0197AD9DA707}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:U72"/>
+  <dimension ref="A1:U157"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="18" ySplit="8" topLeftCell="S56" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="18" ySplit="8" topLeftCell="S9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="P1" sqref="P1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="P56" sqref="P56"/>
+      <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4599,16 +4873,16 @@
     <col min="2" max="2" width="32.33203125" style="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.44140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.77734375" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.21875" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.77734375" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.77734375" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17" style="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.77734375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="25.109375" style="5" customWidth="1"/>
+    <col min="7" max="7" width="26.21875" style="5" customWidth="1"/>
+    <col min="8" max="8" width="14.77734375" style="5" customWidth="1"/>
+    <col min="9" max="9" width="13.77734375" style="8" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" style="8" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" style="8" customWidth="1"/>
+    <col min="12" max="12" width="17.109375" style="8" customWidth="1"/>
+    <col min="13" max="13" width="17" style="10" customWidth="1"/>
+    <col min="14" max="14" width="15.109375" style="10" customWidth="1"/>
     <col min="15" max="15" width="17.88671875" style="16" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="184.5546875" style="6" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9" style="27" bestFit="1" customWidth="1"/>
@@ -4618,48 +4892,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="41" t="s">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="42"/>
+      <c r="R1" s="43"/>
       <c r="S1" s="11"/>
       <c r="T1" s="9"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="36"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="O2" s="36"/>
+      <c r="P2" s="37"/>
       <c r="Q2" s="28" t="s">
         <v>17</v>
       </c>
@@ -4668,22 +4942,22 @@
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A3" s="35"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
-      <c r="P3" s="36"/>
+      <c r="A3" s="36"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="37"/>
       <c r="Q3" s="28" t="s">
         <v>18</v>
       </c>
@@ -4692,22 +4966,22 @@
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A4" s="35"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="35"/>
-      <c r="P4" s="36"/>
+      <c r="A4" s="36"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="37"/>
       <c r="Q4" s="4" t="s">
         <v>19</v>
       </c>
@@ -4716,22 +4990,22 @@
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5" s="37"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="37"/>
-      <c r="M5" s="37"/>
-      <c r="N5" s="37"/>
-      <c r="O5" s="37"/>
-      <c r="P5" s="38"/>
+      <c r="A5" s="38"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="38"/>
+      <c r="P5" s="39"/>
       <c r="Q5" s="28" t="s">
         <v>27</v>
       </c>
@@ -4740,22 +5014,22 @@
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6" s="37"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="37"/>
-      <c r="M6" s="37"/>
-      <c r="N6" s="37"/>
-      <c r="O6" s="37"/>
-      <c r="P6" s="38"/>
+      <c r="A6" s="38"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="39"/>
       <c r="Q6" s="28" t="s">
         <v>29</v>
       </c>
@@ -4764,22 +5038,22 @@
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A7" s="39"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="39"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="40"/>
+      <c r="A7" s="40"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="41"/>
       <c r="Q7" s="28" t="s">
         <v>31</v>
       </c>
@@ -4884,188 +5158,125 @@
         <v>177</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="31">
+        <v>4</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="O10" s="16" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="31">
         <v>9</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B11" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="N10" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="P10" s="6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="31">
-        <v>20</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>53</v>
-      </c>
       <c r="J11" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="K11" s="8">
-        <v>40</v>
-      </c>
-      <c r="L11" s="8">
-        <v>1</v>
-      </c>
-      <c r="M11" s="10">
-        <v>0</v>
-      </c>
       <c r="N11" s="10" t="s">
         <v>54</v>
       </c>
       <c r="P11" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="31">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>35</v>
+        <v>202</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>2</v>
+        <v>199</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="G12" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="H12" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="I12" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="J12" s="31" t="s">
-        <v>53</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
       <c r="K12" s="31"/>
-      <c r="L12" s="31">
-        <v>1</v>
-      </c>
-      <c r="M12" s="31">
-        <v>0</v>
-      </c>
-      <c r="N12" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="O12" s="31"/>
-      <c r="P12" s="6" t="s">
-        <v>175</v>
+      <c r="L12" s="31"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="31"/>
+      <c r="O12" s="31" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="124.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="24">
-        <v>26</v>
-      </c>
-      <c r="B13" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="C13" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="E13" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="G13" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="H13" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="I13" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="J13" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="K13" s="24">
-        <v>45</v>
-      </c>
-      <c r="L13" s="24">
-        <v>2</v>
-      </c>
-      <c r="M13" s="24">
-        <v>1</v>
-      </c>
-      <c r="N13" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="O13" s="24"/>
-      <c r="P13" s="30" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="33">
+        <v>17</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
+      <c r="N13" s="33"/>
+      <c r="O13" s="33" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A14" s="31">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>161</v>
+        <v>87</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>162</v>
+        <v>86</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I14" s="8" t="s">
         <v>53</v>
@@ -5074,7 +5285,7 @@
         <v>54</v>
       </c>
       <c r="K14" s="8">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="L14" s="8">
         <v>1</v>
@@ -5085,31 +5296,43 @@
       <c r="N14" s="10" t="s">
         <v>54</v>
       </c>
+      <c r="O14" s="16" t="s">
+        <v>201</v>
+      </c>
       <c r="P14" s="6" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" hidden="1" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" s="31">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>91</v>
+        <v>35</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>92</v>
+        <v>25</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="I15" s="8" t="s">
         <v>53</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="K15" s="8">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="L15" s="8">
         <v>1</v>
@@ -5118,549 +5341,315 @@
         <v>0</v>
       </c>
       <c r="N15" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P15" s="6" t="s">
-        <v>96</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="70.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="31">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>103</v>
+        <v>205</v>
       </c>
       <c r="C16" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="26" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A17" s="31">
+        <v>23</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="O17" s="16" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="24">
+        <v>26</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="E16" s="26" t="s">
+      <c r="D18" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="F16" s="26" t="s">
+      <c r="F18" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="G16" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="H16" s="26" t="s">
+      <c r="G18" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="H18" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="I16" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="J16" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="K16" s="26">
-        <v>30</v>
-      </c>
-      <c r="L16" s="26">
+      <c r="I18" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="J18" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="K18" s="24">
+        <v>45</v>
+      </c>
+      <c r="L18" s="24">
         <v>2</v>
       </c>
-      <c r="M16" s="26">
+      <c r="M18" s="24">
         <v>1</v>
       </c>
-      <c r="N16" s="26" t="s">
+      <c r="N18" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="O16" s="26"/>
-      <c r="P16" s="6" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="31">
-        <v>80</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="D17" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="I17" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="J17" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="K17" s="8">
-        <v>60</v>
-      </c>
-      <c r="L17" s="8">
-        <v>1</v>
-      </c>
-      <c r="M17" s="10">
-        <v>0</v>
-      </c>
-      <c r="N17" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="P17" s="6" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="31">
-        <v>83</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I18" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="J18" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="K18" s="8">
-        <v>35</v>
-      </c>
-      <c r="L18" s="8">
-        <v>1</v>
-      </c>
-      <c r="M18" s="10">
-        <v>0</v>
-      </c>
-      <c r="N18" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="P18" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" ht="72" x14ac:dyDescent="0.3">
+      <c r="O18" s="24"/>
+      <c r="P18" s="30" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A19" s="31">
-        <v>88</v>
+        <v>27</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>45</v>
+        <v>161</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>8</v>
+        <v>162</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="I19" s="8" t="s">
         <v>53</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="K19" s="8">
+        <v>60</v>
       </c>
       <c r="L19" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M19" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N19" s="10" t="s">
         <v>54</v>
       </c>
       <c r="P19" s="6" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" ht="86.4" x14ac:dyDescent="0.3">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="31">
-        <v>118</v>
+        <v>28</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="I20" s="8" t="s">
         <v>53</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K20" s="8">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="L20" s="8">
         <v>1</v>
       </c>
       <c r="M20" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N20" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="O20" s="16" t="s">
-        <v>124</v>
-      </c>
       <c r="P20" s="6" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="31">
-        <v>119</v>
+        <v>31</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>125</v>
+        <v>207</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D21" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I21" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="J21" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="K21" s="8">
-        <v>15</v>
-      </c>
-      <c r="L21" s="8">
-        <v>1</v>
-      </c>
-      <c r="M21" s="10">
-        <v>1</v>
-      </c>
-      <c r="N21" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="O21" s="16" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A22" s="31">
+        <v>42</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="O22" s="16" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A23" s="31">
+        <v>44</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="O23" s="16" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A24" s="31">
+        <v>50</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>184</v>
+      </c>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="26"/>
+      <c r="N24" s="26"/>
+      <c r="O24" s="26" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A25" s="31">
         <v>54</v>
       </c>
-      <c r="P21" s="6" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="31">
-        <v>125</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D22" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I22" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="J22" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="L22" s="8">
-        <v>1</v>
-      </c>
-      <c r="M22" s="10">
-        <v>0</v>
-      </c>
-      <c r="N22" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="P22" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="31">
-        <v>136</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D23" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I23" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="J23" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="L23" s="8">
-        <v>1</v>
-      </c>
-      <c r="M23" s="10">
-        <v>0</v>
-      </c>
-      <c r="N23" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="P23" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="31">
-        <v>141</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="D24" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="E24" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="G24" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="H24" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="I24" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="J24" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="K24" s="26"/>
-      <c r="L24" s="26">
-        <v>1</v>
-      </c>
-      <c r="M24" s="26">
-        <v>0</v>
-      </c>
-      <c r="N24" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="O24" s="26"/>
-      <c r="P24" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="31">
-        <v>155</v>
-      </c>
       <c r="B25" s="7" t="s">
-        <v>85</v>
+        <v>211</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D25" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="I25" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="J25" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="L25" s="8">
-        <v>1</v>
-      </c>
-      <c r="M25" s="10">
-        <v>0</v>
-      </c>
-      <c r="N25" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="P25" s="25" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+        <v>184</v>
+      </c>
+      <c r="O25" s="16" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" s="31">
-        <v>160</v>
+        <v>56</v>
       </c>
       <c r="B26" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="C26" s="31" t="s">
+        <v>199</v>
+      </c>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="31"/>
+      <c r="M26" s="31"/>
+      <c r="N26" s="31"/>
+      <c r="O26" s="31" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A27" s="33">
         <v>57</v>
       </c>
-      <c r="C26" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="D26" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="E26" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="F26" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="G26" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="H26" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="I26" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="J26" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="K26" s="31"/>
-      <c r="L26" s="31">
-        <v>1</v>
-      </c>
-      <c r="M26" s="31">
-        <v>0</v>
-      </c>
-      <c r="N26" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="O26" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="P26" s="6" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A27" s="12">
-        <v>163</v>
-      </c>
-      <c r="B27" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="J27" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="K27" s="12">
-        <v>45</v>
-      </c>
-      <c r="L27" s="12">
-        <v>1</v>
-      </c>
-      <c r="M27" s="12">
-        <v>0</v>
-      </c>
-      <c r="N27" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="O27" s="12"/>
-      <c r="P27" s="13" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B27" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="C27" s="33" t="s">
+        <v>199</v>
+      </c>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="33"/>
+      <c r="L27" s="33"/>
+      <c r="M27" s="33"/>
+      <c r="N27" s="33"/>
+      <c r="O27" s="33" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A28" s="31">
-        <v>167</v>
+        <v>66</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>178</v>
+        <v>103</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>179</v>
+        <v>77</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>10</v>
@@ -5681,45 +5670,33 @@
         <v>53</v>
       </c>
       <c r="K28" s="8">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="L28" s="8">
+        <v>2</v>
+      </c>
+      <c r="M28" s="10">
         <v>1</v>
-      </c>
-      <c r="M28" s="10">
-        <v>0</v>
       </c>
       <c r="N28" s="10" t="s">
         <v>54</v>
       </c>
       <c r="P28" s="6" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="31">
-        <v>169</v>
+        <v>80</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>71</v>
+        <v>185</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>2</v>
+        <v>184</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="I29" s="8" t="s">
         <v>53</v>
@@ -5728,7 +5705,10 @@
         <v>54</v>
       </c>
       <c r="K29" s="8">
-        <v>40</v>
+        <v>60</v>
+      </c>
+      <c r="L29" s="8">
+        <v>1</v>
       </c>
       <c r="M29" s="10">
         <v>0</v>
@@ -5737,15 +5717,15 @@
         <v>54</v>
       </c>
       <c r="P29" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" s="31">
-        <v>203</v>
+        <v>83</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>182</v>
+        <v>83</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>2</v>
@@ -5753,14 +5733,26 @@
       <c r="D30" s="16" t="s">
         <v>25</v>
       </c>
+      <c r="E30" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>33</v>
+      </c>
       <c r="I30" s="8" t="s">
         <v>53</v>
       </c>
       <c r="J30" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K30" s="8">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="L30" s="8">
         <v>1</v>
@@ -5769,30 +5761,30 @@
         <v>0</v>
       </c>
       <c r="N30" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P30" s="6" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" ht="72" x14ac:dyDescent="0.3">
       <c r="A31" s="31">
-        <v>206</v>
+        <v>88</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="G31" s="5" t="s">
         <v>8</v>
@@ -5813,36 +5805,36 @@
         <v>1</v>
       </c>
       <c r="N31" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P31" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" s="27" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" s="27" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A32" s="31">
-        <v>217</v>
+        <v>118</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>80</v>
+        <v>123</v>
       </c>
       <c r="C32" s="26" t="s">
         <v>2</v>
       </c>
       <c r="D32" s="26" t="s">
-        <v>169</v>
+        <v>77</v>
       </c>
       <c r="E32" s="26" t="s">
         <v>10</v>
       </c>
       <c r="F32" s="26" t="s">
-        <v>81</v>
+        <v>22</v>
       </c>
       <c r="G32" s="26" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="H32" s="26" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I32" s="26" t="s">
         <v>53</v>
@@ -5851,44 +5843,46 @@
         <v>53</v>
       </c>
       <c r="K32" s="26">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="L32" s="26">
         <v>1</v>
       </c>
       <c r="M32" s="26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N32" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="O32" s="26"/>
+        <v>54</v>
+      </c>
+      <c r="O32" s="26" t="s">
+        <v>124</v>
+      </c>
       <c r="P32" s="6" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="S32" s="28"/>
     </row>
-    <row r="33" spans="1:19" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A33" s="31">
-        <v>234</v>
+        <v>119</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>59</v>
+        <v>125</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="H33" s="5" t="s">
         <v>18</v>
@@ -5899,8 +5893,11 @@
       <c r="J33" s="8" t="s">
         <v>53</v>
       </c>
+      <c r="K33" s="8">
+        <v>15</v>
+      </c>
       <c r="L33" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M33" s="10">
         <v>1</v>
@@ -5909,30 +5906,30 @@
         <v>54</v>
       </c>
       <c r="P33" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A34" s="31">
-        <v>237</v>
+        <v>125</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="H34" s="5" t="s">
         <v>33</v>
@@ -5944,124 +5941,58 @@
         <v>53</v>
       </c>
       <c r="L34" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M34" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N34" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P34" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A35" s="31">
-        <v>268</v>
+        <v>128</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>101</v>
+        <v>214</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D35" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H35" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I35" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="J35" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="K35" s="8">
-        <v>30</v>
-      </c>
-      <c r="L35" s="8">
-        <v>1</v>
-      </c>
-      <c r="M35" s="10">
-        <v>0</v>
-      </c>
-      <c r="N35" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="P35" s="6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" ht="72" x14ac:dyDescent="0.3">
+        <v>199</v>
+      </c>
+      <c r="O35" s="16" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A36" s="31">
-        <v>283</v>
+        <v>133</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>67</v>
+        <v>215</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D36" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H36" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I36" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="J36" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="K36" s="8">
-        <v>30</v>
-      </c>
-      <c r="L36" s="8">
-        <v>2</v>
-      </c>
-      <c r="M36" s="10">
-        <v>1</v>
-      </c>
-      <c r="N36" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="P36" s="6" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+        <v>184</v>
+      </c>
+      <c r="O36" s="16" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A37" s="31">
-        <v>344</v>
+        <v>136</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>10</v>
@@ -6073,7 +6004,7 @@
         <v>8</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>90</v>
+        <v>23</v>
       </c>
       <c r="I37" s="8" t="s">
         <v>53</v>
@@ -6082,121 +6013,58 @@
         <v>53</v>
       </c>
       <c r="L37" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M37" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N37" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P37" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A38" s="31">
-        <v>345</v>
+        <v>139</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>16</v>
+        <v>216</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D38" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G38" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H38" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="I38" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="J38" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="L38" s="8">
-        <v>2</v>
-      </c>
-      <c r="M38" s="10">
-        <v>1</v>
-      </c>
-      <c r="N38" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="P38" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+        <v>184</v>
+      </c>
+      <c r="O38" s="16" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A39" s="31">
-        <v>349</v>
+        <v>140</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>167</v>
+        <v>217</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D39" s="16" t="s">
-        <v>165</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G39" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H39" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I39" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="J39" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="K39" s="8">
-        <v>20</v>
-      </c>
-      <c r="L39" s="8">
-        <v>1</v>
-      </c>
-      <c r="M39" s="10">
-        <v>0</v>
-      </c>
-      <c r="N39" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="P39" s="6" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+        <v>199</v>
+      </c>
+      <c r="O39" s="16" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="31">
-        <v>387</v>
+        <v>141</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>107</v>
+        <v>50</v>
       </c>
       <c r="C40" s="26" t="s">
         <v>2</v>
       </c>
       <c r="D40" s="26" t="s">
-        <v>193</v>
+        <v>25</v>
       </c>
       <c r="E40" s="26" t="s">
         <v>10</v>
@@ -6205,73 +6073,57 @@
         <v>7</v>
       </c>
       <c r="G40" s="26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H40" s="26" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I40" s="26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J40" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="K40" s="26">
-        <v>30</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="K40" s="26"/>
       <c r="L40" s="26">
         <v>1</v>
       </c>
       <c r="M40" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N40" s="26" t="s">
         <v>54</v>
       </c>
       <c r="O40" s="26"/>
       <c r="P40" s="6" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" s="14" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="31">
-        <v>389</v>
+        <v>146</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>118</v>
+        <v>218</v>
       </c>
       <c r="C41" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="D41" s="26" t="s">
-        <v>38</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="D41" s="26"/>
       <c r="E41" s="26"/>
       <c r="F41" s="26"/>
       <c r="G41" s="26"/>
       <c r="H41" s="26"/>
-      <c r="I41" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="J41" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="K41" s="26">
-        <v>30</v>
-      </c>
-      <c r="L41" s="26">
-        <v>1</v>
-      </c>
-      <c r="M41" s="26">
-        <v>0</v>
-      </c>
-      <c r="N41" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="O41" s="26"/>
-      <c r="P41" s="6" t="s">
-        <v>119</v>
-      </c>
+      <c r="I41" s="26"/>
+      <c r="J41" s="26"/>
+      <c r="K41" s="26"/>
+      <c r="L41" s="26"/>
+      <c r="M41" s="26"/>
+      <c r="N41" s="26"/>
+      <c r="O41" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="P41" s="6"/>
       <c r="Q41" s="27"/>
       <c r="R41" s="29" t="s">
         <v>106</v>
@@ -6280,425 +6132,285 @@
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A42" s="31">
-        <v>412</v>
+        <v>155</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D42" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G42" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H42" s="5" t="s">
-        <v>33</v>
+        <v>86</v>
       </c>
       <c r="I42" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J42" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="K42" s="8">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="L42" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M42" s="10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N42" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="P42" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" ht="115.2" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+      <c r="P42" s="25" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="31">
-        <v>448</v>
+        <v>158</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>82</v>
+        <v>219</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D43" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G43" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H43" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I43" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="J43" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="K43" s="8">
-        <v>15</v>
-      </c>
-      <c r="L43" s="8">
-        <v>1</v>
-      </c>
-      <c r="M43" s="10">
-        <v>1</v>
-      </c>
-      <c r="N43" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="P43" s="6" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+        <v>199</v>
+      </c>
+      <c r="O43" s="16" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="31">
-        <v>541</v>
+        <v>159</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>9</v>
+        <v>220</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D44" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G44" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H44" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I44" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="J44" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="L44" s="8">
-        <v>1</v>
-      </c>
-      <c r="M44" s="10">
-        <v>0</v>
-      </c>
-      <c r="N44" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="P44" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+        <v>199</v>
+      </c>
+      <c r="O44" s="16" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A45" s="31">
-        <v>557</v>
+        <v>160</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="C45" s="26" t="s">
         <v>2</v>
       </c>
       <c r="D45" s="26" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E45" s="26" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="F45" s="26" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="G45" s="26" t="s">
         <v>8</v>
       </c>
       <c r="H45" s="26" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I45" s="26" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="J45" s="26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K45" s="26"/>
       <c r="L45" s="26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M45" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N45" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="O45" s="26"/>
+      <c r="O45" s="26" t="s">
+        <v>111</v>
+      </c>
       <c r="P45" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A46" s="31">
-        <v>665</v>
+        <v>162</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>160</v>
+        <v>221</v>
       </c>
       <c r="C46" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="D46" s="26" t="s">
-        <v>77</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="D46" s="26"/>
       <c r="E46" s="26"/>
       <c r="F46" s="26"/>
       <c r="G46" s="26"/>
-      <c r="H46" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="I46" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="J46" s="26" t="s">
+      <c r="H46" s="26"/>
+      <c r="I46" s="26"/>
+      <c r="J46" s="26"/>
+      <c r="K46" s="26"/>
+      <c r="L46" s="26"/>
+      <c r="M46" s="26"/>
+      <c r="N46" s="26"/>
+      <c r="O46" s="26" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A47" s="12">
+        <v>163</v>
+      </c>
+      <c r="B47" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="J47" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="K47" s="12">
+        <v>45</v>
+      </c>
+      <c r="L47" s="12">
+        <v>1</v>
+      </c>
+      <c r="M47" s="12">
+        <v>0</v>
+      </c>
+      <c r="N47" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="K46" s="26">
-        <v>60</v>
-      </c>
-      <c r="L46" s="26">
-        <v>1</v>
-      </c>
-      <c r="M46" s="26">
-        <v>0</v>
-      </c>
-      <c r="N46" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="O46" s="26"/>
-      <c r="P46" s="6" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="31">
-        <v>771</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="C47" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="D47" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="E47" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="F47" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="G47" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="H47" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="I47" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="J47" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="K47" s="26">
-        <v>30</v>
-      </c>
-      <c r="L47" s="26">
-        <v>1</v>
-      </c>
-      <c r="M47" s="26">
-        <v>1</v>
-      </c>
-      <c r="N47" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="O47" s="26"/>
-      <c r="P47" s="6" t="s">
-        <v>114</v>
+      <c r="O47" s="12"/>
+      <c r="P47" s="13" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A48" s="31">
-        <v>832</v>
+        <v>163</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D48" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="G48" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H48" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I48" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="J48" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="K48" s="8">
-        <v>30</v>
-      </c>
-      <c r="L48" s="8">
-        <v>1</v>
-      </c>
-      <c r="M48" s="10">
-        <v>0</v>
-      </c>
-      <c r="N48" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="P48" s="6" t="s">
-        <v>121</v>
+        <v>184</v>
+      </c>
+      <c r="O48" s="16" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A49" s="31">
-        <v>977</v>
+        <v>166</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>164</v>
+        <v>229</v>
       </c>
       <c r="C49" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="D49" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="E49" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="F49" s="31" t="s">
-        <v>81</v>
-      </c>
-      <c r="G49" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="H49" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="I49" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="J49" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="K49" s="31">
-        <v>15</v>
-      </c>
-      <c r="L49" s="31">
-        <v>1</v>
-      </c>
-      <c r="M49" s="31">
-        <v>0</v>
-      </c>
-      <c r="N49" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="O49" s="31"/>
-      <c r="P49" s="6" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+        <v>184</v>
+      </c>
+      <c r="D49" s="31"/>
+      <c r="E49" s="31"/>
+      <c r="F49" s="31"/>
+      <c r="G49" s="31"/>
+      <c r="H49" s="31"/>
+      <c r="I49" s="31"/>
+      <c r="J49" s="31"/>
+      <c r="K49" s="31"/>
+      <c r="L49" s="31"/>
+      <c r="M49" s="31"/>
+      <c r="N49" s="31"/>
+      <c r="O49" s="31" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="31">
-        <v>1002</v>
+        <v>167</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>115</v>
+        <v>178</v>
       </c>
       <c r="C50" s="31" t="s">
         <v>2</v>
       </c>
       <c r="D50" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="E50" s="31"/>
-      <c r="F50" s="31"/>
-      <c r="G50" s="31"/>
-      <c r="H50" s="31"/>
+        <v>179</v>
+      </c>
+      <c r="E50" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="F50" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="G50" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="H50" s="31" t="s">
+        <v>33</v>
+      </c>
       <c r="I50" s="31" t="s">
         <v>53</v>
       </c>
       <c r="J50" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="K50" s="31"/>
-      <c r="L50" s="31"/>
-      <c r="M50" s="31"/>
+        <v>53</v>
+      </c>
+      <c r="K50" s="31">
+        <v>20</v>
+      </c>
+      <c r="L50" s="31">
+        <v>1</v>
+      </c>
+      <c r="M50" s="31">
+        <v>0</v>
+      </c>
       <c r="N50" s="31" t="s">
         <v>54</v>
       </c>
       <c r="O50" s="31"/>
-    </row>
-    <row r="51" spans="1:19" ht="72" x14ac:dyDescent="0.3">
+      <c r="P50" s="6" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A51" s="31">
-        <v>1089</v>
+        <v>169</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>191</v>
+        <v>71</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D51" s="16" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H51" s="5" t="s">
         <v>18</v>
@@ -6707,13 +6419,10 @@
         <v>53</v>
       </c>
       <c r="J51" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K51" s="8">
-        <v>15</v>
-      </c>
-      <c r="L51" s="8">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="M51" s="10">
         <v>0</v>
@@ -6722,158 +6431,106 @@
         <v>54</v>
       </c>
       <c r="P51" s="6" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A52" s="32">
-        <v>1108</v>
+        <v>173</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>137</v>
+        <v>222</v>
       </c>
       <c r="C52" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="D52" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="E52" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="F52" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="G52" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="H52" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="I52" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="J52" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="K52" s="32">
-        <v>10</v>
-      </c>
-      <c r="L52" s="32">
-        <v>1</v>
-      </c>
-      <c r="M52" s="32">
-        <v>0</v>
-      </c>
-      <c r="N52" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="O52" s="32"/>
-      <c r="P52" s="6" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="53" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="12">
-        <v>1119</v>
-      </c>
-      <c r="B53" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="C53" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D53" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E53" s="12"/>
-      <c r="F53" s="12"/>
-      <c r="G53" s="12"/>
-      <c r="H53" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="I53" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="J53" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="K53" s="12">
-        <v>10</v>
-      </c>
-      <c r="L53" s="12">
-        <v>1</v>
-      </c>
-      <c r="M53" s="12">
-        <v>0</v>
-      </c>
-      <c r="N53" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="O53" s="12"/>
-      <c r="P53" s="13" t="s">
-        <v>140</v>
+        <v>184</v>
+      </c>
+      <c r="D52" s="32"/>
+      <c r="E52" s="32"/>
+      <c r="F52" s="32"/>
+      <c r="G52" s="32"/>
+      <c r="H52" s="32"/>
+      <c r="I52" s="32"/>
+      <c r="J52" s="32"/>
+      <c r="K52" s="32"/>
+      <c r="L52" s="32"/>
+      <c r="M52" s="32"/>
+      <c r="N52" s="32"/>
+      <c r="O52" s="32" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A53" s="33">
+        <v>200</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="C53" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="D53" s="33"/>
+      <c r="E53" s="33"/>
+      <c r="F53" s="33"/>
+      <c r="G53" s="33"/>
+      <c r="H53" s="33"/>
+      <c r="I53" s="33"/>
+      <c r="J53" s="33"/>
+      <c r="K53" s="33"/>
+      <c r="L53" s="33"/>
+      <c r="M53" s="33"/>
+      <c r="N53" s="33"/>
+      <c r="O53" s="33" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="54" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A54" s="31">
-        <v>1295</v>
+        <v>203</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>149</v>
+        <v>182</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D54" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="E54" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F54" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G54" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H54" s="5" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="I54" s="8" t="s">
         <v>53</v>
       </c>
       <c r="J54" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K54" s="8">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="L54" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M54" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N54" s="10" t="s">
         <v>54</v>
       </c>
       <c r="P54" s="6" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="55" spans="1:19" s="14" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="31">
-        <v>1299</v>
+        <v>206</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>159</v>
+        <v>34</v>
       </c>
       <c r="C55" s="26" t="s">
         <v>2</v>
       </c>
       <c r="D55" s="26" t="s">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="E55" s="26" t="s">
         <v>10</v>
@@ -6885,7 +6542,7 @@
         <v>8</v>
       </c>
       <c r="H55" s="26" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I55" s="26" t="s">
         <v>53</v>
@@ -6893,9 +6550,7 @@
       <c r="J55" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="K55" s="26">
-        <v>40</v>
-      </c>
+      <c r="K55" s="26"/>
       <c r="L55" s="26">
         <v>2</v>
       </c>
@@ -6903,167 +6558,97 @@
         <v>1</v>
       </c>
       <c r="N55" s="26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O55" s="26"/>
       <c r="P55" s="6" t="s">
-        <v>197</v>
+        <v>44</v>
       </c>
       <c r="Q55" s="27"/>
       <c r="R55" s="27"/>
       <c r="S55" s="15"/>
     </row>
-    <row r="56" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A56" s="31">
-        <v>1304</v>
+        <v>208</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>155</v>
+        <v>224</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D56" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="I56" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="J56" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="M56" s="10">
-        <v>0</v>
-      </c>
-      <c r="N56" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="P56" s="6" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="57" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+        <v>184</v>
+      </c>
+      <c r="O56" s="16" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A57" s="31">
-        <v>1313</v>
+        <v>212</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>142</v>
+        <v>225</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D57" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F57" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="G57" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H57" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I57" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="J57" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="K57" s="8">
-        <v>30</v>
-      </c>
-      <c r="L57" s="8">
-        <v>1</v>
-      </c>
-      <c r="M57" s="10">
-        <v>0</v>
-      </c>
-      <c r="N57" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="P57" s="6" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="58" spans="1:19" s="21" customFormat="1" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+        <v>199</v>
+      </c>
+      <c r="O57" s="16" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="31">
-        <v>1342</v>
+        <v>214</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>116</v>
+        <v>226</v>
       </c>
       <c r="C58" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="D58" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="E58" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="F58" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="G58" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="H58" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="I58" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="J58" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="K58" s="26">
-        <v>30</v>
-      </c>
-      <c r="L58" s="26">
-        <v>1</v>
-      </c>
-      <c r="M58" s="26">
-        <v>0</v>
-      </c>
-      <c r="N58" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="O58" s="26"/>
-      <c r="P58" s="6" t="s">
-        <v>117</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="D58" s="26"/>
+      <c r="E58" s="26"/>
+      <c r="F58" s="26"/>
+      <c r="G58" s="26"/>
+      <c r="H58" s="26"/>
+      <c r="I58" s="26"/>
+      <c r="J58" s="26"/>
+      <c r="K58" s="26"/>
+      <c r="L58" s="26"/>
+      <c r="M58" s="26"/>
+      <c r="N58" s="26"/>
+      <c r="O58" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="P58" s="6"/>
       <c r="Q58" s="27"/>
       <c r="R58" s="27"/>
       <c r="S58" s="22"/>
     </row>
     <row r="59" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A59" s="31">
-        <v>1365</v>
+        <v>217</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D59" s="16" t="s">
-        <v>77</v>
+        <v>169</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>22</v>
+        <v>81</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I59" s="8" t="s">
         <v>53</v>
@@ -7072,7 +6657,7 @@
         <v>53</v>
       </c>
       <c r="K59" s="8">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="L59" s="8">
         <v>1</v>
@@ -7081,266 +6666,111 @@
         <v>0</v>
       </c>
       <c r="N59" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P59" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="60" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A60" s="31">
-        <v>1389</v>
+        <v>218</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>144</v>
+        <v>227</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D60" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F60" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G60" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H60" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I60" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="J60" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="K60" s="8">
-        <v>60</v>
-      </c>
-      <c r="L60" s="8">
-        <v>1</v>
-      </c>
-      <c r="M60" s="10">
-        <v>0</v>
-      </c>
-      <c r="N60" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="P60" s="6" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="61" spans="1:19" ht="72" x14ac:dyDescent="0.3">
+        <v>199</v>
+      </c>
+      <c r="O60" s="16" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A61" s="31">
-        <v>1431</v>
+        <v>224</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>95</v>
+        <v>228</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D61" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="E61" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F61" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G61" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H61" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I61" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="J61" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="K61" s="8">
-        <v>20</v>
-      </c>
-      <c r="L61" s="8">
-        <v>1</v>
-      </c>
-      <c r="M61" s="10">
-        <v>0</v>
-      </c>
-      <c r="N61" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="P61" s="6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="62" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+        <v>199</v>
+      </c>
+      <c r="O61" s="16" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A62" s="31">
-        <v>1450</v>
+        <v>228</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>151</v>
+        <v>230</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D62" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F62" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G62" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H62" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I62" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="J62" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="K62" s="8">
-        <v>35</v>
-      </c>
-      <c r="L62" s="8">
-        <v>1</v>
-      </c>
-      <c r="M62" s="10">
-        <v>0</v>
-      </c>
-      <c r="N62" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="P62" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="63" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+        <v>184</v>
+      </c>
+      <c r="O62" s="16" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A63" s="31">
-        <v>1464</v>
+        <v>230</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>153</v>
+        <v>231</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D63" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F63" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G63" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H63" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I63" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="J63" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="K63" s="8">
-        <v>35</v>
-      </c>
-      <c r="L63" s="8">
-        <v>1</v>
-      </c>
-      <c r="M63" s="10">
-        <v>0</v>
-      </c>
-      <c r="N63" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="P63" s="6" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="64" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
+        <v>184</v>
+      </c>
+      <c r="O63" s="16" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A64" s="31">
-        <v>1470</v>
+        <v>231</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>94</v>
+        <v>232</v>
       </c>
       <c r="C64" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D64" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="E64" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="F64" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="G64" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="H64" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="I64" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="J64" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="K64" s="31">
-        <v>45</v>
-      </c>
-      <c r="L64" s="31">
-        <v>2</v>
-      </c>
-      <c r="M64" s="31">
-        <v>1</v>
-      </c>
-      <c r="N64" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="O64" s="31"/>
-      <c r="P64" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="65" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="D64" s="31"/>
+      <c r="E64" s="31"/>
+      <c r="F64" s="31"/>
+      <c r="G64" s="31"/>
+      <c r="H64" s="31"/>
+      <c r="I64" s="31"/>
+      <c r="J64" s="31"/>
+      <c r="K64" s="31"/>
+      <c r="L64" s="31"/>
+      <c r="M64" s="31"/>
+      <c r="N64" s="31"/>
+      <c r="O64" s="31" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A65" s="31">
-        <v>1475</v>
+        <v>234</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>157</v>
+        <v>59</v>
       </c>
       <c r="C65" s="31" t="s">
         <v>2</v>
       </c>
       <c r="D65" s="31" t="s">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="E65" s="31" t="s">
         <v>10</v>
       </c>
       <c r="F65" s="31" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="G65" s="31" t="s">
         <v>8</v>
@@ -7354,56 +6784,51 @@
       <c r="J65" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="K65" s="31">
-        <v>60</v>
-      </c>
+      <c r="K65" s="31"/>
       <c r="L65" s="31">
+        <v>2</v>
+      </c>
+      <c r="M65" s="31">
         <v>1</v>
-      </c>
-      <c r="M65" s="31">
-        <v>0</v>
       </c>
       <c r="N65" s="31" t="s">
         <v>54</v>
       </c>
       <c r="O65" s="31"/>
       <c r="P65" s="6" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="66" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A66" s="31">
-        <v>1480</v>
+        <v>237</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>93</v>
+        <v>24</v>
       </c>
       <c r="C66" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D66" s="16" t="s">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="E66" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G66" s="5" t="s">
         <v>8</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="I66" s="8" t="s">
         <v>53</v>
       </c>
       <c r="J66" s="8" t="s">
         <v>53</v>
-      </c>
-      <c r="K66" s="8">
-        <v>5</v>
       </c>
       <c r="L66" s="8">
         <v>2</v>
@@ -7415,136 +6840,71 @@
         <v>53</v>
       </c>
       <c r="P66" s="6" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="67" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A67" s="32">
-        <v>1512</v>
+        <v>239</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>36</v>
+        <v>233</v>
       </c>
       <c r="C67" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="D67" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="E67" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="F67" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="G67" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="H67" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="I67" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="J67" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="K67" s="32">
-        <v>50</v>
-      </c>
-      <c r="L67" s="32">
-        <v>2</v>
-      </c>
-      <c r="M67" s="32">
-        <v>1</v>
-      </c>
-      <c r="N67" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="O67" s="32"/>
-      <c r="P67" s="6" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="68" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A68" s="19">
-        <v>1588</v>
-      </c>
-      <c r="B68" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="C68" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="D68" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="E68" s="19"/>
-      <c r="F68" s="19"/>
-      <c r="G68" s="19"/>
-      <c r="H68" s="19"/>
-      <c r="I68" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="J68" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="K68" s="19"/>
-      <c r="L68" s="19"/>
-      <c r="M68" s="19"/>
-      <c r="N68" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="O68" s="19"/>
-      <c r="P68" s="20" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="69" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+        <v>199</v>
+      </c>
+      <c r="D67" s="32"/>
+      <c r="E67" s="32"/>
+      <c r="F67" s="32"/>
+      <c r="G67" s="32"/>
+      <c r="H67" s="32"/>
+      <c r="I67" s="32"/>
+      <c r="J67" s="32"/>
+      <c r="K67" s="32"/>
+      <c r="L67" s="32"/>
+      <c r="M67" s="32"/>
+      <c r="N67" s="32"/>
+      <c r="O67" s="32" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A68" s="33">
+        <v>240</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="C68" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="D68" s="33"/>
+      <c r="E68" s="33"/>
+      <c r="F68" s="33"/>
+      <c r="G68" s="33"/>
+      <c r="H68" s="33"/>
+      <c r="I68" s="33"/>
+      <c r="J68" s="33"/>
+      <c r="K68" s="33"/>
+      <c r="L68" s="33"/>
+      <c r="M68" s="33"/>
+      <c r="N68" s="33"/>
+      <c r="O68" s="33" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A69" s="31">
-        <v>1662</v>
+        <v>249</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>135</v>
+        <v>235</v>
       </c>
       <c r="C69" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D69" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="E69" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F69" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G69" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H69" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I69" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="J69" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="K69" s="8">
-        <v>30</v>
-      </c>
-      <c r="L69" s="8">
-        <v>1</v>
-      </c>
-      <c r="M69" s="10">
-        <v>0</v>
-      </c>
-      <c r="N69" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="P69" s="6" t="s">
-        <v>136</v>
+      <c r="O69" s="16" t="s">
+        <v>201</v>
       </c>
       <c r="U69" t="s">
         <v>112</v>
@@ -7552,163 +6912,2437 @@
     </row>
     <row r="70" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A70" s="31">
-        <v>1672</v>
+        <v>251</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>126</v>
+        <v>236</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D70" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="E70" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F70" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="G70" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H70" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I70" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="J70" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="K70" s="8">
-        <v>15</v>
-      </c>
-      <c r="L70" s="8">
-        <v>1</v>
-      </c>
-      <c r="M70" s="10">
-        <v>0</v>
-      </c>
-      <c r="N70" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="P70" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="71" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+        <v>184</v>
+      </c>
+      <c r="O70" s="16" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A71" s="31">
-        <v>1674</v>
+        <v>253</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>133</v>
+        <v>237</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D71" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E71" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F71" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G71" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H71" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I71" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="J71" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="K71" s="8">
-        <v>45</v>
-      </c>
-      <c r="L71" s="8">
-        <v>1</v>
-      </c>
-      <c r="M71" s="10">
-        <v>0</v>
-      </c>
-      <c r="N71" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="P71" s="6" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="72" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+        <v>184</v>
+      </c>
+      <c r="O71" s="16" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A72" s="31">
-        <v>1684</v>
+        <v>257</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>128</v>
+        <v>238</v>
       </c>
       <c r="C72" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D72" s="16" t="s">
+      <c r="O72" s="16" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A73" s="31">
+        <v>259</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="O73" s="16" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A74" s="31">
+        <v>261</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="O74" s="16" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A75" s="31">
+        <v>266</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="O75" s="16" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A76" s="31">
+        <v>268</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D76" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G76" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H76" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I76" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="J76" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="K76" s="8">
+        <v>30</v>
+      </c>
+      <c r="L76" s="8">
+        <v>1</v>
+      </c>
+      <c r="M76" s="10">
+        <v>0</v>
+      </c>
+      <c r="N76" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="O76" s="33"/>
+      <c r="P76" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A77" s="31">
+        <v>269</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="O77" s="33" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A78" s="31">
+        <v>270</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="O78" s="16" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A79" s="31">
+        <v>270</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="O79" s="33" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A80" s="31">
+        <v>271</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="O80" s="33" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A81" s="31">
+        <v>274</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="O81" s="33" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A82" s="31">
+        <v>276</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="O82" s="33" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A83" s="31">
+        <v>279</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="O83" s="33" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A84" s="31">
+        <v>280</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="O84" s="33" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A85" s="31">
+        <v>281</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="O85" s="33" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A86" s="31">
+        <v>282</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="O86" s="33" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+      <c r="A87" s="31">
+        <v>283</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D87" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G87" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H87" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I87" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="J87" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="K87" s="8">
+        <v>30</v>
+      </c>
+      <c r="L87" s="8">
+        <v>2</v>
+      </c>
+      <c r="M87" s="10">
+        <v>1</v>
+      </c>
+      <c r="N87" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="O87" s="33"/>
+      <c r="P87" s="6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A88" s="31">
+        <v>284</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="O88" s="33" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A89" s="31">
+        <v>286</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="O89" s="33" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A90" s="31">
+        <v>288</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="O90" s="33" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A91" s="31">
+        <v>289</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="O91" s="33" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A92" s="31">
+        <v>294</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="O92" s="33" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A93" s="31">
+        <v>295</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="O93" s="33" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A94" s="31">
+        <v>297</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="O94" s="33" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A95" s="31">
+        <v>298</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="O95" s="33" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A96" s="31">
+        <v>298</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="O96" s="33" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A97" s="31">
+        <v>302</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="O97" s="33" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A98" s="31">
+        <v>305</v>
+      </c>
+      <c r="B98" s="44" t="s">
+        <v>262</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="O98" s="33" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A99" s="31">
+        <v>308</v>
+      </c>
+      <c r="B99" s="44" t="s">
+        <v>263</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="O99" s="33" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A100" s="31">
+        <v>309</v>
+      </c>
+      <c r="B100" s="44" t="s">
+        <v>264</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="O100" s="33" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A101" s="31">
+        <v>310</v>
+      </c>
+      <c r="B101" s="44" t="s">
+        <v>265</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="O101" s="33" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A102" s="31">
+        <v>312</v>
+      </c>
+      <c r="B102" s="44" t="s">
+        <v>266</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="O102" s="33" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A103" s="31">
+        <v>313</v>
+      </c>
+      <c r="B103" s="44" t="s">
+        <v>267</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="O103" s="33" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A104" s="31">
+        <v>314</v>
+      </c>
+      <c r="B104" s="44" t="s">
+        <v>268</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="O104" s="33" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A105" s="31">
+        <v>315</v>
+      </c>
+      <c r="B105" s="44" t="s">
+        <v>269</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="O105" s="33" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A106" s="31">
+        <v>316</v>
+      </c>
+      <c r="B106" s="44" t="s">
+        <v>270</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="O106" s="33" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A107" s="31">
+        <v>317</v>
+      </c>
+      <c r="B107" s="44" t="s">
+        <v>271</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="O107" s="33" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A108" s="31">
+        <v>318</v>
+      </c>
+      <c r="B108" s="44" t="s">
+        <v>272</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="O108" s="33" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A109" s="31">
+        <v>320</v>
+      </c>
+      <c r="B109" s="44" t="s">
+        <v>273</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="O109" s="33" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A110" s="31">
+        <v>321</v>
+      </c>
+      <c r="B110" s="44" t="s">
+        <v>274</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="O110" s="33" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A111" s="31">
+        <v>323</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="O111" s="33" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A112" s="31">
+        <v>324</v>
+      </c>
+      <c r="B112" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="O112" s="33" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A113" s="31">
+        <v>326</v>
+      </c>
+      <c r="B113" s="44" t="s">
+        <v>277</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="O113" s="33" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A114" s="31">
+        <v>327</v>
+      </c>
+      <c r="B114" s="44" t="s">
+        <v>278</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="O114" s="33" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A115" s="31">
+        <v>329</v>
+      </c>
+      <c r="B115" s="44" t="s">
+        <v>279</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="O115" s="33" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A116" s="31">
+        <v>330</v>
+      </c>
+      <c r="B116" s="44" t="s">
+        <v>280</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="O116" s="33" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A117" s="31">
+        <v>331</v>
+      </c>
+      <c r="B117" s="44" t="s">
+        <v>281</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="O117" s="33" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A118" s="31">
+        <v>332</v>
+      </c>
+      <c r="B118" s="44" t="s">
+        <v>282</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="O118" s="33" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A119" s="31">
+        <v>336</v>
+      </c>
+      <c r="B119" s="44" t="s">
+        <v>283</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="O119" s="33" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A120" s="31">
+        <v>340</v>
+      </c>
+      <c r="B120" s="44" t="s">
+        <v>284</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="O120" s="33" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A121" s="31">
+        <v>341</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="O121" s="33" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A122" s="31">
+        <v>344</v>
+      </c>
+      <c r="B122" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D122" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E122" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F122" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G122" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H122" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="I122" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="J122" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="L122" s="8">
+        <v>2</v>
+      </c>
+      <c r="M122" s="10">
+        <v>1</v>
+      </c>
+      <c r="N122" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="O122" s="33"/>
+      <c r="P122" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A123" s="31">
+        <v>345</v>
+      </c>
+      <c r="B123" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D123" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E123" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F123" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G123" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H123" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="I123" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="J123" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="L123" s="8">
+        <v>2</v>
+      </c>
+      <c r="M123" s="10">
+        <v>1</v>
+      </c>
+      <c r="N123" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="O123" s="33"/>
+      <c r="P123" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A124" s="31">
+        <v>349</v>
+      </c>
+      <c r="B124" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D124" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="E124" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F124" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G124" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H124" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I124" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="J124" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="K124" s="8">
+        <v>20</v>
+      </c>
+      <c r="L124" s="8">
+        <v>1</v>
+      </c>
+      <c r="M124" s="10">
+        <v>0</v>
+      </c>
+      <c r="N124" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="O124" s="33"/>
+      <c r="P124" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A125" s="31">
+        <v>387</v>
+      </c>
+      <c r="B125" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D125" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="E125" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F125" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G125" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H125" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I125" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="J125" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="K125" s="8">
+        <v>30</v>
+      </c>
+      <c r="L125" s="8">
+        <v>1</v>
+      </c>
+      <c r="M125" s="10">
+        <v>1</v>
+      </c>
+      <c r="N125" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="O125" s="33"/>
+      <c r="P125" s="6" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A126" s="31">
+        <v>389</v>
+      </c>
+      <c r="B126" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D126" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="I126" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="J126" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="K126" s="8">
+        <v>30</v>
+      </c>
+      <c r="L126" s="8">
+        <v>1</v>
+      </c>
+      <c r="M126" s="10">
+        <v>0</v>
+      </c>
+      <c r="N126" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="O126" s="33"/>
+      <c r="P126" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A127" s="31">
+        <v>412</v>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D127" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="E127" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F127" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G127" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H127" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I127" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="J127" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="K127" s="8">
+        <v>15</v>
+      </c>
+      <c r="L127" s="8">
+        <v>3</v>
+      </c>
+      <c r="M127" s="10">
+        <v>2</v>
+      </c>
+      <c r="N127" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="O127" s="33"/>
+      <c r="P127" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A128" s="31">
+        <v>448</v>
+      </c>
+      <c r="B128" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D128" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="E128" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F128" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G128" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H128" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I128" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="J128" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="K128" s="8">
+        <v>15</v>
+      </c>
+      <c r="L128" s="8">
+        <v>1</v>
+      </c>
+      <c r="M128" s="10">
+        <v>1</v>
+      </c>
+      <c r="N128" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="O128" s="33"/>
+      <c r="P128" s="6" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A129" s="31">
+        <v>541</v>
+      </c>
+      <c r="B129" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D129" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E129" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F129" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G129" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H129" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I129" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="J129" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="L129" s="8">
+        <v>1</v>
+      </c>
+      <c r="M129" s="10">
+        <v>0</v>
+      </c>
+      <c r="N129" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="O129" s="33"/>
+      <c r="P129" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A130" s="31">
+        <v>557</v>
+      </c>
+      <c r="B130" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D130" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E130" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F130" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G130" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H130" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I130" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="J130" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="L130" s="8">
+        <v>2</v>
+      </c>
+      <c r="M130" s="10">
+        <v>1</v>
+      </c>
+      <c r="N130" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="O130" s="33"/>
+      <c r="P130" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A131" s="31">
+        <v>665</v>
+      </c>
+      <c r="B131" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C131" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D131" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="H131" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I131" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="J131" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="K131" s="8">
+        <v>60</v>
+      </c>
+      <c r="L131" s="8">
+        <v>1</v>
+      </c>
+      <c r="M131" s="10">
+        <v>0</v>
+      </c>
+      <c r="N131" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="O131" s="33"/>
+      <c r="P131" s="6" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A132" s="31">
+        <v>771</v>
+      </c>
+      <c r="B132" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D132" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E132" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F132" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G132" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H132" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I132" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="J132" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="K132" s="8">
+        <v>30</v>
+      </c>
+      <c r="L132" s="8">
+        <v>1</v>
+      </c>
+      <c r="M132" s="10">
+        <v>1</v>
+      </c>
+      <c r="N132" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="O132" s="33"/>
+      <c r="P132" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A133" s="31">
+        <v>832</v>
+      </c>
+      <c r="B133" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D133" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="E133" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F133" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G133" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H133" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I133" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="J133" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="K133" s="8">
+        <v>30</v>
+      </c>
+      <c r="L133" s="8">
+        <v>1</v>
+      </c>
+      <c r="M133" s="10">
+        <v>0</v>
+      </c>
+      <c r="N133" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="O133" s="33"/>
+      <c r="P133" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A134" s="31">
+        <v>977</v>
+      </c>
+      <c r="B134" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D134" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="E134" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F134" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G134" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H134" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I134" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="J134" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="K134" s="8">
+        <v>15</v>
+      </c>
+      <c r="L134" s="8">
+        <v>1</v>
+      </c>
+      <c r="M134" s="10">
+        <v>0</v>
+      </c>
+      <c r="N134" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="O134" s="33"/>
+      <c r="P134" s="6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A135" s="31">
+        <v>1002</v>
+      </c>
+      <c r="B135" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C135" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D135" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I135" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="J135" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="N135" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="O135" s="33"/>
+    </row>
+    <row r="136" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+      <c r="A136" s="31">
+        <v>1089</v>
+      </c>
+      <c r="B136" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D136" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="E136" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F136" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G136" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H136" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I136" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="J136" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="K136" s="8">
+        <v>15</v>
+      </c>
+      <c r="L136" s="8">
+        <v>1</v>
+      </c>
+      <c r="M136" s="10">
+        <v>0</v>
+      </c>
+      <c r="N136" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="O136" s="33"/>
+      <c r="P136" s="6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="137" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A137" s="31">
+        <v>1108</v>
+      </c>
+      <c r="B137" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D137" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E137" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F137" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G137" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H137" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I137" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="J137" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="K137" s="8">
+        <v>10</v>
+      </c>
+      <c r="L137" s="8">
+        <v>1</v>
+      </c>
+      <c r="M137" s="10">
+        <v>0</v>
+      </c>
+      <c r="N137" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="O137" s="33"/>
+      <c r="P137" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A138" s="12">
+        <v>1119</v>
+      </c>
+      <c r="B138" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="C138" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D138" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E138" s="12"/>
+      <c r="F138" s="12"/>
+      <c r="G138" s="12"/>
+      <c r="H138" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I138" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="J138" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="K138" s="12">
+        <v>10</v>
+      </c>
+      <c r="L138" s="12">
+        <v>1</v>
+      </c>
+      <c r="M138" s="12">
+        <v>0</v>
+      </c>
+      <c r="N138" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="O138" s="12"/>
+      <c r="P138" s="13" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A139" s="31">
+        <v>1295</v>
+      </c>
+      <c r="B139" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D139" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="E139" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F139" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G139" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H139" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I139" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="J139" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="K139" s="8">
+        <v>10</v>
+      </c>
+      <c r="L139" s="8">
+        <v>2</v>
+      </c>
+      <c r="M139" s="10">
+        <v>1</v>
+      </c>
+      <c r="N139" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="O139" s="33"/>
+      <c r="P139" s="6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A140" s="31">
+        <v>1299</v>
+      </c>
+      <c r="B140" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D140" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="E140" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F140" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G140" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H140" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I140" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="J140" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="K140" s="8">
+        <v>40</v>
+      </c>
+      <c r="L140" s="8">
+        <v>2</v>
+      </c>
+      <c r="M140" s="10">
+        <v>1</v>
+      </c>
+      <c r="N140" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="O140" s="33"/>
+      <c r="P140" s="6" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="141" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A141" s="31">
+        <v>1304</v>
+      </c>
+      <c r="B141" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="C141" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D141" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="I141" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="J141" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="M141" s="10">
+        <v>0</v>
+      </c>
+      <c r="N141" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="O141" s="33"/>
+      <c r="P141" s="6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="142" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A142" s="31">
+        <v>1313</v>
+      </c>
+      <c r="B142" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C142" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D142" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="E142" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F142" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="G142" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H142" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I142" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="J142" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="K142" s="8">
+        <v>30</v>
+      </c>
+      <c r="L142" s="8">
+        <v>1</v>
+      </c>
+      <c r="M142" s="10">
+        <v>0</v>
+      </c>
+      <c r="N142" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="O142" s="33"/>
+      <c r="P142" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="143" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A143" s="31">
+        <v>1342</v>
+      </c>
+      <c r="B143" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C143" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D143" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E143" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F143" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G143" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H143" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I143" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="J143" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="K143" s="8">
+        <v>30</v>
+      </c>
+      <c r="L143" s="8">
+        <v>1</v>
+      </c>
+      <c r="M143" s="10">
+        <v>0</v>
+      </c>
+      <c r="N143" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="O143" s="33"/>
+      <c r="P143" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="144" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A144" s="31">
+        <v>1365</v>
+      </c>
+      <c r="B144" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D144" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="E144" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F144" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G144" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H144" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I144" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="J144" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="K144" s="8">
+        <v>20</v>
+      </c>
+      <c r="L144" s="8">
+        <v>1</v>
+      </c>
+      <c r="M144" s="10">
+        <v>0</v>
+      </c>
+      <c r="N144" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="O144" s="33"/>
+      <c r="P144" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="145" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A145" s="31">
+        <v>1389</v>
+      </c>
+      <c r="B145" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C145" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D145" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="E145" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F145" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G145" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H145" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I145" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="J145" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="K145" s="8">
+        <v>60</v>
+      </c>
+      <c r="L145" s="8">
+        <v>1</v>
+      </c>
+      <c r="M145" s="10">
+        <v>0</v>
+      </c>
+      <c r="N145" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="O145" s="33"/>
+      <c r="P145" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="146" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+      <c r="A146" s="31">
+        <v>1431</v>
+      </c>
+      <c r="B146" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C146" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D146" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="E146" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F146" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G146" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H146" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I146" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="J146" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="K146" s="8">
+        <v>20</v>
+      </c>
+      <c r="L146" s="8">
+        <v>1</v>
+      </c>
+      <c r="M146" s="10">
+        <v>0</v>
+      </c>
+      <c r="N146" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="O146" s="33"/>
+      <c r="P146" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="147" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A147" s="31">
+        <v>1450</v>
+      </c>
+      <c r="B147" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C147" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D147" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="E147" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F147" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G147" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H147" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I147" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="J147" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="K147" s="8">
+        <v>35</v>
+      </c>
+      <c r="L147" s="8">
+        <v>1</v>
+      </c>
+      <c r="M147" s="10">
+        <v>0</v>
+      </c>
+      <c r="N147" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="O147" s="33"/>
+      <c r="P147" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="148" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A148" s="31">
+        <v>1464</v>
+      </c>
+      <c r="B148" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C148" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D148" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="E148" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F148" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G148" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H148" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I148" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="J148" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="K148" s="8">
+        <v>35</v>
+      </c>
+      <c r="L148" s="8">
+        <v>1</v>
+      </c>
+      <c r="M148" s="10">
+        <v>0</v>
+      </c>
+      <c r="N148" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="O148" s="33"/>
+      <c r="P148" s="6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="149" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A149" s="31">
+        <v>1470</v>
+      </c>
+      <c r="B149" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C149" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D149" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="E149" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F149" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G149" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H149" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I149" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="J149" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="K149" s="8">
+        <v>45</v>
+      </c>
+      <c r="L149" s="8">
+        <v>2</v>
+      </c>
+      <c r="M149" s="10">
+        <v>1</v>
+      </c>
+      <c r="N149" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="O149" s="33"/>
+      <c r="P149" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="150" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A150" s="31">
+        <v>1475</v>
+      </c>
+      <c r="B150" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C150" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D150" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="E150" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F150" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G150" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H150" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I150" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="J150" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="K150" s="8">
+        <v>60</v>
+      </c>
+      <c r="L150" s="8">
+        <v>1</v>
+      </c>
+      <c r="M150" s="10">
+        <v>0</v>
+      </c>
+      <c r="N150" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="O150" s="33"/>
+      <c r="P150" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="151" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A151" s="31">
+        <v>1480</v>
+      </c>
+      <c r="B151" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C151" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D151" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="E151" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F151" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G151" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H151" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I151" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="J151" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="K151" s="8">
+        <v>5</v>
+      </c>
+      <c r="L151" s="8">
+        <v>2</v>
+      </c>
+      <c r="M151" s="10">
+        <v>1</v>
+      </c>
+      <c r="N151" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="O151" s="33"/>
+      <c r="P151" s="6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="152" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A152" s="31">
+        <v>1512</v>
+      </c>
+      <c r="B152" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C152" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D152" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="E152" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F152" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G152" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H152" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I152" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="J152" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="K152" s="8">
+        <v>50</v>
+      </c>
+      <c r="L152" s="8">
+        <v>2</v>
+      </c>
+      <c r="M152" s="10">
+        <v>1</v>
+      </c>
+      <c r="N152" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="O152" s="33"/>
+      <c r="P152" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="153" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A153" s="19">
+        <v>1588</v>
+      </c>
+      <c r="B153" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="C153" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D153" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="E153" s="19"/>
+      <c r="F153" s="19"/>
+      <c r="G153" s="19"/>
+      <c r="H153" s="19"/>
+      <c r="I153" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="J153" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="K153" s="19"/>
+      <c r="L153" s="19"/>
+      <c r="M153" s="19"/>
+      <c r="N153" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="O153" s="19"/>
+      <c r="P153" s="20" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="154" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A154" s="31">
+        <v>1662</v>
+      </c>
+      <c r="B154" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C154" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D154" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="E72" s="5" t="s">
+      <c r="E154" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F72" s="5" t="s">
+      <c r="F154" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G154" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H154" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I154" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="J154" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="K154" s="8">
+        <v>30</v>
+      </c>
+      <c r="L154" s="8">
+        <v>1</v>
+      </c>
+      <c r="M154" s="10">
+        <v>0</v>
+      </c>
+      <c r="N154" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="O154" s="33"/>
+      <c r="P154" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="155" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A155" s="31">
+        <v>1672</v>
+      </c>
+      <c r="B155" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C155" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D155" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="E155" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F155" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="G155" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H155" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I155" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="J155" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="K155" s="8">
+        <v>15</v>
+      </c>
+      <c r="L155" s="8">
+        <v>1</v>
+      </c>
+      <c r="M155" s="10">
+        <v>0</v>
+      </c>
+      <c r="N155" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="O155" s="33"/>
+      <c r="P155" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="156" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A156" s="31">
+        <v>1674</v>
+      </c>
+      <c r="B156" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C156" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D156" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E156" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F156" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G156" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H156" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I156" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="J156" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="K156" s="8">
+        <v>45</v>
+      </c>
+      <c r="L156" s="8">
+        <v>1</v>
+      </c>
+      <c r="M156" s="10">
+        <v>0</v>
+      </c>
+      <c r="N156" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="O156" s="33"/>
+      <c r="P156" s="6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="157" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A157" s="31">
+        <v>1684</v>
+      </c>
+      <c r="B157" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="C157" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D157" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="E157" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F157" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="G72" s="5" t="s">
+      <c r="G157" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H72" s="5" t="s">
+      <c r="H157" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I72" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="J72" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="K72" s="8">
+      <c r="I157" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="J157" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="K157" s="8">
         <v>10</v>
       </c>
-      <c r="L72" s="8">
+      <c r="L157" s="8">
         <v>1</v>
       </c>
-      <c r="M72" s="10">
+      <c r="M157" s="10">
         <v>0</v>
       </c>
-      <c r="N72" s="10" t="s">
+      <c r="N157" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="P72" s="6" t="s">
+      <c r="O157" s="33"/>
+      <c r="P157" s="6" t="s">
         <v>132</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A8:P72" xr:uid="{57DD97F8-0FE5-4F41-AAF2-1F48E42A70CC}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="Array"/>
-        <filter val="Array/Bit Manipulation"/>
-        <filter val="Array/Divide &amp; Conquer/Bit Manipulation"/>
-        <filter val="Array/HashMap"/>
-        <filter val="Array/HashTable"/>
-        <filter val="Array/Math"/>
-        <filter val="Array/String"/>
-        <filter val="Array/Two Pointers"/>
-        <filter val="Math/Array/HashMap"/>
-        <filter val="Two Pointers/Array"/>
-      </filters>
-    </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:P72">
-      <sortCondition ref="A8:A71"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:P157">
+      <sortCondition ref="A8:A72"/>
     </sortState>
   </autoFilter>
   <mergeCells count="2">

--- a/LeetCode Tracker.xlsx
+++ b/LeetCode Tracker.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leon\Desktop\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F56774F0-F9A8-4A86-A952-5F7F0067867D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EEA40CB-79F3-4ECD-85C6-8C518C67384C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12288" yWindow="4032" windowWidth="17280" windowHeight="8964" xr2:uid="{2FA590F6-CEBE-453D-A814-55EB366ADEEE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2FA590F6-CEBE-453D-A814-55EB366ADEEE}"/>
   </bookViews>
   <sheets>
     <sheet name="LeetCode" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LeetCode!$A$8:$P$72</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LeetCode!$A$8:$P$158</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="946" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="291">
   <si>
     <t>LeetCode Problems</t>
   </si>
@@ -170,9 +170,6 @@
     <t>Short code as well but need to understand foundation concept.</t>
   </si>
   <si>
-    <t>Even though code is short, need to understand solution.</t>
-  </si>
-  <si>
     <t>Merge Sorted Arrays</t>
   </si>
   <si>
@@ -189,9 +186,6 @@
   </si>
   <si>
     <t>Linked List Cycle</t>
-  </si>
-  <si>
-    <t>***This is technically using two pointers to detect where each will be. This is hard because cannot think of cycle where two pointers will meet. Most probably would need to rethink or train self to count/understand how the cycle would work.</t>
   </si>
   <si>
     <t>Tried</t>
@@ -257,98 +251,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>: XOR (^) is the solution and checking each number using bits/binary. For example, {1, 2, 1} means 1^ 2 ^ 1, will result in 2 because 1^ 1 = 0 and 0^2 will end up with 2. In binary form, 1^0 =0^1, in other words, becoming the number that is not the same. However, 0^0 = 1^1=2^2, which eventually will result in 0.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>***Need to practice again. This question teaches a lot of things. Need to revisit it again next week to understand how it works.
-1. When working on palindrome, we no need to reverse all the elements/everything, we just need to</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> reverse half of it and compare</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.
-2. This also includes </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>two pointers (Fast/Slow)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, such as the method in </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>141. LinkedList Cycle</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. Also, including how to use an additional to class method.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>UPDATE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: Finally able to work on solution, but there is an optimal solution left to master! Optimal solution is using one pointer instead of two pointer. Also, optimal solution will count the length of linked list first and then divide by two to get first and second half of linked list to compare.</t>
     </r>
   </si>
   <si>
@@ -2456,10 +2358,6 @@
     <t>Array/Bit Manipulation</t>
   </si>
   <si>
-    <t>***Still haven't able to understand the solution, but starting to see the picture in separating integers into digits. Basically, taking the remainder, and multiply by 10 to get back results. 
-For example, 121. When reversed using remainder after multiple by 10, it will become 1*10 = 10 and 121/10 will become 12. This method is to remove and reduced left half of integer and append/increased right half of integer after reversing. If still confused : https://www.youtube.com/watch?v=IKY7BTa4aq8</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -2606,9 +2504,6 @@
     </r>
   </si>
   <si>
-    <t>***This is a very good question. At least, the solution has been understood, however, do not underestimate and keep practicing and try it again, try to understand it better so it becomes a habit to solve it.</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">***This is not easy, new method to count elements in array. Better to go over and understand the optimal solution. Own code is too long and confusing, already forgot how it works, mathematically.
 </t>
@@ -3211,33 +3106,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>Question 27. Remove Element</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">****Almost got it. The concept is there but was not able to grasp the array index. Even came up with solutions from leetcode but only missed a line of code or two. Definitely need more practice! Similar to </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Question 26. Remove Duplicates from Sorted Array
-UPDATE: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Still did not get it, probably worst than last time I tried. Should just try again next week, understand the solution, instead of trying to redo right away.</t>
     </r>
   </si>
   <si>
@@ -4216,6 +4084,413 @@
   </si>
   <si>
     <t>Flatten Nested List Iterator</t>
+  </si>
+  <si>
+    <t>Reverse Integer</t>
+  </si>
+  <si>
+    <t>Apple, Bloomberg</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">****This question tests Java understanding. Do not use </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">long </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to solve this question, but just while loops. Also, try to understand libraries such as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Integer.MAX</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Integer.MIN </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(returns the max and min value that can be stored in 32-bit integer). Use comparison (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>two pointers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) to compare the digits.
+https://www.youtube.com/watch?v=tm1Yrb_SfBM</t>
+    </r>
+  </si>
+  <si>
+    <t>0(n)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">***Still haven't able to understand the solution, but starting to see the picture in separating integers into digits. Basically, taking the remainder, and multiply by 10 to get back results. 
+For example, 121. When reversed using remainder after multiple by 10, it will become 1*10 = 10 and 121/10 will become 12. This method is to remove and reduced left half of integer and append/increased right half of integer after reversing. If still confused : https://www.youtube.com/watch?v=IKY7BTa4aq8
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>UPDATE (2 months):</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Able to solved it with method from </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Question 7. Reverse Integer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. The solution is exactly the same, just a little twist with base case. Need to remember how it works.</t>
+    </r>
+  </si>
+  <si>
+    <t>Math/BitManipulation</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Even though code is short, need to understand solution.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">UPDATE (2 months): </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Really need to undertand how to do it instead of 'memorizing' the solution. Like what is the logic behind, and how it works behind the scene. Needs more practice in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">two pointers.
+Hint: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Need 3 variables to work this out (prev, head and next_node)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>***Need to practice again. This question teaches a lot of things. Need to revisit it again next week to understand how it works.
+1. When working on palindrome, we no need to reverse all the elements/everything, we just need to</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> reverse half of it and compare</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.
+2. This also includes </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>two pointers (Fast/Slow)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, such as the method in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>141. LinkedList Cycle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Also, including how to use an additional to class method.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>UPDATE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Finally able to work on solution, but there is an optimal solution left to master! Optimal solution is using one pointer instead of two pointer. Also, optimal solution will count the length of linked list first and then divide by two to get first and second half of linked list to compare.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">UPDATE (2 months): </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Able to grasp the concept, but not able to code it out. Need to work on DS &amp; Algo concept again!! Need more practice!</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">****Almost got it. The concept is there but was not able to grasp the array index. Even came up with solutions from leetcode but only missed a line of code or two. Definitely need more practice! Similar to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Question 26. Remove Duplicates from Sorted Array
+UPDATE: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Still did not get it, probably worst than last time I tried. Should just try again next week, understand the solution, instead of trying to redo right away.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">UPDATE(2 days): </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Able to solve it, should try again next week</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">***This is technically using two pointers to detect where each will be. This is hard because cannot think of cycle where two pointers will meet. Most probably would need to rethink or train self to count/understand how the cycle would work.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">UPDATE (2 months): </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Theoratically already know the concept for this question. Not able to code because thought we need to connect the last node to the front (there is no need for that). Good question to ask the interviewer if we need to connect the last nodes to determine if the LinkedList are connected.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">***This is a very good question. At least, the solution has been understood, however, do not underestimate and keep practicing and try it again, try to understand it better so it becomes a habit to solve it. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>UPDATE: Understood theory and able to implement concept on whiteboarding, but still not able to code it out. Need to work on LinkedList fundamentals.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -4356,7 +4631,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4451,6 +4726,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4481,7 +4760,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4858,13 +5136,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CECAF50C-0FA8-4FE8-AF1F-0197AD9DA707}">
-  <dimension ref="A1:U157"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:U158"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="18" ySplit="8" topLeftCell="S9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="18" ySplit="8" topLeftCell="S31" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="P1" sqref="P1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomRight" activeCell="M66" sqref="M66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4892,72 +5171,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="42" t="s">
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="43"/>
+      <c r="R1" s="45"/>
       <c r="S1" s="11"/>
       <c r="T1" s="9"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="37"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="39"/>
       <c r="Q2" s="28" t="s">
         <v>17</v>
       </c>
       <c r="R2" s="27" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A3" s="36"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="37"/>
+      <c r="A3" s="38"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="39"/>
       <c r="Q3" s="28" t="s">
         <v>18</v>
       </c>
@@ -4966,46 +5245,46 @@
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A4" s="36"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="37"/>
+      <c r="A4" s="38"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="39"/>
       <c r="Q4" s="4" t="s">
         <v>19</v>
       </c>
       <c r="R4" s="27" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5" s="38"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="38"/>
-      <c r="O5" s="38"/>
-      <c r="P5" s="39"/>
+      <c r="A5" s="40"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="40"/>
+      <c r="L5" s="40"/>
+      <c r="M5" s="40"/>
+      <c r="N5" s="40"/>
+      <c r="O5" s="40"/>
+      <c r="P5" s="41"/>
       <c r="Q5" s="28" t="s">
         <v>27</v>
       </c>
@@ -5014,22 +5293,22 @@
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6" s="38"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
-      <c r="N6" s="38"/>
-      <c r="O6" s="38"/>
-      <c r="P6" s="39"/>
+      <c r="A6" s="40"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="40"/>
+      <c r="P6" s="41"/>
       <c r="Q6" s="28" t="s">
         <v>29</v>
       </c>
@@ -5038,27 +5317,27 @@
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A7" s="40"/>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="41"/>
+      <c r="A7" s="42"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42"/>
+      <c r="O7" s="42"/>
+      <c r="P7" s="43"/>
       <c r="Q7" s="28" t="s">
         <v>31</v>
       </c>
       <c r="R7" s="27" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
@@ -5087,42 +5366,42 @@
         <v>37</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="M8" s="2" t="s">
         <v>32</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="P8" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="72" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="31">
         <v>1</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>10</v>
@@ -5137,10 +5416,10 @@
         <v>33</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K9" s="8">
         <v>45</v>
@@ -5152,93 +5431,128 @@
         <v>1</v>
       </c>
       <c r="N9" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="P9" s="6" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="31">
         <v>4</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="O10" s="16" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="31">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>61</v>
+        <v>280</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="E11" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="K11" s="8">
+        <v>30</v>
+      </c>
+      <c r="L11" s="8">
+        <v>1</v>
+      </c>
+      <c r="M11" s="10">
+        <v>0</v>
+      </c>
+      <c r="N11" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="O11" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="P11" s="6" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="31">
+        <v>9</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="J11" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="N11" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="P11" s="6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="31">
+      <c r="F12" s="31" t="s">
+        <v>283</v>
+      </c>
+      <c r="G12" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="I12" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="J12" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="K12" s="31">
+        <v>15</v>
+      </c>
+      <c r="L12" s="31">
+        <v>1</v>
+      </c>
+      <c r="M12" s="31">
+        <v>1</v>
+      </c>
+      <c r="N12" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="O12" s="31"/>
+      <c r="P12" s="6" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="124.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="33">
         <v>10</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="C12" s="31" t="s">
-        <v>199</v>
-      </c>
-      <c r="D12" s="31" t="s">
-        <v>203</v>
-      </c>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="31"/>
-      <c r="O12" s="31" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" ht="124.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="33">
-        <v>17</v>
-      </c>
       <c r="B13" s="7" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>184</v>
-      </c>
-      <c r="D13" s="33"/>
+        <v>193</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>197</v>
+      </c>
       <c r="E13" s="33"/>
       <c r="F13" s="33"/>
       <c r="G13" s="33"/>
@@ -5250,71 +5564,35 @@
       <c r="M13" s="33"/>
       <c r="N13" s="33"/>
       <c r="O13" s="33" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" ht="86.4" x14ac:dyDescent="0.3">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="31">
+        <v>17</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="O14" s="16" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="31">
         <v>20</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="K14" s="8">
-        <v>40</v>
-      </c>
-      <c r="L14" s="8">
-        <v>1</v>
-      </c>
-      <c r="M14" s="10">
-        <v>0</v>
-      </c>
-      <c r="N14" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="O14" s="16" t="s">
-        <v>201</v>
-      </c>
-      <c r="P14" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A15" s="31">
-        <v>21</v>
-      </c>
       <c r="B15" s="7" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>25</v>
+        <v>83</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>10</v>
@@ -5323,16 +5601,19 @@
         <v>7</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
+      </c>
+      <c r="K15" s="8">
+        <v>40</v>
       </c>
       <c r="L15" s="8">
         <v>1</v>
@@ -5341,158 +5622,172 @@
         <v>0</v>
       </c>
       <c r="N15" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
+      </c>
+      <c r="O15" s="16" t="s">
+        <v>195</v>
       </c>
       <c r="P15" s="6" t="s">
-        <v>175</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="70.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="31">
+        <v>21</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="H16" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I16" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="J16" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26">
+        <v>1</v>
+      </c>
+      <c r="M16" s="26">
+        <v>0</v>
+      </c>
+      <c r="N16" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="O16" s="26"/>
+      <c r="P16" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="31">
         <v>22</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="C16" s="26" t="s">
-        <v>184</v>
-      </c>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="26"/>
-      <c r="N16" s="26"/>
-      <c r="O16" s="26" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A17" s="31">
+      <c r="B17" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="O17" s="16" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="34">
         <v>23</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="O17" s="16" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="24">
+      <c r="B18" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="C18" s="34" t="s">
+        <v>193</v>
+      </c>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="34"/>
+      <c r="N18" s="34"/>
+      <c r="O18" s="34" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="24">
         <v>26</v>
       </c>
-      <c r="B18" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="C18" s="24" t="s">
+      <c r="B19" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="E18" s="24" t="s">
+      <c r="D19" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="24" t="s">
+      <c r="F19" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="G18" s="24" t="s">
+      <c r="G19" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="H18" s="24" t="s">
+      <c r="H19" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="I18" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="J18" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="K18" s="24">
+      <c r="I19" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="J19" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="K19" s="24">
         <v>45</v>
       </c>
-      <c r="L18" s="24">
+      <c r="L19" s="24">
         <v>2</v>
       </c>
-      <c r="M18" s="24">
+      <c r="M19" s="24">
         <v>1</v>
       </c>
-      <c r="N18" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="O18" s="24"/>
-      <c r="P18" s="30" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="31">
+      <c r="N19" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="O19" s="24"/>
+      <c r="P19" s="30" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="31">
         <v>27</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D19" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I19" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="J19" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="K19" s="8">
-        <v>60</v>
-      </c>
-      <c r="L19" s="8">
-        <v>1</v>
-      </c>
-      <c r="M19" s="10">
-        <v>0</v>
-      </c>
-      <c r="N19" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="P19" s="6" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A20" s="31">
-        <v>28</v>
-      </c>
       <c r="B20" s="7" t="s">
-        <v>91</v>
+        <v>158</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>92</v>
+        <v>65</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K20" s="8">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="L20" s="8">
         <v>1</v>
@@ -5501,63 +5796,84 @@
         <v>0</v>
       </c>
       <c r="N20" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="P20" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="31">
+        <v>28</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="K21" s="8">
+        <v>45</v>
+      </c>
+      <c r="L21" s="8">
+        <v>1</v>
+      </c>
+      <c r="M21" s="10">
+        <v>0</v>
+      </c>
+      <c r="N21" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="P21" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="31">
         <v>31</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="O21" s="16" t="s">
+      <c r="B22" s="7" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A22" s="31">
+      <c r="C22" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="O22" s="16" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="31">
         <v>42</v>
       </c>
-      <c r="B22" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="O22" s="16" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A23" s="31">
+      <c r="B23" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="O23" s="16" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="31">
         <v>44</v>
       </c>
-      <c r="B23" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="O23" s="16" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A24" s="31">
-        <v>50</v>
-      </c>
       <c r="B24" s="7" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="D24" s="26"/>
       <c r="E24" s="26"/>
@@ -5571,32 +5887,32 @@
       <c r="M24" s="26"/>
       <c r="N24" s="26"/>
       <c r="O24" s="26" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="31">
+        <v>50</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="O25" s="16" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="31">
         <v>54</v>
       </c>
-      <c r="B25" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="O25" s="16" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A26" s="31">
-        <v>56</v>
-      </c>
       <c r="B26" s="7" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="C26" s="31" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c r="D26" s="31"/>
       <c r="E26" s="31"/>
@@ -5610,18 +5926,18 @@
       <c r="M26" s="31"/>
       <c r="N26" s="31"/>
       <c r="O26" s="31" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="33">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="C27" s="33" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="D27" s="33"/>
       <c r="E27" s="33"/>
@@ -5635,124 +5951,91 @@
       <c r="M27" s="33"/>
       <c r="N27" s="33"/>
       <c r="O27" s="33" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="31">
+        <v>57</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="O28" s="16" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="31">
         <v>66</v>
       </c>
-      <c r="B28" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="C28" s="5" t="s">
+      <c r="B29" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C29" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D28" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="E28" s="5" t="s">
+      <c r="D29" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="E29" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="F29" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G28" s="5" t="s">
+      <c r="G29" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H28" s="5" t="s">
+      <c r="H29" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I28" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="J28" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="K28" s="8">
+      <c r="I29" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="J29" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="K29" s="8">
         <v>30</v>
       </c>
-      <c r="L28" s="8">
+      <c r="L29" s="8">
         <v>2</v>
       </c>
-      <c r="M28" s="10">
+      <c r="M29" s="10">
         <v>1</v>
       </c>
-      <c r="N28" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="P28" s="6" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="31">
+      <c r="N29" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="P29" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="31">
         <v>80</v>
       </c>
-      <c r="B29" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="D29" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="I29" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="J29" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="K29" s="8">
+      <c r="B30" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="J30" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="K30" s="8">
         <v>60</v>
-      </c>
-      <c r="L29" s="8">
-        <v>1</v>
-      </c>
-      <c r="M29" s="10">
-        <v>0</v>
-      </c>
-      <c r="N29" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="P29" s="6" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A30" s="31">
-        <v>83</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D30" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I30" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="J30" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="K30" s="8">
-        <v>35</v>
       </c>
       <c r="L30" s="8">
         <v>1</v>
@@ -5761,30 +6044,30 @@
         <v>0</v>
       </c>
       <c r="N30" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P30" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" ht="72" x14ac:dyDescent="0.3">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" s="31">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="G31" s="5" t="s">
         <v>8</v>
@@ -5793,87 +6076,86 @@
         <v>33</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J31" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
+      </c>
+      <c r="K31" s="8">
+        <v>35</v>
       </c>
       <c r="L31" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M31" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N31" s="10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="P31" s="6" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" s="27" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" s="27" customFormat="1" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="31">
-        <v>118</v>
+        <v>88</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>123</v>
+        <v>44</v>
       </c>
       <c r="C32" s="26" t="s">
         <v>2</v>
       </c>
       <c r="D32" s="26" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="E32" s="26" t="s">
         <v>10</v>
       </c>
       <c r="F32" s="26" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="G32" s="26" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="H32" s="26" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I32" s="26" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J32" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="K32" s="26">
-        <v>60</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="K32" s="26"/>
       <c r="L32" s="26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M32" s="26">
         <v>1</v>
       </c>
       <c r="N32" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="O32" s="26" t="s">
-        <v>124</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="O32" s="26"/>
       <c r="P32" s="6" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="S32" s="28"/>
     </row>
-    <row r="33" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="31">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>10</v>
@@ -5888,13 +6170,13 @@
         <v>18</v>
       </c>
       <c r="I33" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J33" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K33" s="8">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="L33" s="8">
         <v>1</v>
@@ -5903,429 +6185,475 @@
         <v>1</v>
       </c>
       <c r="N33" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
+      </c>
+      <c r="O33" s="16" t="s">
+        <v>121</v>
       </c>
       <c r="P33" s="6" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" ht="86.4" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" s="31">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>48</v>
+        <v>122</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J34" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
+      </c>
+      <c r="K34" s="8">
+        <v>15</v>
       </c>
       <c r="L34" s="8">
         <v>1</v>
       </c>
       <c r="M34" s="10">
+        <v>1</v>
+      </c>
+      <c r="N34" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="P34" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="31">
+        <v>125</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I35" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="J35" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="L35" s="8">
+        <v>1</v>
+      </c>
+      <c r="M35" s="10">
         <v>0</v>
       </c>
-      <c r="N34" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="P34" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A35" s="31">
+      <c r="N35" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="P35" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="31">
         <v>128</v>
       </c>
-      <c r="B35" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="O35" s="16" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A36" s="31">
+      <c r="B36" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="O36" s="16" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="31">
         <v>133</v>
       </c>
-      <c r="B36" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="O36" s="16" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="31">
+      <c r="B37" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="O37" s="16" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="31">
         <v>136</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B38" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C38" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D37" s="16" t="s">
+      <c r="D38" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="E37" s="5" t="s">
+      <c r="E38" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F37" s="5" t="s">
+      <c r="F38" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G37" s="5" t="s">
+      <c r="G38" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H37" s="5" t="s">
+      <c r="H38" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I37" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="J37" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="L37" s="8">
+      <c r="I38" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="J38" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="L38" s="8">
         <v>1</v>
       </c>
-      <c r="M37" s="10">
+      <c r="M38" s="10">
         <v>0</v>
       </c>
-      <c r="N37" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="P37" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A38" s="31">
+      <c r="N38" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="P38" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="31">
         <v>139</v>
       </c>
-      <c r="B38" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="O38" s="16" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A39" s="31">
+      <c r="B39" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="O39" s="16" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="31">
         <v>140</v>
       </c>
-      <c r="B39" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="O39" s="16" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A40" s="31">
+      <c r="B40" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="C40" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="D40" s="26"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="26"/>
+      <c r="I40" s="26"/>
+      <c r="J40" s="26"/>
+      <c r="K40" s="26"/>
+      <c r="L40" s="26"/>
+      <c r="M40" s="26"/>
+      <c r="N40" s="26"/>
+      <c r="O40" s="26" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" s="14" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+      <c r="A41" s="31">
         <v>141</v>
       </c>
-      <c r="B40" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C40" s="26" t="s">
+      <c r="B41" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C41" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D40" s="26" t="s">
+      <c r="D41" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="E40" s="26" t="s">
+      <c r="E41" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="F40" s="26" t="s">
+      <c r="F41" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="G40" s="26" t="s">
+      <c r="G41" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="H40" s="26" t="s">
+      <c r="H41" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="I40" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="J40" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="K40" s="26"/>
-      <c r="L40" s="26">
+      <c r="I41" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="J41" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="K41" s="26"/>
+      <c r="L41" s="26">
         <v>1</v>
       </c>
-      <c r="M40" s="26">
+      <c r="M41" s="26">
         <v>0</v>
       </c>
-      <c r="N40" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="O40" s="26"/>
-      <c r="P40" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="31">
-        <v>146</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="C41" s="26" t="s">
-        <v>199</v>
-      </c>
-      <c r="D41" s="26"/>
-      <c r="E41" s="26"/>
-      <c r="F41" s="26"/>
-      <c r="G41" s="26"/>
-      <c r="H41" s="26"/>
-      <c r="I41" s="26"/>
-      <c r="J41" s="26"/>
-      <c r="K41" s="26"/>
-      <c r="L41" s="26"/>
-      <c r="M41" s="26"/>
-      <c r="N41" s="26"/>
-      <c r="O41" s="26" t="s">
-        <v>201</v>
-      </c>
-      <c r="P41" s="6"/>
+      <c r="N41" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="O41" s="26"/>
+      <c r="P41" s="6" t="s">
+        <v>289</v>
+      </c>
       <c r="Q41" s="27"/>
       <c r="R41" s="29" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="S41" s="15"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="31">
+        <v>146</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="O42" s="16" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="31">
         <v>155</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B43" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D43" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="I43" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="J43" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="L43" s="8">
+        <v>1</v>
+      </c>
+      <c r="M43" s="10">
+        <v>0</v>
+      </c>
+      <c r="N43" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="P43" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="C42" s="5" t="s">
+    </row>
+    <row r="44" spans="1:19" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="31">
+        <v>158</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="O44" s="16" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="31">
+        <v>159</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="C45" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="D45" s="26"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="26"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="26"/>
+      <c r="I45" s="26"/>
+      <c r="J45" s="26"/>
+      <c r="K45" s="26"/>
+      <c r="L45" s="26"/>
+      <c r="M45" s="26"/>
+      <c r="N45" s="26"/>
+      <c r="O45" s="26" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A46" s="31">
+        <v>160</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C46" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D42" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="I42" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="J42" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="L42" s="8">
+      <c r="D46" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="E46" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="F46" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="G46" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="H46" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I46" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="J46" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="K46" s="26"/>
+      <c r="L46" s="26">
         <v>1</v>
       </c>
-      <c r="M42" s="10">
+      <c r="M46" s="26">
         <v>0</v>
       </c>
-      <c r="N42" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="P42" s="25" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A43" s="31">
-        <v>158</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="O43" s="16" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A44" s="31">
-        <v>159</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="O44" s="16" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A45" s="31">
-        <v>160</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C45" s="26" t="s">
+      <c r="N46" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="O46" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="P46" s="6" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="34">
+        <v>162</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="C47" s="34" t="s">
+        <v>179</v>
+      </c>
+      <c r="D47" s="34"/>
+      <c r="E47" s="34"/>
+      <c r="F47" s="34"/>
+      <c r="G47" s="34"/>
+      <c r="H47" s="34"/>
+      <c r="I47" s="34"/>
+      <c r="J47" s="34"/>
+      <c r="K47" s="34"/>
+      <c r="L47" s="34"/>
+      <c r="M47" s="34"/>
+      <c r="N47" s="34"/>
+      <c r="O47" s="34" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="12">
+        <v>163</v>
+      </c>
+      <c r="B48" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="C48" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D45" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="E45" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="F45" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="G45" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="H45" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="I45" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="J45" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="K45" s="26"/>
-      <c r="L45" s="26">
+      <c r="D48" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="J48" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="K48" s="12">
+        <v>45</v>
+      </c>
+      <c r="L48" s="12">
         <v>1</v>
       </c>
-      <c r="M45" s="26">
+      <c r="M48" s="12">
         <v>0</v>
       </c>
-      <c r="N45" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="O45" s="26" t="s">
-        <v>111</v>
-      </c>
-      <c r="P45" s="6" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A46" s="31">
-        <v>162</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="C46" s="26" t="s">
-        <v>184</v>
-      </c>
-      <c r="D46" s="26"/>
-      <c r="E46" s="26"/>
-      <c r="F46" s="26"/>
-      <c r="G46" s="26"/>
-      <c r="H46" s="26"/>
-      <c r="I46" s="26"/>
-      <c r="J46" s="26"/>
-      <c r="K46" s="26"/>
-      <c r="L46" s="26"/>
-      <c r="M46" s="26"/>
-      <c r="N46" s="26"/>
-      <c r="O46" s="26" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A47" s="12">
+      <c r="N48" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="O48" s="12"/>
+      <c r="P48" s="13" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="31">
         <v>163</v>
       </c>
-      <c r="B47" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="C47" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D47" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="E47" s="12"/>
-      <c r="F47" s="12"/>
-      <c r="G47" s="12"/>
-      <c r="H47" s="12"/>
-      <c r="I47" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="J47" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="K47" s="12">
-        <v>45</v>
-      </c>
-      <c r="L47" s="12">
-        <v>1</v>
-      </c>
-      <c r="M47" s="12">
-        <v>0</v>
-      </c>
-      <c r="N47" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="O47" s="12"/>
-      <c r="P47" s="13" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A48" s="31">
-        <v>163</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="O48" s="16" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A49" s="31">
-        <v>166</v>
-      </c>
       <c r="B49" s="7" t="s">
-        <v>229</v>
+        <v>101</v>
       </c>
       <c r="C49" s="31" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D49" s="31"/>
       <c r="E49" s="31"/>
@@ -6339,69 +6667,46 @@
       <c r="M49" s="31"/>
       <c r="N49" s="31"/>
       <c r="O49" s="31" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="31">
+        <v>166</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="C50" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="D50" s="31"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="31"/>
+      <c r="G50" s="31"/>
+      <c r="H50" s="31"/>
+      <c r="I50" s="31"/>
+      <c r="J50" s="31"/>
+      <c r="K50" s="31"/>
+      <c r="L50" s="31"/>
+      <c r="M50" s="31"/>
+      <c r="N50" s="31"/>
+      <c r="O50" s="31" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="31">
         <v>167</v>
       </c>
-      <c r="B50" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="C50" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="D50" s="31" t="s">
-        <v>179</v>
-      </c>
-      <c r="E50" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="F50" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="G50" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="H50" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="I50" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="J50" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="K50" s="31">
-        <v>20</v>
-      </c>
-      <c r="L50" s="31">
-        <v>1</v>
-      </c>
-      <c r="M50" s="31">
-        <v>0</v>
-      </c>
-      <c r="N50" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="O50" s="31"/>
-      <c r="P50" s="6" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A51" s="31">
-        <v>169</v>
-      </c>
       <c r="B51" s="7" t="s">
-        <v>71</v>
+        <v>173</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D51" s="16" t="s">
-        <v>72</v>
+        <v>174</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>10</v>
@@ -6410,64 +6715,88 @@
         <v>7</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I51" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J51" s="8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="K51" s="8">
-        <v>40</v>
+        <v>20</v>
+      </c>
+      <c r="L51" s="8">
+        <v>1</v>
       </c>
       <c r="M51" s="10">
         <v>0</v>
       </c>
       <c r="N51" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="P51" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="32">
+        <v>169</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C52" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="D52" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="E52" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="F52" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="G52" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="H52" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="I52" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="J52" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="K52" s="32">
+        <v>40</v>
+      </c>
+      <c r="L52" s="32"/>
+      <c r="M52" s="32">
+        <v>0</v>
+      </c>
+      <c r="N52" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="O52" s="32"/>
+      <c r="P52" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="33">
         <v>173</v>
       </c>
-      <c r="B52" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="C52" s="32" t="s">
-        <v>184</v>
-      </c>
-      <c r="D52" s="32"/>
-      <c r="E52" s="32"/>
-      <c r="F52" s="32"/>
-      <c r="G52" s="32"/>
-      <c r="H52" s="32"/>
-      <c r="I52" s="32"/>
-      <c r="J52" s="32"/>
-      <c r="K52" s="32"/>
-      <c r="L52" s="32"/>
-      <c r="M52" s="32"/>
-      <c r="N52" s="32"/>
-      <c r="O52" s="32" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A53" s="33">
-        <v>200</v>
-      </c>
       <c r="B53" s="7" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="C53" s="33" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D53" s="33"/>
       <c r="E53" s="33"/>
@@ -6481,50 +6810,29 @@
       <c r="M53" s="33"/>
       <c r="N53" s="33"/>
       <c r="O53" s="33" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="54" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="31">
+        <v>200</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="O54" s="16" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" s="14" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A55" s="31">
         <v>203</v>
       </c>
-      <c r="B54" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D54" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="I54" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="J54" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="K54" s="8">
-        <v>40</v>
-      </c>
-      <c r="L54" s="8">
-        <v>1</v>
-      </c>
-      <c r="M54" s="10">
-        <v>0</v>
-      </c>
-      <c r="N54" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="P54" s="6" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="55" spans="1:19" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="31">
-        <v>206</v>
-      </c>
       <c r="B55" s="7" t="s">
-        <v>34</v>
+        <v>177</v>
       </c>
       <c r="C55" s="26" t="s">
         <v>2</v>
@@ -6532,79 +6840,103 @@
       <c r="D55" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="E55" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="F55" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="G55" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="H55" s="26" t="s">
-        <v>33</v>
-      </c>
+      <c r="E55" s="26"/>
+      <c r="F55" s="26"/>
+      <c r="G55" s="26"/>
+      <c r="H55" s="26"/>
       <c r="I55" s="26" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J55" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="K55" s="26"/>
+        <v>52</v>
+      </c>
+      <c r="K55" s="26">
+        <v>40</v>
+      </c>
       <c r="L55" s="26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M55" s="26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N55" s="26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O55" s="26"/>
       <c r="P55" s="6" t="s">
-        <v>44</v>
+        <v>178</v>
       </c>
       <c r="Q55" s="27"/>
       <c r="R55" s="27"/>
       <c r="S55" s="15"/>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:19" ht="72" x14ac:dyDescent="0.3">
       <c r="A56" s="31">
+        <v>206</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D56" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H56" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I56" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="J56" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="L56" s="8">
+        <v>3</v>
+      </c>
+      <c r="M56" s="10">
+        <v>2</v>
+      </c>
+      <c r="N56" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="P56" s="6" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="31">
         <v>208</v>
       </c>
-      <c r="B56" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="O56" s="16" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A57" s="31">
+      <c r="B57" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="O57" s="16" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" s="21" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="31">
         <v>212</v>
       </c>
-      <c r="B57" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="O57" s="16" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="58" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="31">
-        <v>214</v>
-      </c>
       <c r="B58" s="7" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="C58" s="26" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="D58" s="26"/>
       <c r="E58" s="26"/>
@@ -6618,125 +6950,125 @@
       <c r="M58" s="26"/>
       <c r="N58" s="26"/>
       <c r="O58" s="26" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="P58" s="6"/>
       <c r="Q58" s="27"/>
       <c r="R58" s="27"/>
       <c r="S58" s="22"/>
     </row>
-    <row r="59" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="31">
+        <v>214</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="O59" s="16" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="31">
         <v>217</v>
       </c>
-      <c r="B59" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C59" s="5" t="s">
+      <c r="B60" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C60" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D59" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="E59" s="5" t="s">
+      <c r="D60" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="E60" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F59" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G59" s="5" t="s">
+      <c r="F60" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G60" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H59" s="5" t="s">
+      <c r="H60" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="I59" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="J59" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="K59" s="8">
+      <c r="I60" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="J60" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="K60" s="8">
         <v>30</v>
       </c>
-      <c r="L59" s="8">
+      <c r="L60" s="8">
         <v>1</v>
       </c>
-      <c r="M59" s="10">
+      <c r="M60" s="10">
         <v>0</v>
       </c>
-      <c r="N59" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="P59" s="6" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A60" s="31">
+      <c r="N60" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="P60" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="31">
         <v>218</v>
       </c>
-      <c r="B60" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="O60" s="16" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A61" s="31">
+      <c r="B61" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="O61" s="16" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="31">
         <v>224</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="B62" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="O62" s="16" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="31">
         <v>228</v>
       </c>
-      <c r="C61" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="O61" s="16" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A62" s="31">
-        <v>228</v>
-      </c>
-      <c r="B62" s="7" t="s">
+      <c r="B63" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="O63" s="16" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="31">
         <v>230</v>
       </c>
-      <c r="C62" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="O62" s="16" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A63" s="31">
-        <v>230</v>
-      </c>
-      <c r="B63" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="O63" s="16" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A64" s="31">
-        <v>231</v>
-      </c>
       <c r="B64" s="7" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="C64" s="31" t="s">
-        <v>2</v>
+        <v>179</v>
       </c>
       <c r="D64" s="31"/>
       <c r="E64" s="31"/>
@@ -6750,61 +7082,42 @@
       <c r="M64" s="31"/>
       <c r="N64" s="31"/>
       <c r="O64" s="31" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="65" spans="1:21" ht="86.4" x14ac:dyDescent="0.3">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="31">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>59</v>
+        <v>226</v>
       </c>
       <c r="C65" s="31" t="s">
         <v>2</v>
       </c>
       <c r="D65" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="E65" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="F65" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="G65" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="H65" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="I65" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="J65" s="31" t="s">
-        <v>53</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="E65" s="31"/>
+      <c r="F65" s="31"/>
+      <c r="G65" s="31"/>
+      <c r="H65" s="31"/>
+      <c r="I65" s="31"/>
+      <c r="J65" s="31"/>
       <c r="K65" s="31"/>
-      <c r="L65" s="31">
-        <v>2</v>
-      </c>
-      <c r="M65" s="31">
-        <v>1</v>
-      </c>
-      <c r="N65" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="O65" s="31"/>
-      <c r="P65" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="L65" s="31"/>
+      <c r="M65" s="31"/>
+      <c r="N65" s="31"/>
+      <c r="O65" s="31" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A66" s="31">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="C66" s="5" t="s">
         <v>2</v>
@@ -6816,67 +7129,88 @@
         <v>10</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G66" s="5" t="s">
         <v>8</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I66" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J66" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L66" s="8">
+        <v>3</v>
+      </c>
+      <c r="M66" s="10">
         <v>2</v>
       </c>
-      <c r="M66" s="10">
-        <v>1</v>
-      </c>
       <c r="N66" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P66" s="6" t="s">
-        <v>43</v>
+        <v>287</v>
       </c>
     </row>
     <row r="67" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A67" s="32">
+        <v>237</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C67" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="D67" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="E67" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="F67" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="G67" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="H67" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="I67" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="J67" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="K67" s="32"/>
+      <c r="L67" s="32">
+        <v>2</v>
+      </c>
+      <c r="M67" s="32">
+        <v>1</v>
+      </c>
+      <c r="N67" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="O67" s="32"/>
+      <c r="P67" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="33">
         <v>239</v>
       </c>
-      <c r="B67" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="C67" s="32" t="s">
-        <v>199</v>
-      </c>
-      <c r="D67" s="32"/>
-      <c r="E67" s="32"/>
-      <c r="F67" s="32"/>
-      <c r="G67" s="32"/>
-      <c r="H67" s="32"/>
-      <c r="I67" s="32"/>
-      <c r="J67" s="32"/>
-      <c r="K67" s="32"/>
-      <c r="L67" s="32"/>
-      <c r="M67" s="32"/>
-      <c r="N67" s="32"/>
-      <c r="O67" s="32" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A68" s="33">
-        <v>240</v>
-      </c>
       <c r="B68" s="7" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="C68" s="33" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="D68" s="33"/>
       <c r="E68" s="33"/>
@@ -6890,873 +7224,845 @@
       <c r="M68" s="33"/>
       <c r="N68" s="33"/>
       <c r="O68" s="33" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="31">
+        <v>240</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="O69" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="U69" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="31">
         <v>249</v>
       </c>
-      <c r="B69" s="7" t="s">
+      <c r="B70" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="O70" s="16" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="31">
+        <v>251</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="O71" s="16" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="31">
+        <v>253</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="O72" s="16" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="31">
+        <v>257</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="O73" s="16" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="31">
+        <v>259</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="O74" s="16" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="31">
+        <v>261</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="O75" s="16" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="31">
+        <v>266</v>
+      </c>
+      <c r="B76" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="O69" s="16" t="s">
-        <v>201</v>
-      </c>
-      <c r="U69" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A70" s="31">
-        <v>251</v>
-      </c>
-      <c r="B70" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="O70" s="16" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A71" s="31">
-        <v>253</v>
-      </c>
-      <c r="B71" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="O71" s="16" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A72" s="31">
-        <v>257</v>
-      </c>
-      <c r="B72" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="O72" s="16" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A73" s="31">
-        <v>259</v>
-      </c>
-      <c r="B73" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="O73" s="16" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A74" s="31">
-        <v>261</v>
-      </c>
-      <c r="B74" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="O74" s="16" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A75" s="31">
-        <v>266</v>
-      </c>
-      <c r="B75" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="O75" s="16" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="76" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A76" s="31">
-        <v>268</v>
-      </c>
-      <c r="B76" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="C76" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D76" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="E76" s="5" t="s">
+      <c r="O76" s="33" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="31">
+        <v>268</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D77" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="E77" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F76" s="5" t="s">
+      <c r="F77" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G76" s="5" t="s">
+      <c r="G77" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H76" s="5" t="s">
+      <c r="H77" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I76" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="J76" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="K76" s="8">
+      <c r="I77" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="J77" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="K77" s="8">
         <v>30</v>
       </c>
-      <c r="L76" s="8">
+      <c r="L77" s="8">
         <v>1</v>
       </c>
-      <c r="M76" s="10">
+      <c r="M77" s="10">
         <v>0</v>
       </c>
-      <c r="N76" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="O76" s="33"/>
-      <c r="P76" s="6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A77" s="31">
+      <c r="N77" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="O77" s="33"/>
+      <c r="P77" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="31">
         <v>269</v>
       </c>
-      <c r="B77" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="O77" s="33" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A78" s="31">
-        <v>270</v>
-      </c>
       <c r="B78" s="7" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>2</v>
+        <v>193</v>
       </c>
       <c r="O78" s="16" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.3">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="31">
         <v>270</v>
       </c>
       <c r="B79" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="O79" s="33" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="31">
+        <v>270</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="O80" s="33" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="31">
+        <v>271</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="O81" s="33" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="31">
+        <v>274</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="O82" s="33" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="31">
+        <v>276</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="O83" s="33" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="31">
+        <v>279</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="O84" s="33" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="31">
+        <v>280</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="O85" s="33" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="31">
+        <v>281</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="O86" s="33" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="31">
+        <v>282</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="O87" s="33" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" ht="72" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="31">
+        <v>283</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D88" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F88" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G88" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H88" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I88" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="J88" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="K88" s="8">
+        <v>30</v>
+      </c>
+      <c r="L88" s="8">
+        <v>2</v>
+      </c>
+      <c r="M88" s="10">
+        <v>1</v>
+      </c>
+      <c r="N88" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="O88" s="33"/>
+      <c r="P88" s="6" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="31">
+        <v>284</v>
+      </c>
+      <c r="B89" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="C79" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="O79" s="33" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A80" s="31">
-        <v>271</v>
-      </c>
-      <c r="B80" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="C80" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="O80" s="33" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A81" s="31">
-        <v>274</v>
-      </c>
-      <c r="B81" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="C81" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="O81" s="33" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A82" s="31">
-        <v>276</v>
-      </c>
-      <c r="B82" s="7" t="s">
+      <c r="C89" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="O89" s="33" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="31">
+        <v>286</v>
+      </c>
+      <c r="B90" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="C82" s="5" t="s">
+      <c r="C90" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="O90" s="33" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="31">
+        <v>288</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="C91" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="O82" s="33" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A83" s="31">
-        <v>279</v>
-      </c>
-      <c r="B83" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="C83" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="O83" s="33" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A84" s="31">
-        <v>280</v>
-      </c>
-      <c r="B84" s="7" t="s">
+      <c r="O91" s="33" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="31">
+        <v>289</v>
+      </c>
+      <c r="B92" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="C84" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="O84" s="33" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A85" s="31">
-        <v>281</v>
-      </c>
-      <c r="B85" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="O85" s="33" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A86" s="31">
-        <v>282</v>
-      </c>
-      <c r="B86" s="7" t="s">
+      <c r="C92" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="O92" s="33" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="31">
+        <v>294</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="O93" s="33" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="31">
+        <v>295</v>
+      </c>
+      <c r="B94" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="C86" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="O86" s="33" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="87" spans="1:16" ht="72" x14ac:dyDescent="0.3">
-      <c r="A87" s="31">
-        <v>283</v>
-      </c>
-      <c r="B87" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C87" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D87" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="E87" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F87" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G87" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H87" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I87" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="J87" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="K87" s="8">
-        <v>30</v>
-      </c>
-      <c r="L87" s="8">
-        <v>2</v>
-      </c>
-      <c r="M87" s="10">
-        <v>1</v>
-      </c>
-      <c r="N87" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="O87" s="33"/>
-      <c r="P87" s="6" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A88" s="31">
-        <v>284</v>
-      </c>
-      <c r="B88" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="C88" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="O88" s="33" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A89" s="31">
-        <v>286</v>
-      </c>
-      <c r="B89" s="7" t="s">
+      <c r="C94" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="O94" s="33" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="31">
+        <v>297</v>
+      </c>
+      <c r="B95" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="C89" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="O89" s="33" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A90" s="31">
-        <v>288</v>
-      </c>
-      <c r="B90" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="C90" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="O90" s="33" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A91" s="31">
-        <v>289</v>
-      </c>
-      <c r="B91" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="C91" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="O91" s="33" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A92" s="31">
-        <v>294</v>
-      </c>
-      <c r="B92" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="C92" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="O92" s="33" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A93" s="31">
-        <v>295</v>
-      </c>
-      <c r="B93" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="C93" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="O93" s="33" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A94" s="31">
-        <v>297</v>
-      </c>
-      <c r="B94" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="C94" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="O94" s="33" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A95" s="31">
-        <v>298</v>
-      </c>
-      <c r="B95" s="7" t="s">
-        <v>256</v>
-      </c>
       <c r="C95" s="5" t="s">
-        <v>2</v>
+        <v>193</v>
       </c>
       <c r="O95" s="33" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="96" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="31">
         <v>298</v>
       </c>
       <c r="B96" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="O96" s="33" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="31">
+        <v>298</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="O97" s="33" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="31">
+        <v>302</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="O98" s="33" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="31">
+        <v>305</v>
+      </c>
+      <c r="B99" s="35" t="s">
+        <v>256</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="O99" s="33" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="31">
+        <v>308</v>
+      </c>
+      <c r="B100" s="35" t="s">
+        <v>257</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="O100" s="33" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="31">
+        <v>309</v>
+      </c>
+      <c r="B101" s="35" t="s">
+        <v>258</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="O101" s="33" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="31">
+        <v>310</v>
+      </c>
+      <c r="B102" s="35" t="s">
+        <v>259</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="O102" s="33" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="31">
+        <v>312</v>
+      </c>
+      <c r="B103" s="35" t="s">
         <v>260</v>
       </c>
-      <c r="C96" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="O96" s="33" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="97" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A97" s="31">
-        <v>302</v>
-      </c>
-      <c r="B97" s="7" t="s">
+      <c r="C103" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="O103" s="33" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="31">
+        <v>313</v>
+      </c>
+      <c r="B104" s="35" t="s">
         <v>261</v>
       </c>
-      <c r="C97" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="O97" s="33" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A98" s="31">
-        <v>305</v>
-      </c>
-      <c r="B98" s="44" t="s">
+      <c r="C104" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="O104" s="33" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="31">
+        <v>314</v>
+      </c>
+      <c r="B105" s="35" t="s">
         <v>262</v>
       </c>
-      <c r="C98" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="O98" s="33" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A99" s="31">
-        <v>308</v>
-      </c>
-      <c r="B99" s="44" t="s">
+      <c r="C105" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="O105" s="33" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="31">
+        <v>315</v>
+      </c>
+      <c r="B106" s="35" t="s">
         <v>263</v>
       </c>
-      <c r="C99" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="O99" s="33" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A100" s="31">
-        <v>309</v>
-      </c>
-      <c r="B100" s="44" t="s">
+      <c r="C106" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="O106" s="33" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="31">
+        <v>316</v>
+      </c>
+      <c r="B107" s="35" t="s">
         <v>264</v>
       </c>
-      <c r="C100" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="O100" s="33" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A101" s="31">
-        <v>310</v>
-      </c>
-      <c r="B101" s="44" t="s">
+      <c r="C107" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="O107" s="33" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="31">
+        <v>317</v>
+      </c>
+      <c r="B108" s="35" t="s">
         <v>265</v>
       </c>
-      <c r="C101" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="O101" s="33" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A102" s="31">
-        <v>312</v>
-      </c>
-      <c r="B102" s="44" t="s">
+      <c r="C108" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="O108" s="33" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="31">
+        <v>318</v>
+      </c>
+      <c r="B109" s="35" t="s">
         <v>266</v>
       </c>
-      <c r="C102" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="O102" s="33" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A103" s="31">
-        <v>313</v>
-      </c>
-      <c r="B103" s="44" t="s">
+      <c r="C109" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="O109" s="33" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="31">
+        <v>320</v>
+      </c>
+      <c r="B110" s="35" t="s">
         <v>267</v>
       </c>
-      <c r="C103" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="O103" s="33" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A104" s="31">
-        <v>314</v>
-      </c>
-      <c r="B104" s="44" t="s">
+      <c r="C110" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="O110" s="33" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="31">
+        <v>321</v>
+      </c>
+      <c r="B111" s="35" t="s">
         <v>268</v>
       </c>
-      <c r="C104" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="O104" s="33" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A105" s="31">
-        <v>315</v>
-      </c>
-      <c r="B105" s="44" t="s">
+      <c r="C111" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="O111" s="33" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="31">
+        <v>323</v>
+      </c>
+      <c r="B112" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="C105" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="O105" s="33" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A106" s="31">
-        <v>316</v>
-      </c>
-      <c r="B106" s="44" t="s">
+      <c r="C112" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="O112" s="33" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="31">
+        <v>324</v>
+      </c>
+      <c r="B113" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="C106" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="O106" s="33" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A107" s="31">
-        <v>317</v>
-      </c>
-      <c r="B107" s="44" t="s">
+      <c r="C113" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="O113" s="33" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="31">
+        <v>326</v>
+      </c>
+      <c r="B114" s="35" t="s">
         <v>271</v>
       </c>
-      <c r="C107" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="O107" s="33" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A108" s="31">
-        <v>318</v>
-      </c>
-      <c r="B108" s="44" t="s">
+      <c r="C114" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D114" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="O114" s="33" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="31">
+        <v>327</v>
+      </c>
+      <c r="B115" s="35" t="s">
         <v>272</v>
       </c>
-      <c r="C108" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="O108" s="33" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A109" s="31">
-        <v>320</v>
-      </c>
-      <c r="B109" s="44" t="s">
+      <c r="C115" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="O115" s="33" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="31">
+        <v>329</v>
+      </c>
+      <c r="B116" s="35" t="s">
         <v>273</v>
       </c>
-      <c r="C109" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="O109" s="33" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A110" s="31">
-        <v>321</v>
-      </c>
-      <c r="B110" s="44" t="s">
+      <c r="C116" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="O116" s="33" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="31">
+        <v>330</v>
+      </c>
+      <c r="B117" s="35" t="s">
         <v>274</v>
       </c>
-      <c r="C110" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="O110" s="33" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="111" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A111" s="31">
-        <v>323</v>
-      </c>
-      <c r="B111" s="7" t="s">
+      <c r="C117" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="O117" s="33" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="31">
+        <v>331</v>
+      </c>
+      <c r="B118" s="35" t="s">
         <v>275</v>
       </c>
-      <c r="C111" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="O111" s="33" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A112" s="31">
-        <v>324</v>
-      </c>
-      <c r="B112" s="7" t="s">
+      <c r="C118" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="O118" s="33" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="31">
+        <v>332</v>
+      </c>
+      <c r="B119" s="35" t="s">
         <v>276</v>
       </c>
-      <c r="C112" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="O112" s="33" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A113" s="31">
-        <v>326</v>
-      </c>
-      <c r="B113" s="44" t="s">
+      <c r="C119" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="O119" s="33" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="31">
+        <v>336</v>
+      </c>
+      <c r="B120" s="35" t="s">
         <v>277</v>
       </c>
-      <c r="C113" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="O113" s="33" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A114" s="31">
-        <v>327</v>
-      </c>
-      <c r="B114" s="44" t="s">
+      <c r="C120" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="O120" s="33" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="31">
+        <v>340</v>
+      </c>
+      <c r="B121" s="35" t="s">
         <v>278</v>
       </c>
-      <c r="C114" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="O114" s="33" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A115" s="31">
-        <v>329</v>
-      </c>
-      <c r="B115" s="44" t="s">
+      <c r="C121" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="O121" s="33" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="31">
+        <v>341</v>
+      </c>
+      <c r="B122" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="C115" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="O115" s="33" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A116" s="31">
-        <v>330</v>
-      </c>
-      <c r="B116" s="44" t="s">
-        <v>280</v>
-      </c>
-      <c r="C116" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="O116" s="33" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A117" s="31">
-        <v>331</v>
-      </c>
-      <c r="B117" s="44" t="s">
-        <v>281</v>
-      </c>
-      <c r="C117" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="O117" s="33" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A118" s="31">
-        <v>332</v>
-      </c>
-      <c r="B118" s="44" t="s">
-        <v>282</v>
-      </c>
-      <c r="C118" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="O118" s="33" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A119" s="31">
-        <v>336</v>
-      </c>
-      <c r="B119" s="44" t="s">
-        <v>283</v>
-      </c>
-      <c r="C119" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="O119" s="33" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A120" s="31">
-        <v>340</v>
-      </c>
-      <c r="B120" s="44" t="s">
-        <v>284</v>
-      </c>
-      <c r="C120" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="O120" s="33" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A121" s="31">
-        <v>341</v>
-      </c>
-      <c r="B121" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="C121" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="O121" s="33" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A122" s="31">
+      <c r="C122" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="O122" s="33" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="31">
         <v>344</v>
       </c>
-      <c r="B122" s="7" t="s">
+      <c r="B123" s="7" t="s">
         <v>6</v>
-      </c>
-      <c r="C122" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D122" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E122" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F122" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G122" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H122" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="I122" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="J122" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="L122" s="8">
-        <v>2</v>
-      </c>
-      <c r="M122" s="10">
-        <v>1</v>
-      </c>
-      <c r="N122" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="O122" s="33"/>
-      <c r="P122" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A123" s="31">
-        <v>345</v>
-      </c>
-      <c r="B123" s="7" t="s">
-        <v>16</v>
       </c>
       <c r="C123" s="5" t="s">
         <v>2</v>
@@ -7771,16 +8077,16 @@
         <v>7</v>
       </c>
       <c r="G123" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H123" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I123" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J123" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L123" s="8">
         <v>2</v>
@@ -7789,79 +8095,76 @@
         <v>1</v>
       </c>
       <c r="N123" s="10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="O123" s="33"/>
       <c r="P123" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" s="31">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>167</v>
+        <v>16</v>
       </c>
       <c r="C124" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D124" s="16" t="s">
-        <v>165</v>
+        <v>13</v>
       </c>
       <c r="E124" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>81</v>
+        <v>7</v>
       </c>
       <c r="G124" s="5" t="s">
         <v>7</v>
       </c>
       <c r="H124" s="5" t="s">
-        <v>18</v>
+        <v>87</v>
       </c>
       <c r="I124" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J124" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="K124" s="8">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="L124" s="8">
+        <v>2</v>
+      </c>
+      <c r="M124" s="10">
         <v>1</v>
       </c>
-      <c r="M124" s="10">
-        <v>0</v>
-      </c>
       <c r="N124" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="O124" s="33"/>
       <c r="P124" s="6" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="125" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" s="31">
-        <v>387</v>
+        <v>349</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>107</v>
+        <v>164</v>
       </c>
       <c r="C125" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D125" s="16" t="s">
-        <v>193</v>
+        <v>162</v>
       </c>
       <c r="E125" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="G125" s="5" t="s">
         <v>7</v>
@@ -7870,46 +8173,58 @@
         <v>18</v>
       </c>
       <c r="I125" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J125" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K125" s="8">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="L125" s="8">
         <v>1</v>
       </c>
       <c r="M125" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N125" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="O125" s="33"/>
       <c r="P125" s="6" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" s="31">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="C126" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D126" s="16" t="s">
-        <v>38</v>
+        <v>187</v>
+      </c>
+      <c r="E126" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F126" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G126" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H126" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="I126" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J126" s="8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="K126" s="8">
         <v>30</v>
@@ -7918,76 +8233,64 @@
         <v>1</v>
       </c>
       <c r="M126" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N126" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="O126" s="33"/>
       <c r="P126" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.3">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" s="31">
-        <v>412</v>
+        <v>389</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>76</v>
+        <v>115</v>
       </c>
       <c r="C127" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D127" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="E127" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F127" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G127" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H127" s="5" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="I127" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J127" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K127" s="8">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="L127" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M127" s="10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N127" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O127" s="33"/>
       <c r="P127" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="128" spans="1:16" ht="115.2" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" s="31">
-        <v>448</v>
+        <v>412</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C128" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D128" s="16" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E128" s="5" t="s">
         <v>10</v>
@@ -7996,46 +8299,46 @@
         <v>7</v>
       </c>
       <c r="G128" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H128" s="5" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I128" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J128" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K128" s="8">
         <v>15</v>
       </c>
       <c r="L128" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M128" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N128" s="10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="O128" s="33"/>
       <c r="P128" s="6" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" s="31">
-        <v>541</v>
+        <v>448</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="C129" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D129" s="16" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="E129" s="5" t="s">
         <v>10</v>
@@ -8050,31 +8353,34 @@
         <v>18</v>
       </c>
       <c r="I129" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J129" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
+      </c>
+      <c r="K129" s="8">
+        <v>15</v>
       </c>
       <c r="L129" s="8">
         <v>1</v>
       </c>
       <c r="M129" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N129" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="O129" s="33"/>
       <c r="P129" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" s="31">
-        <v>557</v>
+        <v>541</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C130" s="5" t="s">
         <v>2</v>
@@ -8086,151 +8392,148 @@
         <v>10</v>
       </c>
       <c r="F130" s="5" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="G130" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H130" s="5" t="s">
         <v>18</v>
       </c>
       <c r="I130" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J130" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L130" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M130" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N130" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="O130" s="33"/>
       <c r="P130" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="131" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" s="31">
-        <v>665</v>
+        <v>557</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>160</v>
+        <v>21</v>
       </c>
       <c r="C131" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D131" s="16" t="s">
-        <v>77</v>
+        <v>13</v>
+      </c>
+      <c r="E131" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F131" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G131" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="H131" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I131" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J131" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="K131" s="8">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="L131" s="8">
+        <v>2</v>
+      </c>
+      <c r="M131" s="10">
         <v>1</v>
       </c>
-      <c r="M131" s="10">
-        <v>0</v>
-      </c>
       <c r="N131" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="O131" s="33"/>
       <c r="P131" s="6" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="132" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" s="31">
-        <v>771</v>
+        <v>665</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>113</v>
+        <v>157</v>
       </c>
       <c r="C132" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D132" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E132" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F132" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G132" s="5" t="s">
-        <v>7</v>
+        <v>74</v>
       </c>
       <c r="H132" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I132" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J132" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K132" s="8">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="L132" s="8">
         <v>1</v>
       </c>
       <c r="M132" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N132" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="O132" s="33"/>
       <c r="P132" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.3">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" s="31">
-        <v>832</v>
+        <v>771</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="C133" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D133" s="16" t="s">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="E133" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F133" s="5" t="s">
-        <v>122</v>
+        <v>7</v>
       </c>
       <c r="G133" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H133" s="5" t="s">
         <v>18</v>
       </c>
       <c r="I133" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J133" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K133" s="8">
         <v>30</v>
@@ -8239,34 +8542,34 @@
         <v>1</v>
       </c>
       <c r="M133" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N133" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="O133" s="33"/>
       <c r="P133" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" s="31">
-        <v>977</v>
+        <v>832</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>164</v>
+        <v>117</v>
       </c>
       <c r="C134" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D134" s="16" t="s">
-        <v>162</v>
+        <v>74</v>
       </c>
       <c r="E134" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F134" s="5" t="s">
-        <v>81</v>
+        <v>119</v>
       </c>
       <c r="G134" s="5" t="s">
         <v>8</v>
@@ -8275,13 +8578,13 @@
         <v>18</v>
       </c>
       <c r="I134" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J134" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K134" s="8">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="L134" s="8">
         <v>1</v>
@@ -8290,103 +8593,103 @@
         <v>0</v>
       </c>
       <c r="N134" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="O134" s="33"/>
       <c r="P134" s="6" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" s="31">
-        <v>1002</v>
+        <v>977</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>115</v>
+        <v>161</v>
       </c>
       <c r="C135" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D135" s="16" t="s">
-        <v>13</v>
+        <v>159</v>
+      </c>
+      <c r="E135" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F135" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G135" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H135" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="I135" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J135" s="8" t="s">
-        <v>54</v>
+        <v>51</v>
+      </c>
+      <c r="K135" s="8">
+        <v>15</v>
+      </c>
+      <c r="L135" s="8">
+        <v>1</v>
+      </c>
+      <c r="M135" s="10">
+        <v>0</v>
       </c>
       <c r="N135" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="O135" s="33"/>
-    </row>
-    <row r="136" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+      <c r="P135" s="6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" s="31">
-        <v>1089</v>
+        <v>1002</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>191</v>
+        <v>112</v>
       </c>
       <c r="C136" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D136" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="E136" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F136" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G136" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H136" s="5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I136" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J136" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="K136" s="8">
-        <v>15</v>
-      </c>
-      <c r="L136" s="8">
-        <v>1</v>
-      </c>
-      <c r="M136" s="10">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="N136" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="O136" s="33"/>
-      <c r="P136" s="6" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="137" spans="1:16" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" s="31">
-        <v>1108</v>
+        <v>1089</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>137</v>
+        <v>185</v>
       </c>
       <c r="C137" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D137" s="16" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="E137" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F137" s="5" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="G137" s="5" t="s">
         <v>7</v>
@@ -8395,13 +8698,13 @@
         <v>18</v>
       </c>
       <c r="I137" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J137" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K137" s="8">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L137" s="8">
         <v>1</v>
@@ -8410,115 +8713,115 @@
         <v>0</v>
       </c>
       <c r="N137" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="O137" s="33"/>
       <c r="P137" s="6" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A138" s="12">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="34">
+        <v>1108</v>
+      </c>
+      <c r="B138" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C138" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="D138" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="E138" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="F138" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="G138" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="H138" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="I138" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="J138" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="K138" s="34">
+        <v>10</v>
+      </c>
+      <c r="L138" s="34">
+        <v>1</v>
+      </c>
+      <c r="M138" s="34">
+        <v>0</v>
+      </c>
+      <c r="N138" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="O138" s="34"/>
+      <c r="P138" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="12">
         <v>1119</v>
       </c>
-      <c r="B138" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="C138" s="12" t="s">
+      <c r="B139" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="C139" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D138" s="12" t="s">
+      <c r="D139" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E138" s="12"/>
-      <c r="F138" s="12"/>
-      <c r="G138" s="12"/>
-      <c r="H138" s="12" t="s">
+      <c r="E139" s="12"/>
+      <c r="F139" s="12"/>
+      <c r="G139" s="12"/>
+      <c r="H139" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="I138" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="J138" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="K138" s="12">
+      <c r="I139" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="J139" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="K139" s="12">
         <v>10</v>
       </c>
-      <c r="L138" s="12">
+      <c r="L139" s="12">
         <v>1</v>
       </c>
-      <c r="M138" s="12">
+      <c r="M139" s="12">
         <v>0</v>
       </c>
-      <c r="N138" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="O138" s="12"/>
-      <c r="P138" s="13" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="139" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A139" s="31">
+      <c r="N139" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="O139" s="12"/>
+      <c r="P139" s="13" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="31">
         <v>1295</v>
       </c>
-      <c r="B139" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="C139" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D139" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="E139" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F139" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G139" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H139" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I139" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="J139" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="K139" s="8">
-        <v>10</v>
-      </c>
-      <c r="L139" s="8">
-        <v>2</v>
-      </c>
-      <c r="M139" s="10">
-        <v>1</v>
-      </c>
-      <c r="N139" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="O139" s="33"/>
-      <c r="P139" s="6" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="140" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A140" s="31">
-        <v>1299</v>
-      </c>
       <c r="B140" s="7" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="C140" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D140" s="16" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E140" s="5" t="s">
         <v>10</v>
@@ -8530,16 +8833,16 @@
         <v>8</v>
       </c>
       <c r="H140" s="5" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I140" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J140" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K140" s="8">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="L140" s="8">
         <v>2</v>
@@ -8548,121 +8851,121 @@
         <v>1</v>
       </c>
       <c r="N140" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="O140" s="33"/>
       <c r="P140" s="6" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="141" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="141" spans="1:16" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" s="31">
-        <v>1304</v>
+        <v>1299</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C141" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D141" s="16" t="s">
-        <v>77</v>
+        <v>74</v>
+      </c>
+      <c r="E141" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F141" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G141" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H141" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="I141" s="8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J141" s="8" t="s">
-        <v>54</v>
+        <v>51</v>
+      </c>
+      <c r="K141" s="8">
+        <v>40</v>
+      </c>
+      <c r="L141" s="8">
+        <v>2</v>
       </c>
       <c r="M141" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N141" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="O141" s="33"/>
       <c r="P141" s="6" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="142" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="142" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" s="31">
-        <v>1313</v>
+        <v>1304</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="C142" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D142" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="E142" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F142" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="G142" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H142" s="5" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="I142" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J142" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="K142" s="8">
-        <v>30</v>
-      </c>
-      <c r="L142" s="8">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="M142" s="10">
         <v>0</v>
       </c>
       <c r="N142" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="O142" s="33"/>
       <c r="P142" s="6" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="143" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="143" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" s="31">
-        <v>1342</v>
+        <v>1313</v>
       </c>
       <c r="B143" s="7" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
       <c r="C143" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D143" s="16" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="E143" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F143" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="G143" s="5" t="s">
         <v>7</v>
-      </c>
-      <c r="G143" s="5" t="s">
-        <v>8</v>
       </c>
       <c r="H143" s="5" t="s">
         <v>18</v>
       </c>
       <c r="I143" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J143" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K143" s="8">
         <v>30</v>
@@ -8674,46 +8977,46 @@
         <v>0</v>
       </c>
       <c r="N143" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="O143" s="33"/>
       <c r="P143" s="6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="144" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="144" spans="1:16" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" s="31">
-        <v>1365</v>
+        <v>1342</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="C144" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D144" s="16" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="E144" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F144" s="5" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="G144" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H144" s="5" t="s">
         <v>18</v>
       </c>
       <c r="I144" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J144" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K144" s="8">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="L144" s="8">
         <v>1</v>
@@ -8722,25 +9025,25 @@
         <v>0</v>
       </c>
       <c r="N144" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="O144" s="33"/>
       <c r="P144" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="145" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="145" spans="1:16" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" s="31">
-        <v>1389</v>
+        <v>1365</v>
       </c>
       <c r="B145" s="7" t="s">
-        <v>144</v>
+        <v>96</v>
       </c>
       <c r="C145" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D145" s="16" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E145" s="5" t="s">
         <v>10</v>
@@ -8755,13 +9058,13 @@
         <v>18</v>
       </c>
       <c r="I145" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J145" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K145" s="8">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="L145" s="8">
         <v>1</v>
@@ -8770,31 +9073,31 @@
         <v>0</v>
       </c>
       <c r="N145" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="O145" s="33"/>
       <c r="P145" s="6" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="146" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="146" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" s="31">
-        <v>1431</v>
+        <v>1389</v>
       </c>
       <c r="B146" s="7" t="s">
-        <v>95</v>
+        <v>141</v>
       </c>
       <c r="C146" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D146" s="16" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E146" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F146" s="5" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="G146" s="5" t="s">
         <v>7</v>
@@ -8803,13 +9106,13 @@
         <v>18</v>
       </c>
       <c r="I146" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J146" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K146" s="8">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="L146" s="8">
         <v>1</v>
@@ -8818,25 +9121,25 @@
         <v>0</v>
       </c>
       <c r="N146" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="O146" s="33"/>
       <c r="P146" s="6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="147" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="147" spans="1:16" ht="72" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" s="31">
-        <v>1450</v>
+        <v>1431</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>151</v>
+        <v>92</v>
       </c>
       <c r="C147" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D147" s="16" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E147" s="5" t="s">
         <v>10</v>
@@ -8845,19 +9148,19 @@
         <v>7</v>
       </c>
       <c r="G147" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H147" s="5" t="s">
         <v>18</v>
       </c>
       <c r="I147" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J147" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K147" s="8">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="L147" s="8">
         <v>1</v>
@@ -8866,25 +9169,25 @@
         <v>0</v>
       </c>
       <c r="N147" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="O147" s="33"/>
       <c r="P147" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="148" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="148" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" s="31">
-        <v>1464</v>
+        <v>1450</v>
       </c>
       <c r="B148" s="7" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C148" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D148" s="16" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E148" s="5" t="s">
         <v>10</v>
@@ -8899,10 +9202,10 @@
         <v>18</v>
       </c>
       <c r="I148" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J148" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K148" s="8">
         <v>35</v>
@@ -8914,25 +9217,25 @@
         <v>0</v>
       </c>
       <c r="N148" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="O148" s="33"/>
       <c r="P148" s="6" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="149" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="149" spans="1:16" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" s="31">
-        <v>1470</v>
+        <v>1464</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>94</v>
+        <v>150</v>
       </c>
       <c r="C149" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D149" s="16" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E149" s="5" t="s">
         <v>10</v>
@@ -8941,142 +9244,142 @@
         <v>7</v>
       </c>
       <c r="G149" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H149" s="5" t="s">
         <v>18</v>
       </c>
       <c r="I149" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J149" s="8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="K149" s="8">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="L149" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M149" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N149" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="O149" s="33"/>
       <c r="P149" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="150" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="150" spans="1:16" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" s="31">
-        <v>1475</v>
+        <v>1470</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>157</v>
+        <v>91</v>
       </c>
       <c r="C150" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D150" s="16" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E150" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F150" s="5" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="G150" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H150" s="5" t="s">
         <v>18</v>
       </c>
       <c r="I150" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J150" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K150" s="8">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="L150" s="8">
+        <v>2</v>
+      </c>
+      <c r="M150" s="10">
         <v>1</v>
       </c>
-      <c r="M150" s="10">
-        <v>0</v>
-      </c>
       <c r="N150" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="O150" s="33"/>
       <c r="P150" s="6" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="151" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="151" spans="1:16" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" s="31">
-        <v>1480</v>
+        <v>1475</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>93</v>
+        <v>154</v>
       </c>
       <c r="C151" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D151" s="16" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E151" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F151" s="5" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="G151" s="5" t="s">
         <v>8</v>
       </c>
       <c r="H151" s="5" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I151" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J151" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K151" s="8">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="L151" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M151" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N151" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O151" s="33"/>
       <c r="P151" s="6" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="152" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="152" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" s="31">
-        <v>1512</v>
+        <v>1480</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="C152" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D152" s="16" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E152" s="5" t="s">
         <v>10</v>
@@ -9085,19 +9388,19 @@
         <v>7</v>
       </c>
       <c r="G152" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H152" s="5" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="I152" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J152" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K152" s="8">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="L152" s="8">
         <v>2</v>
@@ -9106,113 +9409,113 @@
         <v>1</v>
       </c>
       <c r="N152" s="10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="O152" s="33"/>
       <c r="P152" s="6" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="153" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A153" s="19">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="153" spans="1:16" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="34">
+        <v>1512</v>
+      </c>
+      <c r="B153" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C153" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="D153" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="E153" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="F153" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="G153" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="H153" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="I153" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="J153" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="K153" s="34">
+        <v>50</v>
+      </c>
+      <c r="L153" s="34">
+        <v>2</v>
+      </c>
+      <c r="M153" s="34">
+        <v>1</v>
+      </c>
+      <c r="N153" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="O153" s="34"/>
+      <c r="P153" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="154" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="19">
         <v>1588</v>
       </c>
-      <c r="B153" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="C153" s="19" t="s">
+      <c r="B154" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="C154" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D153" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="E153" s="19"/>
-      <c r="F153" s="19"/>
-      <c r="G153" s="19"/>
-      <c r="H153" s="19"/>
-      <c r="I153" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="J153" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="K153" s="19"/>
-      <c r="L153" s="19"/>
-      <c r="M153" s="19"/>
-      <c r="N153" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="O153" s="19"/>
-      <c r="P153" s="20" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="154" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A154" s="31">
+      <c r="D154" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="E154" s="19"/>
+      <c r="F154" s="19"/>
+      <c r="G154" s="19"/>
+      <c r="H154" s="19"/>
+      <c r="I154" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="J154" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="K154" s="19"/>
+      <c r="L154" s="19"/>
+      <c r="M154" s="19"/>
+      <c r="N154" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="O154" s="19"/>
+      <c r="P154" s="20" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="155" spans="1:16" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="31">
         <v>1662</v>
       </c>
-      <c r="B154" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="C154" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D154" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="E154" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F154" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G154" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H154" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I154" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="J154" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="K154" s="8">
-        <v>30</v>
-      </c>
-      <c r="L154" s="8">
-        <v>1</v>
-      </c>
-      <c r="M154" s="10">
-        <v>0</v>
-      </c>
-      <c r="N154" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="O154" s="33"/>
-      <c r="P154" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A155" s="31">
-        <v>1672</v>
-      </c>
       <c r="B155" s="7" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C155" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D155" s="16" t="s">
-        <v>77</v>
+        <v>126</v>
       </c>
       <c r="E155" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F155" s="5" t="s">
-        <v>127</v>
+        <v>7</v>
       </c>
       <c r="G155" s="5" t="s">
         <v>8</v>
@@ -9221,13 +9524,13 @@
         <v>18</v>
       </c>
       <c r="I155" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J155" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K155" s="8">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="L155" s="8">
         <v>1</v>
@@ -9236,46 +9539,46 @@
         <v>0</v>
       </c>
       <c r="N155" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="O155" s="33"/>
       <c r="P155" s="6" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="156" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" s="31">
-        <v>1674</v>
+        <v>1672</v>
       </c>
       <c r="B156" s="7" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="C156" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D156" s="16" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="E156" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F156" s="5" t="s">
-        <v>7</v>
+        <v>124</v>
       </c>
       <c r="G156" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H156" s="5" t="s">
         <v>18</v>
       </c>
       <c r="I156" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J156" s="8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="K156" s="8">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="L156" s="8">
         <v>1</v>
@@ -9284,31 +9587,31 @@
         <v>0</v>
       </c>
       <c r="N156" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="O156" s="33"/>
       <c r="P156" s="6" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="157" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="157" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" s="31">
-        <v>1684</v>
+        <v>1674</v>
       </c>
       <c r="B157" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C157" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D157" s="16" t="s">
-        <v>129</v>
+        <v>13</v>
       </c>
       <c r="E157" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F157" s="5" t="s">
-        <v>130</v>
+        <v>7</v>
       </c>
       <c r="G157" s="5" t="s">
         <v>7</v>
@@ -9317,13 +9620,13 @@
         <v>18</v>
       </c>
       <c r="I157" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J157" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K157" s="8">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="L157" s="8">
         <v>1</v>
@@ -9332,17 +9635,69 @@
         <v>0</v>
       </c>
       <c r="N157" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="O157" s="33"/>
       <c r="P157" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="158" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="31">
+        <v>1684</v>
+      </c>
+      <c r="B158" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C158" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D158" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="E158" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F158" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="G158" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H158" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I158" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="J158" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="K158" s="8">
+        <v>10</v>
+      </c>
+      <c r="L158" s="8">
+        <v>1</v>
+      </c>
+      <c r="M158" s="10">
+        <v>0</v>
+      </c>
+      <c r="N158" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="P158" s="6" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A8:P72" xr:uid="{57DD97F8-0FE5-4F41-AAF2-1F48E42A70CC}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:P157">
-      <sortCondition ref="A8:A72"/>
+  <autoFilter ref="A8:P158" xr:uid="{57DD97F8-0FE5-4F41-AAF2-1F48E42A70CC}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="LinkedList"/>
+      </filters>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:P158">
+      <sortCondition ref="A8:A157"/>
     </sortState>
   </autoFilter>
   <mergeCells count="2">

--- a/LeetCode Tracker.xlsx
+++ b/LeetCode Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leon\Desktop\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EEA40CB-79F3-4ECD-85C6-8C518C67384C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F51E3006-7587-44CF-82C3-8FAA3C189F3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2FA590F6-CEBE-453D-A814-55EB366ADEEE}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="LeetCode" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LeetCode!$A$8:$P$158</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LeetCode!$A$8:$P$160</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="294">
   <si>
     <t>LeetCode Problems</t>
   </si>
@@ -520,9 +520,6 @@
   </si>
   <si>
     <t>Remove Duplicates from Sorted List</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*** Very very good problem. Also quite an interesting problem. Just have to figure out or add another pointer to move along with the current pointer then should be able to solve it. </t>
   </si>
   <si>
     <t>Min Stack</t>
@@ -2594,9 +2591,6 @@
     </r>
   </si>
   <si>
-    <t>Could use MergeSort but be clear minded on LinkedList.</t>
-  </si>
-  <si>
     <t xml:space="preserve">****Always need to remember the base case!!
 This is a very very easy question. Not fibonacci. </t>
   </si>
@@ -3044,25 +3038,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>Able to come up with optimal solution and cleaner code.</t>
-    </r>
-  </si>
-  <si>
-    <t>Remove Elements in Linked List</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">****Almost got the correct answer but still missing a few fundamentals understanding of pointers. Also, try to implement base case (what if the first element == value?). This question is related to </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>237. Delete Node in Linked List</t>
     </r>
   </si>
   <si>
@@ -4490,6 +4465,302 @@
         <scheme val="minor"/>
       </rPr>
       <t>UPDATE: Understood theory and able to implement concept on whiteboarding, but still not able to code it out. Need to work on LinkedList fundamentals.</t>
+    </r>
+  </si>
+  <si>
+    <t>Array Partition I</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Could use MergeSort but be clear minded on LinkedList.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">UPDATE (2 months): </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Able to implement theory and concept, but still need practice in fundamental. Still not able to code the solution.</t>
+    </r>
+  </si>
+  <si>
+    <t>Remove LinkedList Elements</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">****Almost got the correct answer but still missing a few fundamentals understanding of pointers. Also, try to implement base case (what if the first element == value?). This question is related to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">237. Delete Node in Linked List </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Question 27 Remove Element (Array)
+UPDATE (4 days): </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Again, almost able to solve it by implementing the method from </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Question 27 Remove Element</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> but able to grasp the theory and logic behind it. Need more practice on </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Question 237. Delete Node in LinkedList.</t>
+    </r>
+  </si>
+  <si>
+    <t>Middle of LinkedList</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">****Very straightforward problem. It is just </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">slow </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">fast </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">pointers. Need to know the thoery behind and able to solve it, just like </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Question 141. Linked List Cycle </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Question 160. Intersection of LinkedList.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">*** Very very good problem. Also quite an interesting problem. Just have to figure out or add another pointer to move along with the current pointer then should be able to solve it. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">UPDATE (2 months): </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Able to come up with </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Optimal Solution </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">after implementing the same technique as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Question 27. Remove Elements </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Question 203. Remove LinkedList Elements.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Difference between two solutions is just the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>comparison.</t>
     </r>
   </si>
 </sst>
@@ -5137,13 +5408,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CECAF50C-0FA8-4FE8-AF1F-0197AD9DA707}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:U158"/>
+  <dimension ref="A1:U160"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="18" ySplit="8" topLeftCell="S31" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="18" ySplit="8" topLeftCell="S9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="P1" sqref="P1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="M66" sqref="M66"/>
+      <selection pane="bottomRight" activeCell="J55" sqref="J55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5217,7 +5488,7 @@
         <v>17</v>
       </c>
       <c r="R2" s="27" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
@@ -5337,7 +5608,7 @@
         <v>31</v>
       </c>
       <c r="R7" s="27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
@@ -5372,7 +5643,7 @@
         <v>54</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>53</v>
@@ -5384,7 +5655,7 @@
         <v>62</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P8" s="3" t="s">
         <v>1</v>
@@ -5434,7 +5705,7 @@
         <v>52</v>
       </c>
       <c r="P9" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
@@ -5442,16 +5713,16 @@
         <v>4</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="O10" s="16" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
@@ -5459,7 +5730,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>2</v>
@@ -5486,10 +5757,10 @@
         <v>52</v>
       </c>
       <c r="O11" s="16" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="P11" s="6" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
@@ -5509,7 +5780,7 @@
         <v>10</v>
       </c>
       <c r="F12" s="31" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="G12" s="31" t="s">
         <v>8</v>
@@ -5537,7 +5808,7 @@
       </c>
       <c r="O12" s="31"/>
       <c r="P12" s="6" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="124.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
@@ -5545,13 +5816,13 @@
         <v>10</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C13" s="33" t="s">
+        <v>189</v>
+      </c>
+      <c r="D13" s="33" t="s">
         <v>193</v>
-      </c>
-      <c r="D13" s="33" t="s">
-        <v>197</v>
       </c>
       <c r="E13" s="33"/>
       <c r="F13" s="33"/>
@@ -5564,7 +5835,7 @@
       <c r="M13" s="33"/>
       <c r="N13" s="33"/>
       <c r="O13" s="33" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -5572,13 +5843,13 @@
         <v>17</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="O14" s="16" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
@@ -5586,13 +5857,13 @@
         <v>20</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>10</v>
@@ -5625,10 +5896,10 @@
         <v>52</v>
       </c>
       <c r="O15" s="16" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="P15" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="70.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -5664,17 +5935,17 @@
       </c>
       <c r="K16" s="26"/>
       <c r="L16" s="26">
+        <v>2</v>
+      </c>
+      <c r="M16" s="26">
         <v>1</v>
-      </c>
-      <c r="M16" s="26">
-        <v>0</v>
       </c>
       <c r="N16" s="26" t="s">
         <v>51</v>
       </c>
       <c r="O16" s="26"/>
       <c r="P16" s="6" t="s">
-        <v>170</v>
+        <v>288</v>
       </c>
     </row>
     <row r="17" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
@@ -5682,13 +5953,13 @@
         <v>22</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="O17" s="16" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="18" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
@@ -5696,10 +5967,10 @@
         <v>23</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C18" s="34" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D18" s="34"/>
       <c r="E18" s="34"/>
@@ -5713,7 +5984,7 @@
       <c r="M18" s="34"/>
       <c r="N18" s="34"/>
       <c r="O18" s="34" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
@@ -5761,7 +6032,7 @@
       </c>
       <c r="O19" s="24"/>
       <c r="P19" s="30" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
@@ -5769,7 +6040,7 @@
         <v>27</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>2</v>
@@ -5799,7 +6070,7 @@
         <v>52</v>
       </c>
       <c r="P20" s="6" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="21" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
@@ -5807,13 +6078,13 @@
         <v>28</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I21" s="8" t="s">
         <v>51</v>
@@ -5834,7 +6105,7 @@
         <v>52</v>
       </c>
       <c r="P21" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
@@ -5842,13 +6113,13 @@
         <v>31</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="O22" s="16" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="23" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
@@ -5856,13 +6127,13 @@
         <v>42</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="O23" s="16" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="24" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
@@ -5870,10 +6141,10 @@
         <v>44</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D24" s="26"/>
       <c r="E24" s="26"/>
@@ -5887,7 +6158,7 @@
       <c r="M24" s="26"/>
       <c r="N24" s="26"/>
       <c r="O24" s="26" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="25" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
@@ -5895,13 +6166,13 @@
         <v>50</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="O25" s="16" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="26" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
@@ -5909,10 +6180,10 @@
         <v>54</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C26" s="31" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D26" s="31"/>
       <c r="E26" s="31"/>
@@ -5926,7 +6197,7 @@
       <c r="M26" s="31"/>
       <c r="N26" s="31"/>
       <c r="O26" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="27" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
@@ -5934,10 +6205,10 @@
         <v>56</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C27" s="33" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D27" s="33"/>
       <c r="E27" s="33"/>
@@ -5951,7 +6222,7 @@
       <c r="M27" s="33"/>
       <c r="N27" s="33"/>
       <c r="O27" s="33" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="28" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
@@ -5959,13 +6230,13 @@
         <v>57</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="O28" s="16" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="29" spans="1:19" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
@@ -5973,7 +6244,7 @@
         <v>66</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>2</v>
@@ -6012,7 +6283,7 @@
         <v>52</v>
       </c>
       <c r="P29" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="30" spans="1:19" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -6020,10 +6291,10 @@
         <v>80</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D30" s="16" t="s">
         <v>65</v>
@@ -6047,10 +6318,10 @@
         <v>52</v>
       </c>
       <c r="P30" s="6" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A31" s="31">
         <v>83</v>
       </c>
@@ -6094,7 +6365,7 @@
         <v>51</v>
       </c>
       <c r="P31" s="6" t="s">
-        <v>81</v>
+        <v>293</v>
       </c>
     </row>
     <row r="32" spans="1:19" s="27" customFormat="1" ht="72" hidden="1" x14ac:dyDescent="0.3">
@@ -6140,7 +6411,7 @@
       </c>
       <c r="O32" s="26"/>
       <c r="P32" s="6" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="S32" s="28"/>
     </row>
@@ -6149,7 +6420,7 @@
         <v>118</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>2</v>
@@ -6188,10 +6459,10 @@
         <v>52</v>
       </c>
       <c r="O33" s="16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P33" s="6" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="34" spans="1:19" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
@@ -6199,7 +6470,7 @@
         <v>119</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>2</v>
@@ -6238,7 +6509,7 @@
         <v>52</v>
       </c>
       <c r="P34" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="35" spans="1:19" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
@@ -6290,13 +6561,13 @@
         <v>128</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="O36" s="16" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="37" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
@@ -6304,13 +6575,13 @@
         <v>133</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="O37" s="16" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="38" spans="1:19" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
@@ -6362,13 +6633,13 @@
         <v>139</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="O39" s="16" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="40" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
@@ -6376,10 +6647,10 @@
         <v>140</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C40" s="26" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D40" s="26"/>
       <c r="E40" s="26"/>
@@ -6393,7 +6664,7 @@
       <c r="M40" s="26"/>
       <c r="N40" s="26"/>
       <c r="O40" s="26" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="41" spans="1:19" s="14" customFormat="1" ht="72" x14ac:dyDescent="0.3">
@@ -6439,11 +6710,11 @@
       </c>
       <c r="O41" s="26"/>
       <c r="P41" s="6" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="Q41" s="27"/>
       <c r="R41" s="29" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S41" s="15"/>
     </row>
@@ -6452,13 +6723,13 @@
         <v>146</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="O42" s="16" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="43" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
@@ -6466,13 +6737,13 @@
         <v>155</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D43" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I43" s="8" t="s">
         <v>52</v>
@@ -6490,7 +6761,7 @@
         <v>52</v>
       </c>
       <c r="P43" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="44" spans="1:19" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -6498,13 +6769,13 @@
         <v>158</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="O44" s="16" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="45" spans="1:19" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -6512,10 +6783,10 @@
         <v>159</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C45" s="26" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D45" s="26"/>
       <c r="E45" s="26"/>
@@ -6529,7 +6800,7 @@
       <c r="M45" s="26"/>
       <c r="N45" s="26"/>
       <c r="O45" s="26" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="46" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
@@ -6574,10 +6845,10 @@
         <v>52</v>
       </c>
       <c r="O46" s="26" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P46" s="6" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="47" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
@@ -6585,10 +6856,10 @@
         <v>162</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C47" s="34" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D47" s="34"/>
       <c r="E47" s="34"/>
@@ -6602,7 +6873,7 @@
       <c r="M47" s="34"/>
       <c r="N47" s="34"/>
       <c r="O47" s="34" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="48" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
@@ -6610,7 +6881,7 @@
         <v>163</v>
       </c>
       <c r="B48" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C48" s="12" t="s">
         <v>2</v>
@@ -6626,7 +6897,7 @@
         <v>51</v>
       </c>
       <c r="J48" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K48" s="12">
         <v>45</v>
@@ -6642,7 +6913,7 @@
       </c>
       <c r="O48" s="12"/>
       <c r="P48" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="49" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
@@ -6650,10 +6921,10 @@
         <v>163</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C49" s="31" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D49" s="31"/>
       <c r="E49" s="31"/>
@@ -6667,7 +6938,7 @@
       <c r="M49" s="31"/>
       <c r="N49" s="31"/>
       <c r="O49" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="50" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
@@ -6675,10 +6946,10 @@
         <v>166</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C50" s="31" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D50" s="31"/>
       <c r="E50" s="31"/>
@@ -6692,7 +6963,7 @@
       <c r="M50" s="31"/>
       <c r="N50" s="31"/>
       <c r="O50" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="51" spans="1:19" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -6700,13 +6971,13 @@
         <v>167</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D51" s="16" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>10</v>
@@ -6739,7 +7010,7 @@
         <v>52</v>
       </c>
       <c r="P51" s="6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="52" spans="1:19" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
@@ -6793,10 +7064,10 @@
         <v>173</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C53" s="33" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D53" s="33"/>
       <c r="E53" s="33"/>
@@ -6810,7 +7081,7 @@
       <c r="M53" s="33"/>
       <c r="N53" s="33"/>
       <c r="O53" s="33" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="54" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
@@ -6818,21 +7089,21 @@
         <v>200</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="O54" s="16" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="55" spans="1:19" s="14" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" s="14" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A55" s="31">
         <v>203</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>177</v>
+        <v>289</v>
       </c>
       <c r="C55" s="26" t="s">
         <v>2</v>
@@ -6854,17 +7125,17 @@
         <v>40</v>
       </c>
       <c r="L55" s="26">
+        <v>2</v>
+      </c>
+      <c r="M55" s="26">
         <v>1</v>
-      </c>
-      <c r="M55" s="26">
-        <v>0</v>
       </c>
       <c r="N55" s="26" t="s">
         <v>52</v>
       </c>
       <c r="O55" s="26"/>
       <c r="P55" s="6" t="s">
-        <v>178</v>
+        <v>290</v>
       </c>
       <c r="Q55" s="27"/>
       <c r="R55" s="27"/>
@@ -6911,7 +7182,7 @@
         <v>52</v>
       </c>
       <c r="P56" s="6" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="57" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
@@ -6919,13 +7190,13 @@
         <v>208</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="O57" s="16" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="58" spans="1:19" s="21" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
@@ -6933,10 +7204,10 @@
         <v>212</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C58" s="26" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D58" s="26"/>
       <c r="E58" s="26"/>
@@ -6950,7 +7221,7 @@
       <c r="M58" s="26"/>
       <c r="N58" s="26"/>
       <c r="O58" s="26" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="P58" s="6"/>
       <c r="Q58" s="27"/>
@@ -6962,13 +7233,13 @@
         <v>214</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="O59" s="16" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="60" spans="1:19" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
@@ -6982,7 +7253,7 @@
         <v>2</v>
       </c>
       <c r="D60" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E60" s="5" t="s">
         <v>10</v>
@@ -7015,7 +7286,7 @@
         <v>51</v>
       </c>
       <c r="P60" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="61" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
@@ -7023,13 +7294,13 @@
         <v>218</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="O61" s="16" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="62" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
@@ -7037,13 +7308,13 @@
         <v>224</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="O62" s="16" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="63" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
@@ -7051,13 +7322,13 @@
         <v>228</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="O63" s="16" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="64" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
@@ -7065,10 +7336,10 @@
         <v>230</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C64" s="31" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D64" s="31"/>
       <c r="E64" s="31"/>
@@ -7082,7 +7353,7 @@
       <c r="M64" s="31"/>
       <c r="N64" s="31"/>
       <c r="O64" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="65" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
@@ -7090,13 +7361,13 @@
         <v>231</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C65" s="31" t="s">
         <v>2</v>
       </c>
       <c r="D65" s="31" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="E65" s="31"/>
       <c r="F65" s="31"/>
@@ -7109,7 +7380,7 @@
       <c r="M65" s="31"/>
       <c r="N65" s="31"/>
       <c r="O65" s="31" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="66" spans="1:21" ht="115.2" x14ac:dyDescent="0.3">
@@ -7153,7 +7424,7 @@
         <v>52</v>
       </c>
       <c r="P66" s="6" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="67" spans="1:21" x14ac:dyDescent="0.3">
@@ -7207,10 +7478,10 @@
         <v>239</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C68" s="33" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D68" s="33"/>
       <c r="E68" s="33"/>
@@ -7224,7 +7495,7 @@
       <c r="M68" s="33"/>
       <c r="N68" s="33"/>
       <c r="O68" s="33" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="69" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
@@ -7232,16 +7503,16 @@
         <v>240</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="O69" s="16" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="U69" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="70" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
@@ -7249,13 +7520,13 @@
         <v>249</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C70" s="5" t="s">
         <v>2</v>
       </c>
       <c r="O70" s="16" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="71" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
@@ -7263,13 +7534,13 @@
         <v>251</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="O71" s="16" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="72" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
@@ -7277,13 +7548,13 @@
         <v>253</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="O72" s="16" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="73" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
@@ -7291,13 +7562,13 @@
         <v>257</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C73" s="5" t="s">
         <v>2</v>
       </c>
       <c r="O73" s="16" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="74" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
@@ -7305,13 +7576,13 @@
         <v>259</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="O74" s="16" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="75" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
@@ -7319,13 +7590,13 @@
         <v>261</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="O75" s="16" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="76" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
@@ -7333,13 +7604,13 @@
         <v>266</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C76" s="5" t="s">
         <v>2</v>
       </c>
       <c r="O76" s="33" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="77" spans="1:21" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
@@ -7347,7 +7618,7 @@
         <v>268</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C77" s="5" t="s">
         <v>2</v>
@@ -7387,7 +7658,7 @@
       </c>
       <c r="O77" s="33"/>
       <c r="P77" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="78" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
@@ -7395,13 +7666,13 @@
         <v>269</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="O78" s="16" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="79" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
@@ -7409,13 +7680,13 @@
         <v>270</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C79" s="5" t="s">
         <v>2</v>
       </c>
       <c r="O79" s="33" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="80" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
@@ -7423,13 +7694,13 @@
         <v>270</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="O80" s="33" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="81" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
@@ -7437,13 +7708,13 @@
         <v>271</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="O81" s="33" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="82" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
@@ -7451,13 +7722,13 @@
         <v>274</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="O82" s="33" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="83" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
@@ -7465,13 +7736,13 @@
         <v>276</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C83" s="5" t="s">
         <v>2</v>
       </c>
       <c r="O83" s="33" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="84" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
@@ -7479,13 +7750,13 @@
         <v>279</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="O84" s="33" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="85" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
@@ -7493,13 +7764,13 @@
         <v>280</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="O85" s="33" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="86" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
@@ -7507,13 +7778,13 @@
         <v>281</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="O86" s="33" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="87" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
@@ -7521,13 +7792,13 @@
         <v>282</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="O87" s="33" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="88" spans="1:16" ht="72" hidden="1" x14ac:dyDescent="0.3">
@@ -7575,7 +7846,7 @@
       </c>
       <c r="O88" s="33"/>
       <c r="P88" s="6" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="89" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
@@ -7583,13 +7854,13 @@
         <v>284</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="O89" s="33" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="90" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
@@ -7597,13 +7868,13 @@
         <v>286</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="O90" s="33" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="91" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
@@ -7611,13 +7882,13 @@
         <v>288</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C91" s="5" t="s">
         <v>2</v>
       </c>
       <c r="O91" s="33" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="92" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
@@ -7625,13 +7896,13 @@
         <v>289</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="O92" s="33" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="93" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
@@ -7639,13 +7910,13 @@
         <v>294</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="O93" s="33" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="94" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
@@ -7653,13 +7924,13 @@
         <v>295</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="O94" s="33" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="95" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
@@ -7667,13 +7938,13 @@
         <v>297</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="O95" s="33" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="96" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
@@ -7681,13 +7952,13 @@
         <v>298</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C96" s="5" t="s">
         <v>2</v>
       </c>
       <c r="O96" s="33" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="97" spans="1:15" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -7695,13 +7966,13 @@
         <v>298</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="O97" s="33" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="98" spans="1:15" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -7709,13 +7980,13 @@
         <v>302</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="O98" s="33" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="99" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
@@ -7723,13 +7994,13 @@
         <v>305</v>
       </c>
       <c r="B99" s="35" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="O99" s="33" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="100" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
@@ -7737,13 +8008,13 @@
         <v>308</v>
       </c>
       <c r="B100" s="35" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="O100" s="33" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="101" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
@@ -7751,13 +8022,13 @@
         <v>309</v>
       </c>
       <c r="B101" s="35" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="O101" s="33" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="102" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
@@ -7765,13 +8036,13 @@
         <v>310</v>
       </c>
       <c r="B102" s="35" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="O102" s="33" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="103" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
@@ -7779,13 +8050,13 @@
         <v>312</v>
       </c>
       <c r="B103" s="35" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="O103" s="33" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="104" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
@@ -7793,13 +8064,13 @@
         <v>313</v>
       </c>
       <c r="B104" s="35" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="O104" s="33" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="105" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
@@ -7807,13 +8078,13 @@
         <v>314</v>
       </c>
       <c r="B105" s="35" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="O105" s="33" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="106" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
@@ -7821,13 +8092,13 @@
         <v>315</v>
       </c>
       <c r="B106" s="35" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="O106" s="33" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="107" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
@@ -7835,13 +8106,13 @@
         <v>316</v>
       </c>
       <c r="B107" s="35" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="O107" s="33" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="108" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
@@ -7849,13 +8120,13 @@
         <v>317</v>
       </c>
       <c r="B108" s="35" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="O108" s="33" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="109" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
@@ -7863,13 +8134,13 @@
         <v>318</v>
       </c>
       <c r="B109" s="35" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="O109" s="33" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="110" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
@@ -7877,13 +8148,13 @@
         <v>320</v>
       </c>
       <c r="B110" s="35" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="O110" s="33" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="111" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
@@ -7891,13 +8162,13 @@
         <v>321</v>
       </c>
       <c r="B111" s="35" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="O111" s="33" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="112" spans="1:15" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -7905,13 +8176,13 @@
         <v>323</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="O112" s="33" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="113" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
@@ -7919,13 +8190,13 @@
         <v>324</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="O113" s="33" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="114" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
@@ -7933,7 +8204,7 @@
         <v>326</v>
       </c>
       <c r="B114" s="35" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C114" s="5" t="s">
         <v>2</v>
@@ -7942,7 +8213,7 @@
         <v>60</v>
       </c>
       <c r="O114" s="33" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="115" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
@@ -7950,13 +8221,13 @@
         <v>327</v>
       </c>
       <c r="B115" s="35" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="O115" s="33" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="116" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
@@ -7964,13 +8235,13 @@
         <v>329</v>
       </c>
       <c r="B116" s="35" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="O116" s="33" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="117" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
@@ -7978,13 +8249,13 @@
         <v>330</v>
       </c>
       <c r="B117" s="35" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="O117" s="33" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="118" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
@@ -7992,13 +8263,13 @@
         <v>331</v>
       </c>
       <c r="B118" s="35" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="O118" s="33" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="119" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
@@ -8006,13 +8277,13 @@
         <v>332</v>
       </c>
       <c r="B119" s="35" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="O119" s="33" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="120" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
@@ -8020,13 +8291,13 @@
         <v>336</v>
       </c>
       <c r="B120" s="35" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="O120" s="33" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="121" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
@@ -8034,13 +8305,13 @@
         <v>340</v>
       </c>
       <c r="B121" s="35" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="O121" s="33" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="122" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
@@ -8048,13 +8319,13 @@
         <v>341</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="O122" s="33" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="123" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
@@ -8080,7 +8351,7 @@
         <v>8</v>
       </c>
       <c r="H123" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I123" s="8" t="s">
         <v>51</v>
@@ -8125,7 +8396,7 @@
         <v>7</v>
       </c>
       <c r="H124" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I124" s="8" t="s">
         <v>51</v>
@@ -8152,13 +8423,13 @@
         <v>349</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C125" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D125" s="16" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E125" s="5" t="s">
         <v>10</v>
@@ -8192,7 +8463,7 @@
       </c>
       <c r="O125" s="33"/>
       <c r="P125" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="126" spans="1:16" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
@@ -8200,13 +8471,13 @@
         <v>387</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C126" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D126" s="16" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E126" s="5" t="s">
         <v>10</v>
@@ -8240,7 +8511,7 @@
       </c>
       <c r="O126" s="33"/>
       <c r="P126" s="6" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="127" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
@@ -8248,7 +8519,7 @@
         <v>389</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C127" s="5" t="s">
         <v>2</v>
@@ -8276,7 +8547,7 @@
       </c>
       <c r="O127" s="33"/>
       <c r="P127" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="128" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
@@ -8372,7 +8643,7 @@
       </c>
       <c r="O129" s="33"/>
       <c r="P129" s="6" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="130" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
@@ -8470,7 +8741,7 @@
         <v>665</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C132" s="5" t="s">
         <v>2</v>
@@ -8501,7 +8772,7 @@
       </c>
       <c r="O132" s="33"/>
       <c r="P132" s="6" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="133" spans="1:16" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
@@ -8509,7 +8780,7 @@
         <v>771</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C133" s="5" t="s">
         <v>2</v>
@@ -8549,7 +8820,7 @@
       </c>
       <c r="O133" s="33"/>
       <c r="P133" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="134" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
@@ -8557,7 +8828,7 @@
         <v>832</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C134" s="5" t="s">
         <v>2</v>
@@ -8569,7 +8840,7 @@
         <v>10</v>
       </c>
       <c r="F134" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G134" s="5" t="s">
         <v>8</v>
@@ -8597,7 +8868,7 @@
       </c>
       <c r="O134" s="33"/>
       <c r="P134" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="135" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
@@ -8605,13 +8876,13 @@
         <v>977</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C135" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D135" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E135" s="5" t="s">
         <v>10</v>
@@ -8645,7 +8916,7 @@
       </c>
       <c r="O135" s="33"/>
       <c r="P135" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="136" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
@@ -8653,7 +8924,7 @@
         <v>1002</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C136" s="5" t="s">
         <v>2</v>
@@ -8677,7 +8948,7 @@
         <v>1089</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C137" s="5" t="s">
         <v>2</v>
@@ -8717,7 +8988,7 @@
       </c>
       <c r="O137" s="33"/>
       <c r="P137" s="6" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="138" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
@@ -8725,7 +8996,7 @@
         <v>1108</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C138" s="34" t="s">
         <v>2</v>
@@ -8765,7 +9036,7 @@
       </c>
       <c r="O138" s="34"/>
       <c r="P138" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="139" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
@@ -8773,7 +9044,7 @@
         <v>1119</v>
       </c>
       <c r="B139" s="17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C139" s="12" t="s">
         <v>2</v>
@@ -8807,7 +9078,7 @@
       </c>
       <c r="O139" s="12"/>
       <c r="P139" s="13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="140" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -8815,7 +9086,7 @@
         <v>1295</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C140" s="5" t="s">
         <v>2</v>
@@ -8855,7 +9126,7 @@
       </c>
       <c r="O140" s="33"/>
       <c r="P140" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="141" spans="1:16" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
@@ -8863,7 +9134,7 @@
         <v>1299</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C141" s="5" t="s">
         <v>2</v>
@@ -8903,7 +9174,7 @@
       </c>
       <c r="O141" s="33"/>
       <c r="P141" s="6" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="142" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -8911,7 +9182,7 @@
         <v>1304</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C142" s="5" t="s">
         <v>2</v>
@@ -8933,7 +9204,7 @@
       </c>
       <c r="O142" s="33"/>
       <c r="P142" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="143" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -8941,7 +9212,7 @@
         <v>1313</v>
       </c>
       <c r="B143" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C143" s="5" t="s">
         <v>2</v>
@@ -8953,7 +9224,7 @@
         <v>10</v>
       </c>
       <c r="F143" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G143" s="5" t="s">
         <v>7</v>
@@ -8981,7 +9252,7 @@
       </c>
       <c r="O143" s="33"/>
       <c r="P143" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="144" spans="1:16" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
@@ -8989,7 +9260,7 @@
         <v>1342</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C144" s="5" t="s">
         <v>2</v>
@@ -9029,7 +9300,7 @@
       </c>
       <c r="O144" s="33"/>
       <c r="P144" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="145" spans="1:16" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
@@ -9037,7 +9308,7 @@
         <v>1365</v>
       </c>
       <c r="B145" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C145" s="5" t="s">
         <v>2</v>
@@ -9077,7 +9348,7 @@
       </c>
       <c r="O145" s="33"/>
       <c r="P145" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="146" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -9085,7 +9356,7 @@
         <v>1389</v>
       </c>
       <c r="B146" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C146" s="5" t="s">
         <v>2</v>
@@ -9125,7 +9396,7 @@
       </c>
       <c r="O146" s="33"/>
       <c r="P146" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="147" spans="1:16" ht="72" hidden="1" x14ac:dyDescent="0.3">
@@ -9133,7 +9404,7 @@
         <v>1431</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C147" s="5" t="s">
         <v>2</v>
@@ -9173,7 +9444,7 @@
       </c>
       <c r="O147" s="33"/>
       <c r="P147" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="148" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -9181,7 +9452,7 @@
         <v>1450</v>
       </c>
       <c r="B148" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C148" s="5" t="s">
         <v>2</v>
@@ -9221,7 +9492,7 @@
       </c>
       <c r="O148" s="33"/>
       <c r="P148" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="149" spans="1:16" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
@@ -9229,7 +9500,7 @@
         <v>1464</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C149" s="5" t="s">
         <v>2</v>
@@ -9269,7 +9540,7 @@
       </c>
       <c r="O149" s="33"/>
       <c r="P149" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="150" spans="1:16" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
@@ -9277,7 +9548,7 @@
         <v>1470</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C150" s="5" t="s">
         <v>2</v>
@@ -9317,7 +9588,7 @@
       </c>
       <c r="O150" s="33"/>
       <c r="P150" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="151" spans="1:16" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
@@ -9325,7 +9596,7 @@
         <v>1475</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C151" s="5" t="s">
         <v>2</v>
@@ -9365,7 +9636,7 @@
       </c>
       <c r="O151" s="33"/>
       <c r="P151" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="152" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -9373,7 +9644,7 @@
         <v>1480</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C152" s="5" t="s">
         <v>2</v>
@@ -9413,7 +9684,7 @@
       </c>
       <c r="O152" s="33"/>
       <c r="P152" s="6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="153" spans="1:16" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
@@ -9461,7 +9732,7 @@
       </c>
       <c r="O153" s="34"/>
       <c r="P153" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="154" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -9469,7 +9740,7 @@
         <v>1588</v>
       </c>
       <c r="B154" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C154" s="19" t="s">
         <v>2</v>
@@ -9495,7 +9766,7 @@
       </c>
       <c r="O154" s="19"/>
       <c r="P154" s="20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="155" spans="1:16" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
@@ -9503,13 +9774,13 @@
         <v>1662</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C155" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D155" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E155" s="5" t="s">
         <v>10</v>
@@ -9543,7 +9814,7 @@
       </c>
       <c r="O155" s="33"/>
       <c r="P155" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="156" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
@@ -9551,7 +9822,7 @@
         <v>1672</v>
       </c>
       <c r="B156" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C156" s="5" t="s">
         <v>2</v>
@@ -9563,7 +9834,7 @@
         <v>10</v>
       </c>
       <c r="F156" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G156" s="5" t="s">
         <v>8</v>
@@ -9591,7 +9862,7 @@
       </c>
       <c r="O156" s="33"/>
       <c r="P156" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="157" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
@@ -9599,7 +9870,7 @@
         <v>1674</v>
       </c>
       <c r="B157" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C157" s="5" t="s">
         <v>2</v>
@@ -9639,7 +9910,7 @@
       </c>
       <c r="O157" s="33"/>
       <c r="P157" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="158" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
@@ -9647,19 +9918,19 @@
         <v>1684</v>
       </c>
       <c r="B158" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C158" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D158" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E158" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F158" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G158" s="5" t="s">
         <v>7</v>
@@ -9686,11 +9957,75 @@
         <v>52</v>
       </c>
       <c r="P158" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="159" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="31">
+        <v>561</v>
+      </c>
+      <c r="B159" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="C159" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D159" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="E159" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="160" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A160" s="31">
+        <v>876</v>
+      </c>
+      <c r="B160" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="C160" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D160" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E160" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F160" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G160" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H160" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I160" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="J160" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="K160" s="8">
+        <v>15</v>
+      </c>
+      <c r="L160" s="8">
+        <v>1</v>
+      </c>
+      <c r="M160" s="10">
+        <v>0</v>
+      </c>
+      <c r="N160" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="P160" s="6" t="s">
+        <v>292</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A8:P158" xr:uid="{57DD97F8-0FE5-4F41-AAF2-1F48E42A70CC}">
+  <autoFilter ref="A8:P160" xr:uid="{57DD97F8-0FE5-4F41-AAF2-1F48E42A70CC}">
     <filterColumn colId="3">
       <filters>
         <filter val="LinkedList"/>

--- a/LeetCode Tracker.xlsx
+++ b/LeetCode Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leon\Desktop\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F51E3006-7587-44CF-82C3-8FAA3C189F3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{991AA0F5-7101-41FE-A054-7E75C348CED8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2FA590F6-CEBE-453D-A814-55EB366ADEEE}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="LeetCode" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LeetCode!$A$8:$P$160</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LeetCode!$A$8:$P$161</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="296">
   <si>
     <t>LeetCode Problems</t>
   </si>
@@ -4761,6 +4761,56 @@
         <scheme val="minor"/>
       </rPr>
       <t>comparison.</t>
+    </r>
+  </si>
+  <si>
+    <t>Merge in Between Linked Lists</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">****Able to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Brute Force </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">the solution with count. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Optimal Solution </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is to use for loops to locate the positions of nodes given. Try again next week.</t>
     </r>
   </si>
 </sst>
@@ -5407,14 +5457,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CECAF50C-0FA8-4FE8-AF1F-0197AD9DA707}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:U160"/>
+  <dimension ref="A1:U161"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="18" ySplit="8" topLeftCell="S9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="18" ySplit="8" topLeftCell="S146" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="P1" sqref="P1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="J55" sqref="J55"/>
+      <selection pane="bottomRight" activeCell="J149" sqref="J149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5661,7 +5710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" ht="72" x14ac:dyDescent="0.3">
       <c r="A9" s="31">
         <v>1</v>
       </c>
@@ -5708,7 +5757,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="31">
         <v>4</v>
       </c>
@@ -5725,7 +5774,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A11" s="31">
         <v>7</v>
       </c>
@@ -5763,7 +5812,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A12" s="31">
         <v>9</v>
       </c>
@@ -5811,7 +5860,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="124.8" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" ht="124.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="33">
         <v>10</v>
       </c>
@@ -5838,7 +5887,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="31">
         <v>17</v>
       </c>
@@ -5852,7 +5901,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="15" spans="1:20" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A15" s="31">
         <v>20</v>
       </c>
@@ -5948,7 +5997,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="17" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="31">
         <v>22</v>
       </c>
@@ -5962,7 +6011,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="18" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="34">
         <v>23</v>
       </c>
@@ -5987,7 +6036,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="100.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A19" s="24">
         <v>26</v>
       </c>
@@ -6035,7 +6084,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A20" s="31">
         <v>27</v>
       </c>
@@ -6073,7 +6122,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="21" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="31">
         <v>28</v>
       </c>
@@ -6108,7 +6157,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="22" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="31">
         <v>31</v>
       </c>
@@ -6122,7 +6171,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="23" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="31">
         <v>42</v>
       </c>
@@ -6136,7 +6185,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="24" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" s="31">
         <v>44</v>
       </c>
@@ -6161,7 +6210,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="25" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" s="31">
         <v>50</v>
       </c>
@@ -6175,7 +6224,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="26" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" s="31">
         <v>54</v>
       </c>
@@ -6200,7 +6249,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="27" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" s="33">
         <v>56</v>
       </c>
@@ -6225,7 +6274,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="28" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" s="31">
         <v>57</v>
       </c>
@@ -6239,7 +6288,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A29" s="31">
         <v>66</v>
       </c>
@@ -6286,7 +6335,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="30" spans="1:19" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="31">
         <v>80</v>
       </c>
@@ -6368,7 +6417,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="32" spans="1:19" s="27" customFormat="1" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" s="27" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A32" s="31">
         <v>88</v>
       </c>
@@ -6415,7 +6464,7 @@
       </c>
       <c r="S32" s="28"/>
     </row>
-    <row r="33" spans="1:19" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A33" s="31">
         <v>118</v>
       </c>
@@ -6465,7 +6514,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="34" spans="1:19" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A34" s="31">
         <v>119</v>
       </c>
@@ -6512,7 +6561,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="35" spans="1:19" ht="86.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A35" s="31">
         <v>125</v>
       </c>
@@ -6556,7 +6605,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A36" s="31">
         <v>128</v>
       </c>
@@ -6570,7 +6619,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="37" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A37" s="31">
         <v>133</v>
       </c>
@@ -6584,7 +6633,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="38" spans="1:19" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A38" s="31">
         <v>136</v>
       </c>
@@ -6628,7 +6677,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="39" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A39" s="31">
         <v>139</v>
       </c>
@@ -6642,7 +6691,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="40" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A40" s="31">
         <v>140</v>
       </c>
@@ -6718,7 +6767,7 @@
       </c>
       <c r="S41" s="15"/>
     </row>
-    <row r="42" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A42" s="31">
         <v>146</v>
       </c>
@@ -6732,7 +6781,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="43" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A43" s="31">
         <v>155</v>
       </c>
@@ -6764,7 +6813,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="44" spans="1:19" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="31">
         <v>158</v>
       </c>
@@ -6778,7 +6827,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="45" spans="1:19" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="31">
         <v>159</v>
       </c>
@@ -6851,7 +6900,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="47" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A47" s="34">
         <v>162</v>
       </c>
@@ -6876,7 +6925,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="48" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A48" s="12">
         <v>163</v>
       </c>
@@ -6916,7 +6965,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="49" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A49" s="31">
         <v>163</v>
       </c>
@@ -6941,7 +6990,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="50" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A50" s="31">
         <v>166</v>
       </c>
@@ -6966,7 +7015,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="51" spans="1:19" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A51" s="31">
         <v>167</v>
       </c>
@@ -7013,7 +7062,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="52" spans="1:19" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A52" s="32">
         <v>169</v>
       </c>
@@ -7059,7 +7108,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="53" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A53" s="33">
         <v>173</v>
       </c>
@@ -7084,7 +7133,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="54" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A54" s="31">
         <v>200</v>
       </c>
@@ -7185,7 +7234,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="57" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A57" s="31">
         <v>208</v>
       </c>
@@ -7199,7 +7248,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="58" spans="1:19" s="21" customFormat="1" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="31">
         <v>212</v>
       </c>
@@ -7228,7 +7277,7 @@
       <c r="R58" s="27"/>
       <c r="S58" s="22"/>
     </row>
-    <row r="59" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A59" s="31">
         <v>214</v>
       </c>
@@ -7242,7 +7291,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="60" spans="1:19" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A60" s="31">
         <v>217</v>
       </c>
@@ -7289,7 +7338,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="61" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A61" s="31">
         <v>218</v>
       </c>
@@ -7303,7 +7352,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="62" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A62" s="31">
         <v>224</v>
       </c>
@@ -7317,7 +7366,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="63" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A63" s="31">
         <v>228</v>
       </c>
@@ -7331,7 +7380,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="64" spans="1:19" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A64" s="31">
         <v>230</v>
       </c>
@@ -7356,7 +7405,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="65" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A65" s="31">
         <v>231</v>
       </c>
@@ -7473,7 +7522,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="68" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A68" s="33">
         <v>239</v>
       </c>
@@ -7498,7 +7547,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="69" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A69" s="31">
         <v>240</v>
       </c>
@@ -7515,7 +7564,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="70" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A70" s="31">
         <v>249</v>
       </c>
@@ -7529,7 +7578,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="71" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A71" s="31">
         <v>251</v>
       </c>
@@ -7543,7 +7592,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="72" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A72" s="31">
         <v>253</v>
       </c>
@@ -7557,7 +7606,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="73" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A73" s="31">
         <v>257</v>
       </c>
@@ -7571,7 +7620,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="74" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A74" s="31">
         <v>259</v>
       </c>
@@ -7585,7 +7634,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="75" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A75" s="31">
         <v>261</v>
       </c>
@@ -7599,7 +7648,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="76" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A76" s="31">
         <v>266</v>
       </c>
@@ -7613,7 +7662,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="77" spans="1:21" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A77" s="31">
         <v>268</v>
       </c>
@@ -7661,7 +7710,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="78" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A78" s="31">
         <v>269</v>
       </c>
@@ -7675,7 +7724,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="79" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A79" s="31">
         <v>270</v>
       </c>
@@ -7689,7 +7738,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="80" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A80" s="31">
         <v>270</v>
       </c>
@@ -7703,7 +7752,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="81" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A81" s="31">
         <v>271</v>
       </c>
@@ -7717,7 +7766,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="82" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A82" s="31">
         <v>274</v>
       </c>
@@ -7731,7 +7780,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="83" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A83" s="31">
         <v>276</v>
       </c>
@@ -7745,7 +7794,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="84" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A84" s="31">
         <v>279</v>
       </c>
@@ -7759,7 +7808,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="85" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A85" s="31">
         <v>280</v>
       </c>
@@ -7773,7 +7822,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="86" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A86" s="31">
         <v>281</v>
       </c>
@@ -7787,7 +7836,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="87" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A87" s="31">
         <v>282</v>
       </c>
@@ -7801,7 +7850,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="88" spans="1:16" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A88" s="31">
         <v>283</v>
       </c>
@@ -7849,7 +7898,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="89" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A89" s="31">
         <v>284</v>
       </c>
@@ -7863,7 +7912,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="90" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A90" s="31">
         <v>286</v>
       </c>
@@ -7877,7 +7926,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="91" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A91" s="31">
         <v>288</v>
       </c>
@@ -7891,7 +7940,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="92" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A92" s="31">
         <v>289</v>
       </c>
@@ -7905,7 +7954,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="93" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A93" s="31">
         <v>294</v>
       </c>
@@ -7919,7 +7968,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="94" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A94" s="31">
         <v>295</v>
       </c>
@@ -7933,7 +7982,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="95" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A95" s="31">
         <v>297</v>
       </c>
@@ -7947,7 +7996,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="96" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A96" s="31">
         <v>298</v>
       </c>
@@ -7961,7 +8010,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="97" spans="1:15" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A97" s="31">
         <v>298</v>
       </c>
@@ -7975,7 +8024,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="98" spans="1:15" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A98" s="31">
         <v>302</v>
       </c>
@@ -7989,7 +8038,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="99" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A99" s="31">
         <v>305</v>
       </c>
@@ -8003,7 +8052,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="100" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A100" s="31">
         <v>308</v>
       </c>
@@ -8017,7 +8066,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="101" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A101" s="31">
         <v>309</v>
       </c>
@@ -8031,7 +8080,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="102" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A102" s="31">
         <v>310</v>
       </c>
@@ -8045,7 +8094,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="103" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A103" s="31">
         <v>312</v>
       </c>
@@ -8059,7 +8108,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="104" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A104" s="31">
         <v>313</v>
       </c>
@@ -8073,7 +8122,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="105" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A105" s="31">
         <v>314</v>
       </c>
@@ -8087,7 +8136,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="106" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A106" s="31">
         <v>315</v>
       </c>
@@ -8101,7 +8150,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="107" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A107" s="31">
         <v>316</v>
       </c>
@@ -8115,7 +8164,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="108" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A108" s="31">
         <v>317</v>
       </c>
@@ -8129,7 +8178,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="109" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A109" s="31">
         <v>318</v>
       </c>
@@ -8143,7 +8192,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="110" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A110" s="31">
         <v>320</v>
       </c>
@@ -8157,7 +8206,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="111" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A111" s="31">
         <v>321</v>
       </c>
@@ -8171,7 +8220,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="112" spans="1:15" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A112" s="31">
         <v>323</v>
       </c>
@@ -8185,7 +8234,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="113" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A113" s="31">
         <v>324</v>
       </c>
@@ -8199,7 +8248,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="114" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A114" s="31">
         <v>326</v>
       </c>
@@ -8216,7 +8265,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="115" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A115" s="31">
         <v>327</v>
       </c>
@@ -8230,7 +8279,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="116" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A116" s="31">
         <v>329</v>
       </c>
@@ -8244,7 +8293,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="117" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A117" s="31">
         <v>330</v>
       </c>
@@ -8258,7 +8307,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="118" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A118" s="31">
         <v>331</v>
       </c>
@@ -8272,7 +8321,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="119" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A119" s="31">
         <v>332</v>
       </c>
@@ -8286,7 +8335,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="120" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A120" s="31">
         <v>336</v>
       </c>
@@ -8300,7 +8349,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="121" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A121" s="31">
         <v>340</v>
       </c>
@@ -8314,7 +8363,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="122" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A122" s="31">
         <v>341</v>
       </c>
@@ -8328,7 +8377,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="123" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A123" s="31">
         <v>344</v>
       </c>
@@ -8373,7 +8422,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="124" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A124" s="31">
         <v>345</v>
       </c>
@@ -8418,7 +8467,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="125" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A125" s="31">
         <v>349</v>
       </c>
@@ -8466,7 +8515,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="126" spans="1:16" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A126" s="31">
         <v>387</v>
       </c>
@@ -8514,7 +8563,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="127" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A127" s="31">
         <v>389</v>
       </c>
@@ -8550,7 +8599,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="128" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A128" s="31">
         <v>412</v>
       </c>
@@ -8598,7 +8647,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="129" spans="1:16" ht="115.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:16" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A129" s="31">
         <v>448</v>
       </c>
@@ -8646,7 +8695,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="130" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A130" s="31">
         <v>541</v>
       </c>
@@ -8691,7 +8740,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="131" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A131" s="31">
         <v>557</v>
       </c>
@@ -8736,7 +8785,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="132" spans="1:16" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A132" s="31">
         <v>665</v>
       </c>
@@ -8775,7 +8824,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="133" spans="1:16" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A133" s="31">
         <v>771</v>
       </c>
@@ -8823,7 +8872,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="134" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A134" s="31">
         <v>832</v>
       </c>
@@ -8871,7 +8920,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="135" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A135" s="31">
         <v>977</v>
       </c>
@@ -8919,7 +8968,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="136" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A136" s="31">
         <v>1002</v>
       </c>
@@ -8943,7 +8992,7 @@
       </c>
       <c r="O136" s="33"/>
     </row>
-    <row r="137" spans="1:16" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A137" s="31">
         <v>1089</v>
       </c>
@@ -8991,7 +9040,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="138" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A138" s="34">
         <v>1108</v>
       </c>
@@ -9039,7 +9088,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="139" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A139" s="12">
         <v>1119</v>
       </c>
@@ -9081,7 +9130,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="140" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A140" s="31">
         <v>1295</v>
       </c>
@@ -9129,7 +9178,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="141" spans="1:16" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A141" s="31">
         <v>1299</v>
       </c>
@@ -9177,7 +9226,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="142" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A142" s="31">
         <v>1304</v>
       </c>
@@ -9207,7 +9256,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="143" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A143" s="31">
         <v>1313</v>
       </c>
@@ -9255,7 +9304,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="144" spans="1:16" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A144" s="31">
         <v>1342</v>
       </c>
@@ -9303,7 +9352,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="145" spans="1:16" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A145" s="31">
         <v>1365</v>
       </c>
@@ -9351,7 +9400,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="146" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A146" s="31">
         <v>1389</v>
       </c>
@@ -9399,7 +9448,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="147" spans="1:16" ht="72" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A147" s="31">
         <v>1431</v>
       </c>
@@ -9447,7 +9496,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="148" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A148" s="31">
         <v>1450</v>
       </c>
@@ -9495,7 +9544,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="149" spans="1:16" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A149" s="31">
         <v>1464</v>
       </c>
@@ -9543,7 +9592,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="150" spans="1:16" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A150" s="31">
         <v>1470</v>
       </c>
@@ -9591,7 +9640,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="151" spans="1:16" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A151" s="31">
         <v>1475</v>
       </c>
@@ -9639,7 +9688,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="152" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A152" s="31">
         <v>1480</v>
       </c>
@@ -9687,7 +9736,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="153" spans="1:16" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A153" s="34">
         <v>1512</v>
       </c>
@@ -9735,7 +9784,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="154" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A154" s="19">
         <v>1588</v>
       </c>
@@ -9769,7 +9818,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="155" spans="1:16" ht="43.2" hidden="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A155" s="31">
         <v>1662</v>
       </c>
@@ -9817,7 +9866,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="156" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A156" s="31">
         <v>1672</v>
       </c>
@@ -9865,7 +9914,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="157" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A157" s="31">
         <v>1674</v>
       </c>
@@ -9913,7 +9962,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="158" spans="1:16" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A158" s="31">
         <v>1684</v>
       </c>
@@ -9960,7 +10009,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="159" spans="1:16" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A159" s="31">
         <v>561</v>
       </c>
@@ -10024,13 +10073,55 @@
         <v>292</v>
       </c>
     </row>
+    <row r="161" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A161" s="31">
+        <v>1669</v>
+      </c>
+      <c r="B161" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="C161" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D161" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E161" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F161" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G161" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H161" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I161" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="J161" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="K161" s="8">
+        <v>40</v>
+      </c>
+      <c r="L161" s="8">
+        <v>1</v>
+      </c>
+      <c r="M161" s="10">
+        <v>0</v>
+      </c>
+      <c r="N161" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="P161" s="6" t="s">
+        <v>295</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A8:P160" xr:uid="{57DD97F8-0FE5-4F41-AAF2-1F48E42A70CC}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="LinkedList"/>
-      </filters>
-    </filterColumn>
+  <autoFilter ref="A8:P161" xr:uid="{57DD97F8-0FE5-4F41-AAF2-1F48E42A70CC}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:P158">
       <sortCondition ref="A8:A157"/>
     </sortState>

--- a/LeetCode Tracker.xlsx
+++ b/LeetCode Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leon\Desktop\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{991AA0F5-7101-41FE-A054-7E75C348CED8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AF53964-AB13-4E13-87FB-A6729685CB2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2FA590F6-CEBE-453D-A814-55EB366ADEEE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="303">
   <si>
     <t>LeetCode Problems</t>
   </si>
@@ -2078,107 +2078,6 @@
   </si>
   <si>
     <t>Final Prices With a Special Discount in a Shop</t>
-  </si>
-  <si>
-    <r>
-      <t>****</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">NOTE: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Always try to </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Brute Force</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> the solution to save time. Could've done it in 15 minutes, but wasted 60 minutes to find the optimal solution.
-****</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Brute Force </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Solution is using two for loops to solve this problem. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Optimal Solution </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">is to use </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Monotone Stack.</t>
-    </r>
   </si>
   <si>
     <t>Replace Elements with Greatest Elements on Right Side</t>
@@ -4813,12 +4712,466 @@
       <t xml:space="preserve"> is to use for loops to locate the positions of nodes given. Try again next week.</t>
     </r>
   </si>
+  <si>
+    <t>Remove Outermost Parentheses</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">****Very interesting </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Stack </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">problem. However, not necessarily needed to use </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Stack </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">to solve it, can be solve using </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">count. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">The </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>count</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> method just need to be something like a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Stack (+1 or -1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. This question also relates to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>StringBuilder.</t>
+    </r>
+  </si>
+  <si>
+    <t>O(n^3)</t>
+  </si>
+  <si>
+    <t>Next Greater Element I</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">****Very very good and tricky question. Able to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Brute Force </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">the solution with different loops and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>break</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to exit loops, but is too slow. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Optimal Solution </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">is using </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">HashMap </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Stack</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to solve it. Also, need to to look out for </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">decreasing </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">element, that is why, there is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>while</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> loop in the solution after the first </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">loop. Plus, there is also </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Map.getOrDefault</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to learn (new method).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>****</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">NOTE: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Always try to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Brute Force</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the solution to save time. Could've done it in 15 minutes, but wasted 60 minutes to find the optimal solution.
+****</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Brute Force </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Solution is using two for loops to solve this problem. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Alternate Solution </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">is to use </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Monotone Stack (Time O(n), Space O(n)).</t>
+    </r>
+  </si>
+  <si>
+    <t>Remove All Adjacent Duplicates In String</t>
+  </si>
+  <si>
+    <r>
+      <t>****</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Brute Force </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">was really slow even though only loops once with </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Stack.</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4848,6 +5201,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -4952,7 +5318,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -5051,6 +5417,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5457,13 +5826,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CECAF50C-0FA8-4FE8-AF1F-0197AD9DA707}">
-  <dimension ref="A1:U161"/>
+  <dimension ref="A1:U164"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="18" ySplit="8" topLeftCell="S146" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="18" ySplit="8" topLeftCell="S155" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="P1" sqref="P1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="J149" sqref="J149"/>
+      <selection pane="bottomRight" activeCell="K163" sqref="K163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5483,7 +5852,7 @@
     <col min="13" max="13" width="17" style="10" customWidth="1"/>
     <col min="14" max="14" width="15.109375" style="10" customWidth="1"/>
     <col min="15" max="15" width="17.88671875" style="16" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="184.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="227.33203125" style="6" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9" style="27" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="40.44140625" style="27" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="23.33203125" style="1" bestFit="1" customWidth="1"/>
@@ -5491,72 +5860,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="44" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="45"/>
+      <c r="R1" s="46"/>
       <c r="S1" s="11"/>
       <c r="T1" s="9"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A2" s="38"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="39"/>
+      <c r="A2" s="39"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="40"/>
       <c r="Q2" s="28" t="s">
         <v>17</v>
       </c>
       <c r="R2" s="27" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A3" s="38"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38"/>
-      <c r="P3" s="39"/>
+      <c r="A3" s="39"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="40"/>
       <c r="Q3" s="28" t="s">
         <v>18</v>
       </c>
@@ -5565,22 +5934,22 @@
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A4" s="38"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="39"/>
+      <c r="A4" s="39"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="40"/>
       <c r="Q4" s="4" t="s">
         <v>19</v>
       </c>
@@ -5589,22 +5958,22 @@
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5" s="40"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="40"/>
-      <c r="O5" s="40"/>
-      <c r="P5" s="41"/>
+      <c r="A5" s="41"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="41"/>
+      <c r="P5" s="42"/>
       <c r="Q5" s="28" t="s">
         <v>27</v>
       </c>
@@ -5613,22 +5982,22 @@
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6" s="40"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="40"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="41"/>
+      <c r="A6" s="41"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="41"/>
+      <c r="P6" s="42"/>
       <c r="Q6" s="28" t="s">
         <v>29</v>
       </c>
@@ -5637,22 +6006,22 @@
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A7" s="42"/>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="42"/>
-      <c r="N7" s="42"/>
-      <c r="O7" s="42"/>
-      <c r="P7" s="43"/>
+      <c r="A7" s="43"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="43"/>
+      <c r="N7" s="43"/>
+      <c r="O7" s="43"/>
+      <c r="P7" s="44"/>
       <c r="Q7" s="28" t="s">
         <v>31</v>
       </c>
@@ -5754,7 +6123,7 @@
         <v>52</v>
       </c>
       <c r="P9" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
@@ -5762,16 +6131,16 @@
         <v>4</v>
       </c>
       <c r="B10" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="D10" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="O10" s="16" t="s">
         <v>190</v>
-      </c>
-      <c r="O10" s="16" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="57.6" x14ac:dyDescent="0.3">
@@ -5779,7 +6148,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>2</v>
@@ -5806,10 +6175,10 @@
         <v>52</v>
       </c>
       <c r="O11" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="P11" s="6" t="s">
         <v>277</v>
-      </c>
-      <c r="P11" s="6" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="86.4" x14ac:dyDescent="0.3">
@@ -5829,7 +6198,7 @@
         <v>10</v>
       </c>
       <c r="F12" s="31" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G12" s="31" t="s">
         <v>8</v>
@@ -5857,7 +6226,7 @@
       </c>
       <c r="O12" s="31"/>
       <c r="P12" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="124.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -5865,13 +6234,13 @@
         <v>10</v>
       </c>
       <c r="B13" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="D13" s="33" t="s">
         <v>192</v>
-      </c>
-      <c r="C13" s="33" t="s">
-        <v>189</v>
-      </c>
-      <c r="D13" s="33" t="s">
-        <v>193</v>
       </c>
       <c r="E13" s="33"/>
       <c r="F13" s="33"/>
@@ -5884,7 +6253,7 @@
       <c r="M13" s="33"/>
       <c r="N13" s="33"/>
       <c r="O13" s="33" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
@@ -5892,13 +6261,13 @@
         <v>17</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O14" s="16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="86.4" x14ac:dyDescent="0.3">
@@ -5945,7 +6314,7 @@
         <v>52</v>
       </c>
       <c r="O15" s="16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="P15" s="6" t="s">
         <v>85</v>
@@ -5994,7 +6363,7 @@
       </c>
       <c r="O16" s="26"/>
       <c r="P16" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.3">
@@ -6002,13 +6371,13 @@
         <v>22</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O17" s="16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.3">
@@ -6016,10 +6385,10 @@
         <v>23</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C18" s="34" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D18" s="34"/>
       <c r="E18" s="34"/>
@@ -6033,7 +6402,7 @@
       <c r="M18" s="34"/>
       <c r="N18" s="34"/>
       <c r="O18" s="34" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="100.8" x14ac:dyDescent="0.3">
@@ -6081,7 +6450,7 @@
       </c>
       <c r="O19" s="24"/>
       <c r="P19" s="30" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="86.4" x14ac:dyDescent="0.3">
@@ -6089,7 +6458,7 @@
         <v>27</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>2</v>
@@ -6119,7 +6488,7 @@
         <v>52</v>
       </c>
       <c r="P20" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.3">
@@ -6162,13 +6531,13 @@
         <v>31</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O22" s="16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.3">
@@ -6176,13 +6545,13 @@
         <v>42</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O23" s="16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.3">
@@ -6190,10 +6559,10 @@
         <v>44</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D24" s="26"/>
       <c r="E24" s="26"/>
@@ -6207,7 +6576,7 @@
       <c r="M24" s="26"/>
       <c r="N24" s="26"/>
       <c r="O24" s="26" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.3">
@@ -6215,13 +6584,13 @@
         <v>50</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O25" s="16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.3">
@@ -6229,10 +6598,10 @@
         <v>54</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C26" s="31" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D26" s="31"/>
       <c r="E26" s="31"/>
@@ -6246,7 +6615,7 @@
       <c r="M26" s="31"/>
       <c r="N26" s="31"/>
       <c r="O26" s="31" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.3">
@@ -6254,10 +6623,10 @@
         <v>56</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C27" s="33" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D27" s="33"/>
       <c r="E27" s="33"/>
@@ -6271,7 +6640,7 @@
       <c r="M27" s="33"/>
       <c r="N27" s="33"/>
       <c r="O27" s="33" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.3">
@@ -6279,13 +6648,13 @@
         <v>57</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O28" s="16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="29" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
@@ -6332,7 +6701,7 @@
         <v>52</v>
       </c>
       <c r="P29" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="30" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
@@ -6340,10 +6709,10 @@
         <v>80</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D30" s="16" t="s">
         <v>65</v>
@@ -6367,7 +6736,7 @@
         <v>52</v>
       </c>
       <c r="P30" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="31" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
@@ -6414,7 +6783,7 @@
         <v>51</v>
       </c>
       <c r="P31" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="32" spans="1:19" s="27" customFormat="1" ht="72" x14ac:dyDescent="0.3">
@@ -6460,7 +6829,7 @@
       </c>
       <c r="O32" s="26"/>
       <c r="P32" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="S32" s="28"/>
     </row>
@@ -6511,7 +6880,7 @@
         <v>120</v>
       </c>
       <c r="P33" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="34" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
@@ -6610,13 +6979,13 @@
         <v>128</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O36" s="16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.3">
@@ -6624,13 +6993,13 @@
         <v>133</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O37" s="16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="38" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
@@ -6682,13 +7051,13 @@
         <v>139</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O39" s="16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.3">
@@ -6696,10 +7065,10 @@
         <v>140</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C40" s="26" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D40" s="26"/>
       <c r="E40" s="26"/>
@@ -6713,7 +7082,7 @@
       <c r="M40" s="26"/>
       <c r="N40" s="26"/>
       <c r="O40" s="26" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="41" spans="1:19" s="14" customFormat="1" ht="72" x14ac:dyDescent="0.3">
@@ -6759,7 +7128,7 @@
       </c>
       <c r="O41" s="26"/>
       <c r="P41" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="Q41" s="27"/>
       <c r="R41" s="29" t="s">
@@ -6772,13 +7141,13 @@
         <v>146</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O42" s="16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.3">
@@ -6818,13 +7187,13 @@
         <v>158</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O44" s="16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="45" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
@@ -6832,10 +7201,10 @@
         <v>159</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C45" s="26" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D45" s="26"/>
       <c r="E45" s="26"/>
@@ -6849,7 +7218,7 @@
       <c r="M45" s="26"/>
       <c r="N45" s="26"/>
       <c r="O45" s="26" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="46" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
@@ -6897,7 +7266,7 @@
         <v>107</v>
       </c>
       <c r="P46" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.3">
@@ -6905,10 +7274,10 @@
         <v>162</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C47" s="34" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D47" s="34"/>
       <c r="E47" s="34"/>
@@ -6922,7 +7291,7 @@
       <c r="M47" s="34"/>
       <c r="N47" s="34"/>
       <c r="O47" s="34" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.3">
@@ -6973,7 +7342,7 @@
         <v>100</v>
       </c>
       <c r="C49" s="31" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D49" s="31"/>
       <c r="E49" s="31"/>
@@ -6987,7 +7356,7 @@
       <c r="M49" s="31"/>
       <c r="N49" s="31"/>
       <c r="O49" s="31" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.3">
@@ -6995,10 +7364,10 @@
         <v>166</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C50" s="31" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D50" s="31"/>
       <c r="E50" s="31"/>
@@ -7012,7 +7381,7 @@
       <c r="M50" s="31"/>
       <c r="N50" s="31"/>
       <c r="O50" s="31" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="51" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
@@ -7020,13 +7389,13 @@
         <v>167</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D51" s="16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>10</v>
@@ -7059,7 +7428,7 @@
         <v>52</v>
       </c>
       <c r="P51" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="52" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
@@ -7113,10 +7482,10 @@
         <v>173</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C53" s="33" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D53" s="33"/>
       <c r="E53" s="33"/>
@@ -7130,7 +7499,7 @@
       <c r="M53" s="33"/>
       <c r="N53" s="33"/>
       <c r="O53" s="33" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.3">
@@ -7138,13 +7507,13 @@
         <v>200</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O54" s="16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="55" spans="1:19" s="14" customFormat="1" ht="72" x14ac:dyDescent="0.3">
@@ -7152,7 +7521,7 @@
         <v>203</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C55" s="26" t="s">
         <v>2</v>
@@ -7184,7 +7553,7 @@
       </c>
       <c r="O55" s="26"/>
       <c r="P55" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="Q55" s="27"/>
       <c r="R55" s="27"/>
@@ -7231,7 +7600,7 @@
         <v>52</v>
       </c>
       <c r="P56" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.3">
@@ -7239,13 +7608,13 @@
         <v>208</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O57" s="16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="58" spans="1:19" s="21" customFormat="1" x14ac:dyDescent="0.3">
@@ -7253,10 +7622,10 @@
         <v>212</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C58" s="26" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D58" s="26"/>
       <c r="E58" s="26"/>
@@ -7270,7 +7639,7 @@
       <c r="M58" s="26"/>
       <c r="N58" s="26"/>
       <c r="O58" s="26" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="P58" s="6"/>
       <c r="Q58" s="27"/>
@@ -7282,13 +7651,13 @@
         <v>214</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O59" s="16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="60" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
@@ -7302,7 +7671,7 @@
         <v>2</v>
       </c>
       <c r="D60" s="16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E60" s="5" t="s">
         <v>10</v>
@@ -7335,7 +7704,7 @@
         <v>51</v>
       </c>
       <c r="P60" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.3">
@@ -7343,13 +7712,13 @@
         <v>218</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O61" s="16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.3">
@@ -7357,13 +7726,13 @@
         <v>224</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O62" s="16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.3">
@@ -7371,13 +7740,13 @@
         <v>228</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O63" s="16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.3">
@@ -7385,10 +7754,10 @@
         <v>230</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C64" s="31" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D64" s="31"/>
       <c r="E64" s="31"/>
@@ -7402,7 +7771,7 @@
       <c r="M64" s="31"/>
       <c r="N64" s="31"/>
       <c r="O64" s="31" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="65" spans="1:21" x14ac:dyDescent="0.3">
@@ -7410,13 +7779,13 @@
         <v>231</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C65" s="31" t="s">
         <v>2</v>
       </c>
       <c r="D65" s="31" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E65" s="31"/>
       <c r="F65" s="31"/>
@@ -7429,7 +7798,7 @@
       <c r="M65" s="31"/>
       <c r="N65" s="31"/>
       <c r="O65" s="31" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="66" spans="1:21" ht="115.2" x14ac:dyDescent="0.3">
@@ -7473,7 +7842,7 @@
         <v>52</v>
       </c>
       <c r="P66" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="67" spans="1:21" x14ac:dyDescent="0.3">
@@ -7527,10 +7896,10 @@
         <v>239</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C68" s="33" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D68" s="33"/>
       <c r="E68" s="33"/>
@@ -7544,7 +7913,7 @@
       <c r="M68" s="33"/>
       <c r="N68" s="33"/>
       <c r="O68" s="33" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="69" spans="1:21" x14ac:dyDescent="0.3">
@@ -7552,13 +7921,13 @@
         <v>240</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O69" s="16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="U69" t="s">
         <v>108</v>
@@ -7569,13 +7938,13 @@
         <v>249</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C70" s="5" t="s">
         <v>2</v>
       </c>
       <c r="O70" s="16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="71" spans="1:21" x14ac:dyDescent="0.3">
@@ -7583,13 +7952,13 @@
         <v>251</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O71" s="16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="72" spans="1:21" x14ac:dyDescent="0.3">
@@ -7597,13 +7966,13 @@
         <v>253</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O72" s="16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="73" spans="1:21" x14ac:dyDescent="0.3">
@@ -7611,13 +7980,13 @@
         <v>257</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C73" s="5" t="s">
         <v>2</v>
       </c>
       <c r="O73" s="16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="74" spans="1:21" x14ac:dyDescent="0.3">
@@ -7625,13 +7994,13 @@
         <v>259</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O74" s="16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.3">
@@ -7639,13 +8008,13 @@
         <v>261</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O75" s="16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.3">
@@ -7653,13 +8022,13 @@
         <v>266</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C76" s="5" t="s">
         <v>2</v>
       </c>
       <c r="O76" s="33" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="77" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
@@ -7715,13 +8084,13 @@
         <v>269</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O78" s="16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="79" spans="1:21" x14ac:dyDescent="0.3">
@@ -7729,13 +8098,13 @@
         <v>270</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C79" s="5" t="s">
         <v>2</v>
       </c>
       <c r="O79" s="33" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="80" spans="1:21" x14ac:dyDescent="0.3">
@@ -7743,13 +8112,13 @@
         <v>270</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O80" s="33" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.3">
@@ -7757,13 +8126,13 @@
         <v>271</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O81" s="33" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.3">
@@ -7771,13 +8140,13 @@
         <v>274</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O82" s="33" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.3">
@@ -7785,13 +8154,13 @@
         <v>276</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C83" s="5" t="s">
         <v>2</v>
       </c>
       <c r="O83" s="33" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.3">
@@ -7799,13 +8168,13 @@
         <v>279</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O84" s="33" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.3">
@@ -7813,13 +8182,13 @@
         <v>280</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O85" s="33" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.3">
@@ -7827,13 +8196,13 @@
         <v>281</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O86" s="33" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.3">
@@ -7841,13 +8210,13 @@
         <v>282</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O87" s="33" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="88" spans="1:16" ht="72" x14ac:dyDescent="0.3">
@@ -7895,7 +8264,7 @@
       </c>
       <c r="O88" s="33"/>
       <c r="P88" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.3">
@@ -7903,13 +8272,13 @@
         <v>284</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O89" s="33" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.3">
@@ -7917,13 +8286,13 @@
         <v>286</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O90" s="33" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.3">
@@ -7931,13 +8300,13 @@
         <v>288</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C91" s="5" t="s">
         <v>2</v>
       </c>
       <c r="O91" s="33" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.3">
@@ -7945,13 +8314,13 @@
         <v>289</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O92" s="33" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.3">
@@ -7959,13 +8328,13 @@
         <v>294</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O93" s="33" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.3">
@@ -7973,13 +8342,13 @@
         <v>295</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O94" s="33" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.3">
@@ -7987,13 +8356,13 @@
         <v>297</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O95" s="33" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.3">
@@ -8001,13 +8370,13 @@
         <v>298</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C96" s="5" t="s">
         <v>2</v>
       </c>
       <c r="O96" s="33" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="97" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
@@ -8015,13 +8384,13 @@
         <v>298</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O97" s="33" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="98" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
@@ -8029,13 +8398,13 @@
         <v>302</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O98" s="33" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.3">
@@ -8043,13 +8412,13 @@
         <v>305</v>
       </c>
       <c r="B99" s="35" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O99" s="33" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.3">
@@ -8057,13 +8426,13 @@
         <v>308</v>
       </c>
       <c r="B100" s="35" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O100" s="33" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.3">
@@ -8071,13 +8440,13 @@
         <v>309</v>
       </c>
       <c r="B101" s="35" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O101" s="33" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.3">
@@ -8085,13 +8454,13 @@
         <v>310</v>
       </c>
       <c r="B102" s="35" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O102" s="33" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.3">
@@ -8099,13 +8468,13 @@
         <v>312</v>
       </c>
       <c r="B103" s="35" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O103" s="33" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.3">
@@ -8113,13 +8482,13 @@
         <v>313</v>
       </c>
       <c r="B104" s="35" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O104" s="33" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.3">
@@ -8127,13 +8496,13 @@
         <v>314</v>
       </c>
       <c r="B105" s="35" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O105" s="33" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.3">
@@ -8141,13 +8510,13 @@
         <v>315</v>
       </c>
       <c r="B106" s="35" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O106" s="33" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.3">
@@ -8155,13 +8524,13 @@
         <v>316</v>
       </c>
       <c r="B107" s="35" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O107" s="33" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.3">
@@ -8169,13 +8538,13 @@
         <v>317</v>
       </c>
       <c r="B108" s="35" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O108" s="33" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.3">
@@ -8183,13 +8552,13 @@
         <v>318</v>
       </c>
       <c r="B109" s="35" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O109" s="33" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.3">
@@ -8197,13 +8566,13 @@
         <v>320</v>
       </c>
       <c r="B110" s="35" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O110" s="33" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.3">
@@ -8211,13 +8580,13 @@
         <v>321</v>
       </c>
       <c r="B111" s="35" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O111" s="33" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="112" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
@@ -8225,13 +8594,13 @@
         <v>323</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O112" s="33" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.3">
@@ -8239,13 +8608,13 @@
         <v>324</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O113" s="33" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.3">
@@ -8253,7 +8622,7 @@
         <v>326</v>
       </c>
       <c r="B114" s="35" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C114" s="5" t="s">
         <v>2</v>
@@ -8262,7 +8631,7 @@
         <v>60</v>
       </c>
       <c r="O114" s="33" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.3">
@@ -8270,13 +8639,13 @@
         <v>327</v>
       </c>
       <c r="B115" s="35" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O115" s="33" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.3">
@@ -8284,13 +8653,13 @@
         <v>329</v>
       </c>
       <c r="B116" s="35" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O116" s="33" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.3">
@@ -8298,13 +8667,13 @@
         <v>330</v>
       </c>
       <c r="B117" s="35" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O117" s="33" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.3">
@@ -8312,13 +8681,13 @@
         <v>331</v>
       </c>
       <c r="B118" s="35" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O118" s="33" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.3">
@@ -8326,13 +8695,13 @@
         <v>332</v>
       </c>
       <c r="B119" s="35" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O119" s="33" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.3">
@@ -8340,13 +8709,13 @@
         <v>336</v>
       </c>
       <c r="B120" s="35" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O120" s="33" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.3">
@@ -8354,13 +8723,13 @@
         <v>340</v>
       </c>
       <c r="B121" s="35" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O121" s="33" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.3">
@@ -8368,13 +8737,13 @@
         <v>341</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O122" s="33" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="123" spans="1:16" x14ac:dyDescent="0.3">
@@ -8472,13 +8841,13 @@
         <v>349</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C125" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D125" s="16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E125" s="5" t="s">
         <v>10</v>
@@ -8512,7 +8881,7 @@
       </c>
       <c r="O125" s="33"/>
       <c r="P125" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="126" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
@@ -8526,7 +8895,7 @@
         <v>2</v>
       </c>
       <c r="D126" s="16" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E126" s="5" t="s">
         <v>10</v>
@@ -8560,7 +8929,7 @@
       </c>
       <c r="O126" s="33"/>
       <c r="P126" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.3">
@@ -8692,30 +9061,30 @@
       </c>
       <c r="O129" s="33"/>
       <c r="P129" s="6" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.3">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A130" s="31">
-        <v>541</v>
+        <v>496</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>9</v>
+        <v>298</v>
       </c>
       <c r="C130" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D130" s="16" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="E130" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F130" s="5" t="s">
-        <v>7</v>
+        <v>297</v>
       </c>
       <c r="G130" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H130" s="5" t="s">
         <v>18</v>
@@ -8726,6 +9095,9 @@
       <c r="J130" s="8" t="s">
         <v>51</v>
       </c>
+      <c r="K130" s="8">
+        <v>45</v>
+      </c>
       <c r="L130" s="8">
         <v>1</v>
       </c>
@@ -8737,15 +9109,15 @@
       </c>
       <c r="O130" s="33"/>
       <c r="P130" s="6" t="s">
-        <v>39</v>
+        <v>299</v>
       </c>
     </row>
     <row r="131" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A131" s="31">
-        <v>557</v>
+        <v>541</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C131" s="5" t="s">
         <v>2</v>
@@ -8757,10 +9129,10 @@
         <v>10</v>
       </c>
       <c r="F131" s="5" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="G131" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H131" s="5" t="s">
         <v>18</v>
@@ -8772,112 +9144,88 @@
         <v>51</v>
       </c>
       <c r="L131" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M131" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N131" s="10" t="s">
         <v>52</v>
       </c>
       <c r="O131" s="33"/>
       <c r="P131" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="132" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A132" s="31">
-        <v>665</v>
+        <v>557</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>156</v>
+        <v>21</v>
       </c>
       <c r="C132" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D132" s="16" t="s">
-        <v>74</v>
+        <v>13</v>
+      </c>
+      <c r="E132" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F132" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G132" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="H132" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I132" s="8" t="s">
         <v>51</v>
       </c>
       <c r="J132" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="K132" s="8">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="L132" s="8">
+        <v>2</v>
+      </c>
+      <c r="M132" s="10">
         <v>1</v>
-      </c>
-      <c r="M132" s="10">
-        <v>0</v>
       </c>
       <c r="N132" s="10" t="s">
         <v>52</v>
       </c>
       <c r="O132" s="33"/>
       <c r="P132" s="6" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="133" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A133" s="31">
-        <v>771</v>
+        <v>561</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>109</v>
+        <v>286</v>
       </c>
       <c r="C133" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D133" s="16" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="E133" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F133" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G133" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H133" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I133" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="J133" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="K133" s="8">
-        <v>30</v>
-      </c>
-      <c r="L133" s="8">
-        <v>1</v>
-      </c>
-      <c r="M133" s="10">
-        <v>1</v>
-      </c>
-      <c r="N133" s="10" t="s">
-        <v>52</v>
-      </c>
       <c r="O133" s="33"/>
-      <c r="P133" s="6" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="134" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A134" s="31">
-        <v>832</v>
+        <v>665</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>116</v>
+        <v>155</v>
       </c>
       <c r="C134" s="5" t="s">
         <v>2</v>
@@ -8885,26 +9233,17 @@
       <c r="D134" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="E134" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F134" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="G134" s="5" t="s">
-        <v>8</v>
-      </c>
       <c r="H134" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I134" s="8" t="s">
         <v>51</v>
       </c>
       <c r="J134" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K134" s="8">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="L134" s="8">
         <v>1</v>
@@ -8917,30 +9256,30 @@
       </c>
       <c r="O134" s="33"/>
       <c r="P134" s="6" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.3">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A135" s="31">
-        <v>977</v>
+        <v>771</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>160</v>
+        <v>109</v>
       </c>
       <c r="C135" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D135" s="16" t="s">
-        <v>158</v>
+        <v>13</v>
       </c>
       <c r="E135" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F135" s="5" t="s">
-        <v>78</v>
+        <v>7</v>
       </c>
       <c r="G135" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H135" s="5" t="s">
         <v>18</v>
@@ -8952,70 +9291,94 @@
         <v>51</v>
       </c>
       <c r="K135" s="8">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="L135" s="8">
         <v>1</v>
       </c>
       <c r="M135" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N135" s="10" t="s">
         <v>52</v>
       </c>
       <c r="O135" s="33"/>
       <c r="P135" s="6" t="s">
-        <v>162</v>
+        <v>110</v>
       </c>
     </row>
     <row r="136" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A136" s="31">
-        <v>1002</v>
+        <v>832</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C136" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D136" s="16" t="s">
-        <v>13</v>
+        <v>74</v>
+      </c>
+      <c r="E136" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F136" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="G136" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H136" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="I136" s="8" t="s">
         <v>51</v>
       </c>
       <c r="J136" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
+      </c>
+      <c r="K136" s="8">
+        <v>30</v>
+      </c>
+      <c r="L136" s="8">
+        <v>1</v>
+      </c>
+      <c r="M136" s="10">
+        <v>0</v>
       </c>
       <c r="N136" s="10" t="s">
         <v>52</v>
       </c>
       <c r="O136" s="33"/>
-    </row>
-    <row r="137" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+      <c r="P136" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="137" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A137" s="31">
-        <v>1089</v>
+        <v>876</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>181</v>
+        <v>290</v>
       </c>
       <c r="C137" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D137" s="16" t="s">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="E137" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F137" s="5" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="G137" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H137" s="5" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I137" s="8" t="s">
         <v>51</v>
@@ -9037,30 +9400,30 @@
       </c>
       <c r="O137" s="33"/>
       <c r="P137" s="6" t="s">
-        <v>182</v>
+        <v>291</v>
       </c>
     </row>
     <row r="138" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A138" s="34">
-        <v>1108</v>
+        <v>977</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>133</v>
+        <v>159</v>
       </c>
       <c r="C138" s="34" t="s">
         <v>2</v>
       </c>
       <c r="D138" s="34" t="s">
-        <v>13</v>
+        <v>157</v>
       </c>
       <c r="E138" s="34" t="s">
         <v>10</v>
       </c>
       <c r="F138" s="34" t="s">
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="G138" s="34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H138" s="34" t="s">
         <v>18</v>
@@ -9072,7 +9435,7 @@
         <v>51</v>
       </c>
       <c r="K138" s="34">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L138" s="34">
         <v>1</v>
@@ -9085,105 +9448,70 @@
       </c>
       <c r="O138" s="34"/>
       <c r="P138" s="6" t="s">
-        <v>134</v>
+        <v>161</v>
       </c>
     </row>
     <row r="139" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A139" s="12">
-        <v>1119</v>
-      </c>
-      <c r="B139" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="C139" s="12" t="s">
+      <c r="A139" s="36">
+        <v>1002</v>
+      </c>
+      <c r="B139" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C139" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="D139" s="12" t="s">
+      <c r="D139" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="E139" s="12"/>
-      <c r="F139" s="12"/>
-      <c r="G139" s="12"/>
-      <c r="H139" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="I139" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="J139" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="K139" s="12">
-        <v>10</v>
-      </c>
-      <c r="L139" s="12">
-        <v>1</v>
-      </c>
-      <c r="M139" s="12">
-        <v>0</v>
-      </c>
-      <c r="N139" s="12" t="s">
+      <c r="E139" s="36"/>
+      <c r="F139" s="36"/>
+      <c r="G139" s="36"/>
+      <c r="H139" s="36"/>
+      <c r="I139" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="J139" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="O139" s="12"/>
-      <c r="P139" s="13" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="140" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="K139" s="36"/>
+      <c r="L139" s="36"/>
+      <c r="M139" s="36"/>
+      <c r="N139" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="O139" s="36"/>
+    </row>
+    <row r="140" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A140" s="31">
-        <v>1295</v>
+        <v>1021</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>145</v>
+        <v>295</v>
       </c>
       <c r="C140" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D140" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="E140" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F140" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G140" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H140" s="5" t="s">
-        <v>33</v>
+        <v>82</v>
       </c>
       <c r="I140" s="8" t="s">
         <v>51</v>
       </c>
       <c r="J140" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="K140" s="8">
-        <v>10</v>
-      </c>
-      <c r="L140" s="8">
-        <v>2</v>
-      </c>
-      <c r="M140" s="10">
-        <v>1</v>
-      </c>
-      <c r="N140" s="10" t="s">
         <v>52</v>
       </c>
       <c r="O140" s="33"/>
       <c r="P140" s="6" t="s">
-        <v>146</v>
+        <v>296</v>
       </c>
     </row>
     <row r="141" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A141" s="31">
-        <v>1299</v>
+        <v>1089</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="C141" s="5" t="s">
         <v>2</v>
@@ -9195,10 +9523,10 @@
         <v>10</v>
       </c>
       <c r="F141" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G141" s="5" t="s">
         <v>7</v>
-      </c>
-      <c r="G141" s="5" t="s">
-        <v>8</v>
       </c>
       <c r="H141" s="5" t="s">
         <v>18</v>
@@ -9210,40 +9538,58 @@
         <v>51</v>
       </c>
       <c r="K141" s="8">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="L141" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M141" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N141" s="10" t="s">
         <v>52</v>
       </c>
       <c r="O141" s="33"/>
       <c r="P141" s="6" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="142" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="142" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A142" s="31">
-        <v>1304</v>
+        <v>1108</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>151</v>
+        <v>133</v>
       </c>
       <c r="C142" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D142" s="16" t="s">
-        <v>74</v>
+        <v>13</v>
+      </c>
+      <c r="E142" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F142" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G142" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H142" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="I142" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J142" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
+      </c>
+      <c r="K142" s="8">
+        <v>10</v>
+      </c>
+      <c r="L142" s="8">
+        <v>1</v>
       </c>
       <c r="M142" s="10">
         <v>0</v>
@@ -9253,69 +9599,63 @@
       </c>
       <c r="O142" s="33"/>
       <c r="P142" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="143" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A143" s="31">
-        <v>1313</v>
-      </c>
-      <c r="B143" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="C143" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="143" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A143" s="12">
+        <v>1119</v>
+      </c>
+      <c r="B143" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="C143" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D143" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="E143" s="5" t="s">
+      <c r="D143" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E143" s="12"/>
+      <c r="F143" s="12"/>
+      <c r="G143" s="12"/>
+      <c r="H143" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I143" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="J143" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="K143" s="12">
         <v>10</v>
       </c>
-      <c r="F143" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="G143" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H143" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I143" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="J143" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="K143" s="8">
-        <v>30</v>
-      </c>
-      <c r="L143" s="8">
+      <c r="L143" s="12">
         <v>1</v>
       </c>
-      <c r="M143" s="10">
+      <c r="M143" s="12">
         <v>0</v>
       </c>
-      <c r="N143" s="10" t="s">
+      <c r="N143" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="O143" s="33"/>
-      <c r="P143" s="6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="144" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="O143" s="12"/>
+      <c r="P143" s="13" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="144" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A144" s="31">
-        <v>1342</v>
+        <v>1295</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>112</v>
+        <v>145</v>
       </c>
       <c r="C144" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D144" s="16" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="E144" s="5" t="s">
         <v>10</v>
@@ -9327,7 +9667,7 @@
         <v>8</v>
       </c>
       <c r="H144" s="5" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I144" s="8" t="s">
         <v>51</v>
@@ -9336,28 +9676,28 @@
         <v>51</v>
       </c>
       <c r="K144" s="8">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="L144" s="8">
+        <v>2</v>
+      </c>
+      <c r="M144" s="10">
         <v>1</v>
-      </c>
-      <c r="M144" s="10">
-        <v>0</v>
       </c>
       <c r="N144" s="10" t="s">
         <v>52</v>
       </c>
       <c r="O144" s="33"/>
       <c r="P144" s="6" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="145" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="145" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A145" s="31">
-        <v>1365</v>
+        <v>1299</v>
       </c>
       <c r="B145" s="7" t="s">
-        <v>95</v>
+        <v>154</v>
       </c>
       <c r="C145" s="5" t="s">
         <v>2</v>
@@ -9369,10 +9709,10 @@
         <v>10</v>
       </c>
       <c r="F145" s="5" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="G145" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H145" s="5" t="s">
         <v>18</v>
@@ -9384,28 +9724,28 @@
         <v>51</v>
       </c>
       <c r="K145" s="8">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="L145" s="8">
+        <v>2</v>
+      </c>
+      <c r="M145" s="10">
         <v>1</v>
-      </c>
-      <c r="M145" s="10">
-        <v>0</v>
       </c>
       <c r="N145" s="10" t="s">
         <v>52</v>
       </c>
       <c r="O145" s="33"/>
       <c r="P145" s="6" t="s">
-        <v>96</v>
+        <v>185</v>
       </c>
     </row>
     <row r="146" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A146" s="31">
-        <v>1389</v>
+        <v>1304</v>
       </c>
       <c r="B146" s="7" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="C146" s="5" t="s">
         <v>2</v>
@@ -9413,29 +9753,11 @@
       <c r="D146" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="E146" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F146" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G146" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H146" s="5" t="s">
-        <v>18</v>
-      </c>
       <c r="I146" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J146" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="K146" s="8">
-        <v>60</v>
-      </c>
-      <c r="L146" s="8">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="M146" s="10">
         <v>0</v>
@@ -9445,15 +9767,15 @@
       </c>
       <c r="O146" s="33"/>
       <c r="P146" s="6" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="147" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="147" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A147" s="31">
-        <v>1431</v>
+        <v>1313</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>91</v>
+        <v>138</v>
       </c>
       <c r="C147" s="5" t="s">
         <v>2</v>
@@ -9465,7 +9787,7 @@
         <v>10</v>
       </c>
       <c r="F147" s="5" t="s">
-        <v>7</v>
+        <v>123</v>
       </c>
       <c r="G147" s="5" t="s">
         <v>7</v>
@@ -9480,7 +9802,7 @@
         <v>51</v>
       </c>
       <c r="K147" s="8">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="L147" s="8">
         <v>1</v>
@@ -9493,21 +9815,21 @@
       </c>
       <c r="O147" s="33"/>
       <c r="P147" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="148" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="148" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A148" s="31">
-        <v>1450</v>
+        <v>1342</v>
       </c>
       <c r="B148" s="7" t="s">
-        <v>147</v>
+        <v>112</v>
       </c>
       <c r="C148" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D148" s="16" t="s">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="E148" s="5" t="s">
         <v>10</v>
@@ -9528,7 +9850,7 @@
         <v>51</v>
       </c>
       <c r="K148" s="8">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="L148" s="8">
         <v>1</v>
@@ -9541,15 +9863,15 @@
       </c>
       <c r="O148" s="33"/>
       <c r="P148" s="6" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="149" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="149" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A149" s="31">
-        <v>1464</v>
+        <v>1365</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>149</v>
+        <v>95</v>
       </c>
       <c r="C149" s="5" t="s">
         <v>2</v>
@@ -9561,10 +9883,10 @@
         <v>10</v>
       </c>
       <c r="F149" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G149" s="5" t="s">
         <v>7</v>
-      </c>
-      <c r="G149" s="5" t="s">
-        <v>8</v>
       </c>
       <c r="H149" s="5" t="s">
         <v>18</v>
@@ -9576,7 +9898,7 @@
         <v>51</v>
       </c>
       <c r="K149" s="8">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="L149" s="8">
         <v>1</v>
@@ -9589,15 +9911,15 @@
       </c>
       <c r="O149" s="33"/>
       <c r="P149" s="6" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="150" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="150" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A150" s="31">
-        <v>1470</v>
+        <v>1389</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="C150" s="5" t="s">
         <v>2</v>
@@ -9609,7 +9931,7 @@
         <v>10</v>
       </c>
       <c r="F150" s="5" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="G150" s="5" t="s">
         <v>7</v>
@@ -9621,31 +9943,31 @@
         <v>51</v>
       </c>
       <c r="J150" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K150" s="8">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="L150" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M150" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N150" s="10" t="s">
         <v>52</v>
       </c>
       <c r="O150" s="33"/>
       <c r="P150" s="6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="151" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="151" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A151" s="31">
-        <v>1475</v>
+        <v>1431</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>153</v>
+        <v>91</v>
       </c>
       <c r="C151" s="5" t="s">
         <v>2</v>
@@ -9657,10 +9979,10 @@
         <v>10</v>
       </c>
       <c r="F151" s="5" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="G151" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H151" s="5" t="s">
         <v>18</v>
@@ -9672,7 +9994,7 @@
         <v>51</v>
       </c>
       <c r="K151" s="8">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="L151" s="8">
         <v>1</v>
@@ -9685,15 +10007,15 @@
       </c>
       <c r="O151" s="33"/>
       <c r="P151" s="6" t="s">
-        <v>154</v>
+        <v>94</v>
       </c>
     </row>
     <row r="152" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A152" s="31">
-        <v>1480</v>
+        <v>1450</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>89</v>
+        <v>147</v>
       </c>
       <c r="C152" s="5" t="s">
         <v>2</v>
@@ -9711,7 +10033,7 @@
         <v>8</v>
       </c>
       <c r="H152" s="5" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I152" s="8" t="s">
         <v>51</v>
@@ -9720,34 +10042,34 @@
         <v>51</v>
       </c>
       <c r="K152" s="8">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="L152" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M152" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N152" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O152" s="33"/>
       <c r="P152" s="6" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
     </row>
     <row r="153" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A153" s="34">
-        <v>1512</v>
+        <v>1464</v>
       </c>
       <c r="B153" s="7" t="s">
-        <v>36</v>
+        <v>149</v>
       </c>
       <c r="C153" s="34" t="s">
         <v>2</v>
       </c>
       <c r="D153" s="34" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="E153" s="34" t="s">
         <v>10</v>
@@ -9756,10 +10078,10 @@
         <v>7</v>
       </c>
       <c r="G153" s="34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H153" s="34" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I153" s="34" t="s">
         <v>51</v>
@@ -9768,74 +10090,88 @@
         <v>51</v>
       </c>
       <c r="K153" s="34">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="L153" s="34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M153" s="34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N153" s="34" t="s">
         <v>52</v>
       </c>
       <c r="O153" s="34"/>
       <c r="P153" s="6" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="154" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A154" s="19">
-        <v>1588</v>
-      </c>
-      <c r="B154" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="C154" s="19" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="154" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A154" s="36">
+        <v>1470</v>
+      </c>
+      <c r="B154" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C154" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="D154" s="19" t="s">
+      <c r="D154" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="E154" s="19"/>
-      <c r="F154" s="19"/>
-      <c r="G154" s="19"/>
-      <c r="H154" s="19"/>
-      <c r="I154" s="19" t="s">
+      <c r="E154" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="F154" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="G154" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="H154" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="I154" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="J154" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="J154" s="19" t="s">
+      <c r="K154" s="36">
+        <v>45</v>
+      </c>
+      <c r="L154" s="36">
+        <v>2</v>
+      </c>
+      <c r="M154" s="36">
+        <v>1</v>
+      </c>
+      <c r="N154" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="K154" s="19"/>
-      <c r="L154" s="19"/>
-      <c r="M154" s="19"/>
-      <c r="N154" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="O154" s="19"/>
-      <c r="P154" s="20" t="s">
-        <v>144</v>
+      <c r="O154" s="36"/>
+      <c r="P154" s="6" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="155" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A155" s="31">
-        <v>1662</v>
+        <v>1475</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>131</v>
+        <v>153</v>
       </c>
       <c r="C155" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D155" s="16" t="s">
-        <v>125</v>
+        <v>74</v>
       </c>
       <c r="E155" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F155" s="5" t="s">
-        <v>7</v>
+        <v>126</v>
       </c>
       <c r="G155" s="5" t="s">
         <v>8</v>
@@ -9850,28 +10186,28 @@
         <v>51</v>
       </c>
       <c r="K155" s="8">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="L155" s="8">
+        <v>2</v>
+      </c>
+      <c r="M155" s="10">
         <v>1</v>
-      </c>
-      <c r="M155" s="10">
-        <v>0</v>
       </c>
       <c r="N155" s="10" t="s">
         <v>52</v>
       </c>
       <c r="O155" s="33"/>
       <c r="P155" s="6" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="156" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A156" s="31">
-        <v>1672</v>
+        <v>1480</v>
       </c>
       <c r="B156" s="7" t="s">
-        <v>122</v>
+        <v>89</v>
       </c>
       <c r="C156" s="5" t="s">
         <v>2</v>
@@ -9883,13 +10219,13 @@
         <v>10</v>
       </c>
       <c r="F156" s="5" t="s">
-        <v>123</v>
+        <v>7</v>
       </c>
       <c r="G156" s="5" t="s">
         <v>8</v>
       </c>
       <c r="H156" s="5" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I156" s="8" t="s">
         <v>51</v>
@@ -9898,34 +10234,34 @@
         <v>51</v>
       </c>
       <c r="K156" s="8">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="L156" s="8">
+        <v>2</v>
+      </c>
+      <c r="M156" s="10">
         <v>1</v>
       </c>
-      <c r="M156" s="10">
-        <v>0</v>
-      </c>
       <c r="N156" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O156" s="33"/>
       <c r="P156" s="6" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.3">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="157" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A157" s="31">
-        <v>1674</v>
+        <v>1512</v>
       </c>
       <c r="B157" s="7" t="s">
-        <v>129</v>
+        <v>36</v>
       </c>
       <c r="C157" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D157" s="16" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="E157" s="5" t="s">
         <v>10</v>
@@ -9937,104 +10273,121 @@
         <v>7</v>
       </c>
       <c r="H157" s="5" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I157" s="8" t="s">
         <v>51</v>
       </c>
       <c r="J157" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K157" s="8">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="L157" s="8">
+        <v>2</v>
+      </c>
+      <c r="M157" s="10">
         <v>1</v>
-      </c>
-      <c r="M157" s="10">
-        <v>0</v>
       </c>
       <c r="N157" s="10" t="s">
         <v>52</v>
       </c>
       <c r="O157" s="33"/>
       <c r="P157" s="6" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="158" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A158" s="31">
-        <v>1684</v>
-      </c>
-      <c r="B158" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="C158" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="158" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A158" s="19">
+        <v>1588</v>
+      </c>
+      <c r="B158" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="C158" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D158" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="E158" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F158" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="G158" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H158" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I158" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="J158" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="K158" s="8">
-        <v>10</v>
-      </c>
-      <c r="L158" s="8">
-        <v>1</v>
-      </c>
-      <c r="M158" s="10">
-        <v>0</v>
-      </c>
-      <c r="N158" s="10" t="s">
+      <c r="D158" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="E158" s="19"/>
+      <c r="F158" s="19"/>
+      <c r="G158" s="19"/>
+      <c r="H158" s="19"/>
+      <c r="I158" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="P158" s="6" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="J158" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="K158" s="19"/>
+      <c r="L158" s="19"/>
+      <c r="M158" s="19"/>
+      <c r="N158" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="O158" s="19"/>
+      <c r="P158" s="20" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="159" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A159" s="31">
-        <v>561</v>
+        <v>1662</v>
       </c>
       <c r="B159" s="7" t="s">
-        <v>287</v>
+        <v>131</v>
       </c>
       <c r="C159" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D159" s="16" t="s">
-        <v>74</v>
+        <v>125</v>
       </c>
       <c r="E159" s="5" t="s">
         <v>10</v>
       </c>
+      <c r="F159" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G159" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H159" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I159" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="J159" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="K159" s="8">
+        <v>30</v>
+      </c>
+      <c r="L159" s="8">
+        <v>1</v>
+      </c>
+      <c r="M159" s="10">
+        <v>0</v>
+      </c>
+      <c r="N159" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="P159" s="6" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="160" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A160" s="31">
-        <v>876</v>
+        <v>1669</v>
       </c>
       <c r="B160" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>2</v>
+        <v>174</v>
       </c>
       <c r="D160" s="16" t="s">
         <v>25</v>
@@ -10043,13 +10396,13 @@
         <v>10</v>
       </c>
       <c r="F160" s="5" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="G160" s="5" t="s">
         <v>8</v>
       </c>
       <c r="H160" s="5" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I160" s="8" t="s">
         <v>51</v>
@@ -10058,7 +10411,7 @@
         <v>51</v>
       </c>
       <c r="K160" s="8">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="L160" s="8">
         <v>1</v>
@@ -10070,27 +10423,27 @@
         <v>52</v>
       </c>
       <c r="P160" s="6" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="161" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A161" s="31">
-        <v>1669</v>
+        <v>1672</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>294</v>
+        <v>122</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>175</v>
+        <v>2</v>
       </c>
       <c r="D161" s="16" t="s">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="E161" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F161" s="5" t="s">
-        <v>22</v>
+        <v>123</v>
       </c>
       <c r="G161" s="5" t="s">
         <v>8</v>
@@ -10105,7 +10458,7 @@
         <v>51</v>
       </c>
       <c r="K161" s="8">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="L161" s="8">
         <v>1</v>
@@ -10117,13 +10470,154 @@
         <v>52</v>
       </c>
       <c r="P161" s="6" t="s">
-        <v>295</v>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="162" spans="1:16" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A162" s="31">
+        <v>1674</v>
+      </c>
+      <c r="B162" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C162" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D162" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E162" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F162" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G162" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H162" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I162" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="J162" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="K162" s="8">
+        <v>45</v>
+      </c>
+      <c r="L162" s="8">
+        <v>1</v>
+      </c>
+      <c r="M162" s="10">
+        <v>0</v>
+      </c>
+      <c r="N162" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="P162" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="163" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A163" s="31">
+        <v>1684</v>
+      </c>
+      <c r="B163" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C163" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D163" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="E163" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F163" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G163" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H163" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I163" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="J163" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="K163" s="8">
+        <v>10</v>
+      </c>
+      <c r="L163" s="8">
+        <v>1</v>
+      </c>
+      <c r="M163" s="10">
+        <v>0</v>
+      </c>
+      <c r="N163" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="P163" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="164" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A164" s="31">
+        <v>1047</v>
+      </c>
+      <c r="B164" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="C164" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D164" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="E164" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F164" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G164" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H164" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I164" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="J164" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="K164" s="8">
+        <v>15</v>
+      </c>
+      <c r="L164" s="8">
+        <v>1</v>
+      </c>
+      <c r="M164" s="10">
+        <v>0</v>
+      </c>
+      <c r="N164" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="P164" s="6" t="s">
+        <v>302</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A8:P161" xr:uid="{57DD97F8-0FE5-4F41-AAF2-1F48E42A70CC}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:P158">
-      <sortCondition ref="A8:A157"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:P163">
+      <sortCondition ref="A8:A161"/>
     </sortState>
   </autoFilter>
   <mergeCells count="2">

--- a/LeetCode Tracker.xlsx
+++ b/LeetCode Tracker.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leon\Desktop\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AF53964-AB13-4E13-87FB-A6729685CB2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E63E777B-B789-4C10-9F3C-EF4C9A8FA0AC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2FA590F6-CEBE-453D-A814-55EB366ADEEE}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="LeetCode" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LeetCode!$A$8:$P$161</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LeetCode!$A$8:$P$164</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="305">
   <si>
     <t>LeetCode Problems</t>
   </si>
@@ -4833,200 +4833,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">****Very very good and tricky question. Able to </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Brute Force </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">the solution with different loops and </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>break</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> to exit loops, but is too slow. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Optimal Solution </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">is using </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">HashMap </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">and </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Stack</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> to solve it. Also, need to to look out for </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">decreasing </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">element, that is why, there is </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>while</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> loop in the solution after the first </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">for </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">loop. Plus, there is also </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Map.getOrDefault</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> to learn (new method).</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>****</t>
     </r>
     <r>
@@ -5131,6 +4937,201 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">****Very very good and tricky question. Able to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Brute Force </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">the solution with different loops and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>break</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to exit loops, but is too slow. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Optimal Solution </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">is using </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">HashMap </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Stack</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to solve it. Also, need to to look out for </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">decreasing </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">element, that is why, there is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>while</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> loop in the solution after the first </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">for </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">loop. Plus, there is also </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Map.getOrDefault</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to learn (new method).
+https://www.youtube.com/watch?v=8BDKB2yuGyg</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t>****</t>
     </r>
     <r>
@@ -5152,18 +5153,196 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">was really slow even though only loops once with </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Stack.</t>
+      <t xml:space="preserve">was really slow even though only loop once with </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Stack. Optimal Solution </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">is to use </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Stack in Array.
+Optimal Solution </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">is to create a new </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">char array </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and to use an extra pointer to determine </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">position </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>of stack</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+https://www.youtube.com/watch?v=hXEEr5WekSQ</t>
+    </r>
+  </si>
+  <si>
+    <t>Baseball Game</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">****Able to solved it by implementing </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>stack array</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">top </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">pointer. Just have to look out for converting </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">String </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Integer.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Still need to figure out why </t>
     </r>
   </si>
 </sst>
@@ -5318,7 +5497,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -5417,6 +5596,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5826,13 +6008,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CECAF50C-0FA8-4FE8-AF1F-0197AD9DA707}">
-  <dimension ref="A1:U164"/>
+  <dimension ref="A1:U165"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="18" ySplit="8" topLeftCell="S155" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="18" ySplit="8" topLeftCell="S157" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="P1" sqref="P1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="K163" sqref="K163"/>
+      <selection pane="bottomRight" activeCell="D168" sqref="D168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5860,48 +6042,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="45" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="46"/>
+      <c r="R1" s="47"/>
       <c r="S1" s="11"/>
       <c r="T1" s="9"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A2" s="39"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="40"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="41"/>
       <c r="Q2" s="28" t="s">
         <v>17</v>
       </c>
@@ -5910,22 +6092,22 @@
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A3" s="39"/>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="40"/>
+      <c r="A3" s="40"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="41"/>
       <c r="Q3" s="28" t="s">
         <v>18</v>
       </c>
@@ -5934,22 +6116,22 @@
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A4" s="39"/>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="40"/>
+      <c r="A4" s="40"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="41"/>
       <c r="Q4" s="4" t="s">
         <v>19</v>
       </c>
@@ -5958,22 +6140,22 @@
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5" s="41"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="41"/>
-      <c r="P5" s="42"/>
+      <c r="A5" s="42"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="42"/>
+      <c r="P5" s="43"/>
       <c r="Q5" s="28" t="s">
         <v>27</v>
       </c>
@@ -5982,22 +6164,22 @@
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6" s="41"/>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="41"/>
-      <c r="N6" s="41"/>
-      <c r="O6" s="41"/>
-      <c r="P6" s="42"/>
+      <c r="A6" s="42"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="42"/>
+      <c r="O6" s="42"/>
+      <c r="P6" s="43"/>
       <c r="Q6" s="28" t="s">
         <v>29</v>
       </c>
@@ -6006,22 +6188,22 @@
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A7" s="43"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="43"/>
-      <c r="L7" s="43"/>
-      <c r="M7" s="43"/>
-      <c r="N7" s="43"/>
-      <c r="O7" s="43"/>
-      <c r="P7" s="44"/>
+      <c r="A7" s="44"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="44"/>
+      <c r="O7" s="44"/>
+      <c r="P7" s="45"/>
       <c r="Q7" s="28" t="s">
         <v>31</v>
       </c>
@@ -9064,7 +9246,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="130" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A130" s="31">
         <v>496</v>
       </c>
@@ -9109,7 +9291,7 @@
       </c>
       <c r="O130" s="33"/>
       <c r="P130" s="6" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="131" spans="1:16" x14ac:dyDescent="0.3">
@@ -9506,24 +9688,24 @@
         <v>296</v>
       </c>
     </row>
-    <row r="141" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A141" s="31">
-        <v>1089</v>
+        <v>1047</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="C141" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D141" s="16" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="E141" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F141" s="5" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="G141" s="5" t="s">
         <v>7</v>
@@ -9551,27 +9733,27 @@
       </c>
       <c r="O141" s="33"/>
       <c r="P141" s="6" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.3">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="142" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A142" s="31">
-        <v>1108</v>
+        <v>1089</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>133</v>
+        <v>180</v>
       </c>
       <c r="C142" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D142" s="16" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="E142" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F142" s="5" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="G142" s="5" t="s">
         <v>7</v>
@@ -9586,7 +9768,7 @@
         <v>51</v>
       </c>
       <c r="K142" s="8">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L142" s="8">
         <v>1</v>
@@ -9599,105 +9781,105 @@
       </c>
       <c r="O142" s="33"/>
       <c r="P142" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="143" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A143" s="37">
+        <v>1108</v>
+      </c>
+      <c r="B143" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C143" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="D143" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="E143" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="F143" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="G143" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="H143" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="I143" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="J143" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="K143" s="37">
+        <v>10</v>
+      </c>
+      <c r="L143" s="37">
+        <v>1</v>
+      </c>
+      <c r="M143" s="37">
+        <v>0</v>
+      </c>
+      <c r="N143" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="O143" s="37"/>
+      <c r="P143" s="6" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A143" s="12">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A144" s="12">
         <v>1119</v>
       </c>
-      <c r="B143" s="17" t="s">
+      <c r="B144" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="C143" s="12" t="s">
+      <c r="C144" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D143" s="12" t="s">
+      <c r="D144" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E143" s="12"/>
-      <c r="F143" s="12"/>
-      <c r="G143" s="12"/>
-      <c r="H143" s="12" t="s">
+      <c r="E144" s="12"/>
+      <c r="F144" s="12"/>
+      <c r="G144" s="12"/>
+      <c r="H144" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="I143" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="J143" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="K143" s="12">
+      <c r="I144" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="J144" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="K144" s="12">
         <v>10</v>
       </c>
-      <c r="L143" s="12">
+      <c r="L144" s="12">
         <v>1</v>
       </c>
-      <c r="M143" s="12">
+      <c r="M144" s="12">
         <v>0</v>
       </c>
-      <c r="N143" s="12" t="s">
+      <c r="N144" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="O143" s="12"/>
-      <c r="P143" s="13" t="s">
+      <c r="O144" s="12"/>
+      <c r="P144" s="13" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="144" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A144" s="31">
+    <row r="145" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A145" s="31">
         <v>1295</v>
       </c>
-      <c r="B144" s="7" t="s">
+      <c r="B145" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="C144" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D144" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="E144" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F144" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G144" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H144" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I144" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="J144" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="K144" s="8">
-        <v>10</v>
-      </c>
-      <c r="L144" s="8">
-        <v>2</v>
-      </c>
-      <c r="M144" s="10">
-        <v>1</v>
-      </c>
-      <c r="N144" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="O144" s="33"/>
-      <c r="P144" s="6" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="145" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A145" s="31">
-        <v>1299</v>
-      </c>
-      <c r="B145" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="C145" s="5" t="s">
         <v>2</v>
@@ -9715,7 +9897,7 @@
         <v>8</v>
       </c>
       <c r="H145" s="5" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I145" s="8" t="s">
         <v>51</v>
@@ -9724,7 +9906,7 @@
         <v>51</v>
       </c>
       <c r="K145" s="8">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="L145" s="8">
         <v>2</v>
@@ -9737,15 +9919,15 @@
       </c>
       <c r="O145" s="33"/>
       <c r="P145" s="6" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="146" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="146" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A146" s="31">
-        <v>1304</v>
+        <v>1299</v>
       </c>
       <c r="B146" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C146" s="5" t="s">
         <v>2</v>
@@ -9753,29 +9935,47 @@
       <c r="D146" s="16" t="s">
         <v>74</v>
       </c>
+      <c r="E146" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F146" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G146" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H146" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="I146" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J146" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
+      </c>
+      <c r="K146" s="8">
+        <v>40</v>
+      </c>
+      <c r="L146" s="8">
+        <v>2</v>
       </c>
       <c r="M146" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N146" s="10" t="s">
         <v>52</v>
       </c>
       <c r="O146" s="33"/>
       <c r="P146" s="6" t="s">
-        <v>152</v>
+        <v>185</v>
       </c>
     </row>
     <row r="147" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A147" s="31">
-        <v>1313</v>
+        <v>1304</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="C147" s="5" t="s">
         <v>2</v>
@@ -9783,29 +9983,11 @@
       <c r="D147" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="E147" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F147" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="G147" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H147" s="5" t="s">
-        <v>18</v>
-      </c>
       <c r="I147" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J147" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="K147" s="8">
-        <v>30</v>
-      </c>
-      <c r="L147" s="8">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="M147" s="10">
         <v>0</v>
@@ -9815,30 +9997,30 @@
       </c>
       <c r="O147" s="33"/>
       <c r="P147" s="6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="148" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="148" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A148" s="31">
-        <v>1342</v>
+        <v>1313</v>
       </c>
       <c r="B148" s="7" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="C148" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D148" s="16" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="E148" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F148" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="G148" s="5" t="s">
         <v>7</v>
-      </c>
-      <c r="G148" s="5" t="s">
-        <v>8</v>
       </c>
       <c r="H148" s="5" t="s">
         <v>18</v>
@@ -9863,30 +10045,30 @@
       </c>
       <c r="O148" s="33"/>
       <c r="P148" s="6" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="149" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="149" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A149" s="31">
-        <v>1365</v>
+        <v>1342</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="C149" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D149" s="16" t="s">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="E149" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F149" s="5" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="G149" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H149" s="5" t="s">
         <v>18</v>
@@ -9898,7 +10080,7 @@
         <v>51</v>
       </c>
       <c r="K149" s="8">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="L149" s="8">
         <v>1</v>
@@ -9911,15 +10093,15 @@
       </c>
       <c r="O149" s="33"/>
       <c r="P149" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="150" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="150" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A150" s="31">
-        <v>1389</v>
+        <v>1365</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>140</v>
+        <v>95</v>
       </c>
       <c r="C150" s="5" t="s">
         <v>2</v>
@@ -9946,7 +10128,7 @@
         <v>51</v>
       </c>
       <c r="K150" s="8">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="L150" s="8">
         <v>1</v>
@@ -9959,15 +10141,15 @@
       </c>
       <c r="O150" s="33"/>
       <c r="P150" s="6" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="151" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="151" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A151" s="31">
-        <v>1431</v>
+        <v>1389</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>91</v>
+        <v>140</v>
       </c>
       <c r="C151" s="5" t="s">
         <v>2</v>
@@ -9979,7 +10161,7 @@
         <v>10</v>
       </c>
       <c r="F151" s="5" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="G151" s="5" t="s">
         <v>7</v>
@@ -9994,7 +10176,7 @@
         <v>51</v>
       </c>
       <c r="K151" s="8">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="L151" s="8">
         <v>1</v>
@@ -10007,15 +10189,15 @@
       </c>
       <c r="O151" s="33"/>
       <c r="P151" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="152" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="152" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A152" s="31">
-        <v>1450</v>
+        <v>1431</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>147</v>
+        <v>91</v>
       </c>
       <c r="C152" s="5" t="s">
         <v>2</v>
@@ -10030,7 +10212,7 @@
         <v>7</v>
       </c>
       <c r="G152" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H152" s="5" t="s">
         <v>18</v>
@@ -10042,7 +10224,7 @@
         <v>51</v>
       </c>
       <c r="K152" s="8">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="L152" s="8">
         <v>1</v>
@@ -10055,15 +10237,15 @@
       </c>
       <c r="O152" s="33"/>
       <c r="P152" s="6" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="153" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="153" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A153" s="34">
-        <v>1464</v>
+        <v>1450</v>
       </c>
       <c r="B153" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C153" s="34" t="s">
         <v>2</v>
@@ -10103,15 +10285,15 @@
       </c>
       <c r="O153" s="34"/>
       <c r="P153" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="154" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A154" s="36">
-        <v>1470</v>
+        <v>1464</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>90</v>
+        <v>149</v>
       </c>
       <c r="C154" s="36" t="s">
         <v>2</v>
@@ -10126,7 +10308,7 @@
         <v>7</v>
       </c>
       <c r="G154" s="36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H154" s="36" t="s">
         <v>18</v>
@@ -10135,31 +10317,31 @@
         <v>51</v>
       </c>
       <c r="J154" s="36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K154" s="36">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="L154" s="36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M154" s="36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N154" s="36" t="s">
         <v>52</v>
       </c>
       <c r="O154" s="36"/>
       <c r="P154" s="6" t="s">
-        <v>93</v>
+        <v>150</v>
       </c>
     </row>
     <row r="155" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A155" s="31">
-        <v>1475</v>
+        <v>1470</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>153</v>
+        <v>90</v>
       </c>
       <c r="C155" s="5" t="s">
         <v>2</v>
@@ -10171,10 +10353,10 @@
         <v>10</v>
       </c>
       <c r="F155" s="5" t="s">
-        <v>126</v>
+        <v>7</v>
       </c>
       <c r="G155" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H155" s="5" t="s">
         <v>18</v>
@@ -10183,10 +10365,10 @@
         <v>51</v>
       </c>
       <c r="J155" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K155" s="8">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="L155" s="8">
         <v>2</v>
@@ -10199,15 +10381,15 @@
       </c>
       <c r="O155" s="33"/>
       <c r="P155" s="6" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="156" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="156" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A156" s="31">
-        <v>1480</v>
+        <v>1475</v>
       </c>
       <c r="B156" s="7" t="s">
-        <v>89</v>
+        <v>153</v>
       </c>
       <c r="C156" s="5" t="s">
         <v>2</v>
@@ -10219,13 +10401,13 @@
         <v>10</v>
       </c>
       <c r="F156" s="5" t="s">
-        <v>7</v>
+        <v>126</v>
       </c>
       <c r="G156" s="5" t="s">
         <v>8</v>
       </c>
       <c r="H156" s="5" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I156" s="8" t="s">
         <v>51</v>
@@ -10234,7 +10416,7 @@
         <v>51</v>
       </c>
       <c r="K156" s="8">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L156" s="8">
         <v>2</v>
@@ -10243,25 +10425,25 @@
         <v>1</v>
       </c>
       <c r="N156" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O156" s="33"/>
       <c r="P156" s="6" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="157" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="157" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A157" s="31">
-        <v>1512</v>
+        <v>1480</v>
       </c>
       <c r="B157" s="7" t="s">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="C157" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D157" s="16" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="E157" s="5" t="s">
         <v>10</v>
@@ -10270,10 +10452,10 @@
         <v>7</v>
       </c>
       <c r="G157" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H157" s="5" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="I157" s="8" t="s">
         <v>51</v>
@@ -10282,7 +10464,7 @@
         <v>51</v>
       </c>
       <c r="K157" s="8">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="L157" s="8">
         <v>2</v>
@@ -10291,112 +10473,113 @@
         <v>1</v>
       </c>
       <c r="N157" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O157" s="33"/>
       <c r="P157" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="158" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A158" s="37">
+        <v>1512</v>
+      </c>
+      <c r="B158" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C158" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="D158" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="E158" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="F158" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="G158" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="H158" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="I158" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="J158" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="K158" s="37">
+        <v>50</v>
+      </c>
+      <c r="L158" s="37">
+        <v>2</v>
+      </c>
+      <c r="M158" s="37">
+        <v>1</v>
+      </c>
+      <c r="N158" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="O158" s="37"/>
+      <c r="P158" s="6" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A158" s="19">
+    <row r="159" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A159" s="19">
         <v>1588</v>
       </c>
-      <c r="B158" s="18" t="s">
+      <c r="B159" s="18" t="s">
         <v>143</v>
       </c>
-      <c r="C158" s="19" t="s">
+      <c r="C159" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D158" s="19" t="s">
+      <c r="D159" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="E158" s="19"/>
-      <c r="F158" s="19"/>
-      <c r="G158" s="19"/>
-      <c r="H158" s="19"/>
-      <c r="I158" s="19" t="s">
+      <c r="E159" s="19"/>
+      <c r="F159" s="19"/>
+      <c r="G159" s="19"/>
+      <c r="H159" s="19"/>
+      <c r="I159" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="J158" s="19" t="s">
+      <c r="J159" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="K158" s="19"/>
-      <c r="L158" s="19"/>
-      <c r="M158" s="19"/>
-      <c r="N158" s="19" t="s">
+      <c r="K159" s="19"/>
+      <c r="L159" s="19"/>
+      <c r="M159" s="19"/>
+      <c r="N159" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="O158" s="19"/>
-      <c r="P158" s="20" t="s">
+      <c r="O159" s="19"/>
+      <c r="P159" s="20" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="159" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A159" s="31">
+    <row r="160" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A160" s="31">
         <v>1662</v>
       </c>
-      <c r="B159" s="7" t="s">
+      <c r="B160" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="C159" s="5" t="s">
+      <c r="C160" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D159" s="16" t="s">
+      <c r="D160" s="16" t="s">
         <v>125</v>
-      </c>
-      <c r="E159" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F159" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G159" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H159" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I159" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="J159" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="K159" s="8">
-        <v>30</v>
-      </c>
-      <c r="L159" s="8">
-        <v>1</v>
-      </c>
-      <c r="M159" s="10">
-        <v>0</v>
-      </c>
-      <c r="N159" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="P159" s="6" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A160" s="31">
-        <v>1669</v>
-      </c>
-      <c r="B160" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="C160" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="D160" s="16" t="s">
-        <v>25</v>
       </c>
       <c r="E160" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F160" s="5" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="G160" s="5" t="s">
         <v>8</v>
@@ -10411,7 +10594,7 @@
         <v>51</v>
       </c>
       <c r="K160" s="8">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="L160" s="8">
         <v>1</v>
@@ -10423,27 +10606,27 @@
         <v>52</v>
       </c>
       <c r="P160" s="6" t="s">
-        <v>294</v>
+        <v>132</v>
       </c>
     </row>
     <row r="161" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A161" s="31">
-        <v>1672</v>
+        <v>1669</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>122</v>
+        <v>293</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>2</v>
+        <v>174</v>
       </c>
       <c r="D161" s="16" t="s">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="E161" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F161" s="5" t="s">
-        <v>123</v>
+        <v>22</v>
       </c>
       <c r="G161" s="5" t="s">
         <v>8</v>
@@ -10458,7 +10641,7 @@
         <v>51</v>
       </c>
       <c r="K161" s="8">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="L161" s="8">
         <v>1</v>
@@ -10470,30 +10653,30 @@
         <v>52</v>
       </c>
       <c r="P161" s="6" t="s">
-        <v>127</v>
+        <v>294</v>
       </c>
     </row>
     <row r="162" spans="1:16" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="31">
-        <v>1674</v>
+        <v>1672</v>
       </c>
       <c r="B162" s="7" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C162" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D162" s="16" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="E162" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F162" s="5" t="s">
-        <v>7</v>
+        <v>123</v>
       </c>
       <c r="G162" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H162" s="5" t="s">
         <v>18</v>
@@ -10502,10 +10685,10 @@
         <v>51</v>
       </c>
       <c r="J162" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K162" s="8">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="L162" s="8">
         <v>1</v>
@@ -10517,27 +10700,27 @@
         <v>52</v>
       </c>
       <c r="P162" s="6" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="163" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="163" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A163" s="31">
-        <v>1684</v>
+        <v>1674</v>
       </c>
       <c r="B163" s="7" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C163" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D163" s="16" t="s">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="E163" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F163" s="5" t="s">
-        <v>126</v>
+        <v>7</v>
       </c>
       <c r="G163" s="5" t="s">
         <v>7</v>
@@ -10549,10 +10732,10 @@
         <v>51</v>
       </c>
       <c r="J163" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K163" s="8">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="L163" s="8">
         <v>1</v>
@@ -10564,27 +10747,27 @@
         <v>52</v>
       </c>
       <c r="P163" s="6" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="164" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A164" s="31">
-        <v>1047</v>
+        <v>1684</v>
       </c>
       <c r="B164" s="7" t="s">
-        <v>301</v>
+        <v>124</v>
       </c>
       <c r="C164" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D164" s="16" t="s">
-        <v>82</v>
+        <v>125</v>
       </c>
       <c r="E164" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F164" s="5" t="s">
-        <v>7</v>
+        <v>126</v>
       </c>
       <c r="G164" s="5" t="s">
         <v>7</v>
@@ -10599,7 +10782,7 @@
         <v>51</v>
       </c>
       <c r="K164" s="8">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L164" s="8">
         <v>1</v>
@@ -10611,12 +10794,59 @@
         <v>52</v>
       </c>
       <c r="P164" s="6" t="s">
-        <v>302</v>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="165" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A165" s="31">
+        <v>682</v>
+      </c>
+      <c r="B165" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="C165" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D165" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="E165" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F165" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G165" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H165" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I165" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="J165" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="K165" s="8">
+        <v>15</v>
+      </c>
+      <c r="L165" s="8">
+        <v>1</v>
+      </c>
+      <c r="M165" s="10">
+        <v>0</v>
+      </c>
+      <c r="N165" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="P165" s="6" t="s">
+        <v>304</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A8:P161" xr:uid="{57DD97F8-0FE5-4F41-AAF2-1F48E42A70CC}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:P163">
+  <autoFilter ref="A8:P164" xr:uid="{57DD97F8-0FE5-4F41-AAF2-1F48E42A70CC}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:P164">
       <sortCondition ref="A8:A161"/>
     </sortState>
   </autoFilter>

--- a/LeetCode Tracker.xlsx
+++ b/LeetCode Tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leon\Desktop\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E63E777B-B789-4C10-9F3C-EF4C9A8FA0AC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC82B38C-069B-489B-AEC3-1C57688C00E9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2FA590F6-CEBE-453D-A814-55EB366ADEEE}"/>
+    <workbookView xWindow="5760" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{2FA590F6-CEBE-453D-A814-55EB366ADEEE}"/>
   </bookViews>
   <sheets>
     <sheet name="LeetCode" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="309">
   <si>
     <t>LeetCode Problems</t>
   </si>
@@ -5345,12 +5345,185 @@
       <t xml:space="preserve"> Still need to figure out why </t>
     </r>
   </si>
+  <si>
+    <t>Build an Array With Stack Operations</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">****This question should not be that hard, and the only concern is how it is phrased. Took a time to understood the problem itself. Able to solve it with </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="6.6"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Brute Force </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6.6"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">and using </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="6.6"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>two pointers,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6.6"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> own solution should be </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="6.6"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Optimal Solution</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6.6"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> but shuld try to look for one.</t>
+    </r>
+  </si>
+  <si>
+    <t>Crawler Log Folder</t>
+  </si>
+  <si>
+    <r>
+      <t>****</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="6.6"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Brute Force </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6.6"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">the problem by returning </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="6.6"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Stack.size()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6.6"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, but actually do not need to. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="6.6"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Optimal Solution </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">is just </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">counting </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">the number of times the operations has been found and return the count. This wouls save a lot of memory instead of creating another </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Stack </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>to store the elements.</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5390,6 +5563,19 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="6.6"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="6.6"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -5497,7 +5683,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -5596,6 +5782,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6008,13 +6197,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CECAF50C-0FA8-4FE8-AF1F-0197AD9DA707}">
-  <dimension ref="A1:U165"/>
+  <dimension ref="A1:U167"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="18" ySplit="8" topLeftCell="S157" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="18" ySplit="8" topLeftCell="S160" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="P1" sqref="P1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="D168" sqref="D168"/>
+      <selection pane="bottomRight" activeCell="P167" sqref="P167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6042,48 +6231,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="46" t="s">
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="47"/>
+      <c r="R1" s="48"/>
       <c r="S1" s="11"/>
       <c r="T1" s="9"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="41"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="42"/>
       <c r="Q2" s="28" t="s">
         <v>17</v>
       </c>
@@ -6092,22 +6281,22 @@
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A3" s="40"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="41"/>
+      <c r="A3" s="41"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="42"/>
       <c r="Q3" s="28" t="s">
         <v>18</v>
       </c>
@@ -6116,22 +6305,22 @@
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A4" s="40"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40"/>
-      <c r="P4" s="41"/>
+      <c r="A4" s="41"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="41"/>
+      <c r="P4" s="42"/>
       <c r="Q4" s="4" t="s">
         <v>19</v>
       </c>
@@ -6140,22 +6329,22 @@
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5" s="42"/>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="42"/>
-      <c r="O5" s="42"/>
-      <c r="P5" s="43"/>
+      <c r="A5" s="43"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="43"/>
+      <c r="N5" s="43"/>
+      <c r="O5" s="43"/>
+      <c r="P5" s="44"/>
       <c r="Q5" s="28" t="s">
         <v>27</v>
       </c>
@@ -6164,22 +6353,22 @@
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6" s="42"/>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="42"/>
-      <c r="M6" s="42"/>
-      <c r="N6" s="42"/>
-      <c r="O6" s="42"/>
-      <c r="P6" s="43"/>
+      <c r="A6" s="43"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="43"/>
+      <c r="M6" s="43"/>
+      <c r="N6" s="43"/>
+      <c r="O6" s="43"/>
+      <c r="P6" s="44"/>
       <c r="Q6" s="28" t="s">
         <v>29</v>
       </c>
@@ -6188,22 +6377,22 @@
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A7" s="44"/>
-      <c r="B7" s="44"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44"/>
-      <c r="M7" s="44"/>
-      <c r="N7" s="44"/>
-      <c r="O7" s="44"/>
-      <c r="P7" s="45"/>
+      <c r="A7" s="45"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="45"/>
+      <c r="N7" s="45"/>
+      <c r="O7" s="45"/>
+      <c r="P7" s="46"/>
       <c r="Q7" s="28" t="s">
         <v>31</v>
       </c>
@@ -6635,7 +6824,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" ht="72" x14ac:dyDescent="0.3">
       <c r="A20" s="31">
         <v>27</v>
       </c>
@@ -6921,7 +7110,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="31" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A31" s="31">
         <v>83</v>
       </c>
@@ -6968,7 +7157,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="32" spans="1:19" s="27" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" s="27" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A32" s="31">
         <v>88</v>
       </c>
@@ -7267,7 +7456,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="41" spans="1:19" s="14" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" s="14" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A41" s="31">
         <v>141</v>
       </c>
@@ -7566,7 +7755,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="51" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A51" s="31">
         <v>167</v>
       </c>
@@ -7698,7 +7887,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="55" spans="1:19" s="14" customFormat="1" ht="72" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:19" s="14" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A55" s="31">
         <v>203</v>
       </c>
@@ -7842,7 +8031,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="60" spans="1:19" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A60" s="31">
         <v>217</v>
       </c>
@@ -9198,7 +9387,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="129" spans="1:16" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:16" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A129" s="31">
         <v>448</v>
       </c>
@@ -9441,18 +9630,18 @@
         <v>186</v>
       </c>
     </row>
-    <row r="135" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A135" s="31">
-        <v>771</v>
+        <v>682</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>109</v>
+        <v>303</v>
       </c>
       <c r="C135" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D135" s="16" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="E135" s="5" t="s">
         <v>10</v>
@@ -9464,7 +9653,7 @@
         <v>7</v>
       </c>
       <c r="H135" s="5" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I135" s="8" t="s">
         <v>51</v>
@@ -9473,43 +9662,43 @@
         <v>51</v>
       </c>
       <c r="K135" s="8">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L135" s="8">
         <v>1</v>
       </c>
       <c r="M135" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N135" s="10" t="s">
         <v>52</v>
       </c>
       <c r="O135" s="33"/>
       <c r="P135" s="6" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.3">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A136" s="31">
-        <v>832</v>
+        <v>771</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C136" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D136" s="16" t="s">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="E136" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F136" s="5" t="s">
-        <v>118</v>
+        <v>7</v>
       </c>
       <c r="G136" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H136" s="5" t="s">
         <v>18</v>
@@ -9527,40 +9716,40 @@
         <v>1</v>
       </c>
       <c r="M136" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N136" s="10" t="s">
         <v>52</v>
       </c>
       <c r="O136" s="33"/>
       <c r="P136" s="6" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="137" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A137" s="31">
-        <v>876</v>
+        <v>832</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>290</v>
+        <v>116</v>
       </c>
       <c r="C137" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D137" s="16" t="s">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="E137" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F137" s="5" t="s">
-        <v>7</v>
+        <v>118</v>
       </c>
       <c r="G137" s="5" t="s">
         <v>8</v>
       </c>
       <c r="H137" s="5" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I137" s="8" t="s">
         <v>51</v>
@@ -9569,7 +9758,7 @@
         <v>51</v>
       </c>
       <c r="K137" s="8">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="L137" s="8">
         <v>1</v>
@@ -9582,33 +9771,33 @@
       </c>
       <c r="O137" s="33"/>
       <c r="P137" s="6" t="s">
-        <v>291</v>
+        <v>117</v>
       </c>
     </row>
     <row r="138" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A138" s="34">
-        <v>977</v>
+        <v>876</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>159</v>
+        <v>290</v>
       </c>
       <c r="C138" s="34" t="s">
         <v>2</v>
       </c>
       <c r="D138" s="34" t="s">
-        <v>157</v>
+        <v>25</v>
       </c>
       <c r="E138" s="34" t="s">
         <v>10</v>
       </c>
       <c r="F138" s="34" t="s">
-        <v>78</v>
+        <v>7</v>
       </c>
       <c r="G138" s="34" t="s">
         <v>8</v>
       </c>
       <c r="H138" s="34" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I138" s="34" t="s">
         <v>51</v>
@@ -9630,52 +9819,69 @@
       </c>
       <c r="O138" s="34"/>
       <c r="P138" s="6" t="s">
-        <v>161</v>
+        <v>291</v>
       </c>
     </row>
     <row r="139" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A139" s="36">
-        <v>1002</v>
+        <v>977</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>111</v>
+        <v>159</v>
       </c>
       <c r="C139" s="36" t="s">
         <v>2</v>
       </c>
       <c r="D139" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="E139" s="36"/>
-      <c r="F139" s="36"/>
-      <c r="G139" s="36"/>
-      <c r="H139" s="36"/>
+        <v>157</v>
+      </c>
+      <c r="E139" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="F139" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="G139" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="H139" s="36" t="s">
+        <v>18</v>
+      </c>
       <c r="I139" s="36" t="s">
         <v>51</v>
       </c>
       <c r="J139" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="K139" s="36"/>
-      <c r="L139" s="36"/>
-      <c r="M139" s="36"/>
+        <v>51</v>
+      </c>
+      <c r="K139" s="36">
+        <v>15</v>
+      </c>
+      <c r="L139" s="36">
+        <v>1</v>
+      </c>
+      <c r="M139" s="36">
+        <v>0</v>
+      </c>
       <c r="N139" s="36" t="s">
         <v>52</v>
       </c>
       <c r="O139" s="36"/>
+      <c r="P139" s="6" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="140" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A140" s="31">
-        <v>1021</v>
+        <v>1002</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>295</v>
+        <v>111</v>
       </c>
       <c r="C140" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D140" s="16" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="I140" s="8" t="s">
         <v>51</v>
@@ -9683,17 +9889,17 @@
       <c r="J140" s="8" t="s">
         <v>52</v>
       </c>
+      <c r="N140" s="10" t="s">
+        <v>52</v>
+      </c>
       <c r="O140" s="33"/>
-      <c r="P140" s="6" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="141" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="141" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A141" s="31">
-        <v>1047</v>
+        <v>1021</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C141" s="5" t="s">
         <v>2</v>
@@ -9701,59 +9907,35 @@
       <c r="D141" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="E141" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F141" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G141" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H141" s="5" t="s">
-        <v>18</v>
-      </c>
       <c r="I141" s="8" t="s">
         <v>51</v>
       </c>
       <c r="J141" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="K141" s="8">
-        <v>15</v>
-      </c>
-      <c r="L141" s="8">
-        <v>1</v>
-      </c>
-      <c r="M141" s="10">
-        <v>0</v>
-      </c>
-      <c r="N141" s="10" t="s">
         <v>52</v>
       </c>
       <c r="O141" s="33"/>
       <c r="P141" s="6" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="142" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="142" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A142" s="31">
-        <v>1089</v>
+        <v>1047</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="C142" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D142" s="16" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="E142" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F142" s="5" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="G142" s="5" t="s">
         <v>7</v>
@@ -9781,27 +9963,27 @@
       </c>
       <c r="O142" s="33"/>
       <c r="P142" s="6" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.3">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="143" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A143" s="37">
-        <v>1108</v>
+        <v>1089</v>
       </c>
       <c r="B143" s="7" t="s">
-        <v>133</v>
+        <v>180</v>
       </c>
       <c r="C143" s="37" t="s">
         <v>2</v>
       </c>
       <c r="D143" s="37" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="E143" s="37" t="s">
         <v>10</v>
       </c>
       <c r="F143" s="37" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="G143" s="37" t="s">
         <v>7</v>
@@ -9816,7 +9998,7 @@
         <v>51</v>
       </c>
       <c r="K143" s="37">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L143" s="37">
         <v>1</v>
@@ -9829,105 +10011,105 @@
       </c>
       <c r="O143" s="37"/>
       <c r="P143" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="144" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A144" s="38">
+        <v>1108</v>
+      </c>
+      <c r="B144" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C144" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="D144" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="E144" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="F144" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="G144" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="H144" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="I144" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="J144" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="K144" s="38">
+        <v>10</v>
+      </c>
+      <c r="L144" s="38">
+        <v>1</v>
+      </c>
+      <c r="M144" s="38">
+        <v>0</v>
+      </c>
+      <c r="N144" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="O144" s="38"/>
+      <c r="P144" s="6" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A144" s="12">
+    <row r="145" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A145" s="12">
         <v>1119</v>
       </c>
-      <c r="B144" s="17" t="s">
+      <c r="B145" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="C144" s="12" t="s">
+      <c r="C145" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D144" s="12" t="s">
+      <c r="D145" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="E144" s="12"/>
-      <c r="F144" s="12"/>
-      <c r="G144" s="12"/>
-      <c r="H144" s="12" t="s">
+      <c r="E145" s="12"/>
+      <c r="F145" s="12"/>
+      <c r="G145" s="12"/>
+      <c r="H145" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="I144" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="J144" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="K144" s="12">
+      <c r="I145" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="J145" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="K145" s="12">
         <v>10</v>
       </c>
-      <c r="L144" s="12">
+      <c r="L145" s="12">
         <v>1</v>
       </c>
-      <c r="M144" s="12">
+      <c r="M145" s="12">
         <v>0</v>
       </c>
-      <c r="N144" s="12" t="s">
+      <c r="N145" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="O144" s="12"/>
-      <c r="P144" s="13" t="s">
+      <c r="O145" s="12"/>
+      <c r="P145" s="13" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="145" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A145" s="31">
+    <row r="146" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A146" s="31">
         <v>1295</v>
       </c>
-      <c r="B145" s="7" t="s">
+      <c r="B146" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="C145" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D145" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="E145" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F145" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G145" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H145" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I145" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="J145" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="K145" s="8">
-        <v>10</v>
-      </c>
-      <c r="L145" s="8">
-        <v>2</v>
-      </c>
-      <c r="M145" s="10">
-        <v>1</v>
-      </c>
-      <c r="N145" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="O145" s="33"/>
-      <c r="P145" s="6" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="146" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A146" s="31">
-        <v>1299</v>
-      </c>
-      <c r="B146" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="C146" s="5" t="s">
         <v>2</v>
@@ -9945,7 +10127,7 @@
         <v>8</v>
       </c>
       <c r="H146" s="5" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I146" s="8" t="s">
         <v>51</v>
@@ -9954,7 +10136,7 @@
         <v>51</v>
       </c>
       <c r="K146" s="8">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="L146" s="8">
         <v>2</v>
@@ -9967,15 +10149,15 @@
       </c>
       <c r="O146" s="33"/>
       <c r="P146" s="6" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="147" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="147" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A147" s="31">
-        <v>1304</v>
+        <v>1299</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C147" s="5" t="s">
         <v>2</v>
@@ -9983,29 +10165,47 @@
       <c r="D147" s="16" t="s">
         <v>74</v>
       </c>
+      <c r="E147" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F147" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G147" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H147" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="I147" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J147" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
+      </c>
+      <c r="K147" s="8">
+        <v>40</v>
+      </c>
+      <c r="L147" s="8">
+        <v>2</v>
       </c>
       <c r="M147" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N147" s="10" t="s">
         <v>52</v>
       </c>
       <c r="O147" s="33"/>
       <c r="P147" s="6" t="s">
-        <v>152</v>
+        <v>185</v>
       </c>
     </row>
     <row r="148" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A148" s="31">
-        <v>1313</v>
+        <v>1304</v>
       </c>
       <c r="B148" s="7" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="C148" s="5" t="s">
         <v>2</v>
@@ -10013,29 +10213,11 @@
       <c r="D148" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="E148" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F148" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="G148" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H148" s="5" t="s">
-        <v>18</v>
-      </c>
       <c r="I148" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J148" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="K148" s="8">
-        <v>30</v>
-      </c>
-      <c r="L148" s="8">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="M148" s="10">
         <v>0</v>
@@ -10045,30 +10227,30 @@
       </c>
       <c r="O148" s="33"/>
       <c r="P148" s="6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="149" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="149" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A149" s="31">
-        <v>1342</v>
+        <v>1313</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="C149" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D149" s="16" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="E149" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F149" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="G149" s="5" t="s">
         <v>7</v>
-      </c>
-      <c r="G149" s="5" t="s">
-        <v>8</v>
       </c>
       <c r="H149" s="5" t="s">
         <v>18</v>
@@ -10093,30 +10275,30 @@
       </c>
       <c r="O149" s="33"/>
       <c r="P149" s="6" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="150" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="150" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A150" s="31">
-        <v>1365</v>
+        <v>1342</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="C150" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D150" s="16" t="s">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="E150" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F150" s="5" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="G150" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H150" s="5" t="s">
         <v>18</v>
@@ -10128,7 +10310,7 @@
         <v>51</v>
       </c>
       <c r="K150" s="8">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="L150" s="8">
         <v>1</v>
@@ -10141,15 +10323,15 @@
       </c>
       <c r="O150" s="33"/>
       <c r="P150" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="151" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="151" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A151" s="31">
-        <v>1389</v>
+        <v>1365</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>140</v>
+        <v>95</v>
       </c>
       <c r="C151" s="5" t="s">
         <v>2</v>
@@ -10176,7 +10358,7 @@
         <v>51</v>
       </c>
       <c r="K151" s="8">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="L151" s="8">
         <v>1</v>
@@ -10189,15 +10371,15 @@
       </c>
       <c r="O151" s="33"/>
       <c r="P151" s="6" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="152" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="152" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A152" s="31">
-        <v>1431</v>
+        <v>1389</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>91</v>
+        <v>140</v>
       </c>
       <c r="C152" s="5" t="s">
         <v>2</v>
@@ -10209,7 +10391,7 @@
         <v>10</v>
       </c>
       <c r="F152" s="5" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="G152" s="5" t="s">
         <v>7</v>
@@ -10224,7 +10406,7 @@
         <v>51</v>
       </c>
       <c r="K152" s="8">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="L152" s="8">
         <v>1</v>
@@ -10237,15 +10419,15 @@
       </c>
       <c r="O152" s="33"/>
       <c r="P152" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="153" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="153" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A153" s="34">
-        <v>1450</v>
+        <v>1431</v>
       </c>
       <c r="B153" s="7" t="s">
-        <v>147</v>
+        <v>91</v>
       </c>
       <c r="C153" s="34" t="s">
         <v>2</v>
@@ -10260,7 +10442,7 @@
         <v>7</v>
       </c>
       <c r="G153" s="34" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H153" s="34" t="s">
         <v>18</v>
@@ -10272,7 +10454,7 @@
         <v>51</v>
       </c>
       <c r="K153" s="34">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="L153" s="34">
         <v>1</v>
@@ -10285,21 +10467,21 @@
       </c>
       <c r="O153" s="34"/>
       <c r="P153" s="6" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="154" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="154" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A154" s="36">
-        <v>1464</v>
+        <v>1441</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>149</v>
+        <v>305</v>
       </c>
       <c r="C154" s="36" t="s">
         <v>2</v>
       </c>
       <c r="D154" s="36" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="E154" s="36" t="s">
         <v>10</v>
@@ -10311,7 +10493,7 @@
         <v>8</v>
       </c>
       <c r="H154" s="36" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I154" s="36" t="s">
         <v>51</v>
@@ -10320,7 +10502,7 @@
         <v>51</v>
       </c>
       <c r="K154" s="36">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="L154" s="36">
         <v>1</v>
@@ -10333,15 +10515,15 @@
       </c>
       <c r="O154" s="36"/>
       <c r="P154" s="6" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="155" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="155" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A155" s="31">
-        <v>1470</v>
+        <v>1450</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>90</v>
+        <v>147</v>
       </c>
       <c r="C155" s="5" t="s">
         <v>2</v>
@@ -10356,7 +10538,7 @@
         <v>7</v>
       </c>
       <c r="G155" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H155" s="5" t="s">
         <v>18</v>
@@ -10365,31 +10547,31 @@
         <v>51</v>
       </c>
       <c r="J155" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K155" s="8">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="L155" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M155" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N155" s="10" t="s">
         <v>52</v>
       </c>
       <c r="O155" s="33"/>
       <c r="P155" s="6" t="s">
-        <v>93</v>
+        <v>148</v>
       </c>
     </row>
     <row r="156" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A156" s="31">
-        <v>1475</v>
+        <v>1464</v>
       </c>
       <c r="B156" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C156" s="5" t="s">
         <v>2</v>
@@ -10401,7 +10583,7 @@
         <v>10</v>
       </c>
       <c r="F156" s="5" t="s">
-        <v>126</v>
+        <v>7</v>
       </c>
       <c r="G156" s="5" t="s">
         <v>8</v>
@@ -10416,28 +10598,28 @@
         <v>51</v>
       </c>
       <c r="K156" s="8">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="L156" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M156" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N156" s="10" t="s">
         <v>52</v>
       </c>
       <c r="O156" s="33"/>
       <c r="P156" s="6" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="157" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="157" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A157" s="31">
-        <v>1480</v>
+        <v>1470</v>
       </c>
       <c r="B157" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C157" s="5" t="s">
         <v>2</v>
@@ -10452,19 +10634,19 @@
         <v>7</v>
       </c>
       <c r="G157" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H157" s="5" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I157" s="8" t="s">
         <v>51</v>
       </c>
       <c r="J157" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K157" s="8">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="L157" s="8">
         <v>2</v>
@@ -10473,37 +10655,37 @@
         <v>1</v>
       </c>
       <c r="N157" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O157" s="33"/>
       <c r="P157" s="6" t="s">
-        <v>168</v>
+        <v>93</v>
       </c>
     </row>
     <row r="158" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A158" s="37">
-        <v>1512</v>
+        <v>1475</v>
       </c>
       <c r="B158" s="7" t="s">
-        <v>36</v>
+        <v>153</v>
       </c>
       <c r="C158" s="37" t="s">
         <v>2</v>
       </c>
       <c r="D158" s="37" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="E158" s="37" t="s">
         <v>10</v>
       </c>
       <c r="F158" s="37" t="s">
-        <v>7</v>
+        <v>126</v>
       </c>
       <c r="G158" s="37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H158" s="37" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I158" s="37" t="s">
         <v>51</v>
@@ -10512,7 +10694,7 @@
         <v>51</v>
       </c>
       <c r="K158" s="37">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="L158" s="37">
         <v>2</v>
@@ -10525,55 +10707,69 @@
       </c>
       <c r="O158" s="37"/>
       <c r="P158" s="6" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A159" s="19">
-        <v>1588</v>
-      </c>
-      <c r="B159" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="C159" s="19" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="159" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A159" s="38">
+        <v>1480</v>
+      </c>
+      <c r="B159" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C159" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="D159" s="19" t="s">
+      <c r="D159" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="E159" s="19"/>
-      <c r="F159" s="19"/>
-      <c r="G159" s="19"/>
-      <c r="H159" s="19"/>
-      <c r="I159" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="J159" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="K159" s="19"/>
-      <c r="L159" s="19"/>
-      <c r="M159" s="19"/>
-      <c r="N159" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="O159" s="19"/>
-      <c r="P159" s="20" t="s">
-        <v>144</v>
+      <c r="E159" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="F159" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="G159" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="H159" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="I159" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="J159" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="K159" s="38">
+        <v>5</v>
+      </c>
+      <c r="L159" s="38">
+        <v>2</v>
+      </c>
+      <c r="M159" s="38">
+        <v>1</v>
+      </c>
+      <c r="N159" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="O159" s="38"/>
+      <c r="P159" s="6" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="160" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A160" s="31">
-        <v>1662</v>
+        <v>1512</v>
       </c>
       <c r="B160" s="7" t="s">
-        <v>131</v>
+        <v>36</v>
       </c>
       <c r="C160" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D160" s="16" t="s">
-        <v>125</v>
+        <v>67</v>
       </c>
       <c r="E160" s="5" t="s">
         <v>10</v>
@@ -10582,10 +10778,10 @@
         <v>7</v>
       </c>
       <c r="G160" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H160" s="5" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I160" s="8" t="s">
         <v>51</v>
@@ -10594,86 +10790,73 @@
         <v>51</v>
       </c>
       <c r="K160" s="8">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="L160" s="8">
+        <v>2</v>
+      </c>
+      <c r="M160" s="10">
         <v>1</v>
-      </c>
-      <c r="M160" s="10">
-        <v>0</v>
       </c>
       <c r="N160" s="10" t="s">
         <v>52</v>
       </c>
       <c r="P160" s="6" t="s">
-        <v>132</v>
+        <v>167</v>
       </c>
     </row>
     <row r="161" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A161" s="31">
-        <v>1669</v>
-      </c>
-      <c r="B161" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="C161" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="D161" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E161" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F161" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G161" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H161" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I161" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="J161" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="K161" s="8">
-        <v>40</v>
-      </c>
-      <c r="L161" s="8">
-        <v>1</v>
-      </c>
-      <c r="M161" s="10">
-        <v>0</v>
-      </c>
-      <c r="N161" s="10" t="s">
+      <c r="A161" s="19">
+        <v>1588</v>
+      </c>
+      <c r="B161" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="C161" s="19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D161" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="E161" s="19"/>
+      <c r="F161" s="19"/>
+      <c r="G161" s="19"/>
+      <c r="H161" s="19"/>
+      <c r="I161" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="P161" s="6" t="s">
-        <v>294</v>
+      <c r="J161" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="K161" s="19"/>
+      <c r="L161" s="19"/>
+      <c r="M161" s="19"/>
+      <c r="N161" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="O161" s="19"/>
+      <c r="P161" s="20" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="162" spans="1:16" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="31">
-        <v>1672</v>
+        <v>1662</v>
       </c>
       <c r="B162" s="7" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="C162" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D162" s="16" t="s">
-        <v>74</v>
+        <v>125</v>
       </c>
       <c r="E162" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F162" s="5" t="s">
-        <v>123</v>
+        <v>7</v>
       </c>
       <c r="G162" s="5" t="s">
         <v>8</v>
@@ -10688,7 +10871,7 @@
         <v>51</v>
       </c>
       <c r="K162" s="8">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="L162" s="8">
         <v>1</v>
@@ -10700,30 +10883,30 @@
         <v>52</v>
       </c>
       <c r="P162" s="6" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="163" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A163" s="31">
-        <v>1674</v>
+        <v>1669</v>
       </c>
       <c r="B163" s="7" t="s">
-        <v>129</v>
+        <v>293</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>2</v>
+        <v>174</v>
       </c>
       <c r="D163" s="16" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E163" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F163" s="5" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="G163" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H163" s="5" t="s">
         <v>18</v>
@@ -10732,10 +10915,10 @@
         <v>51</v>
       </c>
       <c r="J163" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K163" s="8">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="L163" s="8">
         <v>1</v>
@@ -10747,30 +10930,30 @@
         <v>52</v>
       </c>
       <c r="P163" s="6" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="164" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="164" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A164" s="31">
-        <v>1684</v>
+        <v>1672</v>
       </c>
       <c r="B164" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C164" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D164" s="16" t="s">
-        <v>125</v>
+        <v>74</v>
       </c>
       <c r="E164" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F164" s="5" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G164" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H164" s="5" t="s">
         <v>18</v>
@@ -10782,7 +10965,7 @@
         <v>51</v>
       </c>
       <c r="K164" s="8">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L164" s="8">
         <v>1</v>
@@ -10794,21 +10977,21 @@
         <v>52</v>
       </c>
       <c r="P164" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="165" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A165" s="31">
-        <v>682</v>
+        <v>1674</v>
       </c>
       <c r="B165" s="7" t="s">
-        <v>303</v>
+        <v>129</v>
       </c>
       <c r="C165" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D165" s="16" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="E165" s="5" t="s">
         <v>10</v>
@@ -10820,16 +11003,16 @@
         <v>7</v>
       </c>
       <c r="H165" s="5" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I165" s="8" t="s">
         <v>51</v>
       </c>
       <c r="J165" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K165" s="8">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="L165" s="8">
         <v>1</v>
@@ -10841,13 +11024,107 @@
         <v>52</v>
       </c>
       <c r="P165" s="6" t="s">
-        <v>304</v>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="166" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A166" s="31">
+        <v>1684</v>
+      </c>
+      <c r="B166" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C166" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D166" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="E166" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F166" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G166" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H166" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I166" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="J166" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="K166" s="8">
+        <v>10</v>
+      </c>
+      <c r="L166" s="8">
+        <v>1</v>
+      </c>
+      <c r="M166" s="10">
+        <v>0</v>
+      </c>
+      <c r="N166" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="P166" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="167" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A167" s="31">
+        <v>1598</v>
+      </c>
+      <c r="B167" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="C167" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D167" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="E167" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F167" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G167" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H167" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I167" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="J167" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="K167" s="8">
+        <v>20</v>
+      </c>
+      <c r="L167" s="8">
+        <v>1</v>
+      </c>
+      <c r="M167" s="10">
+        <v>0</v>
+      </c>
+      <c r="N167" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="P167" s="6" t="s">
+        <v>308</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A8:P164" xr:uid="{57DD97F8-0FE5-4F41-AAF2-1F48E42A70CC}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:P164">
-      <sortCondition ref="A8:A161"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:P166">
+      <sortCondition ref="A8:A164"/>
     </sortState>
   </autoFilter>
   <mergeCells count="2">

--- a/LeetCode Tracker.xlsx
+++ b/LeetCode Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leon\Desktop\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{331C7E33-DBB8-42A1-ACDF-97DB6D134644}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08FC7FF1-7805-4E37-8518-F9914FAA8D7F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2FA590F6-CEBE-453D-A814-55EB366ADEEE}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="LeetCode" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LeetCode!$A$8:$P$164</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LeetCode!$A$8:$P$170</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="319">
   <si>
     <t>LeetCode Problems</t>
   </si>
@@ -5844,12 +5844,176 @@
       <t>and read the solutions to try again.</t>
     </r>
   </si>
+  <si>
+    <t>Next Greater Node in Linked List</t>
+  </si>
+  <si>
+    <t>Next Greater Element II</t>
+  </si>
+  <si>
+    <t>Next Greater Element III</t>
+  </si>
+  <si>
+    <t>Swapping Nodes in LinkedList</t>
+  </si>
+  <si>
+    <r>
+      <t>****</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Brute Force </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">is to keep </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">count </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of nodes and tracing back the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">front </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">back </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">value, which is not that practical. Technically, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>linearly</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> loop through 3 times, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">count, frontVal </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>backVal. Optimal Solution</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> seems to be pretty much the same as what I came up with, but much more efficient, just letting variables stop at specific positions. Try to do again tomorrow.</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5876,13 +6040,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF333333"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -5990,7 +6147,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -6083,6 +6240,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6112,24 +6290,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6507,13 +6667,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CECAF50C-0FA8-4FE8-AF1F-0197AD9DA707}">
-  <dimension ref="A1:U169"/>
+  <dimension ref="A1:U173"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="18" ySplit="8" topLeftCell="S164" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="18" ySplit="8" topLeftCell="S167" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="P1" sqref="P1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="P169" sqref="P169"/>
+      <selection pane="bottomRight" activeCell="P173" sqref="P173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6533,7 +6693,7 @@
     <col min="13" max="13" width="4.6640625" style="8" customWidth="1"/>
     <col min="14" max="14" width="5.44140625" style="8" customWidth="1"/>
     <col min="15" max="15" width="11.109375" style="13" customWidth="1"/>
-    <col min="16" max="16" width="92.109375" style="44" customWidth="1"/>
+    <col min="16" max="16" width="92.109375" style="35" customWidth="1"/>
     <col min="17" max="17" width="7.21875" style="22" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="34.77734375" style="22" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="23.33203125" style="1" bestFit="1" customWidth="1"/>
@@ -6541,48 +6701,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="42" t="s">
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="42"/>
+      <c r="Q1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="43"/>
+      <c r="R1" s="50"/>
       <c r="S1" s="9"/>
       <c r="T1" s="7"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="37"/>
+      <c r="A2" s="43"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="44"/>
       <c r="Q2" s="23" t="s">
         <v>17</v>
       </c>
@@ -6591,22 +6751,22 @@
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A3" s="36"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="37"/>
+      <c r="A3" s="43"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="44"/>
       <c r="Q3" s="23" t="s">
         <v>18</v>
       </c>
@@ -6615,22 +6775,22 @@
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A4" s="36"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
-      <c r="P4" s="37"/>
+      <c r="A4" s="43"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="44"/>
       <c r="Q4" s="3" t="s">
         <v>19</v>
       </c>
@@ -6639,22 +6799,22 @@
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5" s="38"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="38"/>
-      <c r="O5" s="38"/>
-      <c r="P5" s="39"/>
+      <c r="A5" s="45"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="45"/>
+      <c r="O5" s="45"/>
+      <c r="P5" s="46"/>
       <c r="Q5" s="23" t="s">
         <v>27</v>
       </c>
@@ -6663,22 +6823,22 @@
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6" s="38"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
-      <c r="N6" s="38"/>
-      <c r="O6" s="38"/>
-      <c r="P6" s="39"/>
+      <c r="A6" s="45"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="45"/>
+      <c r="O6" s="45"/>
+      <c r="P6" s="46"/>
       <c r="Q6" s="23" t="s">
         <v>29</v>
       </c>
@@ -6687,22 +6847,22 @@
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A7" s="40"/>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="41"/>
+      <c r="A7" s="47"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="47"/>
+      <c r="N7" s="47"/>
+      <c r="O7" s="47"/>
+      <c r="P7" s="48"/>
       <c r="Q7" s="23" t="s">
         <v>31</v>
       </c>
@@ -6756,7 +6916,7 @@
       <c r="O8" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P8" s="45" t="s">
+      <c r="P8" s="36" t="s">
         <v>1</v>
       </c>
     </row>
@@ -6803,7 +6963,7 @@
       <c r="N9" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="P9" s="44" t="s">
+      <c r="P9" s="35" t="s">
         <v>252</v>
       </c>
     </row>
@@ -6858,7 +7018,7 @@
       <c r="O11" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="P11" s="44" t="s">
+      <c r="P11" s="35" t="s">
         <v>253</v>
       </c>
     </row>
@@ -6906,7 +7066,7 @@
         <v>52</v>
       </c>
       <c r="O12" s="25"/>
-      <c r="P12" s="44" t="s">
+      <c r="P12" s="35" t="s">
         <v>254</v>
       </c>
     </row>
@@ -6997,7 +7157,7 @@
       <c r="O15" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="P15" s="44" t="s">
+      <c r="P15" s="35" t="s">
         <v>255</v>
       </c>
     </row>
@@ -7043,7 +7203,7 @@
         <v>51</v>
       </c>
       <c r="O16" s="21"/>
-      <c r="P16" s="44" t="s">
+      <c r="P16" s="35" t="s">
         <v>256</v>
       </c>
     </row>
@@ -7130,7 +7290,7 @@
         <v>52</v>
       </c>
       <c r="O19" s="20"/>
-      <c r="P19" s="46" t="s">
+      <c r="P19" s="37" t="s">
         <v>257</v>
       </c>
     </row>
@@ -7168,7 +7328,7 @@
       <c r="N20" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="P20" s="44" t="s">
+      <c r="P20" s="35" t="s">
         <v>258</v>
       </c>
     </row>
@@ -7203,7 +7363,7 @@
       <c r="N21" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="P21" s="44" t="s">
+      <c r="P21" s="35" t="s">
         <v>259</v>
       </c>
     </row>
@@ -7381,7 +7541,7 @@
       <c r="N29" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="P29" s="44" t="s">
+      <c r="P29" s="35" t="s">
         <v>260</v>
       </c>
     </row>
@@ -7416,7 +7576,7 @@
       <c r="N30" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="P30" s="44" t="s">
+      <c r="P30" s="35" t="s">
         <v>261</v>
       </c>
     </row>
@@ -7463,7 +7623,7 @@
       <c r="N31" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="P31" s="44" t="s">
+      <c r="P31" s="35" t="s">
         <v>262</v>
       </c>
     </row>
@@ -7509,7 +7669,7 @@
         <v>52</v>
       </c>
       <c r="O32" s="21"/>
-      <c r="P32" s="44" t="s">
+      <c r="P32" s="35" t="s">
         <v>263</v>
       </c>
       <c r="S32" s="23"/>
@@ -7560,7 +7720,7 @@
       <c r="O33" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="P33" s="44" t="s">
+      <c r="P33" s="35" t="s">
         <v>264</v>
       </c>
     </row>
@@ -7607,7 +7767,7 @@
       <c r="N34" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="P34" s="44" t="s">
+      <c r="P34" s="35" t="s">
         <v>265</v>
       </c>
     </row>
@@ -7651,7 +7811,7 @@
       <c r="N35" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="P35" s="44" t="s">
+      <c r="P35" s="35" t="s">
         <v>266</v>
       </c>
     </row>
@@ -7723,7 +7883,7 @@
       <c r="N38" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="P38" s="44" t="s">
+      <c r="P38" s="35" t="s">
         <v>267</v>
       </c>
     </row>
@@ -7808,7 +7968,7 @@
         <v>52</v>
       </c>
       <c r="O41" s="21"/>
-      <c r="P41" s="44" t="s">
+      <c r="P41" s="35" t="s">
         <v>268</v>
       </c>
       <c r="Q41" s="22"/>
@@ -7859,7 +8019,7 @@
       <c r="N43" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="P43" s="47" t="s">
+      <c r="P43" s="38" t="s">
         <v>81</v>
       </c>
     </row>
@@ -7946,7 +8106,7 @@
       <c r="O46" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="P46" s="44" t="s">
+      <c r="P46" s="35" t="s">
         <v>237</v>
       </c>
     </row>
@@ -8011,7 +8171,7 @@
         <v>52</v>
       </c>
       <c r="O48" s="10"/>
-      <c r="P48" s="48" t="s">
+      <c r="P48" s="39" t="s">
         <v>269</v>
       </c>
     </row>
@@ -8108,7 +8268,7 @@
       <c r="N51" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="P51" s="44" t="s">
+      <c r="P51" s="35" t="s">
         <v>270</v>
       </c>
     </row>
@@ -8154,7 +8314,7 @@
         <v>52</v>
       </c>
       <c r="O52" s="26"/>
-      <c r="P52" s="44" t="s">
+      <c r="P52" s="35" t="s">
         <v>271</v>
       </c>
     </row>
@@ -8233,7 +8393,7 @@
         <v>52</v>
       </c>
       <c r="O55" s="21"/>
-      <c r="P55" s="44" t="s">
+      <c r="P55" s="35" t="s">
         <v>272</v>
       </c>
       <c r="Q55" s="22"/>
@@ -8280,7 +8440,7 @@
       <c r="N56" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="P56" s="44" t="s">
+      <c r="P56" s="35" t="s">
         <v>273</v>
       </c>
     </row>
@@ -8322,7 +8482,7 @@
       <c r="O58" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="P58" s="44"/>
+      <c r="P58" s="35"/>
       <c r="Q58" s="22"/>
       <c r="R58" s="22"/>
       <c r="S58" s="18"/>
@@ -8384,7 +8544,7 @@
       <c r="N60" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="P60" s="44" t="s">
+      <c r="P60" s="35" t="s">
         <v>274</v>
       </c>
     </row>
@@ -8522,7 +8682,7 @@
       <c r="N66" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="P66" s="44" t="s">
+      <c r="P66" s="35" t="s">
         <v>275</v>
       </c>
     </row>
@@ -8568,7 +8728,7 @@
         <v>51</v>
       </c>
       <c r="O67" s="26"/>
-      <c r="P67" s="44" t="s">
+      <c r="P67" s="35" t="s">
         <v>43</v>
       </c>
     </row>
@@ -8756,7 +8916,7 @@
         <v>52</v>
       </c>
       <c r="O77" s="27"/>
-      <c r="P77" s="44" t="s">
+      <c r="P77" s="35" t="s">
         <v>276</v>
       </c>
     </row>
@@ -8944,7 +9104,7 @@
         <v>52</v>
       </c>
       <c r="O88" s="27"/>
-      <c r="P88" s="44" t="s">
+      <c r="P88" s="35" t="s">
         <v>277</v>
       </c>
     </row>
@@ -9468,7 +9628,7 @@
         <v>51</v>
       </c>
       <c r="O123" s="27"/>
-      <c r="P123" s="44" t="s">
+      <c r="P123" s="35" t="s">
         <v>41</v>
       </c>
     </row>
@@ -9513,7 +9673,7 @@
         <v>52</v>
       </c>
       <c r="O124" s="27"/>
-      <c r="P124" s="44" t="s">
+      <c r="P124" s="35" t="s">
         <v>42</v>
       </c>
     </row>
@@ -9561,7 +9721,7 @@
         <v>52</v>
       </c>
       <c r="O125" s="27"/>
-      <c r="P125" s="44" t="s">
+      <c r="P125" s="35" t="s">
         <v>278</v>
       </c>
     </row>
@@ -9609,7 +9769,7 @@
         <v>52</v>
       </c>
       <c r="O126" s="27"/>
-      <c r="P126" s="44" t="s">
+      <c r="P126" s="35" t="s">
         <v>279</v>
       </c>
     </row>
@@ -9645,7 +9805,7 @@
         <v>52</v>
       </c>
       <c r="O127" s="27"/>
-      <c r="P127" s="44" t="s">
+      <c r="P127" s="35" t="s">
         <v>280</v>
       </c>
     </row>
@@ -9693,7 +9853,7 @@
         <v>51</v>
       </c>
       <c r="O128" s="27"/>
-      <c r="P128" s="44" t="s">
+      <c r="P128" s="35" t="s">
         <v>73</v>
       </c>
     </row>
@@ -9741,7 +9901,7 @@
         <v>52</v>
       </c>
       <c r="O129" s="27"/>
-      <c r="P129" s="44" t="s">
+      <c r="P129" s="35" t="s">
         <v>281</v>
       </c>
     </row>
@@ -9789,7 +9949,7 @@
         <v>52</v>
       </c>
       <c r="O130" s="27"/>
-      <c r="P130" s="44" t="s">
+      <c r="P130" s="35" t="s">
         <v>282</v>
       </c>
     </row>
@@ -9834,7 +9994,7 @@
         <v>52</v>
       </c>
       <c r="O131" s="27"/>
-      <c r="P131" s="44" t="s">
+      <c r="P131" s="35" t="s">
         <v>39</v>
       </c>
     </row>
@@ -9879,7 +10039,7 @@
         <v>52</v>
       </c>
       <c r="O132" s="27"/>
-      <c r="P132" s="44" t="s">
+      <c r="P132" s="35" t="s">
         <v>40</v>
       </c>
     </row>
@@ -9936,7 +10096,7 @@
         <v>52</v>
       </c>
       <c r="O134" s="27"/>
-      <c r="P134" s="44" t="s">
+      <c r="P134" s="35" t="s">
         <v>283</v>
       </c>
     </row>
@@ -9984,7 +10144,7 @@
         <v>52</v>
       </c>
       <c r="O135" s="27"/>
-      <c r="P135" s="44" t="s">
+      <c r="P135" s="35" t="s">
         <v>284</v>
       </c>
     </row>
@@ -10032,7 +10192,7 @@
         <v>52</v>
       </c>
       <c r="O136" s="27"/>
-      <c r="P136" s="44" t="s">
+      <c r="P136" s="35" t="s">
         <v>285</v>
       </c>
     </row>
@@ -10080,7 +10240,7 @@
         <v>52</v>
       </c>
       <c r="O137" s="27"/>
-      <c r="P137" s="44" t="s">
+      <c r="P137" s="35" t="s">
         <v>286</v>
       </c>
     </row>
@@ -10128,7 +10288,7 @@
         <v>52</v>
       </c>
       <c r="O138" s="28"/>
-      <c r="P138" s="44" t="s">
+      <c r="P138" s="35" t="s">
         <v>309</v>
       </c>
     </row>
@@ -10176,7 +10336,7 @@
         <v>52</v>
       </c>
       <c r="O139" s="30"/>
-      <c r="P139" s="44" t="s">
+      <c r="P139" s="35" t="s">
         <v>287</v>
       </c>
     </row>
@@ -10224,7 +10384,7 @@
         <v>52</v>
       </c>
       <c r="O140" s="27"/>
-      <c r="P140" s="44" t="s">
+      <c r="P140" s="35" t="s">
         <v>288</v>
       </c>
     </row>
@@ -10252,36 +10412,27 @@
       </c>
       <c r="O141" s="27"/>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A142" s="25">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>242</v>
+        <v>314</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>2</v>
+        <v>141</v>
       </c>
       <c r="D142" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="I142" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="J142" s="6" t="s">
-        <v>52</v>
-      </c>
       <c r="O142" s="27"/>
-      <c r="P142" s="44" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="143" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="143" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A143" s="31">
-        <v>1047</v>
+        <v>1021</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C143" s="31" t="s">
         <v>2</v>
@@ -10289,59 +10440,43 @@
       <c r="D143" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="E143" s="31" t="s">
-        <v>10</v>
-      </c>
-      <c r="F143" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="G143" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="H143" s="31" t="s">
-        <v>18</v>
-      </c>
+      <c r="E143" s="31"/>
+      <c r="F143" s="31"/>
+      <c r="G143" s="31"/>
+      <c r="H143" s="31"/>
       <c r="I143" s="31" t="s">
         <v>51</v>
       </c>
       <c r="J143" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="K143" s="31">
-        <v>15</v>
-      </c>
-      <c r="L143" s="31">
-        <v>1</v>
-      </c>
-      <c r="M143" s="31">
-        <v>0</v>
-      </c>
-      <c r="N143" s="31" t="s">
         <v>52</v>
       </c>
+      <c r="K143" s="31"/>
+      <c r="L143" s="31"/>
+      <c r="M143" s="31"/>
+      <c r="N143" s="31"/>
       <c r="O143" s="31"/>
-      <c r="P143" s="44" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="144" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="P143" s="35" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="144" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A144" s="32">
-        <v>1089</v>
+        <v>1047</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>143</v>
+        <v>245</v>
       </c>
       <c r="C144" s="32" t="s">
         <v>2</v>
       </c>
       <c r="D144" s="32" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E144" s="32" t="s">
         <v>10</v>
       </c>
       <c r="F144" s="32" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="G144" s="32" t="s">
         <v>7</v>
@@ -10368,28 +10503,28 @@
         <v>52</v>
       </c>
       <c r="O144" s="32"/>
-      <c r="P144" s="44" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P144" s="35" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="145" spans="1:16" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A145" s="33">
-        <v>1108</v>
+        <v>1089</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="C145" s="33" t="s">
         <v>2</v>
       </c>
       <c r="D145" s="33" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="E145" s="33" t="s">
         <v>10</v>
       </c>
       <c r="F145" s="33" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="G145" s="33" t="s">
         <v>7</v>
@@ -10404,7 +10539,7 @@
         <v>51</v>
       </c>
       <c r="K145" s="33">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L145" s="33">
         <v>1</v>
@@ -10416,106 +10551,106 @@
         <v>52</v>
       </c>
       <c r="O145" s="33"/>
-      <c r="P145" s="44" t="s">
+      <c r="P145" s="35" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="146" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A146" s="34">
+        <v>1108</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C146" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="D146" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="E146" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="F146" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="G146" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="H146" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="I146" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="J146" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="K146" s="34">
+        <v>10</v>
+      </c>
+      <c r="L146" s="34">
+        <v>1</v>
+      </c>
+      <c r="M146" s="34">
+        <v>0</v>
+      </c>
+      <c r="N146" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="O146" s="34"/>
+      <c r="P146" s="35" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A146" s="10">
+    <row r="147" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A147" s="10">
         <v>1119</v>
       </c>
-      <c r="B146" s="14" t="s">
+      <c r="B147" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="C146" s="10" t="s">
+      <c r="C147" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D146" s="10" t="s">
+      <c r="D147" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E146" s="10"/>
-      <c r="F146" s="10"/>
-      <c r="G146" s="10"/>
-      <c r="H146" s="10" t="s">
+      <c r="E147" s="10"/>
+      <c r="F147" s="10"/>
+      <c r="G147" s="10"/>
+      <c r="H147" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="I146" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="J146" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="K146" s="10">
+      <c r="I147" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="J147" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="K147" s="10">
         <v>10</v>
       </c>
-      <c r="L146" s="10">
+      <c r="L147" s="10">
         <v>1</v>
       </c>
-      <c r="M146" s="10">
+      <c r="M147" s="10">
         <v>0</v>
       </c>
-      <c r="N146" s="10" t="s">
+      <c r="N147" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="O146" s="10"/>
-      <c r="P146" s="48" t="s">
+      <c r="O147" s="10"/>
+      <c r="P147" s="39" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A147" s="25">
+    <row r="148" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A148" s="25">
         <v>1295</v>
       </c>
-      <c r="B147" s="5" t="s">
+      <c r="B148" s="5" t="s">
         <v>122</v>
-      </c>
-      <c r="C147" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D147" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="E147" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F147" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G147" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H147" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I147" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="J147" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="K147" s="6">
-        <v>10</v>
-      </c>
-      <c r="L147" s="6">
-        <v>2</v>
-      </c>
-      <c r="M147" s="8">
-        <v>1</v>
-      </c>
-      <c r="N147" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="O147" s="27"/>
-      <c r="P147" s="44" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="148" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A148" s="25">
-        <v>1299</v>
-      </c>
-      <c r="B148" s="5" t="s">
-        <v>129</v>
       </c>
       <c r="C148" s="4" t="s">
         <v>2</v>
@@ -10533,7 +10668,7 @@
         <v>8</v>
       </c>
       <c r="H148" s="4" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I148" s="6" t="s">
         <v>51</v>
@@ -10542,7 +10677,7 @@
         <v>51</v>
       </c>
       <c r="K148" s="6">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="L148" s="6">
         <v>2</v>
@@ -10554,16 +10689,16 @@
         <v>52</v>
       </c>
       <c r="O148" s="27"/>
-      <c r="P148" s="44" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P148" s="35" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="149" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A149" s="25">
-        <v>1304</v>
+        <v>1299</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C149" s="4" t="s">
         <v>2</v>
@@ -10571,29 +10706,47 @@
       <c r="D149" s="13" t="s">
         <v>71</v>
       </c>
+      <c r="E149" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F149" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G149" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H149" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="I149" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J149" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
+      </c>
+      <c r="K149" s="6">
+        <v>40</v>
+      </c>
+      <c r="L149" s="6">
+        <v>2</v>
       </c>
       <c r="M149" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N149" s="8" t="s">
         <v>52</v>
       </c>
       <c r="O149" s="27"/>
-      <c r="P149" s="44" t="s">
-        <v>127</v>
+      <c r="P149" s="35" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="150" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A150" s="25">
-        <v>1313</v>
+        <v>1304</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="C150" s="4" t="s">
         <v>2</v>
@@ -10601,29 +10754,11 @@
       <c r="D150" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="E150" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F150" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="G150" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H150" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="I150" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J150" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="K150" s="6">
-        <v>30</v>
-      </c>
-      <c r="L150" s="6">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="M150" s="8">
         <v>0</v>
@@ -10632,31 +10767,31 @@
         <v>52</v>
       </c>
       <c r="O150" s="27"/>
-      <c r="P150" s="44" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="151" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="P150" s="35" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="151" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A151" s="25">
-        <v>1342</v>
+        <v>1313</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="C151" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D151" s="13" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="E151" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F151" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G151" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="G151" s="4" t="s">
-        <v>8</v>
       </c>
       <c r="H151" s="4" t="s">
         <v>18</v>
@@ -10680,31 +10815,31 @@
         <v>52</v>
       </c>
       <c r="O151" s="27"/>
-      <c r="P151" s="44" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="152" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="P151" s="35" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="152" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A152" s="25">
-        <v>1365</v>
+        <v>1342</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="C152" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D152" s="13" t="s">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="E152" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F152" s="4" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="G152" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H152" s="4" t="s">
         <v>18</v>
@@ -10716,7 +10851,7 @@
         <v>51</v>
       </c>
       <c r="K152" s="6">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="L152" s="6">
         <v>1</v>
@@ -10728,16 +10863,16 @@
         <v>52</v>
       </c>
       <c r="O152" s="27"/>
-      <c r="P152" s="44" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P152" s="35" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="153" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A153" s="28">
-        <v>1389</v>
+        <v>1365</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>120</v>
+        <v>88</v>
       </c>
       <c r="C153" s="28" t="s">
         <v>2</v>
@@ -10764,7 +10899,7 @@
         <v>51</v>
       </c>
       <c r="K153" s="28">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="L153" s="28">
         <v>1</v>
@@ -10776,16 +10911,16 @@
         <v>52</v>
       </c>
       <c r="O153" s="28"/>
-      <c r="P153" s="44" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="154" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="P153" s="35" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="154" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A154" s="30">
-        <v>1431</v>
+        <v>1389</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>87</v>
+        <v>120</v>
       </c>
       <c r="C154" s="30" t="s">
         <v>2</v>
@@ -10797,7 +10932,7 @@
         <v>10</v>
       </c>
       <c r="F154" s="30" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="G154" s="30" t="s">
         <v>7</v>
@@ -10812,7 +10947,7 @@
         <v>51</v>
       </c>
       <c r="K154" s="30">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="L154" s="30">
         <v>1</v>
@@ -10824,22 +10959,22 @@
         <v>52</v>
       </c>
       <c r="O154" s="30"/>
-      <c r="P154" s="44" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P154" s="35" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="155" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A155" s="25">
-        <v>1441</v>
+        <v>1431</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>247</v>
+        <v>87</v>
       </c>
       <c r="C155" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D155" s="13" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E155" s="4" t="s">
         <v>10</v>
@@ -10848,10 +10983,10 @@
         <v>7</v>
       </c>
       <c r="G155" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H155" s="4" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I155" s="6" t="s">
         <v>51</v>
@@ -10872,22 +11007,22 @@
         <v>52</v>
       </c>
       <c r="O155" s="27"/>
-      <c r="P155" s="44" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P155" s="35" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="156" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A156" s="25">
-        <v>1450</v>
+        <v>1441</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>123</v>
+        <v>247</v>
       </c>
       <c r="C156" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D156" s="13" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E156" s="4" t="s">
         <v>10</v>
@@ -10899,7 +11034,7 @@
         <v>8</v>
       </c>
       <c r="H156" s="4" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I156" s="6" t="s">
         <v>51</v>
@@ -10908,7 +11043,7 @@
         <v>51</v>
       </c>
       <c r="K156" s="6">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="L156" s="6">
         <v>1</v>
@@ -10920,16 +11055,16 @@
         <v>52</v>
       </c>
       <c r="O156" s="27"/>
-      <c r="P156" s="44" t="s">
-        <v>124</v>
+      <c r="P156" s="35" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="157" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A157" s="25">
-        <v>1464</v>
+        <v>1450</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C157" s="4" t="s">
         <v>2</v>
@@ -10968,16 +11103,16 @@
         <v>52</v>
       </c>
       <c r="O157" s="27"/>
-      <c r="P157" s="44" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="158" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="P157" s="35" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="158" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A158" s="31">
-        <v>1470</v>
+        <v>1464</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>86</v>
+        <v>125</v>
       </c>
       <c r="C158" s="31" t="s">
         <v>2</v>
@@ -10992,7 +11127,7 @@
         <v>7</v>
       </c>
       <c r="G158" s="31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H158" s="31" t="s">
         <v>18</v>
@@ -11001,31 +11136,31 @@
         <v>51</v>
       </c>
       <c r="J158" s="31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K158" s="31">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="L158" s="31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M158" s="31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N158" s="31" t="s">
         <v>52</v>
       </c>
       <c r="O158" s="31"/>
-      <c r="P158" s="44" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="159" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="P158" s="35" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="159" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A159" s="32">
-        <v>1475</v>
+        <v>1470</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>128</v>
+        <v>86</v>
       </c>
       <c r="C159" s="32" t="s">
         <v>2</v>
@@ -11037,10 +11172,10 @@
         <v>10</v>
       </c>
       <c r="F159" s="32" t="s">
-        <v>114</v>
+        <v>7</v>
       </c>
       <c r="G159" s="32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H159" s="32" t="s">
         <v>18</v>
@@ -11049,10 +11184,10 @@
         <v>51</v>
       </c>
       <c r="J159" s="32" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K159" s="32">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="L159" s="32">
         <v>2</v>
@@ -11064,16 +11199,16 @@
         <v>52</v>
       </c>
       <c r="O159" s="32"/>
-      <c r="P159" s="44" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="160" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="P159" s="35" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="160" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A160" s="25">
-        <v>1480</v>
+        <v>1475</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>85</v>
+        <v>128</v>
       </c>
       <c r="C160" s="4" t="s">
         <v>2</v>
@@ -11085,13 +11220,13 @@
         <v>10</v>
       </c>
       <c r="F160" s="4" t="s">
-        <v>7</v>
+        <v>114</v>
       </c>
       <c r="G160" s="4" t="s">
         <v>8</v>
       </c>
       <c r="H160" s="4" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I160" s="6" t="s">
         <v>51</v>
@@ -11100,7 +11235,7 @@
         <v>51</v>
       </c>
       <c r="K160" s="6">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L160" s="6">
         <v>2</v>
@@ -11109,24 +11244,24 @@
         <v>1</v>
       </c>
       <c r="N160" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="P160" s="44" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="161" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+      <c r="P160" s="35" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="161" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A161" s="33">
-        <v>1512</v>
+        <v>1480</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="C161" s="33" t="s">
         <v>2</v>
       </c>
       <c r="D161" s="33" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E161" s="33" t="s">
         <v>10</v>
@@ -11135,10 +11270,10 @@
         <v>7</v>
       </c>
       <c r="G161" s="33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H161" s="33" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="I161" s="33" t="s">
         <v>51</v>
@@ -11147,7 +11282,7 @@
         <v>51</v>
       </c>
       <c r="K161" s="33">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="L161" s="33">
         <v>2</v>
@@ -11156,53 +11291,67 @@
         <v>1</v>
       </c>
       <c r="N161" s="33" t="s">
+        <v>51</v>
+      </c>
+      <c r="O161" s="33"/>
+      <c r="P161" s="35" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="162" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+      <c r="A162" s="34">
+        <v>1512</v>
+      </c>
+      <c r="B162" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C162" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="D162" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="E162" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="F162" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="G162" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="H162" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="I162" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="J162" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="K162" s="34">
+        <v>50</v>
+      </c>
+      <c r="L162" s="34">
+        <v>2</v>
+      </c>
+      <c r="M162" s="34">
+        <v>1</v>
+      </c>
+      <c r="N162" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="O161" s="33"/>
-      <c r="P161" s="44" t="s">
+      <c r="O162" s="34"/>
+      <c r="P162" s="35" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A162" s="16">
-        <v>1588</v>
-      </c>
-      <c r="B162" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="C162" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="D162" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="E162" s="16"/>
-      <c r="F162" s="16"/>
-      <c r="G162" s="16"/>
-      <c r="H162" s="16"/>
-      <c r="I162" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="J162" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="K162" s="16"/>
-      <c r="L162" s="16"/>
-      <c r="M162" s="16"/>
-      <c r="N162" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="O162" s="16"/>
-      <c r="P162" s="49" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A163" s="25">
-        <v>1598</v>
+        <v>1544</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C163" s="4" t="s">
         <v>2</v>
@@ -11210,111 +11359,80 @@
       <c r="D163" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="E163" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F163" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G163" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H163" s="4" t="s">
-        <v>33</v>
-      </c>
       <c r="I163" s="6" t="s">
         <v>51</v>
       </c>
       <c r="J163" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K163" s="6">
-        <v>20</v>
-      </c>
-      <c r="L163" s="6">
-        <v>1</v>
-      </c>
-      <c r="M163" s="8">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="N163" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="P163" s="44" t="s">
-        <v>312</v>
+      <c r="P163" s="35" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="164" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A164" s="25">
-        <v>1662</v>
-      </c>
-      <c r="B164" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="C164" s="4" t="s">
+      <c r="A164" s="16">
+        <v>1588</v>
+      </c>
+      <c r="B164" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="C164" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D164" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="E164" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F164" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G164" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H164" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I164" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="J164" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="K164" s="6">
-        <v>30</v>
-      </c>
-      <c r="L164" s="6">
-        <v>1</v>
-      </c>
-      <c r="M164" s="8">
-        <v>0</v>
-      </c>
-      <c r="N164" s="8" t="s">
+      <c r="D164" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="E164" s="16"/>
+      <c r="F164" s="16"/>
+      <c r="G164" s="16"/>
+      <c r="H164" s="16"/>
+      <c r="I164" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="P164" s="44" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="J164" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="K164" s="16"/>
+      <c r="L164" s="16"/>
+      <c r="M164" s="16"/>
+      <c r="N164" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="O164" s="16"/>
+      <c r="P164" s="40" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="165" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A165" s="25">
-        <v>1669</v>
+        <v>1598</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>141</v>
+        <v>2</v>
       </c>
       <c r="D165" s="13" t="s">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="E165" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F165" s="4" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="G165" s="4" t="s">
         <v>8</v>
       </c>
       <c r="H165" s="4" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I165" s="6" t="s">
         <v>51</v>
@@ -11323,7 +11441,7 @@
         <v>51</v>
       </c>
       <c r="K165" s="6">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="L165" s="6">
         <v>1</v>
@@ -11334,28 +11452,28 @@
       <c r="N165" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="P165" s="44" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P165" s="35" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="166" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A166" s="25">
-        <v>1672</v>
+        <v>1662</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="C166" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D166" s="13" t="s">
-        <v>71</v>
+        <v>113</v>
       </c>
       <c r="E166" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F166" s="4" t="s">
-        <v>111</v>
+        <v>7</v>
       </c>
       <c r="G166" s="4" t="s">
         <v>8</v>
@@ -11370,7 +11488,7 @@
         <v>51</v>
       </c>
       <c r="K166" s="6">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="L166" s="6">
         <v>1</v>
@@ -11381,31 +11499,31 @@
       <c r="N166" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="P166" s="44" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P166" s="35" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="167" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A167" s="25">
-        <v>1674</v>
+        <v>1669</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>115</v>
+        <v>241</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>2</v>
+        <v>141</v>
       </c>
       <c r="D167" s="13" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E167" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F167" s="4" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="G167" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H167" s="4" t="s">
         <v>18</v>
@@ -11414,10 +11532,10 @@
         <v>51</v>
       </c>
       <c r="J167" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K167" s="6">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="L167" s="6">
         <v>1</v>
@@ -11428,31 +11546,31 @@
       <c r="N167" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="P167" s="44" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P167" s="35" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="168" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A168" s="25">
-        <v>1684</v>
+        <v>1672</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C168" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D168" s="13" t="s">
-        <v>113</v>
+        <v>71</v>
       </c>
       <c r="E168" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F168" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G168" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H168" s="4" t="s">
         <v>18</v>
@@ -11464,7 +11582,7 @@
         <v>51</v>
       </c>
       <c r="K168" s="6">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L168" s="6">
         <v>1</v>
@@ -11475,22 +11593,34 @@
       <c r="N168" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="P168" s="44" t="s">
-        <v>308</v>
+      <c r="P168" s="35" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="169" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A169" s="25">
-        <v>1544</v>
+        <v>1674</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>251</v>
+        <v>115</v>
       </c>
       <c r="C169" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D169" s="13" t="s">
-        <v>79</v>
+        <v>13</v>
+      </c>
+      <c r="E169" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F169" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G169" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H169" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="I169" s="6" t="s">
         <v>51</v>
@@ -11499,19 +11629,147 @@
         <v>52</v>
       </c>
       <c r="K169" s="6">
-        <v>60</v>
+        <v>45</v>
+      </c>
+      <c r="L169" s="6">
+        <v>1</v>
+      </c>
+      <c r="M169" s="8">
+        <v>0</v>
       </c>
       <c r="N169" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="P169" s="44" t="s">
-        <v>313</v>
+      <c r="P169" s="35" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="170" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A170" s="25">
+        <v>1684</v>
+      </c>
+      <c r="B170" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C170" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D170" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="E170" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F170" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="G170" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H170" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I170" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="J170" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="K170" s="6">
+        <v>10</v>
+      </c>
+      <c r="L170" s="6">
+        <v>1</v>
+      </c>
+      <c r="M170" s="8">
+        <v>0</v>
+      </c>
+      <c r="N170" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="P170" s="35" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="171" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A171" s="25">
+        <v>503</v>
+      </c>
+      <c r="B171" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="C171" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D171" s="13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="172" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A172" s="25">
+        <v>556</v>
+      </c>
+      <c r="B172" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="C172" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D172" s="13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="173" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A173" s="25">
+        <v>1721</v>
+      </c>
+      <c r="B173" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="C173" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D173" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E173" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F173" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G173" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H173" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I173" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="J173" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="K173" s="6">
+        <v>40</v>
+      </c>
+      <c r="L173" s="6">
+        <v>1</v>
+      </c>
+      <c r="M173" s="8">
+        <v>0</v>
+      </c>
+      <c r="N173" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="P173" s="35" t="s">
+        <v>318</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A8:P164" xr:uid="{57DD97F8-0FE5-4F41-AAF2-1F48E42A70CC}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:P168">
-      <sortCondition ref="A8:A164"/>
+  <autoFilter ref="A8:P170" xr:uid="{57DD97F8-0FE5-4F41-AAF2-1F48E42A70CC}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:P170">
+      <sortCondition ref="A8:A170"/>
     </sortState>
   </autoFilter>
   <mergeCells count="2">

--- a/LeetCode Tracker.xlsx
+++ b/LeetCode Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leon\Desktop\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08FC7FF1-7805-4E37-8518-F9914FAA8D7F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CDFC656-8B71-43FF-AE2F-6D6508FA4445}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2FA590F6-CEBE-453D-A814-55EB366ADEEE}"/>
   </bookViews>
@@ -5085,53 +5085,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">****Able to </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Brute Force </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">the solution with count. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Optimal Solution </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> is to use for loops to locate the positions of nodes given. Try again next week.</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">****This is a new question, able to solve with </t>
     </r>
     <r>
@@ -6005,7 +5958,266 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> seems to be pretty much the same as what I came up with, but much more efficient, just letting variables stop at specific positions. Try to do again tomorrow.</t>
+      <t xml:space="preserve"> seems to be pretty much the same as what I came up with, but much more efficient, just letting variables stop at specific positions. Try to do again tomorrow.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>UPDATE (1 day)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Optimal Solution </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">is to loop once. By assigning </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>two pointers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> onto with the proper </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>count,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for example, when the first pointer arrives at position </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>k</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, then the swapped position will start to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>recount</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> from the front, and count until </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>current.node</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> reaches null.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">****Able to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Brute Force </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">the solution with count. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Optimal Solution </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is to use for loops to locate the positions of nodes given. Try again next week.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">UPDATE (5 days): </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Able to implement </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Optimal Solution</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> by using </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>for loops</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to assign pointers at given positions. The code can still be trimmed down for better readibility.</t>
     </r>
   </si>
 </sst>
@@ -6147,7 +6359,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -6260,6 +6472,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6673,7 +6888,7 @@
       <pane xSplit="18" ySplit="8" topLeftCell="S167" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="P1" sqref="P1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="P173" sqref="P173"/>
+      <selection pane="bottomRight" activeCell="P169" sqref="P169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6701,48 +6916,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="49" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="50"/>
+      <c r="R1" s="51"/>
       <c r="S1" s="9"/>
       <c r="T1" s="7"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A2" s="43"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="44"/>
+      <c r="A2" s="44"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="45"/>
       <c r="Q2" s="23" t="s">
         <v>17</v>
       </c>
@@ -6751,22 +6966,22 @@
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A3" s="43"/>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="44"/>
+      <c r="A3" s="44"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="45"/>
       <c r="Q3" s="23" t="s">
         <v>18</v>
       </c>
@@ -6775,22 +6990,22 @@
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A4" s="43"/>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="44"/>
+      <c r="A4" s="44"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="44"/>
+      <c r="O4" s="44"/>
+      <c r="P4" s="45"/>
       <c r="Q4" s="3" t="s">
         <v>19</v>
       </c>
@@ -6799,22 +7014,22 @@
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5" s="45"/>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="45"/>
-      <c r="N5" s="45"/>
-      <c r="O5" s="45"/>
-      <c r="P5" s="46"/>
+      <c r="A5" s="46"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="46"/>
+      <c r="N5" s="46"/>
+      <c r="O5" s="46"/>
+      <c r="P5" s="47"/>
       <c r="Q5" s="23" t="s">
         <v>27</v>
       </c>
@@ -6823,22 +7038,22 @@
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6" s="45"/>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="45"/>
-      <c r="M6" s="45"/>
-      <c r="N6" s="45"/>
-      <c r="O6" s="45"/>
-      <c r="P6" s="46"/>
+      <c r="A6" s="46"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="46"/>
+      <c r="N6" s="46"/>
+      <c r="O6" s="46"/>
+      <c r="P6" s="47"/>
       <c r="Q6" s="23" t="s">
         <v>29</v>
       </c>
@@ -6847,22 +7062,22 @@
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A7" s="47"/>
-      <c r="B7" s="47"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="47"/>
-      <c r="M7" s="47"/>
-      <c r="N7" s="47"/>
-      <c r="O7" s="47"/>
-      <c r="P7" s="48"/>
+      <c r="A7" s="48"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="48"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="48"/>
+      <c r="N7" s="48"/>
+      <c r="O7" s="48"/>
+      <c r="P7" s="49"/>
       <c r="Q7" s="23" t="s">
         <v>31</v>
       </c>
@@ -9955,55 +10170,25 @@
     </row>
     <row r="131" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A131" s="25">
+        <v>503</v>
+      </c>
+      <c r="B131" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D131" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="O131" s="27"/>
+    </row>
+    <row r="132" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A132" s="25">
         <v>541</v>
       </c>
-      <c r="B131" s="5" t="s">
+      <c r="B132" s="5" t="s">
         <v>9</v>
-      </c>
-      <c r="C131" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D131" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E131" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F131" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G131" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H131" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I131" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="J131" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="L131" s="6">
-        <v>1</v>
-      </c>
-      <c r="M131" s="8">
-        <v>0</v>
-      </c>
-      <c r="N131" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="O131" s="27"/>
-      <c r="P131" s="35" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A132" s="25">
-        <v>557</v>
-      </c>
-      <c r="B132" s="5" t="s">
-        <v>21</v>
       </c>
       <c r="C132" s="4" t="s">
         <v>2</v>
@@ -10015,10 +10200,10 @@
         <v>10</v>
       </c>
       <c r="F132" s="4" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="G132" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H132" s="4" t="s">
         <v>18</v>
@@ -10030,196 +10215,160 @@
         <v>51</v>
       </c>
       <c r="L132" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M132" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N132" s="8" t="s">
         <v>52</v>
       </c>
       <c r="O132" s="27"/>
       <c r="P132" s="35" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A133" s="25">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>238</v>
+        <v>315</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>2</v>
+        <v>141</v>
       </c>
       <c r="D133" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="E133" s="4" t="s">
-        <v>10</v>
+        <v>79</v>
       </c>
       <c r="O133" s="27"/>
     </row>
-    <row r="134" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A134" s="25">
-        <v>665</v>
+        <v>557</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>130</v>
+        <v>21</v>
       </c>
       <c r="C134" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D134" s="13" t="s">
-        <v>71</v>
+        <v>13</v>
+      </c>
+      <c r="E134" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F134" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G134" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="H134" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I134" s="6" t="s">
         <v>51</v>
       </c>
       <c r="J134" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="K134" s="6">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="L134" s="6">
+        <v>2</v>
+      </c>
+      <c r="M134" s="8">
         <v>1</v>
-      </c>
-      <c r="M134" s="8">
-        <v>0</v>
       </c>
       <c r="N134" s="8" t="s">
         <v>52</v>
       </c>
       <c r="O134" s="27"/>
       <c r="P134" s="35" t="s">
-        <v>283</v>
+        <v>40</v>
       </c>
     </row>
     <row r="135" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A135" s="25">
-        <v>682</v>
+        <v>561</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="C135" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D135" s="13" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E135" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F135" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G135" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H135" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I135" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="J135" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="K135" s="6">
-        <v>15</v>
-      </c>
-      <c r="L135" s="6">
-        <v>1</v>
-      </c>
-      <c r="M135" s="8">
-        <v>0</v>
-      </c>
-      <c r="N135" s="8" t="s">
-        <v>52</v>
-      </c>
       <c r="O135" s="27"/>
-      <c r="P135" s="35" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="136" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="136" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A136" s="25">
-        <v>771</v>
+        <v>665</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="C136" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D136" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E136" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F136" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G136" s="4" t="s">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="H136" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I136" s="6" t="s">
         <v>51</v>
       </c>
       <c r="J136" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K136" s="6">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="L136" s="6">
         <v>1</v>
       </c>
       <c r="M136" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N136" s="8" t="s">
         <v>52</v>
       </c>
       <c r="O136" s="27"/>
       <c r="P136" s="35" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.3">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="137" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A137" s="25">
-        <v>832</v>
+        <v>682</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>105</v>
+        <v>246</v>
       </c>
       <c r="C137" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D137" s="13" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E137" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F137" s="4" t="s">
-        <v>106</v>
+        <v>7</v>
       </c>
       <c r="G137" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H137" s="4" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I137" s="6" t="s">
         <v>51</v>
@@ -10228,7 +10377,7 @@
         <v>51</v>
       </c>
       <c r="K137" s="6">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L137" s="6">
         <v>1</v>
@@ -10241,33 +10390,33 @@
       </c>
       <c r="O137" s="27"/>
       <c r="P137" s="35" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="138" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A138" s="28">
-        <v>844</v>
+        <v>771</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>249</v>
+        <v>101</v>
       </c>
       <c r="C138" s="28" t="s">
         <v>2</v>
       </c>
       <c r="D138" s="28" t="s">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="E138" s="28" t="s">
         <v>10</v>
       </c>
       <c r="F138" s="28" t="s">
-        <v>250</v>
+        <v>7</v>
       </c>
       <c r="G138" s="28" t="s">
         <v>7</v>
       </c>
       <c r="H138" s="28" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I138" s="28" t="s">
         <v>51</v>
@@ -10276,46 +10425,46 @@
         <v>51</v>
       </c>
       <c r="K138" s="28">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="L138" s="28">
         <v>1</v>
       </c>
       <c r="M138" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N138" s="28" t="s">
         <v>52</v>
       </c>
       <c r="O138" s="28"/>
       <c r="P138" s="35" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.3">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A139" s="30">
-        <v>876</v>
+        <v>832</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>240</v>
+        <v>105</v>
       </c>
       <c r="C139" s="30" t="s">
         <v>2</v>
       </c>
       <c r="D139" s="30" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="E139" s="30" t="s">
         <v>10</v>
       </c>
       <c r="F139" s="30" t="s">
-        <v>7</v>
+        <v>106</v>
       </c>
       <c r="G139" s="30" t="s">
         <v>8</v>
       </c>
       <c r="H139" s="30" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I139" s="30" t="s">
         <v>51</v>
@@ -10324,7 +10473,7 @@
         <v>51</v>
       </c>
       <c r="K139" s="30">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="L139" s="30">
         <v>1</v>
@@ -10337,33 +10486,33 @@
       </c>
       <c r="O139" s="30"/>
       <c r="P139" s="35" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.3">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A140" s="25">
-        <v>977</v>
+        <v>844</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>134</v>
+        <v>249</v>
       </c>
       <c r="C140" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D140" s="13" t="s">
-        <v>132</v>
+        <v>79</v>
       </c>
       <c r="E140" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F140" s="4" t="s">
-        <v>75</v>
+        <v>250</v>
       </c>
       <c r="G140" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H140" s="4" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I140" s="6" t="s">
         <v>51</v>
@@ -10385,60 +10534,117 @@
       </c>
       <c r="O140" s="27"/>
       <c r="P140" s="35" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.3">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="141" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A141" s="25">
-        <v>1002</v>
+        <v>876</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>102</v>
+        <v>240</v>
       </c>
       <c r="C141" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D141" s="13" t="s">
-        <v>13</v>
+        <v>25</v>
+      </c>
+      <c r="E141" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F141" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G141" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H141" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="I141" s="6" t="s">
         <v>51</v>
       </c>
       <c r="J141" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
+      </c>
+      <c r="K141" s="6">
+        <v>15</v>
+      </c>
+      <c r="L141" s="6">
+        <v>1</v>
+      </c>
+      <c r="M141" s="8">
+        <v>0</v>
       </c>
       <c r="N141" s="8" t="s">
         <v>52</v>
       </c>
       <c r="O141" s="27"/>
+      <c r="P141" s="35" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="142" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A142" s="25">
-        <v>1019</v>
+        <v>977</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>314</v>
+        <v>134</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>141</v>
+        <v>2</v>
       </c>
       <c r="D142" s="13" t="s">
-        <v>79</v>
+        <v>132</v>
+      </c>
+      <c r="E142" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F142" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G142" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H142" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I142" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="J142" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="K142" s="6">
+        <v>15</v>
+      </c>
+      <c r="L142" s="6">
+        <v>1</v>
+      </c>
+      <c r="M142" s="8">
+        <v>0</v>
+      </c>
+      <c r="N142" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="O142" s="27"/>
-    </row>
-    <row r="143" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="P142" s="35" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="143" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A143" s="31">
-        <v>1021</v>
+        <v>1002</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>242</v>
+        <v>102</v>
       </c>
       <c r="C143" s="31" t="s">
         <v>2</v>
       </c>
       <c r="D143" s="31" t="s">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="E143" s="31"/>
       <c r="F143" s="31"/>
@@ -10453,120 +10659,80 @@
       <c r="K143" s="31"/>
       <c r="L143" s="31"/>
       <c r="M143" s="31"/>
-      <c r="N143" s="31"/>
+      <c r="N143" s="31" t="s">
+        <v>52</v>
+      </c>
       <c r="O143" s="31"/>
-      <c r="P143" s="35" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="144" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+    </row>
+    <row r="144" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A144" s="32">
-        <v>1047</v>
+        <v>1019</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>245</v>
+        <v>313</v>
       </c>
       <c r="C144" s="32" t="s">
-        <v>2</v>
+        <v>141</v>
       </c>
       <c r="D144" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="E144" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="F144" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="G144" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="H144" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="I144" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="J144" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="K144" s="32">
-        <v>15</v>
-      </c>
-      <c r="L144" s="32">
-        <v>1</v>
-      </c>
-      <c r="M144" s="32">
-        <v>0</v>
-      </c>
-      <c r="N144" s="32" t="s">
-        <v>52</v>
-      </c>
+      <c r="E144" s="32"/>
+      <c r="F144" s="32"/>
+      <c r="G144" s="32"/>
+      <c r="H144" s="32"/>
+      <c r="I144" s="32"/>
+      <c r="J144" s="32"/>
+      <c r="K144" s="32"/>
+      <c r="L144" s="32"/>
+      <c r="M144" s="32"/>
+      <c r="N144" s="32"/>
       <c r="O144" s="32"/>
-      <c r="P144" s="35" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="145" spans="1:16" ht="100.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="145" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A145" s="33">
-        <v>1089</v>
+        <v>1021</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>143</v>
+        <v>242</v>
       </c>
       <c r="C145" s="33" t="s">
         <v>2</v>
       </c>
       <c r="D145" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="E145" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="F145" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="G145" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="H145" s="33" t="s">
-        <v>18</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="E145" s="33"/>
+      <c r="F145" s="33"/>
+      <c r="G145" s="33"/>
+      <c r="H145" s="33"/>
       <c r="I145" s="33" t="s">
         <v>51</v>
       </c>
       <c r="J145" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="K145" s="33">
-        <v>15</v>
-      </c>
-      <c r="L145" s="33">
-        <v>1</v>
-      </c>
-      <c r="M145" s="33">
-        <v>0</v>
-      </c>
-      <c r="N145" s="33" t="s">
         <v>52</v>
       </c>
+      <c r="K145" s="33"/>
+      <c r="L145" s="33"/>
+      <c r="M145" s="33"/>
+      <c r="N145" s="33"/>
       <c r="O145" s="33"/>
       <c r="P145" s="35" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.3">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="146" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A146" s="34">
-        <v>1108</v>
+        <v>1047</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>117</v>
+        <v>245</v>
       </c>
       <c r="C146" s="34" t="s">
         <v>2</v>
       </c>
       <c r="D146" s="34" t="s">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="E146" s="34" t="s">
         <v>10</v>
@@ -10587,7 +10753,7 @@
         <v>51</v>
       </c>
       <c r="K146" s="34">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L146" s="34">
         <v>1</v>
@@ -10600,63 +10766,69 @@
       </c>
       <c r="O146" s="34"/>
       <c r="P146" s="35" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="147" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A147" s="10">
-        <v>1119</v>
-      </c>
-      <c r="B147" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="C147" s="10" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="147" spans="1:16" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A147" s="41">
+        <v>1089</v>
+      </c>
+      <c r="B147" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C147" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="D147" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E147" s="10"/>
-      <c r="F147" s="10"/>
-      <c r="G147" s="10"/>
-      <c r="H147" s="10" t="s">
+      <c r="D147" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="E147" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="F147" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="G147" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="H147" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="I147" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="J147" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="K147" s="10">
-        <v>10</v>
-      </c>
-      <c r="L147" s="10">
+      <c r="I147" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="J147" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="K147" s="41">
+        <v>15</v>
+      </c>
+      <c r="L147" s="41">
         <v>1</v>
       </c>
-      <c r="M147" s="10">
+      <c r="M147" s="41">
         <v>0</v>
       </c>
-      <c r="N147" s="10" t="s">
+      <c r="N147" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="O147" s="10"/>
-      <c r="P147" s="39" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="148" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="O147" s="41"/>
+      <c r="P147" s="35" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="148" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A148" s="25">
-        <v>1295</v>
+        <v>1108</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C148" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D148" s="13" t="s">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="E148" s="4" t="s">
         <v>10</v>
@@ -10665,10 +10837,10 @@
         <v>7</v>
       </c>
       <c r="G148" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H148" s="4" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I148" s="6" t="s">
         <v>51</v>
@@ -10680,73 +10852,67 @@
         <v>10</v>
       </c>
       <c r="L148" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M148" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N148" s="8" t="s">
         <v>52</v>
       </c>
       <c r="O148" s="27"/>
       <c r="P148" s="35" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="149" spans="1:16" ht="72" x14ac:dyDescent="0.3">
-      <c r="A149" s="25">
-        <v>1299</v>
-      </c>
-      <c r="B149" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="C149" s="4" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="149" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A149" s="10">
+        <v>1119</v>
+      </c>
+      <c r="B149" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="C149" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D149" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="E149" s="4" t="s">
+      <c r="D149" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E149" s="10"/>
+      <c r="F149" s="10"/>
+      <c r="G149" s="10"/>
+      <c r="H149" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I149" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="J149" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="K149" s="10">
         <v>10</v>
       </c>
-      <c r="F149" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G149" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H149" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I149" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="J149" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="K149" s="6">
-        <v>40</v>
-      </c>
-      <c r="L149" s="6">
-        <v>2</v>
-      </c>
-      <c r="M149" s="8">
+      <c r="L149" s="10">
         <v>1</v>
       </c>
-      <c r="N149" s="8" t="s">
+      <c r="M149" s="10">
+        <v>0</v>
+      </c>
+      <c r="N149" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="O149" s="27"/>
-      <c r="P149" s="35" t="s">
-        <v>294</v>
+      <c r="O149" s="10"/>
+      <c r="P149" s="39" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="150" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A150" s="25">
-        <v>1304</v>
+        <v>1295</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C150" s="4" t="s">
         <v>2</v>
@@ -10754,29 +10920,47 @@
       <c r="D150" s="13" t="s">
         <v>71</v>
       </c>
+      <c r="E150" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F150" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G150" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H150" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="I150" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J150" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
+      </c>
+      <c r="K150" s="6">
+        <v>10</v>
+      </c>
+      <c r="L150" s="6">
+        <v>2</v>
       </c>
       <c r="M150" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N150" s="8" t="s">
         <v>52</v>
       </c>
       <c r="O150" s="27"/>
       <c r="P150" s="35" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="151" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="151" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A151" s="25">
-        <v>1313</v>
+        <v>1299</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="C151" s="4" t="s">
         <v>2</v>
@@ -10788,10 +10972,10 @@
         <v>10</v>
       </c>
       <c r="F151" s="4" t="s">
-        <v>111</v>
+        <v>7</v>
       </c>
       <c r="G151" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H151" s="4" t="s">
         <v>18</v>
@@ -10803,58 +10987,40 @@
         <v>51</v>
       </c>
       <c r="K151" s="6">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="L151" s="6">
+        <v>2</v>
+      </c>
+      <c r="M151" s="8">
         <v>1</v>
-      </c>
-      <c r="M151" s="8">
-        <v>0</v>
       </c>
       <c r="N151" s="8" t="s">
         <v>52</v>
       </c>
       <c r="O151" s="27"/>
       <c r="P151" s="35" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="152" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="152" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A152" s="25">
-        <v>1342</v>
+        <v>1304</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>103</v>
+        <v>126</v>
       </c>
       <c r="C152" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D152" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="E152" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F152" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G152" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H152" s="4" t="s">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="I152" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J152" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="K152" s="6">
-        <v>30</v>
-      </c>
-      <c r="L152" s="6">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="M152" s="8">
         <v>0</v>
@@ -10864,15 +11030,15 @@
       </c>
       <c r="O152" s="27"/>
       <c r="P152" s="35" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="153" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="153" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A153" s="28">
-        <v>1365</v>
+        <v>1313</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>88</v>
+        <v>119</v>
       </c>
       <c r="C153" s="28" t="s">
         <v>2</v>
@@ -10884,7 +11050,7 @@
         <v>10</v>
       </c>
       <c r="F153" s="28" t="s">
-        <v>22</v>
+        <v>111</v>
       </c>
       <c r="G153" s="28" t="s">
         <v>7</v>
@@ -10899,7 +11065,7 @@
         <v>51</v>
       </c>
       <c r="K153" s="28">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="L153" s="28">
         <v>1</v>
@@ -10912,30 +11078,30 @@
       </c>
       <c r="O153" s="28"/>
       <c r="P153" s="35" t="s">
-        <v>89</v>
+        <v>295</v>
       </c>
     </row>
     <row r="154" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A154" s="30">
-        <v>1389</v>
+        <v>1342</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="C154" s="30" t="s">
         <v>2</v>
       </c>
       <c r="D154" s="30" t="s">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="E154" s="30" t="s">
         <v>10</v>
       </c>
       <c r="F154" s="30" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="G154" s="30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H154" s="30" t="s">
         <v>18</v>
@@ -10947,7 +11113,7 @@
         <v>51</v>
       </c>
       <c r="K154" s="30">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="L154" s="30">
         <v>1</v>
@@ -10960,15 +11126,15 @@
       </c>
       <c r="O154" s="30"/>
       <c r="P154" s="35" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="155" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="155" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A155" s="25">
-        <v>1431</v>
+        <v>1365</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C155" s="4" t="s">
         <v>2</v>
@@ -10980,7 +11146,7 @@
         <v>10</v>
       </c>
       <c r="F155" s="4" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="G155" s="4" t="s">
         <v>7</v>
@@ -11008,33 +11174,33 @@
       </c>
       <c r="O155" s="27"/>
       <c r="P155" s="35" t="s">
-        <v>298</v>
+        <v>89</v>
       </c>
     </row>
     <row r="156" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A156" s="25">
-        <v>1441</v>
+        <v>1389</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>247</v>
+        <v>120</v>
       </c>
       <c r="C156" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D156" s="13" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E156" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F156" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G156" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G156" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="H156" s="4" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I156" s="6" t="s">
         <v>51</v>
@@ -11043,7 +11209,7 @@
         <v>51</v>
       </c>
       <c r="K156" s="6">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="L156" s="6">
         <v>1</v>
@@ -11056,15 +11222,15 @@
       </c>
       <c r="O156" s="27"/>
       <c r="P156" s="35" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="157" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="157" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A157" s="25">
-        <v>1450</v>
+        <v>1431</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>123</v>
+        <v>87</v>
       </c>
       <c r="C157" s="4" t="s">
         <v>2</v>
@@ -11079,7 +11245,7 @@
         <v>7</v>
       </c>
       <c r="G157" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H157" s="4" t="s">
         <v>18</v>
@@ -11091,7 +11257,7 @@
         <v>51</v>
       </c>
       <c r="K157" s="6">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="L157" s="6">
         <v>1</v>
@@ -11104,21 +11270,21 @@
       </c>
       <c r="O157" s="27"/>
       <c r="P157" s="35" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="158" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="158" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A158" s="31">
-        <v>1464</v>
+        <v>1441</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>125</v>
+        <v>247</v>
       </c>
       <c r="C158" s="31" t="s">
         <v>2</v>
       </c>
       <c r="D158" s="31" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E158" s="31" t="s">
         <v>10</v>
@@ -11130,7 +11296,7 @@
         <v>8</v>
       </c>
       <c r="H158" s="31" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I158" s="31" t="s">
         <v>51</v>
@@ -11139,7 +11305,7 @@
         <v>51</v>
       </c>
       <c r="K158" s="31">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="L158" s="31">
         <v>1</v>
@@ -11152,15 +11318,15 @@
       </c>
       <c r="O158" s="31"/>
       <c r="P158" s="35" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="159" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="159" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A159" s="32">
-        <v>1470</v>
+        <v>1450</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>86</v>
+        <v>123</v>
       </c>
       <c r="C159" s="32" t="s">
         <v>2</v>
@@ -11175,7 +11341,7 @@
         <v>7</v>
       </c>
       <c r="G159" s="32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H159" s="32" t="s">
         <v>18</v>
@@ -11184,31 +11350,31 @@
         <v>51</v>
       </c>
       <c r="J159" s="32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K159" s="32">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="L159" s="32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M159" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N159" s="32" t="s">
         <v>52</v>
       </c>
       <c r="O159" s="32"/>
       <c r="P159" s="35" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="160" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="160" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A160" s="25">
-        <v>1475</v>
+        <v>1464</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C160" s="4" t="s">
         <v>2</v>
@@ -11220,7 +11386,7 @@
         <v>10</v>
       </c>
       <c r="F160" s="4" t="s">
-        <v>114</v>
+        <v>7</v>
       </c>
       <c r="G160" s="4" t="s">
         <v>8</v>
@@ -11235,27 +11401,27 @@
         <v>51</v>
       </c>
       <c r="K160" s="6">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="L160" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M160" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N160" s="8" t="s">
         <v>52</v>
       </c>
       <c r="P160" s="35" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="161" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="161" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A161" s="33">
-        <v>1480</v>
+        <v>1470</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C161" s="33" t="s">
         <v>2</v>
@@ -11270,19 +11436,19 @@
         <v>7</v>
       </c>
       <c r="G161" s="33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H161" s="33" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I161" s="33" t="s">
         <v>51</v>
       </c>
       <c r="J161" s="33" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K161" s="33">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="L161" s="33">
         <v>2</v>
@@ -11291,37 +11457,37 @@
         <v>1</v>
       </c>
       <c r="N161" s="33" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O161" s="33"/>
       <c r="P161" s="35" t="s">
-        <v>138</v>
+        <v>300</v>
       </c>
     </row>
     <row r="162" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A162" s="34">
-        <v>1512</v>
+        <v>1475</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>36</v>
+        <v>128</v>
       </c>
       <c r="C162" s="34" t="s">
         <v>2</v>
       </c>
       <c r="D162" s="34" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E162" s="34" t="s">
         <v>10</v>
       </c>
       <c r="F162" s="34" t="s">
-        <v>7</v>
+        <v>114</v>
       </c>
       <c r="G162" s="34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H162" s="34" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I162" s="34" t="s">
         <v>51</v>
@@ -11330,7 +11496,7 @@
         <v>51</v>
       </c>
       <c r="K162" s="34">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="L162" s="34">
         <v>2</v>
@@ -11343,78 +11509,110 @@
       </c>
       <c r="O162" s="34"/>
       <c r="P162" s="35" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="163" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A163" s="25">
-        <v>1544</v>
+        <v>1480</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>251</v>
+        <v>85</v>
       </c>
       <c r="C163" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D163" s="13" t="s">
-        <v>79</v>
+        <v>71</v>
+      </c>
+      <c r="E163" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F163" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G163" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H163" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="I163" s="6" t="s">
         <v>51</v>
       </c>
       <c r="J163" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="K163" s="6">
+        <v>5</v>
+      </c>
+      <c r="L163" s="6">
+        <v>2</v>
+      </c>
+      <c r="M163" s="8">
+        <v>1</v>
+      </c>
+      <c r="N163" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="P163" s="35" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="164" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+      <c r="A164" s="41">
+        <v>1512</v>
+      </c>
+      <c r="B164" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C164" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="D164" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="E164" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="F164" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="G164" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="H164" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="I164" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="J164" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="K164" s="41">
+        <v>50</v>
+      </c>
+      <c r="L164" s="41">
+        <v>2</v>
+      </c>
+      <c r="M164" s="41">
+        <v>1</v>
+      </c>
+      <c r="N164" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="K163" s="6">
-        <v>60</v>
-      </c>
-      <c r="N163" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="P163" s="35" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="164" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A164" s="16">
-        <v>1588</v>
-      </c>
-      <c r="B164" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="C164" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="D164" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="E164" s="16"/>
-      <c r="F164" s="16"/>
-      <c r="G164" s="16"/>
-      <c r="H164" s="16"/>
-      <c r="I164" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="J164" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="K164" s="16"/>
-      <c r="L164" s="16"/>
-      <c r="M164" s="16"/>
-      <c r="N164" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="O164" s="16"/>
-      <c r="P164" s="40" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="165" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="O164" s="41"/>
+      <c r="P164" s="35" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="165" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A165" s="25">
-        <v>1598</v>
+        <v>1544</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C165" s="4" t="s">
         <v>2</v>
@@ -11422,32 +11620,14 @@
       <c r="D165" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="E165" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F165" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G165" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H165" s="4" t="s">
-        <v>33</v>
-      </c>
       <c r="I165" s="6" t="s">
         <v>51</v>
       </c>
       <c r="J165" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K165" s="6">
-        <v>20</v>
-      </c>
-      <c r="L165" s="6">
-        <v>1</v>
-      </c>
-      <c r="M165" s="8">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="N165" s="8" t="s">
         <v>52</v>
@@ -11456,77 +11636,64 @@
         <v>312</v>
       </c>
     </row>
-    <row r="166" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A166" s="25">
-        <v>1662</v>
-      </c>
-      <c r="B166" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="C166" s="4" t="s">
+    <row r="166" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A166" s="16">
+        <v>1588</v>
+      </c>
+      <c r="B166" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="C166" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D166" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="E166" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F166" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G166" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H166" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I166" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="J166" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="K166" s="6">
-        <v>30</v>
-      </c>
-      <c r="L166" s="6">
-        <v>1</v>
-      </c>
-      <c r="M166" s="8">
-        <v>0</v>
-      </c>
-      <c r="N166" s="8" t="s">
+      <c r="D166" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="E166" s="16"/>
+      <c r="F166" s="16"/>
+      <c r="G166" s="16"/>
+      <c r="H166" s="16"/>
+      <c r="I166" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="P166" s="35" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="167" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="J166" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="K166" s="16"/>
+      <c r="L166" s="16"/>
+      <c r="M166" s="16"/>
+      <c r="N166" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="O166" s="16"/>
+      <c r="P166" s="40" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="167" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A167" s="25">
-        <v>1669</v>
+        <v>1598</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>141</v>
+        <v>2</v>
       </c>
       <c r="D167" s="13" t="s">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="E167" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F167" s="4" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="G167" s="4" t="s">
         <v>8</v>
       </c>
       <c r="H167" s="4" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I167" s="6" t="s">
         <v>51</v>
@@ -11535,7 +11702,7 @@
         <v>51</v>
       </c>
       <c r="K167" s="6">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="L167" s="6">
         <v>1</v>
@@ -11547,27 +11714,27 @@
         <v>52</v>
       </c>
       <c r="P167" s="35" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="168" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="168" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A168" s="25">
-        <v>1672</v>
+        <v>1662</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="C168" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D168" s="13" t="s">
-        <v>71</v>
+        <v>113</v>
       </c>
       <c r="E168" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F168" s="4" t="s">
-        <v>111</v>
+        <v>7</v>
       </c>
       <c r="G168" s="4" t="s">
         <v>8</v>
@@ -11582,7 +11749,7 @@
         <v>51</v>
       </c>
       <c r="K168" s="6">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="L168" s="6">
         <v>1</v>
@@ -11594,30 +11761,30 @@
         <v>52</v>
       </c>
       <c r="P168" s="35" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="169" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="169" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A169" s="25">
-        <v>1674</v>
+        <v>1669</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>115</v>
+        <v>241</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>2</v>
+        <v>141</v>
       </c>
       <c r="D169" s="13" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E169" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F169" s="4" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="G169" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H169" s="4" t="s">
         <v>18</v>
@@ -11626,10 +11793,10 @@
         <v>51</v>
       </c>
       <c r="J169" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K169" s="6">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="L169" s="6">
         <v>1</v>
@@ -11641,30 +11808,30 @@
         <v>52</v>
       </c>
       <c r="P169" s="35" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
     </row>
     <row r="170" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A170" s="25">
-        <v>1684</v>
+        <v>1672</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C170" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D170" s="13" t="s">
-        <v>113</v>
+        <v>71</v>
       </c>
       <c r="E170" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F170" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G170" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H170" s="4" t="s">
         <v>18</v>
@@ -11676,7 +11843,7 @@
         <v>51</v>
       </c>
       <c r="K170" s="6">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L170" s="6">
         <v>1</v>
@@ -11688,43 +11855,109 @@
         <v>52</v>
       </c>
       <c r="P170" s="35" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="171" spans="1:16" x14ac:dyDescent="0.3">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="171" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A171" s="25">
-        <v>503</v>
+        <v>1674</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>315</v>
+        <v>115</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>141</v>
+        <v>2</v>
       </c>
       <c r="D171" s="13" t="s">
-        <v>79</v>
+        <v>13</v>
+      </c>
+      <c r="E171" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F171" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G171" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H171" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I171" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="J171" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="K171" s="6">
+        <v>45</v>
+      </c>
+      <c r="L171" s="6">
+        <v>1</v>
+      </c>
+      <c r="M171" s="8">
+        <v>0</v>
+      </c>
+      <c r="N171" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="P171" s="35" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="172" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A172" s="25">
-        <v>556</v>
+        <v>1684</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>316</v>
+        <v>112</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>141</v>
+        <v>2</v>
       </c>
       <c r="D172" s="13" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="173" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+      <c r="E172" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F172" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="G172" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H172" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I172" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="J172" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="K172" s="6">
+        <v>10</v>
+      </c>
+      <c r="L172" s="6">
+        <v>1</v>
+      </c>
+      <c r="M172" s="8">
+        <v>0</v>
+      </c>
+      <c r="N172" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="P172" s="35" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="173" spans="1:16" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A173" s="25">
         <v>1721</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C173" s="4" t="s">
         <v>141</v>
@@ -11763,12 +11996,12 @@
         <v>52</v>
       </c>
       <c r="P173" s="35" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A8:P170" xr:uid="{57DD97F8-0FE5-4F41-AAF2-1F48E42A70CC}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:P170">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:P173">
       <sortCondition ref="A8:A170"/>
     </sortState>
   </autoFilter>

--- a/LeetCode Tracker.xlsx
+++ b/LeetCode Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leon\Desktop\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CDFC656-8B71-43FF-AE2F-6D6508FA4445}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF85B485-85B7-45DD-AD30-E7450559C97D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2FA590F6-CEBE-453D-A814-55EB366ADEEE}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="LeetCode" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LeetCode!$A$8:$P$170</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LeetCode!$A$8:$P$174</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1096" uniqueCount="321">
   <si>
     <t>LeetCode Problems</t>
   </si>
@@ -6218,6 +6218,98 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> to assign pointers at given positions. The code can still be trimmed down for better readibility.</t>
+    </r>
+  </si>
+  <si>
+    <t>Third Maximum Number</t>
+  </si>
+  <si>
+    <r>
+      <t>****</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Brute Force </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">is to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">sort </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">and create </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">HashMap </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">to keep track of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>max</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
     </r>
   </si>
 </sst>
@@ -6882,13 +6974,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CECAF50C-0FA8-4FE8-AF1F-0197AD9DA707}">
-  <dimension ref="A1:U173"/>
+  <dimension ref="A1:U174"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="18" ySplit="8" topLeftCell="S167" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="18" ySplit="8" topLeftCell="S171" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="P1" sqref="P1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="P169" sqref="P169"/>
+      <selection pane="bottomRight" activeCell="P174" sqref="P174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11999,8 +12091,55 @@
         <v>317</v>
       </c>
     </row>
+    <row r="174" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A174" s="25">
+        <v>414</v>
+      </c>
+      <c r="B174" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="C174" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D174" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E174" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F174" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G174" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H174" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I174" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="J174" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="K174" s="6">
+        <v>15</v>
+      </c>
+      <c r="L174" s="6">
+        <v>1</v>
+      </c>
+      <c r="M174" s="8">
+        <v>0</v>
+      </c>
+      <c r="N174" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="P174" s="35" t="s">
+        <v>320</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A8:P170" xr:uid="{57DD97F8-0FE5-4F41-AAF2-1F48E42A70CC}">
+  <autoFilter ref="A8:P174" xr:uid="{57DD97F8-0FE5-4F41-AAF2-1F48E42A70CC}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A9:P173">
       <sortCondition ref="A8:A170"/>
     </sortState>

--- a/LeetCode Tracker.xlsx
+++ b/LeetCode Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leon\Desktop\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF85B485-85B7-45DD-AD30-E7450559C97D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A299F00-D3B9-4078-BF5F-9A5DB22D3C7C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2FA590F6-CEBE-453D-A814-55EB366ADEEE}"/>
   </bookViews>
@@ -6309,7 +6309,49 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>.</t>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Optimal Solution</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is to use </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">three pointers </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>for max and starts to compare to find the thrid max. Should try it out.</t>
     </r>
   </si>
 </sst>
@@ -6451,7 +6493,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -6564,6 +6606,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6977,10 +7022,10 @@
   <dimension ref="A1:U174"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="18" ySplit="8" topLeftCell="S171" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="18" ySplit="8" topLeftCell="S9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="P1" sqref="P1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="P174" sqref="P174"/>
+      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7008,48 +7053,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-      <c r="L1" s="42"/>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="50" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="51"/>
+      <c r="R1" s="52"/>
       <c r="S1" s="9"/>
       <c r="T1" s="7"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A2" s="44"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="44"/>
-      <c r="L2" s="44"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
-      <c r="P2" s="45"/>
+      <c r="A2" s="45"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="46"/>
       <c r="Q2" s="23" t="s">
         <v>17</v>
       </c>
@@ -7058,22 +7103,22 @@
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A3" s="44"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="45"/>
+      <c r="A3" s="45"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="46"/>
       <c r="Q3" s="23" t="s">
         <v>18</v>
       </c>
@@ -7082,22 +7127,22 @@
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A4" s="44"/>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="44"/>
-      <c r="N4" s="44"/>
-      <c r="O4" s="44"/>
-      <c r="P4" s="45"/>
+      <c r="A4" s="45"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="46"/>
       <c r="Q4" s="3" t="s">
         <v>19</v>
       </c>
@@ -7106,22 +7151,22 @@
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5" s="46"/>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="46"/>
-      <c r="M5" s="46"/>
-      <c r="N5" s="46"/>
-      <c r="O5" s="46"/>
-      <c r="P5" s="47"/>
+      <c r="A5" s="47"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="47"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="47"/>
+      <c r="O5" s="47"/>
+      <c r="P5" s="48"/>
       <c r="Q5" s="23" t="s">
         <v>27</v>
       </c>
@@ -7130,22 +7175,22 @@
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6" s="46"/>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="46"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="46"/>
-      <c r="N6" s="46"/>
-      <c r="O6" s="46"/>
-      <c r="P6" s="47"/>
+      <c r="A6" s="47"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="47"/>
+      <c r="O6" s="47"/>
+      <c r="P6" s="48"/>
       <c r="Q6" s="23" t="s">
         <v>29</v>
       </c>
@@ -7154,22 +7199,22 @@
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A7" s="48"/>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="48"/>
-      <c r="N7" s="48"/>
-      <c r="O7" s="48"/>
-      <c r="P7" s="49"/>
+      <c r="A7" s="49"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="49"/>
+      <c r="O7" s="49"/>
+      <c r="P7" s="50"/>
       <c r="Q7" s="23" t="s">
         <v>31</v>
       </c>
@@ -10164,12 +10209,12 @@
         <v>73</v>
       </c>
     </row>
-    <row r="129" spans="1:16" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A129" s="25">
-        <v>448</v>
+        <v>414</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>76</v>
+        <v>319</v>
       </c>
       <c r="C129" s="4" t="s">
         <v>2</v>
@@ -10202,37 +10247,37 @@
         <v>1</v>
       </c>
       <c r="M129" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N129" s="8" t="s">
         <v>52</v>
       </c>
       <c r="O129" s="27"/>
       <c r="P129" s="35" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="130" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16" ht="144" x14ac:dyDescent="0.3">
       <c r="A130" s="25">
-        <v>496</v>
+        <v>448</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>244</v>
+        <v>76</v>
       </c>
       <c r="C130" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D130" s="13" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E130" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F130" s="4" t="s">
-        <v>243</v>
+        <v>7</v>
       </c>
       <c r="G130" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H130" s="4" t="s">
         <v>18</v>
@@ -10244,166 +10289,196 @@
         <v>51</v>
       </c>
       <c r="K130" s="6">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="L130" s="6">
         <v>1</v>
       </c>
       <c r="M130" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N130" s="8" t="s">
         <v>52</v>
       </c>
       <c r="O130" s="27"/>
       <c r="P130" s="35" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.3">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A131" s="25">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>314</v>
+        <v>244</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>141</v>
+        <v>2</v>
       </c>
       <c r="D131" s="13" t="s">
         <v>79</v>
       </c>
+      <c r="E131" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F131" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="G131" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H131" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I131" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="J131" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="K131" s="6">
+        <v>45</v>
+      </c>
+      <c r="L131" s="6">
+        <v>1</v>
+      </c>
+      <c r="M131" s="8">
+        <v>0</v>
+      </c>
+      <c r="N131" s="8" t="s">
+        <v>52</v>
+      </c>
       <c r="O131" s="27"/>
-    </row>
-    <row r="132" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="P131" s="35" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A132" s="25">
-        <v>541</v>
+        <v>503</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>9</v>
+        <v>314</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>2</v>
+        <v>141</v>
       </c>
       <c r="D132" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E132" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F132" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G132" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H132" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I132" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="J132" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="L132" s="6">
-        <v>1</v>
-      </c>
-      <c r="M132" s="8">
-        <v>0</v>
-      </c>
-      <c r="N132" s="8" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="O132" s="27"/>
-      <c r="P132" s="35" t="s">
-        <v>39</v>
-      </c>
     </row>
     <row r="133" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A133" s="25">
-        <v>556</v>
+        <v>541</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>315</v>
+        <v>9</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>141</v>
+        <v>2</v>
       </c>
       <c r="D133" s="13" t="s">
-        <v>79</v>
+        <v>13</v>
+      </c>
+      <c r="E133" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F133" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G133" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H133" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I133" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="J133" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="L133" s="6">
+        <v>1</v>
+      </c>
+      <c r="M133" s="8">
+        <v>0</v>
+      </c>
+      <c r="N133" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="O133" s="27"/>
+      <c r="P133" s="35" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="134" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A134" s="25">
+        <v>556</v>
+      </c>
+      <c r="B134" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D134" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="O134" s="27"/>
+    </row>
+    <row r="135" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A135" s="25">
         <v>557</v>
       </c>
-      <c r="B134" s="5" t="s">
+      <c r="B135" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="C134" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D134" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="E134" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F134" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G134" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H134" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I134" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="J134" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="L134" s="6">
-        <v>2</v>
-      </c>
-      <c r="M134" s="8">
-        <v>1</v>
-      </c>
-      <c r="N134" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="O134" s="27"/>
-      <c r="P134" s="35" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A135" s="25">
-        <v>561</v>
-      </c>
-      <c r="B135" s="5" t="s">
-        <v>238</v>
       </c>
       <c r="C135" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D135" s="13" t="s">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="E135" s="4" t="s">
         <v>10</v>
       </c>
+      <c r="F135" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G135" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H135" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I135" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="J135" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="L135" s="6">
+        <v>2</v>
+      </c>
+      <c r="M135" s="8">
+        <v>1</v>
+      </c>
+      <c r="N135" s="8" t="s">
+        <v>52</v>
+      </c>
       <c r="O135" s="27"/>
-    </row>
-    <row r="136" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+      <c r="P135" s="35" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A136" s="25">
-        <v>665</v>
+        <v>561</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>130</v>
+        <v>238</v>
       </c>
       <c r="C136" s="4" t="s">
         <v>2</v>
@@ -10411,65 +10486,35 @@
       <c r="D136" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="H136" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I136" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="J136" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="K136" s="6">
-        <v>60</v>
-      </c>
-      <c r="L136" s="6">
-        <v>1</v>
-      </c>
-      <c r="M136" s="8">
-        <v>0</v>
-      </c>
-      <c r="N136" s="8" t="s">
-        <v>52</v>
+      <c r="E136" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="O136" s="27"/>
-      <c r="P136" s="35" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="137" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="137" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A137" s="25">
-        <v>682</v>
+        <v>665</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>246</v>
+        <v>130</v>
       </c>
       <c r="C137" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D137" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="E137" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F137" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G137" s="4" t="s">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="H137" s="4" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="I137" s="6" t="s">
         <v>51</v>
       </c>
       <c r="J137" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K137" s="6">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="L137" s="6">
         <v>1</v>
@@ -10482,21 +10527,21 @@
       </c>
       <c r="O137" s="27"/>
       <c r="P137" s="35" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="138" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A138" s="28">
-        <v>771</v>
+        <v>682</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>101</v>
+        <v>246</v>
       </c>
       <c r="C138" s="28" t="s">
         <v>2</v>
       </c>
       <c r="D138" s="28" t="s">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="E138" s="28" t="s">
         <v>10</v>
@@ -10508,7 +10553,7 @@
         <v>7</v>
       </c>
       <c r="H138" s="28" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I138" s="28" t="s">
         <v>51</v>
@@ -10517,43 +10562,43 @@
         <v>51</v>
       </c>
       <c r="K138" s="28">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L138" s="28">
         <v>1</v>
       </c>
       <c r="M138" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N138" s="28" t="s">
         <v>52</v>
       </c>
       <c r="O138" s="28"/>
       <c r="P138" s="35" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="139" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A139" s="30">
-        <v>832</v>
+        <v>771</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C139" s="30" t="s">
         <v>2</v>
       </c>
       <c r="D139" s="30" t="s">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="E139" s="30" t="s">
         <v>10</v>
       </c>
       <c r="F139" s="30" t="s">
-        <v>106</v>
+        <v>7</v>
       </c>
       <c r="G139" s="30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H139" s="30" t="s">
         <v>18</v>
@@ -10571,40 +10616,40 @@
         <v>1</v>
       </c>
       <c r="M139" s="30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N139" s="30" t="s">
         <v>52</v>
       </c>
       <c r="O139" s="30"/>
       <c r="P139" s="35" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="140" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A140" s="25">
-        <v>844</v>
+        <v>832</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>249</v>
+        <v>105</v>
       </c>
       <c r="C140" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D140" s="13" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E140" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F140" s="4" t="s">
-        <v>250</v>
+        <v>106</v>
       </c>
       <c r="G140" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H140" s="4" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I140" s="6" t="s">
         <v>51</v>
@@ -10613,7 +10658,7 @@
         <v>51</v>
       </c>
       <c r="K140" s="6">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="L140" s="6">
         <v>1</v>
@@ -10626,33 +10671,33 @@
       </c>
       <c r="O140" s="27"/>
       <c r="P140" s="35" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="141" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="141" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A141" s="25">
-        <v>876</v>
+        <v>844</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="C141" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D141" s="13" t="s">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="E141" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F141" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="G141" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G141" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="H141" s="4" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="I141" s="6" t="s">
         <v>51</v>
@@ -10674,33 +10719,33 @@
       </c>
       <c r="O141" s="27"/>
       <c r="P141" s="35" t="s">
-        <v>287</v>
+        <v>308</v>
       </c>
     </row>
     <row r="142" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A142" s="25">
-        <v>977</v>
+        <v>876</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>134</v>
+        <v>240</v>
       </c>
       <c r="C142" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D142" s="13" t="s">
-        <v>132</v>
+        <v>25</v>
       </c>
       <c r="E142" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F142" s="4" t="s">
-        <v>75</v>
+        <v>7</v>
       </c>
       <c r="G142" s="4" t="s">
         <v>8</v>
       </c>
       <c r="H142" s="4" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I142" s="6" t="s">
         <v>51</v>
@@ -10722,74 +10767,97 @@
       </c>
       <c r="O142" s="27"/>
       <c r="P142" s="35" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="143" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A143" s="31">
-        <v>1002</v>
+        <v>977</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="C143" s="31" t="s">
         <v>2</v>
       </c>
       <c r="D143" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="E143" s="31"/>
-      <c r="F143" s="31"/>
-      <c r="G143" s="31"/>
-      <c r="H143" s="31"/>
+        <v>132</v>
+      </c>
+      <c r="E143" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="F143" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="G143" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="H143" s="31" t="s">
+        <v>18</v>
+      </c>
       <c r="I143" s="31" t="s">
         <v>51</v>
       </c>
       <c r="J143" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="K143" s="31"/>
-      <c r="L143" s="31"/>
-      <c r="M143" s="31"/>
+        <v>51</v>
+      </c>
+      <c r="K143" s="31">
+        <v>15</v>
+      </c>
+      <c r="L143" s="31">
+        <v>1</v>
+      </c>
+      <c r="M143" s="31">
+        <v>0</v>
+      </c>
       <c r="N143" s="31" t="s">
         <v>52</v>
       </c>
       <c r="O143" s="31"/>
+      <c r="P143" s="35" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="144" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A144" s="32">
-        <v>1019</v>
+        <v>1002</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>313</v>
+        <v>102</v>
       </c>
       <c r="C144" s="32" t="s">
-        <v>141</v>
+        <v>2</v>
       </c>
       <c r="D144" s="32" t="s">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="E144" s="32"/>
       <c r="F144" s="32"/>
       <c r="G144" s="32"/>
       <c r="H144" s="32"/>
-      <c r="I144" s="32"/>
-      <c r="J144" s="32"/>
+      <c r="I144" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="J144" s="32" t="s">
+        <v>52</v>
+      </c>
       <c r="K144" s="32"/>
       <c r="L144" s="32"/>
       <c r="M144" s="32"/>
-      <c r="N144" s="32"/>
+      <c r="N144" s="32" t="s">
+        <v>52</v>
+      </c>
       <c r="O144" s="32"/>
     </row>
-    <row r="145" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A145" s="33">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>242</v>
+        <v>313</v>
       </c>
       <c r="C145" s="33" t="s">
-        <v>2</v>
+        <v>141</v>
       </c>
       <c r="D145" s="33" t="s">
         <v>79</v>
@@ -10798,27 +10866,20 @@
       <c r="F145" s="33"/>
       <c r="G145" s="33"/>
       <c r="H145" s="33"/>
-      <c r="I145" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="J145" s="33" t="s">
-        <v>52</v>
-      </c>
+      <c r="I145" s="33"/>
+      <c r="J145" s="33"/>
       <c r="K145" s="33"/>
       <c r="L145" s="33"/>
       <c r="M145" s="33"/>
       <c r="N145" s="33"/>
       <c r="O145" s="33"/>
-      <c r="P145" s="35" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="146" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+    </row>
+    <row r="146" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A146" s="34">
-        <v>1047</v>
+        <v>1021</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C146" s="34" t="s">
         <v>2</v>
@@ -10826,59 +10887,43 @@
       <c r="D146" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="E146" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="F146" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="G146" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="H146" s="34" t="s">
-        <v>18</v>
-      </c>
+      <c r="E146" s="34"/>
+      <c r="F146" s="34"/>
+      <c r="G146" s="34"/>
+      <c r="H146" s="34"/>
       <c r="I146" s="34" t="s">
         <v>51</v>
       </c>
       <c r="J146" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="K146" s="34">
-        <v>15</v>
-      </c>
-      <c r="L146" s="34">
-        <v>1</v>
-      </c>
-      <c r="M146" s="34">
-        <v>0</v>
-      </c>
-      <c r="N146" s="34" t="s">
         <v>52</v>
       </c>
+      <c r="K146" s="34"/>
+      <c r="L146" s="34"/>
+      <c r="M146" s="34"/>
+      <c r="N146" s="34"/>
       <c r="O146" s="34"/>
       <c r="P146" s="35" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="147" spans="1:16" ht="100.8" x14ac:dyDescent="0.3">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="147" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A147" s="41">
-        <v>1089</v>
+        <v>1047</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>143</v>
+        <v>245</v>
       </c>
       <c r="C147" s="41" t="s">
         <v>2</v>
       </c>
       <c r="D147" s="41" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E147" s="41" t="s">
         <v>10</v>
       </c>
       <c r="F147" s="41" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="G147" s="41" t="s">
         <v>7</v>
@@ -10906,27 +10951,27 @@
       </c>
       <c r="O147" s="41"/>
       <c r="P147" s="35" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.3">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="148" spans="1:16" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A148" s="25">
-        <v>1108</v>
+        <v>1089</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="C148" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D148" s="13" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="E148" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F148" s="4" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="G148" s="4" t="s">
         <v>7</v>
@@ -10941,7 +10986,7 @@
         <v>51</v>
       </c>
       <c r="K148" s="6">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L148" s="6">
         <v>1</v>
@@ -10954,105 +10999,105 @@
       </c>
       <c r="O148" s="27"/>
       <c r="P148" s="35" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="149" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A149" s="42">
+        <v>1108</v>
+      </c>
+      <c r="B149" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C149" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="D149" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="E149" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="F149" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="G149" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="H149" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="I149" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="J149" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="K149" s="42">
+        <v>10</v>
+      </c>
+      <c r="L149" s="42">
+        <v>1</v>
+      </c>
+      <c r="M149" s="42">
+        <v>0</v>
+      </c>
+      <c r="N149" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="O149" s="42"/>
+      <c r="P149" s="35" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="149" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A149" s="10">
+    <row r="150" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A150" s="10">
         <v>1119</v>
       </c>
-      <c r="B149" s="14" t="s">
+      <c r="B150" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="C149" s="10" t="s">
+      <c r="C150" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D149" s="10" t="s">
+      <c r="D150" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E149" s="10"/>
-      <c r="F149" s="10"/>
-      <c r="G149" s="10"/>
-      <c r="H149" s="10" t="s">
+      <c r="E150" s="10"/>
+      <c r="F150" s="10"/>
+      <c r="G150" s="10"/>
+      <c r="H150" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="I149" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="J149" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="K149" s="10">
+      <c r="I150" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="J150" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="K150" s="10">
         <v>10</v>
       </c>
-      <c r="L149" s="10">
+      <c r="L150" s="10">
         <v>1</v>
       </c>
-      <c r="M149" s="10">
+      <c r="M150" s="10">
         <v>0</v>
       </c>
-      <c r="N149" s="10" t="s">
+      <c r="N150" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="O149" s="10"/>
-      <c r="P149" s="39" t="s">
+      <c r="O150" s="10"/>
+      <c r="P150" s="39" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="150" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A150" s="25">
+    <row r="151" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A151" s="25">
         <v>1295</v>
       </c>
-      <c r="B150" s="5" t="s">
+      <c r="B151" s="5" t="s">
         <v>122</v>
-      </c>
-      <c r="C150" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D150" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="E150" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F150" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G150" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H150" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I150" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="J150" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="K150" s="6">
-        <v>10</v>
-      </c>
-      <c r="L150" s="6">
-        <v>2</v>
-      </c>
-      <c r="M150" s="8">
-        <v>1</v>
-      </c>
-      <c r="N150" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="O150" s="27"/>
-      <c r="P150" s="35" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="151" spans="1:16" ht="72" x14ac:dyDescent="0.3">
-      <c r="A151" s="25">
-        <v>1299</v>
-      </c>
-      <c r="B151" s="5" t="s">
-        <v>129</v>
       </c>
       <c r="C151" s="4" t="s">
         <v>2</v>
@@ -11070,7 +11115,7 @@
         <v>8</v>
       </c>
       <c r="H151" s="4" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I151" s="6" t="s">
         <v>51</v>
@@ -11079,7 +11124,7 @@
         <v>51</v>
       </c>
       <c r="K151" s="6">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="L151" s="6">
         <v>2</v>
@@ -11092,15 +11137,15 @@
       </c>
       <c r="O151" s="27"/>
       <c r="P151" s="35" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="152" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="152" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A152" s="25">
-        <v>1304</v>
+        <v>1299</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C152" s="4" t="s">
         <v>2</v>
@@ -11108,29 +11153,47 @@
       <c r="D152" s="13" t="s">
         <v>71</v>
       </c>
+      <c r="E152" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F152" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G152" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H152" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="I152" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J152" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
+      </c>
+      <c r="K152" s="6">
+        <v>40</v>
+      </c>
+      <c r="L152" s="6">
+        <v>2</v>
       </c>
       <c r="M152" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N152" s="8" t="s">
         <v>52</v>
       </c>
       <c r="O152" s="27"/>
       <c r="P152" s="35" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="153" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="153" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A153" s="28">
-        <v>1313</v>
+        <v>1304</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="C153" s="28" t="s">
         <v>2</v>
@@ -11138,30 +11201,18 @@
       <c r="D153" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="E153" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="F153" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="G153" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="H153" s="28" t="s">
-        <v>18</v>
-      </c>
+      <c r="E153" s="28"/>
+      <c r="F153" s="28"/>
+      <c r="G153" s="28"/>
+      <c r="H153" s="28"/>
       <c r="I153" s="28" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J153" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="K153" s="28">
-        <v>30</v>
-      </c>
-      <c r="L153" s="28">
-        <v>1</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="K153" s="28"/>
+      <c r="L153" s="28"/>
       <c r="M153" s="28">
         <v>0</v>
       </c>
@@ -11170,30 +11221,30 @@
       </c>
       <c r="O153" s="28"/>
       <c r="P153" s="35" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="154" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="154" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A154" s="30">
-        <v>1342</v>
+        <v>1313</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="C154" s="30" t="s">
         <v>2</v>
       </c>
       <c r="D154" s="30" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="E154" s="30" t="s">
         <v>10</v>
       </c>
       <c r="F154" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="G154" s="30" t="s">
         <v>7</v>
-      </c>
-      <c r="G154" s="30" t="s">
-        <v>8</v>
       </c>
       <c r="H154" s="30" t="s">
         <v>18</v>
@@ -11218,30 +11269,30 @@
       </c>
       <c r="O154" s="30"/>
       <c r="P154" s="35" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="155" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="155" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A155" s="25">
-        <v>1365</v>
+        <v>1342</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="C155" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D155" s="13" t="s">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="E155" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F155" s="4" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="G155" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H155" s="4" t="s">
         <v>18</v>
@@ -11253,7 +11304,7 @@
         <v>51</v>
       </c>
       <c r="K155" s="6">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="L155" s="6">
         <v>1</v>
@@ -11266,15 +11317,15 @@
       </c>
       <c r="O155" s="27"/>
       <c r="P155" s="35" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="156" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="156" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A156" s="25">
-        <v>1389</v>
+        <v>1365</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>120</v>
+        <v>88</v>
       </c>
       <c r="C156" s="4" t="s">
         <v>2</v>
@@ -11301,7 +11352,7 @@
         <v>51</v>
       </c>
       <c r="K156" s="6">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="L156" s="6">
         <v>1</v>
@@ -11314,15 +11365,15 @@
       </c>
       <c r="O156" s="27"/>
       <c r="P156" s="35" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="157" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="157" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A157" s="25">
-        <v>1431</v>
+        <v>1389</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>87</v>
+        <v>120</v>
       </c>
       <c r="C157" s="4" t="s">
         <v>2</v>
@@ -11334,7 +11385,7 @@
         <v>10</v>
       </c>
       <c r="F157" s="4" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="G157" s="4" t="s">
         <v>7</v>
@@ -11349,7 +11400,7 @@
         <v>51</v>
       </c>
       <c r="K157" s="6">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="L157" s="6">
         <v>1</v>
@@ -11362,21 +11413,21 @@
       </c>
       <c r="O157" s="27"/>
       <c r="P157" s="35" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="158" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="158" spans="1:16" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A158" s="31">
-        <v>1441</v>
+        <v>1431</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>247</v>
+        <v>87</v>
       </c>
       <c r="C158" s="31" t="s">
         <v>2</v>
       </c>
       <c r="D158" s="31" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E158" s="31" t="s">
         <v>10</v>
@@ -11385,10 +11436,10 @@
         <v>7</v>
       </c>
       <c r="G158" s="31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H158" s="31" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I158" s="31" t="s">
         <v>51</v>
@@ -11410,21 +11461,21 @@
       </c>
       <c r="O158" s="31"/>
       <c r="P158" s="35" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
     </row>
     <row r="159" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A159" s="32">
-        <v>1450</v>
+        <v>1441</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>123</v>
+        <v>247</v>
       </c>
       <c r="C159" s="32" t="s">
         <v>2</v>
       </c>
       <c r="D159" s="32" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E159" s="32" t="s">
         <v>10</v>
@@ -11436,7 +11487,7 @@
         <v>8</v>
       </c>
       <c r="H159" s="32" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I159" s="32" t="s">
         <v>51</v>
@@ -11445,7 +11496,7 @@
         <v>51</v>
       </c>
       <c r="K159" s="32">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="L159" s="32">
         <v>1</v>
@@ -11458,15 +11509,15 @@
       </c>
       <c r="O159" s="32"/>
       <c r="P159" s="35" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="160" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="160" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A160" s="25">
-        <v>1464</v>
+        <v>1450</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C160" s="4" t="s">
         <v>2</v>
@@ -11505,15 +11556,15 @@
         <v>52</v>
       </c>
       <c r="P160" s="35" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="161" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="161" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A161" s="33">
-        <v>1470</v>
+        <v>1464</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>86</v>
+        <v>125</v>
       </c>
       <c r="C161" s="33" t="s">
         <v>2</v>
@@ -11528,7 +11579,7 @@
         <v>7</v>
       </c>
       <c r="G161" s="33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H161" s="33" t="s">
         <v>18</v>
@@ -11537,31 +11588,31 @@
         <v>51</v>
       </c>
       <c r="J161" s="33" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K161" s="33">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="L161" s="33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M161" s="33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N161" s="33" t="s">
         <v>52</v>
       </c>
       <c r="O161" s="33"/>
       <c r="P161" s="35" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="162" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A162" s="34">
-        <v>1475</v>
+        <v>1470</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>128</v>
+        <v>86</v>
       </c>
       <c r="C162" s="34" t="s">
         <v>2</v>
@@ -11573,10 +11624,10 @@
         <v>10</v>
       </c>
       <c r="F162" s="34" t="s">
-        <v>114</v>
+        <v>7</v>
       </c>
       <c r="G162" s="34" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H162" s="34" t="s">
         <v>18</v>
@@ -11585,10 +11636,10 @@
         <v>51</v>
       </c>
       <c r="J162" s="34" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K162" s="34">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="L162" s="34">
         <v>2</v>
@@ -11601,15 +11652,15 @@
       </c>
       <c r="O162" s="34"/>
       <c r="P162" s="35" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="163" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="163" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A163" s="25">
-        <v>1480</v>
+        <v>1475</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>85</v>
+        <v>128</v>
       </c>
       <c r="C163" s="4" t="s">
         <v>2</v>
@@ -11621,13 +11672,13 @@
         <v>10</v>
       </c>
       <c r="F163" s="4" t="s">
-        <v>7</v>
+        <v>114</v>
       </c>
       <c r="G163" s="4" t="s">
         <v>8</v>
       </c>
       <c r="H163" s="4" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I163" s="6" t="s">
         <v>51</v>
@@ -11636,7 +11687,7 @@
         <v>51</v>
       </c>
       <c r="K163" s="6">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L163" s="6">
         <v>2</v>
@@ -11645,24 +11696,24 @@
         <v>1</v>
       </c>
       <c r="N163" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P163" s="35" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="164" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="164" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A164" s="41">
-        <v>1512</v>
+        <v>1480</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="C164" s="41" t="s">
         <v>2</v>
       </c>
       <c r="D164" s="41" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E164" s="41" t="s">
         <v>10</v>
@@ -11671,10 +11722,10 @@
         <v>7</v>
       </c>
       <c r="G164" s="41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H164" s="41" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="I164" s="41" t="s">
         <v>51</v>
@@ -11683,7 +11734,7 @@
         <v>51</v>
       </c>
       <c r="K164" s="41">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="L164" s="41">
         <v>2</v>
@@ -11692,135 +11743,142 @@
         <v>1</v>
       </c>
       <c r="N164" s="41" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O164" s="41"/>
       <c r="P164" s="35" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="165" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="165" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A165" s="25">
-        <v>1544</v>
+        <v>1512</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>251</v>
+        <v>36</v>
       </c>
       <c r="C165" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D165" s="13" t="s">
-        <v>79</v>
+        <v>66</v>
+      </c>
+      <c r="E165" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F165" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G165" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H165" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="I165" s="6" t="s">
         <v>51</v>
       </c>
       <c r="J165" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K165" s="6">
-        <v>60</v>
+        <v>50</v>
+      </c>
+      <c r="L165" s="6">
+        <v>2</v>
+      </c>
+      <c r="M165" s="8">
+        <v>1</v>
       </c>
       <c r="N165" s="8" t="s">
         <v>52</v>
       </c>
       <c r="P165" s="35" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="166" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A166" s="42">
+        <v>1544</v>
+      </c>
+      <c r="B166" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="C166" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="D166" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="E166" s="42"/>
+      <c r="F166" s="42"/>
+      <c r="G166" s="42"/>
+      <c r="H166" s="42"/>
+      <c r="I166" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="J166" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="K166" s="42">
+        <v>60</v>
+      </c>
+      <c r="L166" s="42"/>
+      <c r="M166" s="42"/>
+      <c r="N166" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="O166" s="42"/>
+      <c r="P166" s="35" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="166" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A166" s="16">
+    <row r="167" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A167" s="16">
         <v>1588</v>
       </c>
-      <c r="B166" s="15" t="s">
+      <c r="B167" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="C166" s="16" t="s">
+      <c r="C167" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D166" s="16" t="s">
+      <c r="D167" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="E166" s="16"/>
-      <c r="F166" s="16"/>
-      <c r="G166" s="16"/>
-      <c r="H166" s="16"/>
-      <c r="I166" s="16" t="s">
+      <c r="E167" s="16"/>
+      <c r="F167" s="16"/>
+      <c r="G167" s="16"/>
+      <c r="H167" s="16"/>
+      <c r="I167" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="J166" s="16" t="s">
+      <c r="J167" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="K166" s="16"/>
-      <c r="L166" s="16"/>
-      <c r="M166" s="16"/>
-      <c r="N166" s="16" t="s">
+      <c r="K167" s="16"/>
+      <c r="L167" s="16"/>
+      <c r="M167" s="16"/>
+      <c r="N167" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="O166" s="16"/>
-      <c r="P166" s="40" t="s">
+      <c r="O167" s="16"/>
+      <c r="P167" s="40" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="167" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A167" s="25">
+    <row r="168" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A168" s="25">
         <v>1598</v>
       </c>
-      <c r="B167" s="5" t="s">
+      <c r="B168" s="5" t="s">
         <v>248</v>
-      </c>
-      <c r="C167" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D167" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="E167" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F167" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G167" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H167" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="I167" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="J167" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="K167" s="6">
-        <v>20</v>
-      </c>
-      <c r="L167" s="6">
-        <v>1</v>
-      </c>
-      <c r="M167" s="8">
-        <v>0</v>
-      </c>
-      <c r="N167" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="P167" s="35" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="168" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A168" s="25">
-        <v>1662</v>
-      </c>
-      <c r="B168" s="5" t="s">
-        <v>116</v>
       </c>
       <c r="C168" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D168" s="13" t="s">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="E168" s="4" t="s">
         <v>10</v>
@@ -11832,7 +11890,7 @@
         <v>8</v>
       </c>
       <c r="H168" s="4" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I168" s="6" t="s">
         <v>51</v>
@@ -11841,7 +11899,7 @@
         <v>51</v>
       </c>
       <c r="K168" s="6">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="L168" s="6">
         <v>1</v>
@@ -11853,27 +11911,27 @@
         <v>52</v>
       </c>
       <c r="P168" s="35" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="169" spans="1:16" ht="72" x14ac:dyDescent="0.3">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="169" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A169" s="25">
-        <v>1669</v>
+        <v>1662</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>241</v>
+        <v>116</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>141</v>
+        <v>2</v>
       </c>
       <c r="D169" s="13" t="s">
-        <v>25</v>
+        <v>113</v>
       </c>
       <c r="E169" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F169" s="4" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="G169" s="4" t="s">
         <v>8</v>
@@ -11888,7 +11946,7 @@
         <v>51</v>
       </c>
       <c r="K169" s="6">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="L169" s="6">
         <v>1</v>
@@ -11900,27 +11958,27 @@
         <v>52</v>
       </c>
       <c r="P169" s="35" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="170" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="170" spans="1:16" ht="72" x14ac:dyDescent="0.3">
       <c r="A170" s="25">
-        <v>1672</v>
+        <v>1669</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>110</v>
+        <v>241</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>2</v>
+        <v>141</v>
       </c>
       <c r="D170" s="13" t="s">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="E170" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F170" s="4" t="s">
-        <v>111</v>
+        <v>22</v>
       </c>
       <c r="G170" s="4" t="s">
         <v>8</v>
@@ -11935,7 +11993,7 @@
         <v>51</v>
       </c>
       <c r="K170" s="6">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="L170" s="6">
         <v>1</v>
@@ -11947,30 +12005,30 @@
         <v>52</v>
       </c>
       <c r="P170" s="35" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
     </row>
     <row r="171" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A171" s="25">
-        <v>1674</v>
+        <v>1672</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C171" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D171" s="13" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="E171" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F171" s="4" t="s">
-        <v>7</v>
+        <v>111</v>
       </c>
       <c r="G171" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H171" s="4" t="s">
         <v>18</v>
@@ -11979,10 +12037,10 @@
         <v>51</v>
       </c>
       <c r="J171" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K171" s="6">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="L171" s="6">
         <v>1</v>
@@ -11994,27 +12052,27 @@
         <v>52</v>
       </c>
       <c r="P171" s="35" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="172" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A172" s="25">
-        <v>1684</v>
+        <v>1674</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C172" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D172" s="13" t="s">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="E172" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F172" s="4" t="s">
-        <v>114</v>
+        <v>7</v>
       </c>
       <c r="G172" s="4" t="s">
         <v>7</v>
@@ -12026,10 +12084,10 @@
         <v>51</v>
       </c>
       <c r="J172" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K172" s="6">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="L172" s="6">
         <v>1</v>
@@ -12041,30 +12099,30 @@
         <v>52</v>
       </c>
       <c r="P172" s="35" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="173" spans="1:16" ht="115.2" x14ac:dyDescent="0.3">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="173" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A173" s="25">
-        <v>1721</v>
+        <v>1684</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>316</v>
+        <v>112</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>141</v>
+        <v>2</v>
       </c>
       <c r="D173" s="13" t="s">
-        <v>25</v>
+        <v>113</v>
       </c>
       <c r="E173" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F173" s="4" t="s">
-        <v>48</v>
+        <v>114</v>
       </c>
       <c r="G173" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H173" s="4" t="s">
         <v>18</v>
@@ -12076,7 +12134,7 @@
         <v>51</v>
       </c>
       <c r="K173" s="6">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="L173" s="6">
         <v>1</v>
@@ -12088,30 +12146,30 @@
         <v>52</v>
       </c>
       <c r="P173" s="35" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="174" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="174" spans="1:16" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A174" s="25">
-        <v>414</v>
+        <v>1721</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>2</v>
+        <v>141</v>
       </c>
       <c r="D174" s="13" t="s">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="E174" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F174" s="4" t="s">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="G174" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H174" s="4" t="s">
         <v>18</v>
@@ -12123,7 +12181,7 @@
         <v>51</v>
       </c>
       <c r="K174" s="6">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="L174" s="6">
         <v>1</v>
@@ -12135,13 +12193,13 @@
         <v>52</v>
       </c>
       <c r="P174" s="35" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A8:P174" xr:uid="{57